--- a/TOTP.xlsx
+++ b/TOTP.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\工程文件\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0730343C-48D6-482D-9723-4AFA59427990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5457B-0E5E-422F-B8FE-D763E1B33E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="382" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTP" sheetId="2" r:id="rId1"/>
-    <sheet name="SHA1_Calculation" sheetId="1" r:id="rId2"/>
+    <sheet name="About" sheetId="3" r:id="rId2"/>
+    <sheet name="SHA1_Calculation" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOTP!$A$5:$C$6</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="146">
   <si>
     <t>Select Item</t>
   </si>
@@ -508,6 +509,34 @@
     <t>Test: demo@gmail.com</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Enter "OK"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>About &amp; Security Notice</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTP updates every few seconds, but Excel won't update TOTP automatically. Update any cell to refresh the code.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember to properly configure cells filled with blue background to generate correct TOTP code.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid access cells filled with black background. It contains sensitive info and computation steps (incl your keys)!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>This Excel sheet is built by Github: SS2867, with the help of Qwen3-235B-A22B and DeepSeek R1 ;)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -516,7 +545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +623,28 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -871,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -959,15 +1010,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -978,11 +1020,69 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -1278,79 +1378,79 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19" style="23" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" style="23" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="23"/>
     <col min="3" max="3" width="11.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" style="23" customWidth="1"/>
     <col min="5" max="6" width="8.6640625" style="23"/>
     <col min="7" max="7" width="8.83203125" style="23" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="59">
+      <c r="A1" s="56">
         <f ca="1">NOW()</f>
-        <v>45954.095157291667</v>
-      </c>
-      <c r="B1" s="50" t="str">
+        <v>45954.111377199071</v>
+      </c>
+      <c r="B1" s="47" t="str">
         <f ca="1">DEC2HEX(INT(A2/_xlfn.XLOOKUP($A$4,$A$6:$A$205,$B$6:$B$205,30)))</f>
-        <v>37FD092</v>
-      </c>
-      <c r="C1" s="50" t="str">
+        <v>37FD0C0</v>
+      </c>
+      <c r="C1" s="47" t="str">
         <f>_xlfn.XLOOKUP($A$4,$A$6:$A$205,$D$6:$D$205,AAAA)</f>
         <v>ABCDEFGHIJKLMNOPQRSTUVWXYZ234567</v>
       </c>
-      <c r="D1" s="51" t="str" cm="1">
+      <c r="D1" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="D1" ca="1">_xlfn.TEXTJOIN("", TRUE, DEC2HEX(BIN2DEC(MID(C2, _xlfn.SEQUENCE(LEN(C2)/4, 1, 1, 4), 4))))</f>
         <v>00443214C74254B635CF84653A56D7C675BE77DF</v>
       </c>
-      <c r="E1" s="52" t="str" cm="1">
+      <c r="E1" s="49" t="str" cm="1">
         <f t="array" aca="1" ref="E1" ca="1" xml:space="preserve"> _xlfn.TEXTJOIN("", TRUE, _xlfn.MAP(_xlfn.SEQUENCE(64), _xlfn.LAMBDA(_xlpm.i, DEC2HEX(_xlfn.BITXOR(HEX2DEC(MID(D2, 2*(_xlpm.i-1)+1, 2)), HEX2DEC("36")), 2))))</f>
         <v>36720422F174628003F9B2530C60E1F0438841E93636363636363636363636363636363636363636363636363636363636363636363636363636363636363636</v>
       </c>
-      <c r="F1" s="52" t="str">
+      <c r="F1" s="49" t="str">
         <f ca="1" xml:space="preserve"> E1 &amp; B2</f>
-        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FD092</v>
-      </c>
-      <c r="G1" s="53" t="str">
+        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FD0C0</v>
+      </c>
+      <c r="G1" s="50" t="str">
         <f ca="1">SHA1_Calculation!A12</f>
-        <v>9ABE485CFC82A330BB100F7FA6AF85D07BFF4A4E</v>
+        <v>D2FB55FD33B36CF7B2AA6588DE8FEB51457E3226</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="24">
         <f ca="1">(NOW()-DATE(1970,1,1))*86400-B4*3600</f>
-        <v>1761243421.5900002</v>
-      </c>
-      <c r="B2" s="54" t="str">
+        <v>1761244822.9899998</v>
+      </c>
+      <c r="B2" s="51" t="str">
         <f ca="1">REPT("0",16-LEN(B1))&amp;B1</f>
-        <v>00000000037FD092</v>
-      </c>
-      <c r="C2" s="54" t="str" cm="1">
+        <v>00000000037FD0C0</v>
+      </c>
+      <c r="C2" s="51" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP((MID(C1,ROW(INDIRECT("1:"&amp;LEN(C1))),1)),H5:H36,I5:I36))</f>
         <v>0000000001000100001100100001010011000111010000100101010010110110001101011100111110000100011001010011101001010110110101111100011001110101101111100111011111011111</v>
       </c>
-      <c r="D2" s="55" t="str">
+      <c r="D2" s="52" t="str">
         <f ca="1">D1 &amp; REPT("00", 64 - LEN(D1)/2)</f>
         <v>00443214C74254B635CF84653A56D7C675BE77DF0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E2" s="56" t="str" cm="1">
+      <c r="E2" s="53" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.TEXTJOIN("", TRUE, _xlfn.MAP(_xlfn.SEQUENCE(64), _xlfn.LAMBDA(_xlpm.i, DEC2HEX(_xlfn.BITXOR(HEX2DEC(MID(D2, 2*(_xlpm.i-1)+1, 2)), HEX2DEC("5C")), 2))))</f>
         <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C</v>
       </c>
-      <c r="F2" s="56" t="str">
+      <c r="F2" s="53" t="str">
         <f ca="1" xml:space="preserve"> E2 &amp; G1</f>
-        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C9ABE485CFC82A330BB100F7FA6AF85D07BFF4A4E</v>
-      </c>
-      <c r="G2" s="53" t="str">
+        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5CD2FB55FD33B36CF7B2AA6588DE8FEB51457E3226</v>
+      </c>
+      <c r="G2" s="50" t="str">
         <f ca="1">SHA1_Calculation!A112</f>
-        <v>74C91FAAE15A6BB94C48814798333A7D65729A48</v>
+        <v>A1090B8A7378478BA86CFB4DAEBA2B510267B540</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.5">
@@ -1360,13 +1460,13 @@
       <c r="B3" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="54">
         <f ca="1" xml:space="preserve"> _xlfn.BITAND(HEX2DEC(RIGHT(G2, 2)), 15)* 2 + 1</f>
-        <v>17</v>
-      </c>
-      <c r="D3" s="58">
+        <v>1</v>
+      </c>
+      <c r="D3" s="55">
         <f ca="1">MOD( _xlfn.BITAND( HEX2DEC(MID(G2, C3, 8)), HEX2DEC("7FFFFFFF")), POWER(10,_xlfn.XLOOKUP($A$4,$A$6:$A$205,$C$6:$C$205,6)))</f>
-        <v>820103</v>
+        <v>240906</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1379,9 +1479,9 @@
       <c r="C4" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="49">
-        <f ca="1">D3</f>
-        <v>820103</v>
+      <c r="D4" s="62" t="str">
+        <f>IF(AND(About!B2="OK", About!B3="OK", About!B4="OK", About!B5="OK"), D3, "Go to About sheet first")</f>
+        <v>Go to About sheet first</v>
       </c>
       <c r="I4" s="43"/>
     </row>
@@ -2939,10 +3039,10 @@
   <autoFilter ref="A5:C6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D6:D205">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>(ISBLANK(D6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2956,6 +3056,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73261110-0B73-4351-A039-DF9C2C67621F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A5">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>NOT(B2="OK")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC196"/>
@@ -2979,11 +3141,11 @@
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="str">
         <f ca="1">TOTP!F1</f>
-        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FD092</v>
+        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FD0C0</v>
       </c>
       <c r="B1" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">_xlfn.TEXTJOIN("", TRUE, DEC2BIN(HEX2DEC(MID(UPPER(A1), ROW(INDIRECT("1:" &amp; LEN(A1))), 1)), 4))</f>
-        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101000010010010</v>
+        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101000011000000</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>32</v>
@@ -3055,7 +3217,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">B1&amp;"1"&amp;REPT("0",J1)</f>
-        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101000010010010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101000011000000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"...("&amp;LEN(B2)&amp;")"</f>
@@ -3183,7 +3345,7 @@
       </c>
       <c r="B8" t="str">
         <f ca="1">B2&amp;B7</f>
-        <v>0011011001110010000001000010001011110001011101000110001010000000000000111111100110110010010100110000110001100000111000011111000001000011100010000100000111101001001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000000000000000000000000000000000000000110111111111010000100100101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
+        <v>0011011001110010000001000010001011110001011101000110001010000000000000111111100110110010010100110000110001100000111000011111000001000011100010000100000111101001001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000000000000000000000000000000000000000110111111111010000110000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
       </c>
       <c r="E8" t="str">
         <f ca="1">"...("&amp;LEN(B8)&amp;")"</f>
@@ -3209,7 +3371,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f ca="1">IF($F$1=1,J96,Y96)</f>
-        <v>9ABE485CFC82A330BB100F7FA6AF85D07BFF4A4E</v>
+        <v>D2FB55FD33B36CF7B2AA6588DE8FEB51457E3226</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -3246,7 +3408,7 @@
       </c>
       <c r="Q13" s="5" t="str">
         <f ca="1">MID(B8,513,512)</f>
-        <v>00000000000000000000000000000000000000110111111111010000100100101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
+        <v>00000000000000000000000000000000000000110111111111010000110000001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" t="str">
@@ -3498,15 +3660,15 @@
       </c>
       <c r="Q16" t="str">
         <f t="shared" ref="Q16:Q30" ca="1" si="15">MID($Q$13,32*(U16-1)+1,32)</f>
-        <v>00000011011111111101000010010010</v>
+        <v>00000011011111111101000011000000</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" ref="R16:R30" ca="1" si="16">TEXT(BIN2HEX(MID(Q16,1,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q16,9,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q16,17,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q16,25,8),2),"00")</f>
-        <v>037FD092</v>
+        <v>037FD0C0</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>037FD092</v>
+        <v>037FD0C0</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -3520,11 +3682,11 @@
       </c>
       <c r="X16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B7CEF617</v>
+        <v>B7CEF645</v>
       </c>
       <c r="Y16" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B7CEF617</v>
+        <v>B7CEF645</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" ref="Z16:AC16" ca="1" si="17">Y15</f>
@@ -3614,15 +3776,15 @@
       </c>
       <c r="X17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FBF71408</v>
+        <v>FBF719C8</v>
       </c>
       <c r="Y17" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>FBF71408</v>
+        <v>FBF719C8</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" ref="Z17:AC17" ca="1" si="18">Y16</f>
-        <v>B7CEF617</v>
+        <v>B7CEF645</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3704,23 +3866,23 @@
       </c>
       <c r="W18" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>596719F5</v>
+        <v>596719A7</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B574488A</v>
+        <v>B575003C</v>
       </c>
       <c r="Y18" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B574488A</v>
+        <v>B575003C</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" ref="Z18:AC18" ca="1" si="19">Y17</f>
-        <v>FBF71408</v>
+        <v>FBF719C8</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>EDF3BD85</v>
+        <v>6DF3BD91</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -3798,27 +3960,27 @@
       </c>
       <c r="W19" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E9F31C35</v>
+        <v>69F319B5</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4D1FE70B</v>
+        <v>CD36DACB</v>
       </c>
       <c r="Y19" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4D1FE70B</v>
+        <v>CD36DACB</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" ref="Z19:AC19" ca="1" si="20">Y18</f>
-        <v>B574488A</v>
+        <v>B575003C</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>3EFDC502</v>
+        <v>3EFDC672</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>EDF3BD85</v>
+        <v>6DF3BD91</v>
       </c>
       <c r="AC19" s="19" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -3892,31 +4054,31 @@
       </c>
       <c r="W20" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7CF7F507</v>
+        <v>7CF7BDB1</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>94ED683E</v>
+        <v>97CBA8F8</v>
       </c>
       <c r="Y20" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94ED683E</v>
+        <v>97CBA8F8</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" ref="Z20:AC20" ca="1" si="21">Y19</f>
-        <v>4D1FE70B</v>
+        <v>CD36DACB</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>AD5D1222</v>
+        <v>2D5D400F</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>3EFDC502</v>
+        <v>3EFDC672</v>
       </c>
       <c r="AC20" s="19" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>EDF3BD85</v>
+        <v>6DF3BD91</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.3">
@@ -3986,31 +4148,31 @@
       </c>
       <c r="W21" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3FFD0202</v>
+        <v>3FDD443B</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>262040F2</v>
+        <v>01C89A77</v>
       </c>
       <c r="Y21" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>262040F2</v>
+        <v>01C89A77</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" ref="Z21:AC21" ca="1" si="22">Y20</f>
-        <v>94ED683E</v>
+        <v>97CBA8F8</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D347F9C2</v>
+        <v>F34DB6B2</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>AD5D1222</v>
+        <v>2D5D400F</v>
       </c>
       <c r="AC21" s="19" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>3EFDC502</v>
+        <v>3EFDC672</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.3">
@@ -4080,31 +4242,31 @@
       </c>
       <c r="W22" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B9557A02</v>
+        <v>BB5DE0B7</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>16DDD6E1</v>
+        <v>8DF16FA2</v>
       </c>
       <c r="Y22" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>16DDD6E1</v>
+        <v>8DF16FA2</v>
       </c>
       <c r="Z22" t="str">
         <f t="shared" ref="Z22:AC22" ca="1" si="23">Y21</f>
-        <v>262040F2</v>
+        <v>01C89A77</v>
       </c>
       <c r="AA22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A53B5A0F</v>
+        <v>25F2EA3E</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>D347F9C2</v>
+        <v>F34DB6B2</v>
       </c>
       <c r="AC22" s="19" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>AD5D1222</v>
+        <v>2D5D400F</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.3">
@@ -4174,31 +4336,31 @@
       </c>
       <c r="W23" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F567F902</v>
+        <v>F3C5AEB6</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D90260DF</v>
+        <v>39D35CAF</v>
       </c>
       <c r="Y23" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D90260DF</v>
+        <v>39D35CAF</v>
       </c>
       <c r="Z23" t="str">
         <f t="shared" ref="Z23:AC23" ca="1" si="24">Y22</f>
-        <v>16DDD6E1</v>
+        <v>8DF16FA2</v>
       </c>
       <c r="AA23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>8988103C</v>
+        <v>C072269D</v>
       </c>
       <c r="AB23" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>A53B5A0F</v>
+        <v>25F2EA3E</v>
       </c>
       <c r="AC23" s="19" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>D347F9C2</v>
+        <v>F34DB6B2</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
@@ -4268,31 +4430,31 @@
       </c>
       <c r="W24" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A1AA182E</v>
+        <v>A072A69C</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EFC0A784</v>
+        <v>28AE6CCE</v>
       </c>
       <c r="Y24" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>EFC0A784</v>
+        <v>28AE6CCE</v>
       </c>
       <c r="Z24" t="str">
         <f t="shared" ref="Z24:AC24" ca="1" si="25">Y23</f>
-        <v>D90260DF</v>
+        <v>39D35CAF</v>
       </c>
       <c r="AA24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>45B775B8</v>
+        <v>A37C5BE8</v>
       </c>
       <c r="AB24" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>8988103C</v>
+        <v>C072269D</v>
       </c>
       <c r="AC24" s="19" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>A53B5A0F</v>
+        <v>25F2EA3E</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
@@ -4362,31 +4524,31 @@
       </c>
       <c r="W25" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>418A70B8</v>
+        <v>E1707AB8</v>
       </c>
       <c r="X25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>395D34FD</v>
+        <v>77B37854</v>
       </c>
       <c r="Y25" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>395D34FD</v>
+        <v>77B37854</v>
       </c>
       <c r="Z25" t="str">
         <f t="shared" ref="Z25:AC25" ca="1" si="26">Y24</f>
-        <v>EFC0A784</v>
+        <v>28AE6CCE</v>
       </c>
       <c r="AA25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F6409837</v>
+        <v>CE74D72B</v>
       </c>
       <c r="AB25" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>45B775B8</v>
+        <v>A37C5BE8</v>
       </c>
       <c r="AC25" s="19" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>8988103C</v>
+        <v>C072269D</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.3">
@@ -4456,31 +4618,31 @@
       </c>
       <c r="W26" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E677D03C</v>
+        <v>8B74572A</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F628F9B8</v>
+        <v>9CD801EE</v>
       </c>
       <c r="Y26" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F628F9B8</v>
+        <v>9CD801EE</v>
       </c>
       <c r="Z26" t="str">
         <f t="shared" ref="Z26:AC26" ca="1" si="27">Y25</f>
-        <v>395D34FD</v>
+        <v>77B37854</v>
       </c>
       <c r="AA26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>3BF029E1</v>
+        <v>8A2B9B33</v>
       </c>
       <c r="AB26" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>F6409837</v>
+        <v>CE74D72B</v>
       </c>
       <c r="AC26" s="19" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>45B775B8</v>
+        <v>A37C5BE8</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.3">
@@ -4550,31 +4712,31 @@
       </c>
       <c r="W27" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FF50A8E3</v>
+        <v>8A679F3B</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>64A9CF52</v>
+        <v>2366B28F</v>
       </c>
       <c r="Y27" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>64A9CF52</v>
+        <v>2366B28F</v>
       </c>
       <c r="Z27" t="str">
         <f t="shared" ref="Z27:AC27" ca="1" si="28">Y26</f>
-        <v>F628F9B8</v>
+        <v>9CD801EE</v>
       </c>
       <c r="AA27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>4E574D3F</v>
+        <v>1DECDE15</v>
       </c>
       <c r="AB27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>3BF029E1</v>
+        <v>8A2B9B33</v>
       </c>
       <c r="AC27" s="19" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>F6409837</v>
+        <v>CE74D72B</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.3">
@@ -4644,31 +4806,31 @@
       </c>
       <c r="W28" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>4FD04979</v>
+        <v>1EEB9A15</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>35CD4595</v>
+        <v>B4B93CBD</v>
       </c>
       <c r="Y28" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>35CD4595</v>
+        <v>B4B93CBD</v>
       </c>
       <c r="Z28" t="str">
         <f t="shared" ref="Z28:AC28" ca="1" si="29">Y27</f>
-        <v>64A9CF52</v>
+        <v>2366B28F</v>
       </c>
       <c r="AA28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>3D8A3E6E</v>
+        <v>A736007B</v>
       </c>
       <c r="AB28" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>4E574D3F</v>
+        <v>1DECDE15</v>
       </c>
       <c r="AC28" s="19" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>3BF029E1</v>
+        <v>8A2B9B33</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -4738,31 +4900,31 @@
       </c>
       <c r="W29" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2EDE0E6F</v>
+        <v>3FAE4C1B</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7EF9648F</v>
+        <v>BB83F89D</v>
       </c>
       <c r="Y29" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>7EF9648F</v>
+        <v>BB83F89D</v>
       </c>
       <c r="Z29" t="str">
         <f t="shared" ref="Z29:AC29" ca="1" si="30">Y28</f>
-        <v>35CD4595</v>
+        <v>B4B93CBD</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>992A73D4</v>
+        <v>C8D9ACA3</v>
       </c>
       <c r="AB29" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>3D8A3E6E</v>
+        <v>A736007B</v>
       </c>
       <c r="AC29" s="19" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>4E574D3F</v>
+        <v>1DECDE15</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
@@ -4832,35 +4994,35 @@
       </c>
       <c r="W30" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>190A7BFE</v>
+        <v>839F2CE3</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A110D705</v>
+        <v>6C8D9A88</v>
       </c>
       <c r="Y30" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A110D705</v>
+        <v>6C8D9A88</v>
       </c>
       <c r="Z30" t="str">
         <f t="shared" ref="Z30:AC30" ca="1" si="31">Y29</f>
-        <v>7EF9648F</v>
+        <v>BB83F89D</v>
       </c>
       <c r="AA30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>4D735165</v>
+        <v>6D2E4F2F</v>
       </c>
       <c r="AB30" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>992A73D4</v>
+        <v>C8D9ACA3</v>
       </c>
       <c r="AC30" s="19" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>3D8A3E6E</v>
+        <v>A736007B</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="57" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="11" t="str">
@@ -4905,7 +5067,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>5489DBC4</v>
       </c>
-      <c r="Q31" s="47" t="s">
+      <c r="Q31" s="57" t="s">
         <v>63</v>
       </c>
       <c r="R31" s="11" t="str">
@@ -4924,35 +5086,35 @@
       </c>
       <c r="W31" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CD735355</v>
+        <v>695A4C2F</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>879AEC11</v>
+        <v>FCC61751</v>
       </c>
       <c r="Y31" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>879AEC11</v>
+        <v>FCC61751</v>
       </c>
       <c r="Z31" t="str">
         <f t="shared" ref="Z31:AC31" ca="1" si="34">Y30</f>
-        <v>A110D705</v>
+        <v>6C8D9A88</v>
       </c>
       <c r="AA31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>DFBE5923</v>
+        <v>6EE0FE27</v>
       </c>
       <c r="AB31" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>4D735165</v>
+        <v>6D2E4F2F</v>
       </c>
       <c r="AC31" s="19" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>992A73D4</v>
+        <v>C8D9ACA3</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
+      <c r="B32" s="58"/>
       <c r="C32" t="str">
         <f ca="1">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D29),HEX2DEC(D24)),_xlfn.BITXOR(HEX2DEC(D18),HEX2DEC(D16))),8)</f>
         <v>FD148370</v>
@@ -4995,14 +5157,14 @@
         <f t="shared" ca="1" si="14"/>
         <v>2C903AA8</v>
       </c>
-      <c r="Q32" s="48"/>
+      <c r="Q32" s="58"/>
       <c r="R32" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>037FD092</v>
+        <v>037FD0C0</v>
       </c>
       <c r="S32" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>06FFA124</v>
+        <v>06FFA180</v>
       </c>
       <c r="U32">
         <v>18</v>
@@ -5012,35 +5174,35 @@
       </c>
       <c r="W32" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CD735161</v>
+        <v>6DA2DF27</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BB7D6222</v>
+        <v>30C19122</v>
       </c>
       <c r="Y32" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>BB7D6222</v>
+        <v>30C19122</v>
       </c>
       <c r="Z32" t="str">
         <f t="shared" ref="Z32:AC32" ca="1" si="35">Y31</f>
-        <v>879AEC11</v>
+        <v>FCC61751</v>
       </c>
       <c r="AA32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>684435C1</v>
+        <v>1B2366A2</v>
       </c>
       <c r="AB32" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>DFBE5923</v>
+        <v>6EE0FE27</v>
       </c>
       <c r="AC32" s="19" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>4D735165</v>
+        <v>6D2E4F2F</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B33" s="48"/>
+      <c r="B33" s="58"/>
       <c r="C33" t="str">
         <f t="shared" ref="C33:C94" ca="1" si="36">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D30),HEX2DEC(D25)),_xlfn.BITXOR(HEX2DEC(D19),HEX2DEC(D17))),8)</f>
         <v>4071F3BA</v>
@@ -5083,7 +5245,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>FFD8EFDC</v>
       </c>
-      <c r="Q33" s="48"/>
+      <c r="Q33" s="58"/>
       <c r="R33" t="str">
         <f t="shared" ca="1" si="32"/>
         <v>80000240</v>
@@ -5100,35 +5262,35 @@
       </c>
       <c r="W33" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>58243523</v>
+        <v>1A22EE26</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6FC648F9</v>
+        <v>FA05DFB5</v>
       </c>
       <c r="Y33" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6FC648F9</v>
+        <v>FA05DFB5</v>
       </c>
       <c r="Z33" t="str">
         <f t="shared" ref="Z33:AC33" ca="1" si="38">Y32</f>
-        <v>BB7D6222</v>
+        <v>30C19122</v>
       </c>
       <c r="AA33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>61E6BB04</v>
+        <v>7F3185D4</v>
       </c>
       <c r="AB33" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>684435C1</v>
+        <v>1B2366A2</v>
       </c>
       <c r="AC33" s="19" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>DFBE5923</v>
+        <v>6EE0FE27</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B34" s="48"/>
+      <c r="B34" s="58"/>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="36"/>
         <v>67778D12</v>
@@ -5171,7 +5333,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>0B9EB322</v>
       </c>
-      <c r="Q34" s="48"/>
+      <c r="Q34" s="58"/>
       <c r="R34" t="str">
         <f t="shared" ca="1" si="32"/>
         <v>00000001</v>
@@ -5188,31 +5350,31 @@
       </c>
       <c r="W34" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>616437C1</v>
+        <v>3B23E780</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>946E29AC</v>
+        <v>45435601</v>
       </c>
       <c r="Y34" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>946E29AC</v>
+        <v>45435601</v>
       </c>
       <c r="Z34" t="str">
         <f t="shared" ref="Z34:AC34" ca="1" si="39">Y33</f>
-        <v>6FC648F9</v>
+        <v>FA05DFB5</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>AEDF5888</v>
+        <v>8C306448</v>
       </c>
       <c r="AB34" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>61E6BB04</v>
+        <v>7F3185D4</v>
       </c>
       <c r="AC34" s="19" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>684435C1</v>
+        <v>1B2366A2</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.3">
@@ -5266,11 +5428,11 @@
       </c>
       <c r="R35" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>06FFA124</v>
+        <v>06FFA180</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>0DFF4248</v>
+        <v>0DFF4300</v>
       </c>
       <c r="U35">
         <v>21</v>
@@ -5280,31 +5442,31 @@
       </c>
       <c r="W35" s="7" t="str">
         <f t="shared" ref="W35:W54" ca="1" si="40">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z34),HEX2DEC(AA34)),HEX2DEC(AB34)),8)</f>
-        <v>A0FFAB75</v>
+        <v>09043E29</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>13E244B1</v>
+        <v>496B9394</v>
       </c>
       <c r="Y35" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>13E244B1</v>
+        <v>496B9394</v>
       </c>
       <c r="Z35" t="str">
         <f t="shared" ref="Z35:AC35" ca="1" si="41">Y34</f>
-        <v>946E29AC</v>
+        <v>45435601</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>5BF1923E</v>
+        <v>7E8177ED</v>
       </c>
       <c r="AB35" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>AEDF5888</v>
+        <v>8C306448</v>
       </c>
       <c r="AC35" s="19" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>61E6BB04</v>
+        <v>7F3185D4</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.3">
@@ -5372,31 +5534,31 @@
       </c>
       <c r="W36" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>6140E31A</v>
+        <v>B7F245A4</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AE4A28E3</v>
+        <v>D37032A4</v>
       </c>
       <c r="Y36" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>AE4A28E3</v>
+        <v>D37032A4</v>
       </c>
       <c r="Z36" t="str">
         <f t="shared" ref="Z36:AC36" ca="1" si="43">Y35</f>
-        <v>13E244B1</v>
+        <v>496B9394</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>251B8A6B</v>
+        <v>5150D580</v>
       </c>
       <c r="AB36" t="str">
         <f t="shared" ca="1" si="43"/>
-        <v>5BF1923E</v>
+        <v>7E8177ED</v>
       </c>
       <c r="AC36" s="19" t="str">
         <f t="shared" ca="1" si="43"/>
-        <v>AEDF5888</v>
+        <v>8C306448</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.3">
@@ -5464,31 +5626,31 @@
       </c>
       <c r="W37" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>6D085CE4</v>
+        <v>66BA31F9</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5406BD86</v>
+        <v>CFCAD680</v>
       </c>
       <c r="Y37" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5406BD86</v>
+        <v>CFCAD680</v>
       </c>
       <c r="Z37" t="str">
         <f t="shared" ref="Z37:AC37" ca="1" si="44">Y36</f>
-        <v>AE4A28E3</v>
+        <v>D37032A4</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>44F8912C</v>
+        <v>125AE4E5</v>
       </c>
       <c r="AB37" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>251B8A6B</v>
+        <v>5150D580</v>
       </c>
       <c r="AC37" s="19" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>5BF1923E</v>
+        <v>7E8177ED</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.3">
@@ -5542,11 +5704,11 @@
       </c>
       <c r="R38" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>0DFF4008</v>
+        <v>0DFF4140</v>
       </c>
       <c r="S38" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>1BFE8010</v>
+        <v>1BFE8280</v>
       </c>
       <c r="U38">
         <v>24</v>
@@ -5556,31 +5718,31 @@
       </c>
       <c r="W38" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>CFA933A4</v>
+        <v>907A03C1</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>374AE25D</v>
+        <v>932EB9E8</v>
       </c>
       <c r="Y38" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>374AE25D</v>
+        <v>932EB9E8</v>
       </c>
       <c r="Z38" t="str">
         <f t="shared" ref="Z38:AC38" ca="1" si="45">Y37</f>
-        <v>5406BD86</v>
+        <v>CFCAD680</v>
       </c>
       <c r="AA38" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>EB928A38</v>
+        <v>34DC0CA9</v>
       </c>
       <c r="AB38" t="str">
         <f t="shared" ca="1" si="45"/>
-        <v>44F8912C</v>
+        <v>125AE4E5</v>
       </c>
       <c r="AC38" s="19" t="str">
         <f t="shared" ca="1" si="45"/>
-        <v>251B8A6B</v>
+        <v>5150D580</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.3">
@@ -5648,31 +5810,31 @@
       </c>
       <c r="W39" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>FB6CA692</v>
+        <v>E94C3ECC</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>78BE7A4A</v>
+        <v>0F4E4F05</v>
       </c>
       <c r="Y39" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>78BE7A4A</v>
+        <v>0F4E4F05</v>
       </c>
       <c r="Z39" t="str">
         <f t="shared" ref="Z39:AC39" ca="1" si="46">Y38</f>
-        <v>374AE25D</v>
+        <v>932EB9E8</v>
       </c>
       <c r="AA39" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>9501AF61</v>
+        <v>33F2B5A0</v>
       </c>
       <c r="AB39" t="str">
         <f t="shared" ca="1" si="46"/>
-        <v>EB928A38</v>
+        <v>34DC0CA9</v>
       </c>
       <c r="AC39" s="19" t="str">
         <f t="shared" ca="1" si="46"/>
-        <v>44F8912C</v>
+        <v>125AE4E5</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.3">
@@ -5726,11 +5888,11 @@
       </c>
       <c r="R40" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>06FFA120</v>
+        <v>06FFA184</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>0DFF4240</v>
+        <v>0DFF4308</v>
       </c>
       <c r="U40">
         <v>26</v>
@@ -5740,31 +5902,31 @@
       </c>
       <c r="W40" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>49D9C704</v>
+        <v>940000E1</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>237ACF60</v>
+        <v>0CFDF510</v>
       </c>
       <c r="Y40" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>237ACF60</v>
+        <v>0CFDF510</v>
       </c>
       <c r="Z40" t="str">
         <f t="shared" ref="Z40:AC40" ca="1" si="47">Y39</f>
-        <v>78BE7A4A</v>
+        <v>0F4E4F05</v>
       </c>
       <c r="AA40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>4DD2B897</v>
+        <v>24CBAE7A</v>
       </c>
       <c r="AB40" t="str">
         <f t="shared" ca="1" si="47"/>
-        <v>9501AF61</v>
+        <v>33F2B5A0</v>
       </c>
       <c r="AC40" s="19" t="str">
         <f t="shared" ca="1" si="47"/>
-        <v>EB928A38</v>
+        <v>34DC0CA9</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.3">
@@ -5818,11 +5980,11 @@
       </c>
       <c r="R41" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1BFE8491</v>
+        <v>1BFE8601</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>37FD0922</v>
+        <v>37FD0C02</v>
       </c>
       <c r="U41">
         <v>27</v>
@@ -5832,31 +5994,31 @@
       </c>
       <c r="W41" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>A06D6DBC</v>
+        <v>187754DF</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A230D8BB</v>
+        <v>93E8FB2C</v>
       </c>
       <c r="Y41" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A230D8BB</v>
+        <v>93E8FB2C</v>
       </c>
       <c r="Z41" t="str">
         <f t="shared" ref="Z41:AC41" ca="1" si="48">Y40</f>
-        <v>237ACF60</v>
+        <v>0CFDF510</v>
       </c>
       <c r="AA41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>9E2F9E92</v>
+        <v>43D393C1</v>
       </c>
       <c r="AB41" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>4DD2B897</v>
+        <v>24CBAE7A</v>
       </c>
       <c r="AC41" s="19" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>9501AF61</v>
+        <v>33F2B5A0</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.3">
@@ -5924,31 +6086,31 @@
       </c>
       <c r="W42" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>F087E965</v>
+        <v>6BE5C8AB</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3A7EBFE3</v>
+        <v>8BD1F386</v>
       </c>
       <c r="Y42" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3A7EBFE3</v>
+        <v>8BD1F386</v>
       </c>
       <c r="Z42" t="str">
         <f t="shared" ref="Z42:AC42" ca="1" si="49">Y41</f>
-        <v>A230D8BB</v>
+        <v>93E8FB2C</v>
       </c>
       <c r="AA42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>08DEB3D8</v>
+        <v>033F7D44</v>
       </c>
       <c r="AB42" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>9E2F9E92</v>
+        <v>43D393C1</v>
       </c>
       <c r="AC42" s="19" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>4DD2B897</v>
+        <v>24CBAE7A</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.3">
@@ -6016,31 +6178,31 @@
       </c>
       <c r="W43" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>34C1F5F1</v>
+        <v>D30415A9</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>414696A0</v>
+        <v>E0E820A5</v>
       </c>
       <c r="Y43" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>414696A0</v>
+        <v>E0E820A5</v>
       </c>
       <c r="Z43" t="str">
         <f t="shared" ref="Z43:AC43" ca="1" si="50">Y42</f>
-        <v>3A7EBFE3</v>
+        <v>8BD1F386</v>
       </c>
       <c r="AA43" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>E88C362E</v>
+        <v>24FA3ECB</v>
       </c>
       <c r="AB43" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>08DEB3D8</v>
+        <v>033F7D44</v>
       </c>
       <c r="AC43" s="19" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>9E2F9E92</v>
+        <v>43D393C1</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.3">
@@ -6094,11 +6256,11 @@
       </c>
       <c r="R44" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>37FD0260</v>
+        <v>37FD0740</v>
       </c>
       <c r="S44" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>6FFA04C0</v>
+        <v>6FFA0E80</v>
       </c>
       <c r="U44">
         <v>30</v>
@@ -6108,31 +6270,31 @@
       </c>
       <c r="W44" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>DA2C3A15</v>
+        <v>AC14B009</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>80029D10</v>
+        <v>EBC052A7</v>
       </c>
       <c r="Y44" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>80029D10</v>
+        <v>EBC052A7</v>
       </c>
       <c r="Z44" t="str">
         <f t="shared" ref="Z44:AC44" ca="1" si="51">Y43</f>
-        <v>414696A0</v>
+        <v>E0E820A5</v>
       </c>
       <c r="AA44" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>CE9FAFF8</v>
+        <v>A2F47CE1</v>
       </c>
       <c r="AB44" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>E88C362E</v>
+        <v>24FA3ECB</v>
       </c>
       <c r="AC44" s="19" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>08DEB3D8</v>
+        <v>033F7D44</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.3">
@@ -6200,31 +6362,31 @@
       </c>
       <c r="W45" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>67550F76</v>
+        <v>66E6628F</v>
       </c>
       <c r="X45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DF619919</v>
+        <v>510A688B</v>
       </c>
       <c r="Y45" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DF619919</v>
+        <v>510A688B</v>
       </c>
       <c r="Z45" t="str">
         <f t="shared" ref="Z45:AC45" ca="1" si="52">Y44</f>
-        <v>80029D10</v>
+        <v>EBC052A7</v>
       </c>
       <c r="AA45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1051A5A8</v>
+        <v>783A0829</v>
       </c>
       <c r="AB45" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v>CE9FAFF8</v>
+        <v>A2F47CE1</v>
       </c>
       <c r="AC45" s="19" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v>E88C362E</v>
+        <v>24FA3ECB</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.3">
@@ -6278,11 +6440,11 @@
       </c>
       <c r="R46" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1D012364</v>
+        <v>1D012150</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>3A0246C8</v>
+        <v>3A0242A0</v>
       </c>
       <c r="U46">
         <v>32</v>
@@ -6292,31 +6454,31 @@
       </c>
       <c r="W46" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>5ECC9740</v>
+        <v>310E266F</v>
       </c>
       <c r="X46" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DC682312</v>
+        <v>2031A4E5</v>
       </c>
       <c r="Y46" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DC682312</v>
+        <v>2031A4E5</v>
       </c>
       <c r="Z46" t="str">
         <f t="shared" ref="Z46:AC46" ca="1" si="53">Y45</f>
-        <v>DF619919</v>
+        <v>510A688B</v>
       </c>
       <c r="AA46" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2000A744</v>
+        <v>FAF014A9</v>
       </c>
       <c r="AB46" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>1051A5A8</v>
+        <v>783A0829</v>
       </c>
       <c r="AC46" s="19" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>CE9FAFF8</v>
+        <v>A2F47CE1</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.3">
@@ -6370,11 +6532,11 @@
       </c>
       <c r="R47" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>6FFA1246</v>
+        <v>6FFA1806</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>DFF4248C</v>
+        <v>DFF4300C</v>
       </c>
       <c r="U47">
         <v>33</v>
@@ -6384,31 +6546,31 @@
       </c>
       <c r="W47" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>EF309BF5</v>
+        <v>D3C0740B</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>99A2BE75</v>
+        <v>CBB7A93D</v>
       </c>
       <c r="Y47" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>99A2BE75</v>
+        <v>CBB7A93D</v>
       </c>
       <c r="Z47" t="str">
         <f t="shared" ref="Z47:AC47" ca="1" si="55">Y46</f>
-        <v>DC682312</v>
+        <v>2031A4E5</v>
       </c>
       <c r="AA47" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>77D86646</v>
+        <v>D4429A22</v>
       </c>
       <c r="AB47" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>2000A744</v>
+        <v>FAF014A9</v>
       </c>
       <c r="AC47" s="19" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>1051A5A8</v>
+        <v>783A0829</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.3">
@@ -6462,11 +6624,11 @@
       </c>
       <c r="R48" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>0B00AB7C</v>
+        <v>0B00AA90</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>160156F8</v>
+        <v>16015520</v>
       </c>
       <c r="U48">
         <v>34</v>
@@ -6476,31 +6638,31 @@
       </c>
       <c r="W48" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>8BB0E210</v>
+        <v>0E832A6E</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>55359904</v>
+        <v>828D9B11</v>
       </c>
       <c r="Y48" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>55359904</v>
+        <v>828D9B11</v>
       </c>
       <c r="Z48" t="str">
         <f t="shared" ref="Z48:AC48" ca="1" si="56">Y47</f>
-        <v>99A2BE75</v>
+        <v>CBB7A93D</v>
       </c>
       <c r="AA48" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B71A08C4</v>
+        <v>480C6939</v>
       </c>
       <c r="AB48" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>77D86646</v>
+        <v>D4429A22</v>
       </c>
       <c r="AC48" s="19" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>2000A744</v>
+        <v>FAF014A9</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.3">
@@ -6568,31 +6730,31 @@
       </c>
       <c r="W49" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>5960D0F7</v>
+        <v>57F95A26</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8EEE96AC</v>
+        <v>1376CEE6</v>
       </c>
       <c r="Y49" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8EEE96AC</v>
+        <v>1376CEE6</v>
       </c>
       <c r="Z49" t="str">
         <f t="shared" ref="Z49:AC49" ca="1" si="57">Y48</f>
-        <v>55359904</v>
+        <v>828D9B11</v>
       </c>
       <c r="AA49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>6668AF9D</v>
+        <v>72EDEA4F</v>
       </c>
       <c r="AB49" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>B71A08C4</v>
+        <v>480C6939</v>
       </c>
       <c r="AC49" s="19" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>77D86646</v>
+        <v>D4429A22</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.3">
@@ -6646,11 +6808,11 @@
       </c>
       <c r="R50" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>DFF40984</v>
+        <v>DFF41D04</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>BFE81309</v>
+        <v>BFE83A09</v>
       </c>
       <c r="U50">
         <v>36</v>
@@ -6660,31 +6822,31 @@
       </c>
       <c r="W50" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>84473E5D</v>
+        <v>B86C1867</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08B478DE</v>
+        <v>2A4AB4F5</v>
       </c>
       <c r="Y50" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>08B478DE</v>
+        <v>2A4AB4F5</v>
       </c>
       <c r="Z50" t="str">
         <f t="shared" ref="Z50:AC50" ca="1" si="58">Y49</f>
-        <v>8EEE96AC</v>
+        <v>1376CEE6</v>
       </c>
       <c r="AA50" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>154D6641</v>
+        <v>60A366C4</v>
       </c>
       <c r="AB50" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>6668AF9D</v>
+        <v>72EDEA4F</v>
       </c>
       <c r="AC50" s="19" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>B71A08C4</v>
+        <v>480C6939</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.3">
@@ -6738,11 +6900,11 @@
       </c>
       <c r="R51" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1BFE14A4</v>
+        <v>1BFE1634</v>
       </c>
       <c r="S51" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>37FC2948</v>
+        <v>37FC2C68</v>
       </c>
       <c r="U51">
         <v>37</v>
@@ -6752,31 +6914,31 @@
       </c>
       <c r="W51" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>FDCB5F70</v>
+        <v>0138426D</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>724A98DE</v>
+        <v>39716254</v>
       </c>
       <c r="Y51" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>724A98DE</v>
+        <v>39716254</v>
       </c>
       <c r="Z51" t="str">
         <f t="shared" ref="Z51:AC51" ca="1" si="59">Y50</f>
-        <v>08B478DE</v>
+        <v>2A4AB4F5</v>
       </c>
       <c r="AA51" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>23BBA5AB</v>
+        <v>84DDB3B9</v>
       </c>
       <c r="AB51" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>154D6641</v>
+        <v>60A366C4</v>
       </c>
       <c r="AC51" s="19" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>6668AF9D</v>
+        <v>72EDEA4F</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.3">
@@ -6830,11 +6992,11 @@
       </c>
       <c r="R52" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>74049F94</v>
+        <v>74049744</v>
       </c>
       <c r="S52" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>E8093F28</v>
+        <v>E8092E88</v>
       </c>
       <c r="U52">
         <v>38</v>
@@ -6844,31 +7006,31 @@
       </c>
       <c r="W52" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>3E42BB34</v>
+        <v>CE346188</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>44E1B168</v>
+        <v>C631B087</v>
       </c>
       <c r="Y52" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>44E1B168</v>
+        <v>C631B087</v>
       </c>
       <c r="Z52" t="str">
         <f t="shared" ref="Z52:AC52" ca="1" si="60">Y51</f>
-        <v>724A98DE</v>
+        <v>39716254</v>
       </c>
       <c r="AA52" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>822D1E37</v>
+        <v>4A92AD3D</v>
       </c>
       <c r="AB52" t="str">
         <f t="shared" ca="1" si="60"/>
-        <v>23BBA5AB</v>
+        <v>84DDB3B9</v>
       </c>
       <c r="AC52" s="19" t="str">
         <f t="shared" ca="1" si="60"/>
-        <v>154D6641</v>
+        <v>60A366C4</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.3">
@@ -6922,11 +7084,11 @@
       </c>
       <c r="R53" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFE84911</v>
+        <v>BFE86011</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FD09223</v>
+        <v>7FD0C023</v>
       </c>
       <c r="U53">
         <v>39</v>
@@ -6936,31 +7098,31 @@
       </c>
       <c r="W53" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>D3DC2342</v>
+        <v>F73E7CD0</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>740A344F</v>
+        <v>0CC2A050</v>
       </c>
       <c r="Y53" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>740A344F</v>
+        <v>0CC2A050</v>
       </c>
       <c r="Z53" t="str">
         <f t="shared" ref="Z53:AC53" ca="1" si="61">Y52</f>
-        <v>44E1B168</v>
+        <v>C631B087</v>
       </c>
       <c r="AA53" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>9C92A637</v>
+        <v>0E5C5895</v>
       </c>
       <c r="AB53" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>822D1E37</v>
+        <v>4A92AD3D</v>
       </c>
       <c r="AC53" s="19" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>23BBA5AB</v>
+        <v>84DDB3B9</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.3">
@@ -7014,11 +7176,11 @@
       </c>
       <c r="R54" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1BFFADD0</v>
+        <v>1BFFAF40</v>
       </c>
       <c r="S54" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>37FF5BA0</v>
+        <v>37FF5E80</v>
       </c>
       <c r="U54" s="12">
         <v>40</v>
@@ -7028,31 +7190,31 @@
       </c>
       <c r="W54" s="13" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>5A5E0968</v>
+        <v>82FF452F</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A6398042</v>
+        <v>470A4D0A</v>
       </c>
       <c r="Y54" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A6398042</v>
+        <v>470A4D0A</v>
       </c>
       <c r="Z54" t="str">
         <f t="shared" ref="Z54:AC54" ca="1" si="62">Y53</f>
-        <v>740A344F</v>
+        <v>0CC2A050</v>
       </c>
       <c r="AA54" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>11386C5A</v>
+        <v>F18C6C21</v>
       </c>
       <c r="AB54" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>9C92A637</v>
+        <v>0E5C5895</v>
       </c>
       <c r="AC54" s="19" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>822D1E37</v>
+        <v>4A92AD3D</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.3">
@@ -7120,31 +7282,31 @@
       </c>
       <c r="W55" s="7" t="str">
         <f t="shared" ref="W55:W74" ca="1" si="63">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITAND(HEX2DEC(Z54),HEX2DEC(AA54)),_xlfn.BITAND(HEX2DEC(Z54),HEX2DEC(AB54))),_xlfn.BITAND(HEX2DEC(AA54),HEX2DEC(AB54))),8)</f>
-        <v>141A245F</v>
+        <v>0CCC6811</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EC9308C6</v>
+        <v>C7C47472</v>
       </c>
       <c r="Y55" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>EC9308C6</v>
+        <v>C7C47472</v>
       </c>
       <c r="Z55" t="str">
         <f t="shared" ref="Z55:AC55" ca="1" si="64">Y54</f>
-        <v>A6398042</v>
+        <v>470A4D0A</v>
       </c>
       <c r="AA55" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>DD028D13</v>
+        <v>0330A814</v>
       </c>
       <c r="AB55" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>11386C5A</v>
+        <v>F18C6C21</v>
       </c>
       <c r="AC55" s="19" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>9C92A637</v>
+        <v>0E5C5895</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.3">
@@ -7198,11 +7360,11 @@
       </c>
       <c r="R56" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>642EA293</v>
+        <v>642EF203</v>
       </c>
       <c r="S56" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C85D4526</v>
+        <v>C85DE406</v>
       </c>
       <c r="U56">
         <v>42</v>
@@ -7212,31 +7374,31 @@
       </c>
       <c r="W56" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>95388C52</v>
+        <v>43086C00</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1BA54D68</v>
+        <v>A16CF3CF</v>
       </c>
       <c r="Y56" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1BA54D68</v>
+        <v>A16CF3CF</v>
       </c>
       <c r="Z56" t="str">
         <f t="shared" ref="Z56:AC56" ca="1" si="65">Y55</f>
-        <v>EC9308C6</v>
+        <v>C7C47472</v>
       </c>
       <c r="AA56" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A98E6010</v>
+        <v>91C29342</v>
       </c>
       <c r="AB56" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>DD028D13</v>
+        <v>0330A814</v>
       </c>
       <c r="AC56" s="19" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>11386C5A</v>
+        <v>F18C6C21</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.3">
@@ -7304,31 +7466,31 @@
       </c>
       <c r="W57" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>ED820812</v>
+        <v>83C0B052</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>02845FF3</v>
+        <v>320BD4EB</v>
       </c>
       <c r="Y57" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>02845FF3</v>
+        <v>320BD4EB</v>
       </c>
       <c r="Z57" t="str">
         <f t="shared" ref="Z57:AC57" ca="1" si="67">Y56</f>
-        <v>1BA54D68</v>
+        <v>A16CF3CF</v>
       </c>
       <c r="AA57" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BB24C231</v>
+        <v>B1F11D1C</v>
       </c>
       <c r="AB57" t="str">
         <f t="shared" ca="1" si="67"/>
-        <v>A98E6010</v>
+        <v>91C29342</v>
       </c>
       <c r="AC57" s="19" t="str">
         <f t="shared" ca="1" si="67"/>
-        <v>DD028D13</v>
+        <v>0330A814</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.3">
@@ -7382,11 +7544,11 @@
       </c>
       <c r="R58" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>D01232C1</v>
+        <v>D0121181</v>
       </c>
       <c r="S58" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>A0246583</v>
+        <v>A0242303</v>
       </c>
       <c r="U58">
         <v>44</v>
@@ -7396,31 +7558,31 @@
       </c>
       <c r="W58" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>BBA44030</v>
+        <v>B1E0934E</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1872EE02</v>
+        <v>25CBB8A7</v>
       </c>
       <c r="Y58" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1872EE02</v>
+        <v>25CBB8A7</v>
       </c>
       <c r="Z58" t="str">
         <f t="shared" ref="Z58:AC58" ca="1" si="68">Y57</f>
-        <v>02845FF3</v>
+        <v>320BD4EB</v>
       </c>
       <c r="AA58" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>06E9535A</v>
+        <v>E85B3CF3</v>
       </c>
       <c r="AB58" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>BB24C231</v>
+        <v>B1F11D1C</v>
       </c>
       <c r="AC58" s="19" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>A98E6010</v>
+        <v>91C29342</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.3">
@@ -7474,11 +7636,11 @@
       </c>
       <c r="R59" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>FFA12464</v>
+        <v>FFA18064</v>
       </c>
       <c r="S59" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>FF4248C9</v>
+        <v>FF4300C9</v>
       </c>
       <c r="U59">
         <v>45</v>
@@ -7488,31 +7650,31 @@
       </c>
       <c r="W59" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>02A45373</v>
+        <v>B05B1CFB</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>48EE796B</v>
+        <v>89F382C6</v>
       </c>
       <c r="Y59" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>48EE796B</v>
+        <v>89F382C6</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" ref="Z59:AC59" ca="1" si="69">Y58</f>
-        <v>1872EE02</v>
+        <v>25CBB8A7</v>
       </c>
       <c r="AA59" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>C0A117FC</v>
+        <v>CC82F53A</v>
       </c>
       <c r="AB59" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>06E9535A</v>
+        <v>E85B3CF3</v>
       </c>
       <c r="AC59" s="19" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>BB24C231</v>
+        <v>B1F11D1C</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.3">
@@ -7566,11 +7728,11 @@
       </c>
       <c r="R60" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BDF5FC88</v>
+        <v>BDF5E300</v>
       </c>
       <c r="S60" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7BEBF911</v>
+        <v>7BEBC601</v>
       </c>
       <c r="U60">
         <v>46</v>
@@ -7580,31 +7742,31 @@
       </c>
       <c r="W60" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>00E1575A</v>
+        <v>ECCBBCB3</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E4DCFCE1</v>
+        <v>E834B57D</v>
       </c>
       <c r="Y60" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>E4DCFCE1</v>
+        <v>E834B57D</v>
       </c>
       <c r="Z60" t="str">
         <f t="shared" ref="Z60:AC60" ca="1" si="70">Y59</f>
-        <v>48EE796B</v>
+        <v>89F382C6</v>
       </c>
       <c r="AA60" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>861CBB80</v>
+        <v>C972EE29</v>
       </c>
       <c r="AB60" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>C0A117FC</v>
+        <v>CC82F53A</v>
       </c>
       <c r="AC60" s="19" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>06E9535A</v>
+        <v>E85B3CF3</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.3">
@@ -7672,31 +7834,31 @@
       </c>
       <c r="W61" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>C0AC3BE8</v>
+        <v>C9F2E62A</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F2521EC6</v>
+        <v>4801C622</v>
       </c>
       <c r="Y61" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F2521EC6</v>
+        <v>4801C622</v>
       </c>
       <c r="Z61" t="str">
         <f t="shared" ref="Z61:AC61" ca="1" si="71">Y60</f>
-        <v>E4DCFCE1</v>
+        <v>E834B57D</v>
       </c>
       <c r="AA61" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D23B9E5A</v>
+        <v>A27CE0B1</v>
       </c>
       <c r="AB61" t="str">
         <f t="shared" ca="1" si="71"/>
-        <v>861CBB80</v>
+        <v>C972EE29</v>
       </c>
       <c r="AC61" s="19" t="str">
         <f t="shared" ca="1" si="71"/>
-        <v>C0A117FC</v>
+        <v>CC82F53A</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.3">
@@ -7750,11 +7912,11 @@
       </c>
       <c r="R62" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>E4BE0359</v>
+        <v>E4BF49C9</v>
       </c>
       <c r="S62" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C97C06B3</v>
+        <v>C97E9393</v>
       </c>
       <c r="U62">
         <v>48</v>
@@ -7764,31 +7926,31 @@
       </c>
       <c r="W62" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>C61CBEC0</v>
+        <v>E874E439</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>29997329</v>
+        <v>0DCAEE2B</v>
       </c>
       <c r="Y62" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>29997329</v>
+        <v>0DCAEE2B</v>
       </c>
       <c r="Z62" t="str">
         <f t="shared" ref="Z62:AC62" ca="1" si="72">Y61</f>
-        <v>F2521EC6</v>
+        <v>4801C622</v>
       </c>
       <c r="AA62" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>79373F38</v>
+        <v>7A0D2D5F</v>
       </c>
       <c r="AB62" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>D23B9E5A</v>
+        <v>A27CE0B1</v>
       </c>
       <c r="AC62" s="19" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>861CBB80</v>
+        <v>C972EE29</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.3">
@@ -7842,11 +8004,11 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>A41FCEDB</v>
+        <v>A41FE54B</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>483F9DB7</v>
+        <v>483FCA97</v>
       </c>
       <c r="U63">
         <v>49</v>
@@ -7856,31 +8018,31 @@
       </c>
       <c r="W63" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>F2331E5A</v>
+        <v>6A0DE433</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>82D99992</v>
+        <v>C43A1F30</v>
       </c>
       <c r="Y63" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>82D99992</v>
+        <v>C43A1F30</v>
       </c>
       <c r="Z63" t="str">
         <f t="shared" ref="Z63:AC63" ca="1" si="73">Y62</f>
-        <v>29997329</v>
+        <v>0DCAEE2B</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BC9487B1</v>
+        <v>92007188</v>
       </c>
       <c r="AB63" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>79373F38</v>
+        <v>7A0D2D5F</v>
       </c>
       <c r="AC63" s="19" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>D23B9E5A</v>
+        <v>A27CE0B1</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.3">
@@ -7934,11 +8096,11 @@
       </c>
       <c r="R64" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>61B536BB</v>
+        <v>61B5BD43</v>
       </c>
       <c r="S64" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C36A6D76</v>
+        <v>C36B7A86</v>
       </c>
       <c r="U64">
         <v>50</v>
@@ -7948,31 +8110,31 @@
       </c>
       <c r="W64" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>39953739</v>
+        <v>1A086D0B</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B98A3235</v>
+        <v>96506B36</v>
       </c>
       <c r="Y64" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B98A3235</v>
+        <v>96506B36</v>
       </c>
       <c r="Z64" t="str">
         <f t="shared" ref="Z64:AC64" ca="1" si="74">Y63</f>
-        <v>82D99992</v>
+        <v>C43A1F30</v>
       </c>
       <c r="AA64" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>4A665CCA</v>
+        <v>C372BB8A</v>
       </c>
       <c r="AB64" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>BC9487B1</v>
+        <v>92007188</v>
       </c>
       <c r="AC64" s="19" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>79373F38</v>
+        <v>7A0D2D5F</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.3">
@@ -8026,11 +8188,11 @@
       </c>
       <c r="R65" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>FE84BC15</v>
+        <v>FE862C15</v>
       </c>
       <c r="S65" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>FD09782B</v>
+        <v>FD0C582B</v>
       </c>
       <c r="U65">
         <v>51</v>
@@ -8040,31 +8202,31 @@
       </c>
       <c r="W65" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>8AD49D92</v>
+        <v>C2323B88</v>
       </c>
       <c r="X65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C1775888</v>
+        <v>9274E4C0</v>
       </c>
       <c r="Y65" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C1775888</v>
+        <v>9274E4C0</v>
       </c>
       <c r="Z65" t="str">
         <f t="shared" ref="Z65:AC65" ca="1" si="75">Y64</f>
-        <v>B98A3235</v>
+        <v>96506B36</v>
       </c>
       <c r="AA65" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A0B66664</v>
+        <v>310E87CC</v>
       </c>
       <c r="AB65" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>4A665CCA</v>
+        <v>C372BB8A</v>
       </c>
       <c r="AC65" s="19" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>BC9487B1</v>
+        <v>92007188</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.3">
@@ -8118,11 +8280,11 @@
       </c>
       <c r="R66" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFFAD415</v>
+        <v>BFFAFD15</v>
       </c>
       <c r="S66" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FF5A82B</v>
+        <v>7FF5FA2B</v>
       </c>
       <c r="U66">
         <v>52</v>
@@ -8132,31 +8294,31 @@
       </c>
       <c r="W66" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>A8A67664</v>
+        <v>9352AB8E</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A3377434</v>
+        <v>83016C2F</v>
       </c>
       <c r="Y66" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A3377434</v>
+        <v>83016C2F</v>
       </c>
       <c r="Z66" t="str">
         <f t="shared" ref="Z66:AC66" ca="1" si="76">Y65</f>
-        <v>C1775888</v>
+        <v>9274E4C0</v>
       </c>
       <c r="AA66" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>6E628C8D</v>
+        <v>A5941ACD</v>
       </c>
       <c r="AB66" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>A0B66664</v>
+        <v>310E87CC</v>
       </c>
       <c r="AC66" s="19" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>4A665CCA</v>
+        <v>C372BB8A</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.3">
@@ -8210,11 +8372,11 @@
       </c>
       <c r="R67" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>74049ED4</v>
+        <v>74049604</v>
       </c>
       <c r="S67" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>E8093DA8</v>
+        <v>E8092C08</v>
       </c>
       <c r="U67">
         <v>53</v>
@@ -8224,31 +8386,31 @@
       </c>
       <c r="W67" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>E0764C8C</v>
+        <v>B11486CC</v>
       </c>
       <c r="X67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>08F02A6E</v>
+        <v>4BD9B12A</v>
       </c>
       <c r="Y67" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>08F02A6E</v>
+        <v>4BD9B12A</v>
       </c>
       <c r="Z67" t="str">
         <f t="shared" ref="Z67:AC67" ca="1" si="77">Y66</f>
-        <v>A3377434</v>
+        <v>83016C2F</v>
       </c>
       <c r="AA67" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>305DD622</v>
+        <v>249D3930</v>
       </c>
       <c r="AB67" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v>6E628C8D</v>
+        <v>A5941ACD</v>
       </c>
       <c r="AC67" s="19" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v>A0B66664</v>
+        <v>310E87CC</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.3">
@@ -8302,11 +8464,11 @@
       </c>
       <c r="R68" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>5914E5B2</v>
+        <v>5911EE22</v>
       </c>
       <c r="S68" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>B229CB64</v>
+        <v>B223DC44</v>
       </c>
       <c r="U68">
         <v>54</v>
@@ -8316,31 +8478,31 @@
       </c>
       <c r="W68" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2277D424</v>
+        <v>A595382D</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>22791089</v>
+        <v>93197E62</v>
       </c>
       <c r="Y68" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>22791089</v>
+        <v>93197E62</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68:AC68" ca="1" si="78">Y67</f>
-        <v>08F02A6E</v>
+        <v>4BD9B12A</v>
       </c>
       <c r="AA68" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>28CDDD0D</v>
+        <v>E0C05B0B</v>
       </c>
       <c r="AB68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>305DD622</v>
+        <v>249D3930</v>
       </c>
       <c r="AC68" s="19" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6E628C8D</v>
+        <v>A5941ACD</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.3">
@@ -8408,31 +8570,31 @@
       </c>
       <c r="W69" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>28DDDE2E</v>
+        <v>60D9392A</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>75C65383</v>
+        <v>F900F7ED</v>
       </c>
       <c r="Y69" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>75C65383</v>
+        <v>F900F7ED</v>
       </c>
       <c r="Z69" t="str">
         <f t="shared" ref="Z69:AC69" ca="1" si="79">Y68</f>
-        <v>22791089</v>
+        <v>93197E62</v>
       </c>
       <c r="AA69" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>823C0A9B</v>
+        <v>92F66C4A</v>
       </c>
       <c r="AB69" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>28CDDD0D</v>
+        <v>E0C05B0B</v>
       </c>
       <c r="AC69" s="19" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>305DD622</v>
+        <v>249D3930</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.3">
@@ -8486,11 +8648,11 @@
       </c>
       <c r="R70" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>DED7259D</v>
+        <v>DED5051D</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>BDAE4B3B</v>
+        <v>BDAA0A3B</v>
       </c>
       <c r="U70">
         <v>56</v>
@@ -8500,31 +8662,31 @@
       </c>
       <c r="W70" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>227D1889</v>
+        <v>92D07E4A</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>586F6730</v>
+        <v>24527C50</v>
       </c>
       <c r="Y70" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>586F6730</v>
+        <v>24527C50</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" ref="Z70:AC70" ca="1" si="80">Y69</f>
-        <v>75C65383</v>
+        <v>F900F7ED</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>489E4422</v>
+        <v>A4C65F98</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" ca="1" si="80"/>
-        <v>823C0A9B</v>
+        <v>92F66C4A</v>
       </c>
       <c r="AC70" s="19" t="str">
         <f t="shared" ca="1" si="80"/>
-        <v>28CDDD0D</v>
+        <v>E0C05B0B</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.3">
@@ -8578,11 +8740,11 @@
       </c>
       <c r="R71" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>FA12D67B</v>
+        <v>FA18967B</v>
       </c>
       <c r="S71" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>F425ACF7</v>
+        <v>F4312CF7</v>
       </c>
       <c r="U71">
         <v>57</v>
@@ -8592,31 +8754,31 @@
       </c>
       <c r="W71" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>409E4283</v>
+        <v>B0C67FC8</v>
       </c>
       <c r="X71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FA9A6F6E</v>
+        <v>9F234EAA</v>
       </c>
       <c r="Y71" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>FA9A6F6E</v>
+        <v>9F234EAA</v>
       </c>
       <c r="Z71" t="str">
         <f t="shared" ref="Z71:AC71" ca="1" si="81">Y70</f>
-        <v>586F6730</v>
+        <v>24527C50</v>
       </c>
       <c r="AA71" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>DD7194E0</v>
+        <v>7E403DFB</v>
       </c>
       <c r="AB71" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>489E4422</v>
+        <v>A4C65F98</v>
       </c>
       <c r="AC71" s="19" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>823C0A9B</v>
+        <v>92F66C4A</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.3">
@@ -8670,11 +8832,11 @@
       </c>
       <c r="R72" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>AB5B571B</v>
+        <v>AB5AA74B</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>56B6AE37</v>
+        <v>56B54E97</v>
       </c>
       <c r="U72">
         <v>58</v>
@@ -8684,31 +8846,31 @@
       </c>
       <c r="W72" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>587F4420</v>
+        <v>24427DD8</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>13DBA7AD</v>
+        <v>8173CAE8</v>
       </c>
       <c r="Y72" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>13DBA7AD</v>
+        <v>8173CAE8</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" ref="Z72:AC72" ca="1" si="82">Y71</f>
-        <v>FA9A6F6E</v>
+        <v>9F234EAA</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>161BD9CC</v>
+        <v>09149F14</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>DD7194E0</v>
+        <v>7E403DFB</v>
       </c>
       <c r="AC72" s="19" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>489E4422</v>
+        <v>A4C65F98</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.3">
@@ -8762,11 +8924,11 @@
       </c>
       <c r="R73" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFE1FA71</v>
+        <v>BFE1D371</v>
       </c>
       <c r="S73" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FC3F4E3</v>
+        <v>7FC3A6E3</v>
       </c>
       <c r="U73">
         <v>59</v>
@@ -8776,31 +8938,31 @@
       </c>
       <c r="W73" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>DE1BDDEC</v>
+        <v>1F001FBA</v>
       </c>
       <c r="X73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B10EC96F</v>
+        <v>011F4021</v>
       </c>
       <c r="Y73" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B10EC96F</v>
+        <v>011F4021</v>
       </c>
       <c r="Z73" t="str">
         <f t="shared" ref="Z73:AC73" ca="1" si="83">Y72</f>
-        <v>13DBA7AD</v>
+        <v>8173CAE8</v>
       </c>
       <c r="AA73" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>BEA69BDB</v>
+        <v>A7C8D3AA</v>
       </c>
       <c r="AB73" t="str">
         <f t="shared" ca="1" si="83"/>
-        <v>161BD9CC</v>
+        <v>09149F14</v>
       </c>
       <c r="AC73" s="19" t="str">
         <f t="shared" ca="1" si="83"/>
-        <v>DD7194E0</v>
+        <v>7E403DFB</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.3">
@@ -8854,11 +9016,11 @@
       </c>
       <c r="R74" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>501F984E</v>
+        <v>500B33DE</v>
       </c>
       <c r="S74" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>A03F309C</v>
+        <v>A01667BC</v>
       </c>
       <c r="U74" s="12">
         <v>60</v>
@@ -8868,31 +9030,31 @@
       </c>
       <c r="W74" s="13" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>169B9BCD</v>
+        <v>8150DBA8</v>
       </c>
       <c r="X74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>45414C1B</v>
+        <v>52AB425B</v>
       </c>
       <c r="Y74" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>45414C1B</v>
+        <v>52AB425B</v>
       </c>
       <c r="Z74" t="str">
         <f t="shared" ref="Z74:AC74" ca="1" si="84">Y73</f>
-        <v>B10EC96F</v>
+        <v>011F4021</v>
       </c>
       <c r="AA74" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>44F6E9EB</v>
+        <v>205CF2BA</v>
       </c>
       <c r="AB74" t="str">
         <f t="shared" ca="1" si="84"/>
-        <v>BEA69BDB</v>
+        <v>A7C8D3AA</v>
       </c>
       <c r="AC74" s="19" t="str">
         <f t="shared" ca="1" si="84"/>
-        <v>161BD9CC</v>
+        <v>09149F14</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.3">
@@ -8946,11 +9108,11 @@
       </c>
       <c r="R75" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>41FCED3A</v>
+        <v>41FE543A</v>
       </c>
       <c r="S75" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>83F9DA74</v>
+        <v>83FCA874</v>
       </c>
       <c r="U75">
         <v>61</v>
@@ -8960,31 +9122,31 @@
       </c>
       <c r="W75" s="7" t="str">
         <f t="shared" ref="W75:W94" ca="1" si="85">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z74),HEX2DEC(AA74)),HEX2DEC(AB74)),8)</f>
-        <v>4B5EBB5F</v>
+        <v>868B6131</v>
       </c>
       <c r="X75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5800B4DD</v>
+        <v>3367B5F9</v>
       </c>
       <c r="Y75" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5800B4DD</v>
+        <v>3367B5F9</v>
       </c>
       <c r="Z75" t="str">
         <f t="shared" ref="Z75:AC75" ca="1" si="86">Y74</f>
-        <v>45414C1B</v>
+        <v>52AB425B</v>
       </c>
       <c r="AA75" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>EC43B25B</v>
+        <v>4047D008</v>
       </c>
       <c r="AB75" t="str">
         <f t="shared" ca="1" si="86"/>
-        <v>44F6E9EB</v>
+        <v>205CF2BA</v>
       </c>
       <c r="AC75" s="19" t="str">
         <f t="shared" ca="1" si="86"/>
-        <v>BEA69BDB</v>
+        <v>A7C8D3AA</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.3">
@@ -9038,11 +9200,11 @@
       </c>
       <c r="R76" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>7F7DC025</v>
+        <v>7F752F35</v>
       </c>
       <c r="S76" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>FEFB804A</v>
+        <v>FEEA5E6A</v>
       </c>
       <c r="U76">
         <v>62</v>
@@ -9052,31 +9214,31 @@
       </c>
       <c r="W76" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>EDF417AB</v>
+        <v>32B060E9</v>
       </c>
       <c r="X76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>760F9151</v>
+        <v>10BD13F9</v>
       </c>
       <c r="Y76" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>760F9151</v>
+        <v>10BD13F9</v>
       </c>
       <c r="Z76" t="str">
         <f t="shared" ref="Z76:AC76" ca="1" si="88">Y75</f>
-        <v>5800B4DD</v>
+        <v>3367B5F9</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D1505306</v>
+        <v>D4AAD096</v>
       </c>
       <c r="AB76" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>EC43B25B</v>
+        <v>4047D008</v>
       </c>
       <c r="AC76" s="19" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>44F6E9EB</v>
+        <v>205CF2BA</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.3">
@@ -9130,11 +9292,11 @@
       </c>
       <c r="R77" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>E849818F</v>
+        <v>E860818F</v>
       </c>
       <c r="S77" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>D093031F</v>
+        <v>D0C1031F</v>
       </c>
       <c r="U77">
         <v>63</v>
@@ -9144,31 +9306,31 @@
       </c>
       <c r="W77" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>65135580</v>
+        <v>A78AB567</v>
       </c>
       <c r="X77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>06F22E8E</v>
+        <v>7AADEC38</v>
       </c>
       <c r="Y77" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>06F22E8E</v>
+        <v>7AADEC38</v>
       </c>
       <c r="Z77" t="str">
         <f t="shared" ref="Z77:AC77" ca="1" si="89">Y76</f>
-        <v>760F9151</v>
+        <v>10BD13F9</v>
       </c>
       <c r="AA77" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>56002D37</v>
+        <v>4CD9ED7E</v>
       </c>
       <c r="AB77" t="str">
         <f t="shared" ca="1" si="89"/>
-        <v>D1505306</v>
+        <v>D4AAD096</v>
       </c>
       <c r="AC77" s="19" t="str">
         <f t="shared" ca="1" si="89"/>
-        <v>EC43B25B</v>
+        <v>4047D008</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.3">
@@ -9222,11 +9384,11 @@
       </c>
       <c r="R78" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>3441FA8A</v>
+        <v>34434B5A</v>
       </c>
       <c r="S78" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>6883F514</v>
+        <v>688696B4</v>
       </c>
       <c r="U78">
         <v>64</v>
@@ -9236,31 +9398,31 @@
       </c>
       <c r="W78" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>F15FEF60</v>
+        <v>88CE2E11</v>
       </c>
       <c r="X78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EED02A65</v>
+        <v>51BCDDB2</v>
       </c>
       <c r="Y78" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>EED02A65</v>
+        <v>51BCDDB2</v>
       </c>
       <c r="Z78" t="str">
         <f t="shared" ref="Z78:AC78" ca="1" si="90">Y77</f>
-        <v>06F22E8E</v>
+        <v>7AADEC38</v>
       </c>
       <c r="AA78" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>5D83E454</v>
+        <v>442F44FE</v>
       </c>
       <c r="AB78" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>56002D37</v>
+        <v>4CD9ED7E</v>
       </c>
       <c r="AC78" s="19" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>D1505306</v>
+        <v>D4AAD096</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.3">
@@ -9314,11 +9476,11 @@
       </c>
       <c r="R79" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFE8C921</v>
+        <v>BFE8E021</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FD19243</v>
+        <v>7FD1C043</v>
       </c>
       <c r="U79">
         <v>65</v>
@@ -9328,31 +9490,31 @@
       </c>
       <c r="W79" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>0D71E7ED</v>
+        <v>725B45B8</v>
       </c>
       <c r="X79" t="str">
         <f t="shared" ref="X79:X94" ca="1" si="92">DEC2HEX(MOD(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(Y78),5),_xlfn.BITRSHIFT(HEX2DEC(Y78),27)),4294967295)+HEX2DEC(W79)+HEX2DEC(AC78)+HEX2DEC(V79)+HEX2DEC(S79),4294967296),8)</f>
-        <v>02FBDBC9</v>
+        <v>C8D64EB1</v>
       </c>
       <c r="Y79" s="7" t="str">
         <f t="shared" ref="Y79:Y94" ca="1" si="93">X79</f>
-        <v>02FBDBC9</v>
+        <v>C8D64EB1</v>
       </c>
       <c r="Z79" t="str">
         <f t="shared" ref="Z79:AC79" ca="1" si="94">Y78</f>
-        <v>EED02A65</v>
+        <v>51BCDDB2</v>
       </c>
       <c r="AA79" t="str">
         <f t="shared" ref="AA79:AA94" ca="1" si="95">DEC2HEX(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(MOD(HEX2DEC(Z78),4),30),_xlfn.BITRSHIFT(HEX2DEC(Z78),2)),4294967295),8)</f>
-        <v>81BC8BA3</v>
+        <v>1EAB7B0E</v>
       </c>
       <c r="AB79" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v>5D83E454</v>
+        <v>442F44FE</v>
       </c>
       <c r="AC79" s="19" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v>56002D37</v>
+        <v>4CD9ED7E</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.3">
@@ -9406,11 +9568,11 @@
       </c>
       <c r="R80" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>3ABA6875</v>
+        <v>3AEACD25</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7574D0EA</v>
+        <v>75D59A4A</v>
       </c>
       <c r="U80">
         <v>66</v>
@@ -9420,31 +9582,31 @@
       </c>
       <c r="W80" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>32EF4592</v>
+        <v>0B38E242</v>
       </c>
       <c r="X80" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>28427EA9</v>
+        <v>B3150219</v>
       </c>
       <c r="Y80" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>28427EA9</v>
+        <v>B3150219</v>
       </c>
       <c r="Z80" t="str">
         <f t="shared" ref="Z80:AC80" ca="1" si="100">Y79</f>
-        <v>02FBDBC9</v>
+        <v>C8D64EB1</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>7BB40A99</v>
+        <v>946F376C</v>
       </c>
       <c r="AB80" t="str">
         <f t="shared" ca="1" si="100"/>
-        <v>81BC8BA3</v>
+        <v>1EAB7B0E</v>
       </c>
       <c r="AC80" s="19" t="str">
         <f t="shared" ca="1" si="100"/>
-        <v>5D83E454</v>
+        <v>442F44FE</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.3">
@@ -9512,31 +9674,31 @@
       </c>
       <c r="W81" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>F8F35AF3</v>
+        <v>421202D3</v>
       </c>
       <c r="X81" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>2DAA5F2A</v>
+        <v>B7C4D5C5</v>
       </c>
       <c r="Y81" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>2DAA5F2A</v>
+        <v>B7C4D5C5</v>
       </c>
       <c r="Z81" t="str">
         <f t="shared" ref="Z81:AC81" ca="1" si="101">Y80</f>
-        <v>28427EA9</v>
+        <v>B3150219</v>
       </c>
       <c r="AA81" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>40BEF6F2</v>
+        <v>723593AC</v>
       </c>
       <c r="AB81" t="str">
         <f t="shared" ca="1" si="101"/>
-        <v>7BB40A99</v>
+        <v>946F376C</v>
       </c>
       <c r="AC81" s="19" t="str">
         <f t="shared" ca="1" si="101"/>
-        <v>81BC8BA3</v>
+        <v>1EAB7B0E</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.3">
@@ -9590,11 +9752,11 @@
       </c>
       <c r="R82" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1232C190</v>
+        <v>12118190</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>24658320</v>
+        <v>24230320</v>
       </c>
       <c r="U82">
         <v>68</v>
@@ -9604,31 +9766,31 @@
       </c>
       <c r="W82" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>134882C2</v>
+        <v>554FA6D9</v>
       </c>
       <c r="X82" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>391938A0</v>
+        <v>5B1B9F93</v>
       </c>
       <c r="Y82" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>391938A0</v>
+        <v>5B1B9F93</v>
       </c>
       <c r="Z82" t="str">
         <f t="shared" ref="Z82:AC82" ca="1" si="102">Y81</f>
-        <v>2DAA5F2A</v>
+        <v>B7C4D5C5</v>
       </c>
       <c r="AA82" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>4A109FAA</v>
+        <v>6CC54086</v>
       </c>
       <c r="AB82" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>40BEF6F2</v>
+        <v>723593AC</v>
       </c>
       <c r="AC82" s="19" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>7BB40A99</v>
+        <v>946F376C</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.3">
@@ -9682,11 +9844,11 @@
       </c>
       <c r="R83" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1ECC2DFE</v>
+        <v>1E6804FE</v>
       </c>
       <c r="S83" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>3D985BFC</v>
+        <v>3CD009FC</v>
       </c>
       <c r="U83">
         <v>69</v>
@@ -9696,31 +9858,31 @@
       </c>
       <c r="W83" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>27043672</v>
+        <v>A93406EF</v>
       </c>
       <c r="X83" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>CDDA72E4</v>
+        <v>A849FC98</v>
       </c>
       <c r="Y83" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>CDDA72E4</v>
+        <v>A849FC98</v>
       </c>
       <c r="Z83" t="str">
         <f t="shared" ref="Z83:AC83" ca="1" si="103">Y82</f>
-        <v>391938A0</v>
+        <v>5B1B9F93</v>
       </c>
       <c r="AA83" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>8B6A97CA</v>
+        <v>6DF13571</v>
       </c>
       <c r="AB83" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>4A109FAA</v>
+        <v>6CC54086</v>
       </c>
       <c r="AC83" s="19" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>40BEF6F2</v>
+        <v>723593AC</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.3">
@@ -9774,11 +9936,11 @@
       </c>
       <c r="R84" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>F5FC88FD</v>
+        <v>F5E300FD</v>
       </c>
       <c r="S84" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>EBF911FB</v>
+        <v>EBC601FB</v>
       </c>
       <c r="U84">
         <v>70</v>
@@ -9788,31 +9950,31 @@
       </c>
       <c r="W84" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>F86330C0</v>
+        <v>5A2FEA64</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>AACC581C</v>
+        <v>8BCDD4F6</v>
       </c>
       <c r="Y84" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>AACC581C</v>
+        <v>8BCDD4F6</v>
       </c>
       <c r="Z84" t="str">
         <f t="shared" ref="Z84:AC84" ca="1" si="104">Y83</f>
-        <v>CDDA72E4</v>
+        <v>A849FC98</v>
       </c>
       <c r="AA84" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>0E464E28</v>
+        <v>D6C6E7E4</v>
       </c>
       <c r="AB84" t="str">
         <f t="shared" ca="1" si="104"/>
-        <v>8B6A97CA</v>
+        <v>6DF13571</v>
       </c>
       <c r="AC84" s="19" t="str">
         <f t="shared" ca="1" si="104"/>
-        <v>4A109FAA</v>
+        <v>6CC54086</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.3">
@@ -9880,31 +10042,31 @@
       </c>
       <c r="W85" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>48F6AB06</v>
+        <v>137E2E0D</v>
       </c>
       <c r="X85" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>B82B7C1B</v>
+        <v>C5973B3A</v>
       </c>
       <c r="Y85" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>B82B7C1B</v>
+        <v>C5973B3A</v>
       </c>
       <c r="Z85" t="str">
         <f t="shared" ref="Z85:AC85" ca="1" si="105">Y84</f>
-        <v>AACC581C</v>
+        <v>8BCDD4F6</v>
       </c>
       <c r="AA85" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>33769CB9</v>
+        <v>2A127F26</v>
       </c>
       <c r="AB85" t="str">
         <f t="shared" ca="1" si="105"/>
-        <v>0E464E28</v>
+        <v>D6C6E7E4</v>
       </c>
       <c r="AC85" s="19" t="str">
         <f t="shared" ca="1" si="105"/>
-        <v>8B6A97CA</v>
+        <v>6DF13571</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.3">
@@ -9958,11 +10120,11 @@
       </c>
       <c r="R86" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BE034BE4</v>
+        <v>BF49DBE4</v>
       </c>
       <c r="S86" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7C0697C9</v>
+        <v>7E93B7C9</v>
       </c>
       <c r="U86">
         <v>72</v>
@@ -9972,31 +10134,31 @@
       </c>
       <c r="W86" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>97FC8A8D</v>
+        <v>77194C34</v>
       </c>
       <c r="X86" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>6F3FFF6D</v>
+        <v>E0E8629C</v>
       </c>
       <c r="Y86" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>6F3FFF6D</v>
+        <v>E0E8629C</v>
       </c>
       <c r="Z86" t="str">
         <f t="shared" ref="Z86:AC86" ca="1" si="106">Y85</f>
-        <v>B82B7C1B</v>
+        <v>C5973B3A</v>
       </c>
       <c r="AA86" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>2AB31607</v>
+        <v>A2F3753D</v>
       </c>
       <c r="AB86" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>33769CB9</v>
+        <v>2A127F26</v>
       </c>
       <c r="AC86" s="19" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>0E464E28</v>
+        <v>D6C6E7E4</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.3">
@@ -10050,11 +10212,11 @@
       </c>
       <c r="R87" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1FCEDBAC</v>
+        <v>1FE54BAC</v>
       </c>
       <c r="S87" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>3F9DB758</v>
+        <v>3FCA9758</v>
       </c>
       <c r="U87">
         <v>73</v>
@@ -10064,31 +10226,31 @@
       </c>
       <c r="W87" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>A1EEF6A5</v>
+        <v>4D763121</v>
       </c>
       <c r="X87" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>A235ABA8</v>
+        <v>4B76C5CF</v>
       </c>
       <c r="Y87" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>A235ABA8</v>
+        <v>4B76C5CF</v>
       </c>
       <c r="Z87" t="str">
         <f t="shared" ref="Z87:AC87" ca="1" si="107">Y86</f>
-        <v>6F3FFF6D</v>
+        <v>E0E8629C</v>
       </c>
       <c r="AA87" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>EE0ADF06</v>
+        <v>B165CECE</v>
       </c>
       <c r="AB87" t="str">
         <f t="shared" ca="1" si="107"/>
-        <v>2AB31607</v>
+        <v>A2F3753D</v>
       </c>
       <c r="AC87" s="19" t="str">
         <f t="shared" ca="1" si="107"/>
-        <v>33769CB9</v>
+        <v>2A127F26</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.3">
@@ -10142,11 +10304,11 @@
       </c>
       <c r="R88" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>82CB2241</v>
+        <v>8240DF61</v>
       </c>
       <c r="S88" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>05964483</v>
+        <v>0481BEC3</v>
       </c>
       <c r="U88">
         <v>74</v>
@@ -10156,31 +10318,31 @@
       </c>
       <c r="W88" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>AB86366C</v>
+        <v>F37ED96F</v>
       </c>
       <c r="X88" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>F5AB4E92</v>
+        <v>5B4E9317</v>
       </c>
       <c r="Y88" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>F5AB4E92</v>
+        <v>5B4E9317</v>
       </c>
       <c r="Z88" t="str">
         <f t="shared" ref="Z88:AC88" ca="1" si="108">Y87</f>
-        <v>A235ABA8</v>
+        <v>4B76C5CF</v>
       </c>
       <c r="AA88" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>5BCFFFDB</v>
+        <v>383A18A7</v>
       </c>
       <c r="AB88" t="str">
         <f t="shared" ca="1" si="108"/>
-        <v>EE0ADF06</v>
+        <v>B165CECE</v>
       </c>
       <c r="AC88" s="19" t="str">
         <f t="shared" ca="1" si="108"/>
-        <v>2AB31607</v>
+        <v>A2F3753D</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.3">
@@ -10234,11 +10396,11 @@
       </c>
       <c r="R89" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>84BC31B6</v>
+        <v>862C31B6</v>
       </c>
       <c r="S89" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>0978636D</v>
+        <v>0C58636D</v>
       </c>
       <c r="U89">
         <v>75</v>
@@ -10248,31 +10410,31 @@
       </c>
       <c r="W89" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>17F08B75</v>
+        <v>C22913A6</v>
       </c>
       <c r="X89" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>CBE8991D</v>
+        <v>A5AA1111</v>
       </c>
       <c r="Y89" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>CBE8991D</v>
+        <v>A5AA1111</v>
       </c>
       <c r="Z89" t="str">
         <f t="shared" ref="Z89:AC89" ca="1" si="109">Y88</f>
-        <v>F5AB4E92</v>
+        <v>5B4E9317</v>
       </c>
       <c r="AA89" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>288D6AEA</v>
+        <v>D2DDB173</v>
       </c>
       <c r="AB89" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>5BCFFFDB</v>
+        <v>383A18A7</v>
       </c>
       <c r="AC89" s="19" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>EE0ADF06</v>
+        <v>B165CECE</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.3">
@@ -10326,11 +10488,11 @@
       </c>
       <c r="R90" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>453C84AE</v>
+        <v>4515ADAE</v>
       </c>
       <c r="S90" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>8A79095C</v>
+        <v>8A2B5B5C</v>
       </c>
       <c r="U90">
         <v>76</v>
@@ -10340,31 +10502,31 @@
       </c>
       <c r="W90" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>86E9DBA3</v>
+        <v>B1A93AC3</v>
       </c>
       <c r="X90" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>46E3A994</v>
+        <v>6CDF48F7</v>
       </c>
       <c r="Y90" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>46E3A994</v>
+        <v>6CDF48F7</v>
       </c>
       <c r="Z90" t="str">
         <f t="shared" ref="Z90:AC90" ca="1" si="110">Y89</f>
-        <v>CBE8991D</v>
+        <v>A5AA1111</v>
       </c>
       <c r="AA90" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>BD6AD3A4</v>
+        <v>D6D3A4C5</v>
       </c>
       <c r="AB90" t="str">
         <f t="shared" ca="1" si="110"/>
-        <v>288D6AEA</v>
+        <v>D2DDB173</v>
       </c>
       <c r="AC90" s="19" t="str">
         <f t="shared" ca="1" si="110"/>
-        <v>5BCFFFDB</v>
+        <v>383A18A7</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.3">
@@ -10418,11 +10580,11 @@
       </c>
       <c r="R91" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>6B64C614</v>
+        <v>6B6C1C54</v>
       </c>
       <c r="S91" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>D6C98C28</v>
+        <v>D6D838A8</v>
       </c>
       <c r="U91">
         <v>77</v>
@@ -10432,31 +10594,31 @@
       </c>
       <c r="W91" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>5E0F2053</v>
+        <v>A1A404A7</v>
       </c>
       <c r="X91" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>3780A0B4</v>
+        <v>170236B9</v>
       </c>
       <c r="Y91" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>3780A0B4</v>
+        <v>170236B9</v>
       </c>
       <c r="Z91" t="str">
         <f t="shared" ref="Z91:AC91" ca="1" si="111">Y90</f>
-        <v>46E3A994</v>
+        <v>6CDF48F7</v>
       </c>
       <c r="AA91" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>72FA2647</v>
+        <v>696A8444</v>
       </c>
       <c r="AB91" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>BD6AD3A4</v>
+        <v>D6D3A4C5</v>
       </c>
       <c r="AC91" s="19" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>288D6AEA</v>
+        <v>D2DDB173</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.3">
@@ -10510,11 +10672,11 @@
       </c>
       <c r="R92" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>74F907C8</v>
+        <v>71F2AA48</v>
       </c>
       <c r="S92" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>E9F20F90</v>
+        <v>E3E55490</v>
       </c>
       <c r="U92">
         <v>78</v>
@@ -10524,31 +10686,31 @@
       </c>
       <c r="W92" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>89735C77</v>
+        <v>D3666876</v>
       </c>
       <c r="X92" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>5669AF4D</v>
+        <v>34D30771</v>
       </c>
       <c r="Y92" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>5669AF4D</v>
+        <v>34D30771</v>
       </c>
       <c r="Z92" t="str">
         <f t="shared" ref="Z92:AC92" ca="1" si="112">Y91</f>
-        <v>3780A0B4</v>
+        <v>170236B9</v>
       </c>
       <c r="AA92" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>11B8EA65</v>
+        <v>DB37D23D</v>
       </c>
       <c r="AB92" t="str">
         <f t="shared" ca="1" si="112"/>
-        <v>72FA2647</v>
+        <v>696A8444</v>
       </c>
       <c r="AC92" s="19" t="str">
         <f t="shared" ca="1" si="112"/>
-        <v>BD6AD3A4</v>
+        <v>D6D3A4C5</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.3">
@@ -10616,31 +10778,31 @@
       </c>
       <c r="W93" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>54C26C96</v>
+        <v>A55F60C0</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>F1E1D3BA</v>
+        <v>29129D81</v>
       </c>
       <c r="Y93" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>F1E1D3BA</v>
+        <v>29129D81</v>
       </c>
       <c r="Z93" t="str">
         <f t="shared" ref="Z93:AC93" ca="1" si="113">Y92</f>
-        <v>5669AF4D</v>
+        <v>34D30771</v>
       </c>
       <c r="AA93" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>0DE0282D</v>
+        <v>45C08DAE</v>
       </c>
       <c r="AB93" t="str">
         <f t="shared" ca="1" si="113"/>
-        <v>11B8EA65</v>
+        <v>DB37D23D</v>
       </c>
       <c r="AC93" s="19" t="str">
         <f t="shared" ca="1" si="113"/>
-        <v>72FA2647</v>
+        <v>696A8444</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.3">
@@ -10694,11 +10856,11 @@
       </c>
       <c r="R94" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>B7383E1F</v>
+        <v>B518839F</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>6E707C3F</v>
+        <v>6A31073F</v>
       </c>
       <c r="U94" s="12">
         <v>80</v>
@@ -10708,31 +10870,31 @@
       </c>
       <c r="W94" s="13" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>4A316D05</v>
+        <v>AA2458E2</v>
       </c>
       <c r="X94" s="12" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>323948BF</v>
+        <v>6A765660</v>
       </c>
       <c r="Y94" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>323948BF</v>
+        <v>6A765660</v>
       </c>
       <c r="Z94" t="str">
         <f t="shared" ref="Z94:AC94" ca="1" si="114">Y93</f>
-        <v>F1E1D3BA</v>
+        <v>29129D81</v>
       </c>
       <c r="AA94" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>559A6BD3</v>
+        <v>4D34C1DC</v>
       </c>
       <c r="AB94" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v>0DE0282D</v>
+        <v>45C08DAE</v>
       </c>
       <c r="AC94" s="19" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v>11B8EA65</v>
+        <v>DB37D23D</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.3">
@@ -10764,23 +10926,23 @@
       </c>
       <c r="Y95" s="21" t="str">
         <f t="shared" ref="Y95:AC95" ca="1" si="116">DEC2HEX(_xlfn.BITAND(HEX2DEC(Y94)+HEX2DEC(Y14),4294967295),8)</f>
-        <v>9ABE485C</v>
+        <v>D2FB55FD</v>
       </c>
       <c r="Z95" s="22" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>FC82A330</v>
+        <v>33B36CF7</v>
       </c>
       <c r="AA95" s="22" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>BB100F7F</v>
+        <v>B2AA6588</v>
       </c>
       <c r="AB95" s="22" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>A6AF85D0</v>
+        <v>DE8FEB51</v>
       </c>
       <c r="AC95" s="6" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>7BFF4A4E</v>
+        <v>457E3226</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.3">
@@ -10790,17 +10952,17 @@
       </c>
       <c r="Y96" t="str">
         <f ca="1">Y95&amp;Z95&amp;AA95&amp;AB95&amp;AC95</f>
-        <v>9ABE485CFC82A330BB100F7FA6AF85D07BFF4A4E</v>
+        <v>D2FB55FD33B36CF7B2AA6588DE8FEB51457E3226</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="42" t="str">
         <f ca="1">TOTP!F2</f>
-        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C9ABE485CFC82A330BB100F7FA6AF85D07BFF4A4E</v>
+        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5CD2FB55FD33B36CF7B2AA6588DE8FEB51457E3226</v>
       </c>
       <c r="B101" t="str" cm="1">
         <f t="array" aca="1" ref="B101" ca="1">_xlfn.TEXTJOIN("", TRUE, DEC2BIN(HEX2DEC(MID(UPPER(A101), ROW(INDIRECT("1:" &amp; LEN(A101))), 1)), 4))</f>
-        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111001001101010111110010010000101110011111100100000101010001100110000101110110001000000001111011111111010011010101111100001011101000001111011111111110100101001001110</v>
+        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111001101001011111011010101011111110100110011101100110110110011110111101100101010101001100101100010001101111010001111111010110101000101000101011111100011001000100110</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>32</v>
@@ -10837,7 +10999,7 @@
       </c>
       <c r="B102" t="str">
         <f ca="1">B101&amp;"1"&amp;REPT("0",J101)</f>
-        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111001001101010111110010010000101110011111100100000101010001100110000101110110001000000001111011111111010011010101111100001011101000001111011111111110100101001001110100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111001101001011111011010101011111110100110011101100110110110011110111101100101010101001100101100010001101111010001111111010110101000101000101011111100011001000100110100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="E102" t="str">
         <f ca="1">"...("&amp;LEN(B102)&amp;")"</f>
@@ -10907,7 +11069,7 @@
       </c>
       <c r="B108" t="str">
         <f ca="1">B102&amp;B107</f>
-        <v>0101110000011000011011100100100010011011000111100000100011101010011010011001001111011000001110010110011000001010100010111001101000101001111000100010101110000011010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110010011010101111100100100001011100111111001000001010100011001100001011101100010000000011110111111110100110101011111000010111010000011110111111111101001010010011101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
+        <v>0101110000011000011011100100100010011011000111100000100011101010011010011001001111011000001110010110011000001010100010111001101000101001111000100010101110000011010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110011010010111110110101010111111101001100111011001101101100111101111011001010101010011001011000100011011110100011111110101101010001010001010111111000110010001001101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
       </c>
       <c r="E108" t="str">
         <f ca="1">"...("&amp;LEN(B108)&amp;")"</f>
@@ -10922,7 +11084,7 @@
     <row r="112" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="str">
         <f ca="1">IF($F$101=1,J196,Y196)</f>
-        <v>74C91FAAE15A6BB94C48814798333A7D65729A48</v>
+        <v>A1090B8A7378478BA86CFB4DAEBA2B510267B540</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -10959,7 +11121,7 @@
       </c>
       <c r="Q113" s="5" t="str">
         <f ca="1">MID(B108,513,512)</f>
-        <v>10011010101111100100100001011100111111001000001010100011001100001011101100010000000011110111111110100110101011111000010111010000011110111111111101001010010011101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
+        <v>11010010111110110101010111111101001100111011001101101100111101111011001010101010011001011000100011011110100011111110101101010001010001010111111000110010001001101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
       </c>
       <c r="R113" s="6"/>
       <c r="S113" t="str">
@@ -11120,15 +11282,15 @@
       </c>
       <c r="Q115" t="str">
         <f ca="1">MID($Q$113,32*(U115-1)+1,32)</f>
-        <v>10011010101111100100100001011100</v>
+        <v>11010010111110110101010111111101</v>
       </c>
       <c r="R115" t="str">
         <f ca="1">TEXT(BIN2HEX(MID(Q115,1,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q115,9,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q115,17,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q115,25,8),2),"00")</f>
-        <v>9ABE485C</v>
+        <v>D2FB55FD</v>
       </c>
       <c r="S115" t="str">
         <f t="shared" ref="S115:S130" ca="1" si="118">R115</f>
-        <v>9ABE485C</v>
+        <v>D2FB55FD</v>
       </c>
       <c r="U115">
         <v>1</v>
@@ -11142,11 +11304,11 @@
       </c>
       <c r="X115" t="str">
         <f t="shared" ref="X115:X178" ca="1" si="120">DEC2HEX(MOD(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(Y114),5),_xlfn.BITRSHIFT(HEX2DEC(Y114),27)),4294967295)+HEX2DEC(W115)+HEX2DEC(AC114)+HEX2DEC(V115)+HEX2DEC(S115),4294967296),8)</f>
-        <v>9BDF366E</v>
+        <v>D41C440F</v>
       </c>
       <c r="Y115" s="7" t="str">
         <f t="shared" ref="Y115:Y178" ca="1" si="121">X115</f>
-        <v>9BDF366E</v>
+        <v>D41C440F</v>
       </c>
       <c r="Z115" t="str">
         <f t="shared" ref="Z115:Z178" ca="1" si="122">Y114</f>
@@ -11214,15 +11376,15 @@
       </c>
       <c r="Q116" t="str">
         <f t="shared" ref="Q116:Q130" ca="1" si="135">MID($Q$113,32*(U116-1)+1,32)</f>
-        <v>11111100100000101010001100110000</v>
+        <v>00110011101100110110110011110111</v>
       </c>
       <c r="R116" t="str">
         <f t="shared" ref="R116:R130" ca="1" si="136">TEXT(BIN2HEX(MID(Q116,1,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q116,9,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q116,17,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q116,25,8),2),"00")</f>
-        <v>FC82A330</v>
+        <v>33B36CF7</v>
       </c>
       <c r="S116" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>FC82A330</v>
+        <v>33B36CF7</v>
       </c>
       <c r="U116">
         <v>2</v>
@@ -11236,15 +11398,15 @@
       </c>
       <c r="X116" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>C4FBE95C</v>
+        <v>03CE674A</v>
       </c>
       <c r="Y116" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>C4FBE95C</v>
+        <v>03CE674A</v>
       </c>
       <c r="Z116" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>9BDF366E</v>
+        <v>D41C440F</v>
       </c>
       <c r="AA116" t="str">
         <f t="shared" ca="1" si="123"/>
@@ -11308,15 +11470,15 @@
       </c>
       <c r="Q117" t="str">
         <f t="shared" ca="1" si="135"/>
-        <v>10111011000100000000111101111111</v>
+        <v>10110010101010100110010110001000</v>
       </c>
       <c r="R117" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>BB100F7F</v>
+        <v>B2AA6588</v>
       </c>
       <c r="S117" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>BB100F7F</v>
+        <v>B2AA6588</v>
       </c>
       <c r="U117">
         <v>3</v>
@@ -11326,23 +11488,23 @@
       </c>
       <c r="W117" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>A3A5537F</v>
+        <v>E125213E</v>
       </c>
       <c r="X117" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>5E263222</v>
+        <v>6D901392</v>
       </c>
       <c r="Y117" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>5E263222</v>
+        <v>6D901392</v>
       </c>
       <c r="Z117" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>C4FBE95C</v>
+        <v>03CE674A</v>
       </c>
       <c r="AA117" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>A6F7CD9B</v>
+        <v>F5071103</v>
       </c>
       <c r="AB117" t="str">
         <f t="shared" ca="1" si="124"/>
@@ -11402,15 +11564,15 @@
       </c>
       <c r="Q118" t="str">
         <f t="shared" ca="1" si="135"/>
-        <v>10100110101011111000010111010000</v>
+        <v>11011110100011111110101101010001</v>
       </c>
       <c r="R118" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>A6AF85D0</v>
+        <v>DE8FEB51</v>
       </c>
       <c r="S118" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>A6AF85D0</v>
+        <v>DE8FEB51</v>
       </c>
       <c r="U118">
         <v>4</v>
@@ -11420,27 +11582,27 @@
       </c>
       <c r="W118" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>87F7DB3A</v>
+        <v>C1279126</v>
       </c>
       <c r="X118" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>6F19842B</v>
+        <v>CD65CD9A</v>
       </c>
       <c r="Y118" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>6F19842B</v>
+        <v>CD65CD9A</v>
       </c>
       <c r="Z118" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>5E263222</v>
+        <v>6D901392</v>
       </c>
       <c r="AA118" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>313EFA57</v>
+        <v>80F399D2</v>
       </c>
       <c r="AB118" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>A6F7CD9B</v>
+        <v>F5071103</v>
       </c>
       <c r="AC118" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
@@ -11496,15 +11658,15 @@
       </c>
       <c r="Q119" t="str">
         <f t="shared" ca="1" si="135"/>
-        <v>01111011111111110100101001001110</v>
+        <v>01000101011111100011001000100110</v>
       </c>
       <c r="R119" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>7BFF4A4E</v>
+        <v>457E3226</v>
       </c>
       <c r="S119" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>7BFF4A4E</v>
+        <v>457E3226</v>
       </c>
       <c r="U119">
         <v>5</v>
@@ -11514,31 +11676,31 @@
       </c>
       <c r="W119" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>B0F7FF9B</v>
+        <v>90971193</v>
       </c>
       <c r="X119" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>2E4FDB5D</v>
+        <v>A0F70319</v>
       </c>
       <c r="Y119" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>2E4FDB5D</v>
+        <v>A0F70319</v>
       </c>
       <c r="Z119" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>6F19842B</v>
+        <v>CD65CD9A</v>
       </c>
       <c r="AA119" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>97898C88</v>
+        <v>9B6404E4</v>
       </c>
       <c r="AB119" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>313EFA57</v>
+        <v>80F399D2</v>
       </c>
       <c r="AC119" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>A6F7CD9B</v>
+        <v>F5071103</v>
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.3">
@@ -11608,31 +11770,31 @@
       </c>
       <c r="W120" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>172FFE5C</v>
+        <v>89F614C0</v>
       </c>
       <c r="X120" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>62A5B135</v>
+        <v>78600290</v>
       </c>
       <c r="Y120" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>62A5B135</v>
+        <v>78600290</v>
       </c>
       <c r="Z120" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>2E4FDB5D</v>
+        <v>A0F70319</v>
       </c>
       <c r="AA120" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>DBC6610A</v>
+        <v>B3597366</v>
       </c>
       <c r="AB120" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>97898C88</v>
+        <v>9B6404E4</v>
       </c>
       <c r="AC120" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>313EFA57</v>
+        <v>80F399D2</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.3">
@@ -11702,31 +11864,31 @@
       </c>
       <c r="W121" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>9BC64588</v>
+        <v>BB5107E4</v>
       </c>
       <c r="X121" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>7C3DE024</v>
+        <v>A2C76D5E</v>
       </c>
       <c r="Y121" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>7C3DE024</v>
+        <v>A2C76D5E</v>
       </c>
       <c r="Z121" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>62A5B135</v>
+        <v>78600290</v>
       </c>
       <c r="AA121" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>4B93F6D7</v>
+        <v>683DC0C6</v>
       </c>
       <c r="AB121" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>DBC6610A</v>
+        <v>B3597366</v>
       </c>
       <c r="AC121" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>97898C88</v>
+        <v>9B6404E4</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.3">
@@ -11796,31 +11958,31 @@
       </c>
       <c r="W122" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>DBC3F01F</v>
+        <v>EB3971E6</v>
       </c>
       <c r="X122" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>558BFACF</v>
+        <v>3A0D9C37</v>
       </c>
       <c r="Y122" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>558BFACF</v>
+        <v>3A0D9C37</v>
       </c>
       <c r="Z122" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>7C3DE024</v>
+        <v>A2C76D5E</v>
       </c>
       <c r="AA122" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>58A96C4D</v>
+        <v>1E1800A4</v>
       </c>
       <c r="AB122" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>4B93F6D7</v>
+        <v>683DC0C6</v>
       </c>
       <c r="AC122" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>DBC6610A</v>
+        <v>B3597366</v>
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.3">
@@ -11890,31 +12052,31 @@
       </c>
       <c r="W123" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>5BAB76D7</v>
+        <v>4A388084</v>
       </c>
       <c r="X123" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>4373AB64</v>
+        <v>99C7F46A</v>
       </c>
       <c r="Y123" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>4373AB64</v>
+        <v>99C7F46A</v>
       </c>
       <c r="Z123" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>558BFACF</v>
+        <v>3A0D9C37</v>
       </c>
       <c r="AA123" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1F0F7809</v>
+        <v>A8B1DB57</v>
       </c>
       <c r="AB123" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>58A96C4D</v>
+        <v>1E1800A4</v>
       </c>
       <c r="AC123" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>4B93F6D7</v>
+        <v>683DC0C6</v>
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.3">
@@ -11984,31 +12146,31 @@
       </c>
       <c r="W124" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>1D2B7C09</v>
+        <v>2C119897</v>
       </c>
       <c r="X124" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>31B75901</v>
+        <v>27D06049</v>
       </c>
       <c r="Y124" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>31B75901</v>
+        <v>27D06049</v>
       </c>
       <c r="Z124" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>4373AB64</v>
+        <v>99C7F46A</v>
       </c>
       <c r="AA124" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>D562FEB3</v>
+        <v>CE83670D</v>
       </c>
       <c r="AB124" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1F0F7809</v>
+        <v>A8B1DB57</v>
       </c>
       <c r="AC124" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>58A96C4D</v>
+        <v>1E1800A4</v>
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.3">
@@ -12078,31 +12240,31 @@
       </c>
       <c r="W125" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>5D6EFA29</v>
+        <v>A8B36F1D</v>
       </c>
       <c r="X125" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>47860035</v>
+        <v>1B59F27E</v>
       </c>
       <c r="Y125" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>47860035</v>
+        <v>1B59F27E</v>
       </c>
       <c r="Z125" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>31B75901</v>
+        <v>27D06049</v>
       </c>
       <c r="AA125" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>10DCEAD9</v>
+        <v>A671FD1A</v>
       </c>
       <c r="AB125" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>D562FEB3</v>
+        <v>CE83670D</v>
       </c>
       <c r="AC125" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1F0F7809</v>
+        <v>A8B1DB57</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.3">
@@ -12172,31 +12334,31 @@
       </c>
       <c r="W126" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>D4D4EEB3</v>
+        <v>EE53670C</v>
       </c>
       <c r="X126" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>3F26E6FD</v>
+        <v>5CC60BBF</v>
       </c>
       <c r="Y126" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>3F26E6FD</v>
+        <v>5CC60BBF</v>
       </c>
       <c r="Z126" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>47860035</v>
+        <v>1B59F27E</v>
       </c>
       <c r="AA126" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>4C6DD640</v>
+        <v>49F41812</v>
       </c>
       <c r="AB126" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>10DCEAD9</v>
+        <v>A671FD1A</v>
       </c>
       <c r="AC126" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>D562FEB3</v>
+        <v>CE83670D</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.3">
@@ -12266,31 +12428,31 @@
       </c>
       <c r="W127" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>545CEAC8</v>
+        <v>AD701D12</v>
       </c>
       <c r="X127" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>691F42BB</v>
+        <v>6F3775A3</v>
       </c>
       <c r="Y127" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>691F42BB</v>
+        <v>6F3775A3</v>
       </c>
       <c r="Z127" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>3F26E6FD</v>
+        <v>5CC60BBF</v>
       </c>
       <c r="AA127" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>51E1800D</v>
+        <v>86D67C9F</v>
       </c>
       <c r="AB127" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>4C6DD640</v>
+        <v>49F41812</v>
       </c>
       <c r="AC127" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>10DCEAD9</v>
+        <v>A671FD1A</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.3">
@@ -12360,31 +12522,31 @@
       </c>
       <c r="W128" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>5169900D</v>
+        <v>05F6189F</v>
       </c>
       <c r="X128" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>E0B14BEC</v>
+        <v>EDD943BF</v>
       </c>
       <c r="Y128" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>E0B14BEC</v>
+        <v>EDD943BF</v>
       </c>
       <c r="Z128" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>691F42BB</v>
+        <v>6F3775A3</v>
       </c>
       <c r="AA128" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>4FC9B9BF</v>
+        <v>D73182EF</v>
       </c>
       <c r="AB128" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>51E1800D</v>
+        <v>86D67C9F</v>
       </c>
       <c r="AC128" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>4C6DD640</v>
+        <v>49F41812</v>
       </c>
     </row>
     <row r="129" spans="2:29" x14ac:dyDescent="0.3">
@@ -12454,31 +12616,31 @@
       </c>
       <c r="W129" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>59E980BF</v>
+        <v>C7F108BF</v>
       </c>
       <c r="X129" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>17034E34</v>
+        <v>27901267</v>
       </c>
       <c r="Y129" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>17034E34</v>
+        <v>27901267</v>
       </c>
       <c r="Z129" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>E0B14BEC</v>
+        <v>EDD943BF</v>
       </c>
       <c r="AA129" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>DA47D0AE</v>
+        <v>DBCDDD68</v>
       </c>
       <c r="AB129" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>4FC9B9BF</v>
+        <v>D73182EF</v>
       </c>
       <c r="AC129" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>51E1800D</v>
+        <v>86D67C9F</v>
       </c>
     </row>
     <row r="130" spans="2:29" x14ac:dyDescent="0.3">
@@ -12548,35 +12710,35 @@
       </c>
       <c r="W130" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>CF49F0BF</v>
+        <v>DBE9C168</v>
       </c>
       <c r="X130" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>5C17B387</v>
+        <v>AF450724</v>
       </c>
       <c r="Y130" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>5C17B387</v>
+        <v>AF450724</v>
       </c>
       <c r="Z130" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>17034E34</v>
+        <v>27901267</v>
       </c>
       <c r="AA130" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>382C52FB</v>
+        <v>FB7650EF</v>
       </c>
       <c r="AB130" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>DA47D0AE</v>
+        <v>DBCDDD68</v>
       </c>
       <c r="AC130" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>4FC9B9BF</v>
+        <v>D73182EF</v>
       </c>
     </row>
     <row r="131" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B131" s="47" t="s">
+      <c r="B131" s="57" t="s">
         <v>63</v>
       </c>
       <c r="C131" s="11" t="str">
@@ -12621,16 +12783,16 @@
         <f t="shared" ca="1" si="134"/>
         <v>56DD2C8C</v>
       </c>
-      <c r="Q131" s="47" t="s">
+      <c r="Q131" s="57" t="s">
         <v>63</v>
       </c>
       <c r="R131" s="11" t="str">
         <f t="shared" ref="R131:R194" ca="1" si="137">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(S128),HEX2DEC(S123)),_xlfn.BITXOR(HEX2DEC(S117),HEX2DEC(S115))),8)</f>
-        <v>21AE4723</v>
+        <v>60513075</v>
       </c>
       <c r="S131" s="11" t="str">
         <f t="shared" ref="S131:S194" ca="1" si="138">DEC2HEX(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(R131),1),_xlfn.BITRSHIFT(HEX2DEC(R131),31)),4294967295),8)</f>
-        <v>435C8E46</v>
+        <v>C0A260EA</v>
       </c>
       <c r="U131">
         <v>17</v>
@@ -12640,35 +12802,35 @@
       </c>
       <c r="W131" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>D844D2BA</v>
+        <v>FB5DDD6F</v>
       </c>
       <c r="X131" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>48E40543</v>
+        <v>D6551F76</v>
       </c>
       <c r="Y131" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>48E40543</v>
+        <v>D6551F76</v>
       </c>
       <c r="Z131" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>5C17B387</v>
+        <v>AF450724</v>
       </c>
       <c r="AA131" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>05C0D38D</v>
+        <v>C9E40499</v>
       </c>
       <c r="AB131" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>382C52FB</v>
+        <v>FB7650EF</v>
       </c>
       <c r="AC131" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>DA47D0AE</v>
+        <v>DBCDDD68</v>
       </c>
     </row>
     <row r="132" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B132" s="48"/>
+      <c r="B132" s="58"/>
       <c r="C132" t="str">
         <f ca="1">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D129),HEX2DEC(D124)),_xlfn.BITXOR(HEX2DEC(D118),HEX2DEC(D116))),8)</f>
         <v>FD148370</v>
@@ -12711,14 +12873,14 @@
         <f t="shared" ca="1" si="134"/>
         <v>710839EC</v>
       </c>
-      <c r="Q132" s="48"/>
+      <c r="Q132" s="58"/>
       <c r="R132" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>5A2D26E0</v>
+        <v>ED3C87A6</v>
       </c>
       <c r="S132" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>B45A4DC0</v>
+        <v>DA790F4D</v>
       </c>
       <c r="U132">
         <v>18</v>
@@ -12728,35 +12890,35 @@
       </c>
       <c r="W132" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>2428D3FD</v>
+        <v>D97654CB</v>
       </c>
       <c r="X132" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>29CE146D</v>
+        <v>B4E3A9F3</v>
       </c>
       <c r="Y132" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>29CE146D</v>
+        <v>B4E3A9F3</v>
       </c>
       <c r="Z132" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>48E40543</v>
+        <v>D6551F76</v>
       </c>
       <c r="AA132" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>D705ECE1</v>
+        <v>2BD141C9</v>
       </c>
       <c r="AB132" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>05C0D38D</v>
+        <v>C9E40499</v>
       </c>
       <c r="AC132" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>382C52FB</v>
+        <v>FB7650EF</v>
       </c>
     </row>
     <row r="133" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B133" s="48"/>
+      <c r="B133" s="58"/>
       <c r="C133" t="str">
         <f t="shared" ref="C133:C194" ca="1" si="139">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D130),HEX2DEC(D125)),_xlfn.BITXOR(HEX2DEC(D119),HEX2DEC(D117))),8)</f>
         <v>4071F3BA</v>
@@ -12799,14 +12961,14 @@
         <f t="shared" ca="1" si="134"/>
         <v>A0ECE362</v>
       </c>
-      <c r="Q133" s="48"/>
+      <c r="Q133" s="58"/>
       <c r="R133" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>C0EF4791</v>
+        <v>F7D4550E</v>
       </c>
       <c r="S133" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>81DE8F23</v>
+        <v>EFA8AA1D</v>
       </c>
       <c r="U133">
         <v>19</v>
@@ -12816,35 +12978,35 @@
       </c>
       <c r="W133" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>4504D6CD</v>
+        <v>0BF101C9</v>
       </c>
       <c r="X133" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>9354C029</v>
+        <v>EE07B4E4</v>
       </c>
       <c r="Y133" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>9354C029</v>
+        <v>EE07B4E4</v>
       </c>
       <c r="Z133" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>29CE146D</v>
+        <v>B4E3A9F3</v>
       </c>
       <c r="AA133" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>D2390150</v>
+        <v>B59547DD</v>
       </c>
       <c r="AB133" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>D705ECE1</v>
+        <v>2BD141C9</v>
       </c>
       <c r="AC133" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>05C0D38D</v>
+        <v>C9E40499</v>
       </c>
     </row>
     <row r="134" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="48"/>
+      <c r="B134" s="58"/>
       <c r="C134" t="str">
         <f t="shared" ca="1" si="139"/>
         <v>0D1DE778</v>
@@ -12887,14 +13049,14 @@
         <f t="shared" ca="1" si="134"/>
         <v>01337874</v>
       </c>
-      <c r="Q134" s="48"/>
+      <c r="Q134" s="58"/>
       <c r="R134" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>65F30B96</v>
+        <v>9E2D8BBB</v>
       </c>
       <c r="S134" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>CBE6172C</v>
+        <v>3C5B1777</v>
       </c>
       <c r="U134" s="12">
         <v>20</v>
@@ -12904,31 +13066,31 @@
       </c>
       <c r="W134" s="13" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>D609E8C0</v>
+        <v>BF9141D9</v>
       </c>
       <c r="X134" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>6CCB5244</v>
+        <v>E149741F</v>
       </c>
       <c r="Y134" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>6CCB5244</v>
+        <v>E149741F</v>
       </c>
       <c r="Z134" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>9354C029</v>
+        <v>EE07B4E4</v>
       </c>
       <c r="AA134" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>4A73851B</v>
+        <v>ED38EA7C</v>
       </c>
       <c r="AB134" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>D2390150</v>
+        <v>B59547DD</v>
       </c>
       <c r="AC134" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>D705ECE1</v>
+        <v>2BD141C9</v>
       </c>
     </row>
     <row r="135" spans="2:29" x14ac:dyDescent="0.3">
@@ -12982,11 +13144,11 @@
       </c>
       <c r="R135" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>CFA5078E</v>
+        <v>9F073D6B</v>
       </c>
       <c r="S135" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>9F4A0F1D</v>
+        <v>3E0E7AD7</v>
       </c>
       <c r="U135">
         <v>21</v>
@@ -12996,31 +13158,31 @@
       </c>
       <c r="W135" s="7" t="str">
         <f t="shared" ref="W135:W154" ca="1" si="141">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z134),HEX2DEC(AA134)),HEX2DEC(AB134)),8)</f>
-        <v>0B1E4462</v>
+        <v>B6AA1945</v>
       </c>
       <c r="X135" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>89B2748E</v>
+        <v>B8924582</v>
       </c>
       <c r="Y135" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>89B2748E</v>
+        <v>B8924582</v>
       </c>
       <c r="Z135" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>6CCB5244</v>
+        <v>E149741F</v>
       </c>
       <c r="AA135" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>64D5300A</v>
+        <v>3B81ED39</v>
       </c>
       <c r="AB135" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>4A73851B</v>
+        <v>ED38EA7C</v>
       </c>
       <c r="AC135" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>D2390150</v>
+        <v>B59547DD</v>
       </c>
     </row>
     <row r="136" spans="2:29" x14ac:dyDescent="0.3">
@@ -13074,11 +13236,11 @@
       </c>
       <c r="R136" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>01DE8F23</v>
+        <v>6FA8AA1D</v>
       </c>
       <c r="S136" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>03BD1E46</v>
+        <v>DF51543A</v>
       </c>
       <c r="U136">
         <v>22</v>
@@ -13088,31 +13250,31 @@
       </c>
       <c r="W136" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>426DE755</v>
+        <v>37F0735A</v>
       </c>
       <c r="X136" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>BD8C845D</v>
+        <v>4DF9AB69</v>
       </c>
       <c r="Y136" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>BD8C845D</v>
+        <v>4DF9AB69</v>
       </c>
       <c r="Z136" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>89B2748E</v>
+        <v>B8924582</v>
       </c>
       <c r="AA136" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1B32D491</v>
+        <v>F8525D07</v>
       </c>
       <c r="AB136" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>64D5300A</v>
+        <v>3B81ED39</v>
       </c>
       <c r="AC136" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>4A73851B</v>
+        <v>ED38EA7C</v>
       </c>
     </row>
     <row r="137" spans="2:29" x14ac:dyDescent="0.3">
@@ -13166,11 +13328,11 @@
       </c>
       <c r="R137" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>CBE6172C</v>
+        <v>3C5B1777</v>
       </c>
       <c r="S137" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>97CC2E59</v>
+        <v>78B62EEE</v>
       </c>
       <c r="U137">
         <v>23</v>
@@ -13180,31 +13342,31 @@
       </c>
       <c r="W137" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>F6559015</v>
+        <v>7B41F5BC</v>
       </c>
       <c r="X137" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F8FFBAE1</v>
+        <v>0F4067F0</v>
       </c>
       <c r="Y137" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F8FFBAE1</v>
+        <v>0F4067F0</v>
       </c>
       <c r="Z137" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>BD8C845D</v>
+        <v>4DF9AB69</v>
       </c>
       <c r="AA137" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>A26C9D23</v>
+        <v>AE249160</v>
       </c>
       <c r="AB137" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1B32D491</v>
+        <v>F8525D07</v>
       </c>
       <c r="AC137" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>64D5300A</v>
+        <v>3B81ED39</v>
       </c>
     </row>
     <row r="138" spans="2:29" x14ac:dyDescent="0.3">
@@ -13258,11 +13420,11 @@
       </c>
       <c r="R138" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>9F4A0DBD</v>
+        <v>3E0E7877</v>
       </c>
       <c r="S138" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>3E941B7B</v>
+        <v>7C1CF0EE</v>
       </c>
       <c r="U138">
         <v>24</v>
@@ -13272,31 +13434,31 @@
       </c>
       <c r="W138" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>04D2CDEF</v>
+        <v>1B8F670E</v>
       </c>
       <c r="X138" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>370D6154</v>
+        <v>2A152ED7</v>
       </c>
       <c r="Y138" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>370D6154</v>
+        <v>2A152ED7</v>
       </c>
       <c r="Z138" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F8FFBAE1</v>
+        <v>0F4067F0</v>
       </c>
       <c r="AA138" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>6F632117</v>
+        <v>537E6ADA</v>
       </c>
       <c r="AB138" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>A26C9D23</v>
+        <v>AE249160</v>
       </c>
       <c r="AC138" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1B32D491</v>
+        <v>F8525D07</v>
       </c>
     </row>
     <row r="139" spans="2:29" x14ac:dyDescent="0.3">
@@ -13350,11 +13512,11 @@
       </c>
       <c r="R139" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>40E19000</v>
+        <v>1FF334D0</v>
       </c>
       <c r="S139" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>81C32000</v>
+        <v>3FE669A0</v>
       </c>
       <c r="U139">
         <v>25</v>
@@ -13364,31 +13526,31 @@
       </c>
       <c r="W139" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>35F006D5</v>
+        <v>F21A9C4A</v>
       </c>
       <c r="X139" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>236C118D</v>
+        <v>DBD32977</v>
       </c>
       <c r="Y139" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>236C118D</v>
+        <v>DBD32977</v>
       </c>
       <c r="Z139" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>370D6154</v>
+        <v>2A152ED7</v>
       </c>
       <c r="AA139" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>7E3FEEB8</v>
+        <v>03D019FC</v>
       </c>
       <c r="AB139" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>6F632117</v>
+        <v>537E6ADA</v>
       </c>
       <c r="AC139" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>A26C9D23</v>
+        <v>AE249160</v>
       </c>
     </row>
     <row r="140" spans="2:29" x14ac:dyDescent="0.3">
@@ -13442,11 +13604,11 @@
       </c>
       <c r="R140" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>23966399</v>
+        <v>A2CF21A3</v>
       </c>
       <c r="S140" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>472CC732</v>
+        <v>459E4347</v>
       </c>
       <c r="U140">
         <v>26</v>
@@ -13456,31 +13618,31 @@
       </c>
       <c r="W140" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>2651AEFB</v>
+        <v>7ABB5DF1</v>
       </c>
       <c r="X140" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>EC473095</v>
+        <v>57BD4D34</v>
       </c>
       <c r="Y140" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>EC473095</v>
+        <v>57BD4D34</v>
       </c>
       <c r="Z140" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>236C118D</v>
+        <v>DBD32977</v>
       </c>
       <c r="AA140" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>0DC35855</v>
+        <v>CA854BB5</v>
       </c>
       <c r="AB140" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>7E3FEEB8</v>
+        <v>03D019FC</v>
       </c>
       <c r="AC140" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>6F632117</v>
+        <v>537E6ADA</v>
       </c>
     </row>
     <row r="141" spans="2:29" x14ac:dyDescent="0.3">
@@ -13534,11 +13696,11 @@
       </c>
       <c r="R141" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>BF4A9458</v>
+        <v>93B45AF3</v>
       </c>
       <c r="S141" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>7E9528B1</v>
+        <v>2768B5E7</v>
       </c>
       <c r="U141">
         <v>27</v>
@@ -13548,31 +13710,31 @@
       </c>
       <c r="W141" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>5090A760</v>
+        <v>12867B3E</v>
       </c>
       <c r="X141" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>3648EF86</v>
+        <v>F3F12E2A</v>
       </c>
       <c r="Y141" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>3648EF86</v>
+        <v>F3F12E2A</v>
       </c>
       <c r="Z141" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>EC473095</v>
+        <v>57BD4D34</v>
       </c>
       <c r="AA141" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>48DB0463</v>
+        <v>F6F4CA5D</v>
       </c>
       <c r="AB141" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>0DC35855</v>
+        <v>CA854BB5</v>
       </c>
       <c r="AC141" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>7E3FEEB8</v>
+        <v>03D019FC</v>
       </c>
     </row>
     <row r="142" spans="2:29" x14ac:dyDescent="0.3">
@@ -13626,11 +13788,11 @@
       </c>
       <c r="R142" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>4A25372C</v>
+        <v>03BD7ED7</v>
       </c>
       <c r="S142" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>944A6E58</v>
+        <v>077AFDAE</v>
       </c>
       <c r="U142">
         <v>28</v>
@@ -13640,31 +13802,31 @@
       </c>
       <c r="W142" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>A95F6CA3</v>
+        <v>6BCCCCDC</v>
       </c>
       <c r="X142" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F3E1A61A</v>
+        <v>64179585</v>
       </c>
       <c r="Y142" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F3E1A61A</v>
+        <v>64179585</v>
       </c>
       <c r="Z142" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>3648EF86</v>
+        <v>F3F12E2A</v>
       </c>
       <c r="AA142" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>7B11CC25</v>
+        <v>15EF534D</v>
       </c>
       <c r="AB142" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>48DB0463</v>
+        <v>F6F4CA5D</v>
       </c>
       <c r="AC142" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>0DC35855</v>
+        <v>CA854BB5</v>
       </c>
     </row>
     <row r="143" spans="2:29" x14ac:dyDescent="0.3">
@@ -13718,11 +13880,11 @@
       </c>
       <c r="R143" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>D866C82F</v>
+        <v>7B903990</v>
       </c>
       <c r="S143" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>B0CD905F</v>
+        <v>F7207320</v>
       </c>
       <c r="U143">
         <v>29</v>
@@ -13732,31 +13894,31 @@
       </c>
       <c r="W143" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>058227C0</v>
+        <v>10EAB73A</v>
       </c>
       <c r="X143" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>AF21BF73</v>
+        <v>C45D125C</v>
       </c>
       <c r="Y143" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>AF21BF73</v>
+        <v>C45D125C</v>
       </c>
       <c r="Z143" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F3E1A61A</v>
+        <v>64179585</v>
       </c>
       <c r="AA143" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>8D923BE1</v>
+        <v>BCFC4B8A</v>
       </c>
       <c r="AB143" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>7B11CC25</v>
+        <v>15EF534D</v>
       </c>
       <c r="AC143" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>48DB0463</v>
+        <v>F6F4CA5D</v>
       </c>
     </row>
     <row r="144" spans="2:29" x14ac:dyDescent="0.3">
@@ -13810,11 +13972,11 @@
       </c>
       <c r="R144" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>7D283457</v>
+        <v>F839E37D</v>
       </c>
       <c r="S144" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>FA5068AE</v>
+        <v>F073C6FB</v>
       </c>
       <c r="U144">
         <v>30</v>
@@ -13824,31 +13986,31 @@
       </c>
       <c r="W144" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>056251DE</v>
+        <v>CD048D42</v>
       </c>
       <c r="X144" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>9B9F9905</v>
+        <v>AEE955D3</v>
       </c>
       <c r="Y144" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>9B9F9905</v>
+        <v>AEE955D3</v>
       </c>
       <c r="Z144" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>AF21BF73</v>
+        <v>C45D125C</v>
       </c>
       <c r="AA144" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>BCF86986</v>
+        <v>5905E561</v>
       </c>
       <c r="AB144" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>8D923BE1</v>
+        <v>BCFC4B8A</v>
       </c>
       <c r="AC144" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>7B11CC25</v>
+        <v>15EF534D</v>
       </c>
     </row>
     <row r="145" spans="2:29" x14ac:dyDescent="0.3">
@@ -13902,11 +14064,11 @@
       </c>
       <c r="R145" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>40DACE47</v>
+        <v>BF6EB3AA</v>
       </c>
       <c r="S145" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>81B59C8E</v>
+        <v>7EDD6755</v>
       </c>
       <c r="U145">
         <v>31</v>
@@ -13916,31 +14078,31 @@
       </c>
       <c r="W145" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>9E4BED14</v>
+        <v>21A4BCB7</v>
       </c>
       <c r="X145" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>7DE0621B</v>
+        <v>02761D6F</v>
       </c>
       <c r="Y145" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>7DE0621B</v>
+        <v>02761D6F</v>
       </c>
       <c r="Z145" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>9B9F9905</v>
+        <v>AEE955D3</v>
       </c>
       <c r="AA145" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>EBC86FDC</v>
+        <v>31174497</v>
       </c>
       <c r="AB145" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>BCF86986</v>
+        <v>5905E561</v>
       </c>
       <c r="AC145" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>8D923BE1</v>
+        <v>BCFC4B8A</v>
       </c>
     </row>
     <row r="146" spans="2:29" x14ac:dyDescent="0.3">
@@ -13994,11 +14156,11 @@
       </c>
       <c r="R146" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>3A03C444</v>
+        <v>51458E23</v>
       </c>
       <c r="S146" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>74078888</v>
+        <v>A28B1C46</v>
       </c>
       <c r="U146">
         <v>32</v>
@@ -14008,31 +14170,31 @@
       </c>
       <c r="W146" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>CCAF9F5F</v>
+        <v>C6FBF425</v>
       </c>
       <c r="X146" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F92F92D8</v>
+        <v>E420F576</v>
       </c>
       <c r="Y146" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F92F92D8</v>
+        <v>E420F576</v>
       </c>
       <c r="Z146" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>7DE0621B</v>
+        <v>02761D6F</v>
       </c>
       <c r="AA146" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>66E7E641</v>
+        <v>EBBA5574</v>
       </c>
       <c r="AB146" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>EBC86FDC</v>
+        <v>31174497</v>
       </c>
       <c r="AC146" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>BCF86986</v>
+        <v>5905E561</v>
       </c>
     </row>
     <row r="147" spans="2:29" x14ac:dyDescent="0.3">
@@ -14086,11 +14248,11 @@
       </c>
       <c r="R147" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>B91149CB</v>
+        <v>E09F65AC</v>
       </c>
       <c r="S147" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>72229397</v>
+        <v>C13ECB59</v>
       </c>
       <c r="U147">
         <v>33</v>
@@ -14100,31 +14262,31 @@
       </c>
       <c r="W147" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>F0CFEB86</v>
+        <v>D8DB0C8C</v>
       </c>
       <c r="X147" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>B4B72F63</v>
+        <v>E61857C3</v>
       </c>
       <c r="Y147" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>B4B72F63</v>
+        <v>E61857C3</v>
       </c>
       <c r="Z147" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F92F92D8</v>
+        <v>E420F576</v>
       </c>
       <c r="AA147" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>DF781886</v>
+        <v>C09D875B</v>
       </c>
       <c r="AB147" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>66E7E641</v>
+        <v>EBBA5574</v>
       </c>
       <c r="AC147" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>EBC86FDC</v>
+        <v>31174497</v>
       </c>
     </row>
     <row r="148" spans="2:29" x14ac:dyDescent="0.3">
@@ -14178,11 +14340,11 @@
       </c>
       <c r="R148" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>B9250150</v>
+        <v>DD613C28</v>
       </c>
       <c r="S148" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>724A02A1</v>
+        <v>BAC27851</v>
       </c>
       <c r="U148">
         <v>34</v>
@@ -14192,31 +14354,31 @@
       </c>
       <c r="W148" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>40B06C1F</v>
+        <v>CF072759</v>
       </c>
       <c r="X148" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>A482B6B3</v>
+        <v>ECC5C85E</v>
       </c>
       <c r="Y148" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>A482B6B3</v>
+        <v>ECC5C85E</v>
       </c>
       <c r="Z148" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>B4B72F63</v>
+        <v>E61857C3</v>
       </c>
       <c r="AA148" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>3E4BE4B6</v>
+        <v>B9083D5D</v>
       </c>
       <c r="AB148" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>DF781886</v>
+        <v>C09D875B</v>
       </c>
       <c r="AC148" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>66E7E641</v>
+        <v>EBBA5574</v>
       </c>
     </row>
     <row r="149" spans="2:29" x14ac:dyDescent="0.3">
@@ -14270,11 +14432,11 @@
       </c>
       <c r="R149" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>14062007</v>
+        <v>5445796B</v>
       </c>
       <c r="S149" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>280C400E</v>
+        <v>A88AF2D6</v>
       </c>
       <c r="U149">
         <v>35</v>
@@ -14284,31 +14446,31 @@
       </c>
       <c r="W149" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>5584D353</v>
+        <v>9F8DEDC5</v>
       </c>
       <c r="X149" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>E3A9BBB7</v>
+        <v>3B662D8D</v>
       </c>
       <c r="Y149" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>E3A9BBB7</v>
+        <v>3B662D8D</v>
       </c>
       <c r="Z149" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>A482B6B3</v>
+        <v>ECC5C85E</v>
       </c>
       <c r="AA149" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>ED2DCBD8</v>
+        <v>F98615F0</v>
       </c>
       <c r="AB149" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>3E4BE4B6</v>
+        <v>B9083D5D</v>
       </c>
       <c r="AC149" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>DF781886</v>
+        <v>C09D875B</v>
       </c>
     </row>
     <row r="150" spans="2:29" x14ac:dyDescent="0.3">
@@ -14362,11 +14524,11 @@
       </c>
       <c r="R150" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>2E33F4A5</v>
+        <v>254E75BA</v>
       </c>
       <c r="S150" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>5C67E94A</v>
+        <v>4A9CEB74</v>
       </c>
       <c r="U150">
         <v>36</v>
@@ -14376,31 +14538,31 @@
       </c>
       <c r="W150" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>77E499DD</v>
+        <v>AC4BE0F3</v>
       </c>
       <c r="X150" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>97D5FE4A</v>
+        <v>9325F10A</v>
       </c>
       <c r="Y150" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>97D5FE4A</v>
+        <v>9325F10A</v>
       </c>
       <c r="Z150" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>E3A9BBB7</v>
+        <v>3B662D8D</v>
       </c>
       <c r="AA150" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E920ADAC</v>
+        <v>BB317217</v>
       </c>
       <c r="AB150" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>ED2DCBD8</v>
+        <v>F98615F0</v>
       </c>
       <c r="AC150" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>3E4BE4B6</v>
+        <v>B9083D5D</v>
       </c>
     </row>
     <row r="151" spans="2:29" x14ac:dyDescent="0.3">
@@ -14454,11 +14616,11 @@
       </c>
       <c r="R151" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>CA01B3BA</v>
+        <v>0B5A5F48</v>
       </c>
       <c r="S151" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>94036775</v>
+        <v>16B4BE90</v>
       </c>
       <c r="U151">
         <v>37</v>
@@ -14468,31 +14630,31 @@
       </c>
       <c r="W151" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>E7A4DDC3</v>
+        <v>79D14A6A</v>
       </c>
       <c r="X151" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>238DDEE1</v>
+        <v>1D26534A</v>
       </c>
       <c r="Y151" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>238DDEE1</v>
+        <v>1D26534A</v>
       </c>
       <c r="Z151" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>97D5FE4A</v>
+        <v>9325F10A</v>
       </c>
       <c r="AA151" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F8EA6EED</v>
+        <v>4ED98B63</v>
       </c>
       <c r="AB151" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E920ADAC</v>
+        <v>BB317217</v>
       </c>
       <c r="AC151" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>ED2DCBD8</v>
+        <v>F98615F0</v>
       </c>
     </row>
     <row r="152" spans="2:29" x14ac:dyDescent="0.3">
@@ -14546,11 +14708,11 @@
       </c>
       <c r="R152" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>EF752D9D</v>
+        <v>FBB490F9</v>
       </c>
       <c r="S152" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>DEEA5B3B</v>
+        <v>F76921F3</v>
       </c>
       <c r="U152">
         <v>38</v>
@@ -14560,31 +14722,31 @@
       </c>
       <c r="W152" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>861F3D0B</v>
+        <v>66CD087E</v>
       </c>
       <c r="X152" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>32CD2BE3</v>
+        <v>6B609545</v>
       </c>
       <c r="Y152" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>32CD2BE3</v>
+        <v>6B609545</v>
       </c>
       <c r="Z152" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>238DDEE1</v>
+        <v>1D26534A</v>
       </c>
       <c r="AA152" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>A5F57F92</v>
+        <v>A4C97C42</v>
       </c>
       <c r="AB152" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F8EA6EED</v>
+        <v>4ED98B63</v>
       </c>
       <c r="AC152" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E920ADAC</v>
+        <v>BB317217</v>
       </c>
     </row>
     <row r="153" spans="2:29" x14ac:dyDescent="0.3">
@@ -14638,11 +14800,11 @@
       </c>
       <c r="R153" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>CBDD7B9D</v>
+        <v>7311CB6F</v>
       </c>
       <c r="S153" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>97BAF73B</v>
+        <v>E62396DE</v>
       </c>
       <c r="U153">
         <v>39</v>
@@ -14652,31 +14814,31 @@
       </c>
       <c r="W153" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>7E92CF9E</v>
+        <v>F736A46B</v>
       </c>
       <c r="X153" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>C7EDDC8C</v>
+        <v>737841AE</v>
       </c>
       <c r="Y153" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>C7EDDC8C</v>
+        <v>737841AE</v>
       </c>
       <c r="Z153" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>32CD2BE3</v>
+        <v>6B609545</v>
       </c>
       <c r="AA153" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>48E377B8</v>
+        <v>874994D2</v>
       </c>
       <c r="AB153" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>A5F57F92</v>
+        <v>A4C97C42</v>
       </c>
       <c r="AC153" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F8EA6EED</v>
+        <v>4ED98B63</v>
       </c>
     </row>
     <row r="154" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -14730,11 +14892,11 @@
       </c>
       <c r="R154" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>99BC33B4</v>
+        <v>8DBD117F</v>
       </c>
       <c r="S154" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>33786769</v>
+        <v>1B7A22FF</v>
       </c>
       <c r="U154" s="12">
         <v>40</v>
@@ -14744,31 +14906,31 @@
       </c>
       <c r="W154" s="13" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>DFDB23C9</v>
+        <v>48E07DD5</v>
       </c>
       <c r="X154" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>78D37758</v>
+        <v>91164DA6</v>
       </c>
       <c r="Y154" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>78D37758</v>
+        <v>91164DA6</v>
       </c>
       <c r="Z154" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>C7EDDC8C</v>
+        <v>737841AE</v>
       </c>
       <c r="AA154" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>CCB34AF8</v>
+        <v>5AD82551</v>
       </c>
       <c r="AB154" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>48E377B8</v>
+        <v>874994D2</v>
       </c>
       <c r="AC154" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>A5F57F92</v>
+        <v>A4C97C42</v>
       </c>
     </row>
     <row r="155" spans="2:29" x14ac:dyDescent="0.3">
@@ -14822,11 +14984,11 @@
       </c>
       <c r="R155" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>539EC01D</v>
+        <v>2ED936ED</v>
       </c>
       <c r="S155" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>A73D803A</v>
+        <v>5DB26DDA</v>
       </c>
       <c r="U155">
         <v>41</v>
@@ -14836,31 +14998,31 @@
       </c>
       <c r="W155" s="7" t="str">
         <f t="shared" ref="W155:W174" ca="1" si="143">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITAND(HEX2DEC(Z154),HEX2DEC(AA154)),_xlfn.BITAND(HEX2DEC(Z154),HEX2DEC(AB154))),_xlfn.BITAND(HEX2DEC(AA154),HEX2DEC(AB154))),8)</f>
-        <v>CCE35EB8</v>
+        <v>535805D2</v>
       </c>
       <c r="X155" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>C3A1066F</v>
+        <v>07B9619C</v>
       </c>
       <c r="Y155" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>C3A1066F</v>
+        <v>07B9619C</v>
       </c>
       <c r="Z155" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>78D37758</v>
+        <v>91164DA6</v>
       </c>
       <c r="AA155" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>31FB7723</v>
+        <v>9CDE106B</v>
       </c>
       <c r="AB155" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>CCB34AF8</v>
+        <v>5AD82551</v>
       </c>
       <c r="AC155" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>48E377B8</v>
+        <v>874994D2</v>
       </c>
     </row>
     <row r="156" spans="2:29" x14ac:dyDescent="0.3">
@@ -14914,11 +15076,11 @@
       </c>
       <c r="R156" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>36965CF0</v>
+        <v>1E055066</v>
       </c>
       <c r="S156" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>6D2CB9E0</v>
+        <v>3C0AA0CC</v>
       </c>
       <c r="U156">
         <v>42</v>
@@ -14928,31 +15090,31 @@
       </c>
       <c r="W156" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>78F37778</v>
+        <v>98DE0563</v>
       </c>
       <c r="X156" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>324033E4</v>
+        <v>E27A2B5D</v>
       </c>
       <c r="Y156" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>324033E4</v>
+        <v>E27A2B5D</v>
       </c>
       <c r="Z156" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>C3A1066F</v>
+        <v>07B9619C</v>
       </c>
       <c r="AA156" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1E34DDD6</v>
+        <v>A4459369</v>
       </c>
       <c r="AB156" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>31FB7723</v>
+        <v>9CDE106B</v>
       </c>
       <c r="AC156" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>CCB34AF8</v>
+        <v>5AD82551</v>
       </c>
     </row>
     <row r="157" spans="2:29" x14ac:dyDescent="0.3">
@@ -15006,11 +15168,11 @@
       </c>
       <c r="R157" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>D52C9F89</v>
+        <v>63B816EE</v>
       </c>
       <c r="S157" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>AA593F13</v>
+        <v>C7702DDC</v>
       </c>
       <c r="U157">
         <v>43</v>
@@ -15020,31 +15182,31 @@
       </c>
       <c r="W157" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>13B15767</v>
+        <v>84DD1169</v>
       </c>
       <c r="X157" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>61E01AD4</v>
+        <v>85868D2E</v>
       </c>
       <c r="Y157" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>61E01AD4</v>
+        <v>85868D2E</v>
       </c>
       <c r="Z157" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>324033E4</v>
+        <v>E27A2B5D</v>
       </c>
       <c r="AA157" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F0E8419B</v>
+        <v>01EE5867</v>
       </c>
       <c r="AB157" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1E34DDD6</v>
+        <v>A4459369</v>
       </c>
       <c r="AC157" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>31FB7723</v>
+        <v>9CDE106B</v>
       </c>
     </row>
     <row r="158" spans="2:29" x14ac:dyDescent="0.3">
@@ -15098,11 +15260,11 @@
       </c>
       <c r="R158" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>95406F86</v>
+        <v>E027BDFB</v>
       </c>
       <c r="S158" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>2A80DF0D</v>
+        <v>C04F7BF7</v>
       </c>
       <c r="U158">
         <v>44</v>
@@ -15112,31 +15274,31 @@
       </c>
       <c r="W158" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>326051D6</v>
+        <v>A06E1B6D</v>
       </c>
       <c r="X158" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>59FBBF6E</v>
+        <v>3D890A7B</v>
       </c>
       <c r="Y158" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>59FBBF6E</v>
+        <v>3D890A7B</v>
       </c>
       <c r="Z158" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>61E01AD4</v>
+        <v>85868D2E</v>
       </c>
       <c r="AA158" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>0C900CF9</v>
+        <v>789E8AD7</v>
       </c>
       <c r="AB158" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F0E8419B</v>
+        <v>01EE5867</v>
       </c>
       <c r="AC158" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1E34DDD6</v>
+        <v>A4459369</v>
       </c>
     </row>
     <row r="159" spans="2:29" x14ac:dyDescent="0.3">
@@ -15190,11 +15352,11 @@
       </c>
       <c r="R159" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>C857D244</v>
+        <v>A3430A29</v>
       </c>
       <c r="S159" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>90AFA489</v>
+        <v>46861453</v>
       </c>
       <c r="U159">
         <v>45</v>
@@ -15204,31 +15366,31 @@
       </c>
       <c r="W159" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>60E008D9</v>
+        <v>018E8867</v>
       </c>
       <c r="X159" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>DE5835DF</v>
+        <v>2C973C66</v>
       </c>
       <c r="Y159" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>DE5835DF</v>
+        <v>2C973C66</v>
       </c>
       <c r="Z159" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>59FBBF6E</v>
+        <v>3D890A7B</v>
       </c>
       <c r="AA159" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>187806B5</v>
+        <v>A161A34B</v>
       </c>
       <c r="AB159" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>0C900CF9</v>
+        <v>789E8AD7</v>
       </c>
       <c r="AC159" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F0E8419B</v>
+        <v>01EE5867</v>
       </c>
     </row>
     <row r="160" spans="2:29" x14ac:dyDescent="0.3">
@@ -15282,11 +15444,11 @@
       </c>
       <c r="R160" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>FAE4840E</v>
+        <v>62E1D692</v>
       </c>
       <c r="S160" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>F5C9081D</v>
+        <v>C5C3AD24</v>
       </c>
       <c r="U160">
         <v>46</v>
@@ -15296,31 +15458,31 @@
       </c>
       <c r="W160" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>18F80EFD</v>
+        <v>39898A5B</v>
       </c>
       <c r="X160" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>59CBD18C</v>
+        <v>233ED987</v>
       </c>
       <c r="Y160" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>59CBD18C</v>
+        <v>233ED987</v>
       </c>
       <c r="Z160" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>DE5835DF</v>
+        <v>2C973C66</v>
       </c>
       <c r="AA160" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>967EEFDB</v>
+        <v>CF62429E</v>
       </c>
       <c r="AB160" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>187806B5</v>
+        <v>A161A34B</v>
       </c>
       <c r="AC160" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>0C900CF9</v>
+        <v>789E8AD7</v>
       </c>
     </row>
     <row r="161" spans="2:29" x14ac:dyDescent="0.3">
@@ -15374,11 +15536,11 @@
       </c>
       <c r="R161" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>4EAD272F</v>
+        <v>998F4125</v>
       </c>
       <c r="S161" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>9D5A4E5E</v>
+        <v>331E824B</v>
       </c>
       <c r="U161">
         <v>47</v>
@@ -15388,31 +15550,31 @@
       </c>
       <c r="W161" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>9E7827DF</v>
+        <v>AD63224E</v>
       </c>
       <c r="X161" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>10F8719D</v>
+        <v>50171D30</v>
       </c>
       <c r="Y161" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>10F8719D</v>
+        <v>50171D30</v>
       </c>
       <c r="Z161" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>59CBD18C</v>
+        <v>233ED987</v>
       </c>
       <c r="AA161" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F7960D77</v>
+        <v>8B25CF19</v>
       </c>
       <c r="AB161" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>967EEFDB</v>
+        <v>CF62429E</v>
       </c>
       <c r="AC161" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>187806B5</v>
+        <v>A161A34B</v>
       </c>
     </row>
     <row r="162" spans="2:29" x14ac:dyDescent="0.3">
@@ -15466,11 +15628,11 @@
       </c>
       <c r="R162" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>A59A49C9</v>
+        <v>45B552BB</v>
       </c>
       <c r="S162" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>4B349393</v>
+        <v>8B6AA576</v>
       </c>
       <c r="U162">
         <v>48</v>
@@ -15480,31 +15642,31 @@
       </c>
       <c r="W162" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>D7DECDDF</v>
+        <v>8B26CB9F</v>
       </c>
       <c r="X162" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>E9B558A5</v>
+        <v>49F27746</v>
       </c>
       <c r="Y162" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>E9B558A5</v>
+        <v>49F27746</v>
       </c>
       <c r="Z162" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>10F8719D</v>
+        <v>50171D30</v>
       </c>
       <c r="AA162" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1672F463</v>
+        <v>C8CFB661</v>
       </c>
       <c r="AB162" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F7960D77</v>
+        <v>8B25CF19</v>
       </c>
       <c r="AC162" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>967EEFDB</v>
+        <v>CF62429E</v>
       </c>
     </row>
     <row r="163" spans="2:29" x14ac:dyDescent="0.3">
@@ -15558,11 +15720,11 @@
       </c>
       <c r="R163" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>08DA5BBE</v>
+        <v>F1C5F971</v>
       </c>
       <c r="S163" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>11B4B77C</v>
+        <v>E38BF2E3</v>
       </c>
       <c r="U163">
         <v>49</v>
@@ -15572,31 +15734,31 @@
       </c>
       <c r="W163" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>16F27577</v>
+        <v>C8079F31</v>
       </c>
       <c r="X163" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>84ECEE67</v>
+        <v>48607A57</v>
       </c>
       <c r="Y163" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>84ECEE67</v>
+        <v>48607A57</v>
       </c>
       <c r="Z163" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>E9B558A5</v>
+        <v>49F27746</v>
       </c>
       <c r="AA163" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>443E1C67</v>
+        <v>1405C74C</v>
       </c>
       <c r="AB163" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1672F463</v>
+        <v>C8CFB661</v>
       </c>
       <c r="AC163" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F7960D77</v>
+        <v>8B25CF19</v>
       </c>
     </row>
     <row r="164" spans="2:29" x14ac:dyDescent="0.3">
@@ -15650,11 +15812,11 @@
       </c>
       <c r="R164" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>DE5B1C55</v>
+        <v>FF4AB1A2</v>
       </c>
       <c r="S164" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>BCB638AB</v>
+        <v>FE956345</v>
       </c>
       <c r="U164">
         <v>50</v>
@@ -15664,31 +15826,31 @@
       </c>
       <c r="W164" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>44365C67</v>
+        <v>48C7F744</v>
       </c>
       <c r="X164" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>253C2C55</v>
+        <v>6DAE3167</v>
       </c>
       <c r="Y164" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>253C2C55</v>
+        <v>6DAE3167</v>
       </c>
       <c r="Z164" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>84ECEE67</v>
+        <v>48607A57</v>
       </c>
       <c r="AA164" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>7A6D5629</v>
+        <v>927C9DD1</v>
       </c>
       <c r="AB164" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>443E1C67</v>
+        <v>1405C74C</v>
       </c>
       <c r="AC164" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1672F463</v>
+        <v>C8CFB661</v>
       </c>
     </row>
     <row r="165" spans="2:29" x14ac:dyDescent="0.3">
@@ -15742,11 +15904,11 @@
       </c>
       <c r="R165" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>5D628BFB</v>
+        <v>F224C4EC</v>
       </c>
       <c r="S165" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>BAC517F6</v>
+        <v>E44989D9</v>
       </c>
       <c r="U165">
         <v>51</v>
@@ -15756,31 +15918,31 @@
       </c>
       <c r="W165" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>446C5E67</v>
+        <v>1064DF55</v>
       </c>
       <c r="X165" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>4C45B240</v>
+        <v>02600958</v>
       </c>
       <c r="Y165" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>4C45B240</v>
+        <v>02600958</v>
       </c>
       <c r="Z165" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>253C2C55</v>
+        <v>6DAE3167</v>
       </c>
       <c r="AA165" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E13B3B99</v>
+        <v>D2181E95</v>
       </c>
       <c r="AB165" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>7A6D5629</v>
+        <v>927C9DD1</v>
       </c>
       <c r="AC165" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>443E1C67</v>
+        <v>1405C74C</v>
       </c>
     </row>
     <row r="166" spans="2:29" x14ac:dyDescent="0.3">
@@ -15834,11 +15996,11 @@
       </c>
       <c r="R166" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>B9B9DA00</v>
+        <v>9E314393</v>
       </c>
       <c r="S166" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>7373B401</v>
+        <v>3C628727</v>
       </c>
       <c r="U166">
         <v>52</v>
@@ -15848,31 +16010,31 @@
       </c>
       <c r="W166" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>613D3E19</v>
+        <v>D23C1DD5</v>
       </c>
       <c r="X166" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>30C11366</v>
+        <v>FDC15424</v>
       </c>
       <c r="Y166" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>30C11366</v>
+        <v>FDC15424</v>
       </c>
       <c r="Z166" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>4C45B240</v>
+        <v>02600958</v>
       </c>
       <c r="AA166" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>494F0B15</v>
+        <v>DB6B8C59</v>
       </c>
       <c r="AB166" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E13B3B99</v>
+        <v>D2181E95</v>
       </c>
       <c r="AC166" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>7A6D5629</v>
+        <v>927C9DD1</v>
       </c>
     </row>
     <row r="167" spans="2:29" x14ac:dyDescent="0.3">
@@ -15926,11 +16088,11 @@
       </c>
       <c r="R167" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>2FA00C6C</v>
+        <v>48845F58</v>
       </c>
       <c r="S167" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>5F4018D8</v>
+        <v>9108BEB0</v>
       </c>
       <c r="U167">
         <v>53</v>
@@ -15940,31 +16102,31 @@
       </c>
       <c r="W167" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>494F3B11</v>
+        <v>D2680C59</v>
       </c>
       <c r="X167" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>CA3AD3B4</v>
+        <v>3D33AA55</v>
       </c>
       <c r="Y167" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>CA3AD3B4</v>
+        <v>3D33AA55</v>
       </c>
       <c r="Z167" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>30C11366</v>
+        <v>FDC15424</v>
       </c>
       <c r="AA167" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>13116C90</v>
+        <v>00980256</v>
       </c>
       <c r="AB167" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>494F0B15</v>
+        <v>DB6B8C59</v>
       </c>
       <c r="AC167" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E13B3B99</v>
+        <v>D2181E95</v>
       </c>
     </row>
     <row r="168" spans="2:29" x14ac:dyDescent="0.3">
@@ -16018,11 +16180,11 @@
       </c>
       <c r="R168" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>A29E23B9</v>
+        <v>CD9927F1</v>
       </c>
       <c r="S168" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>453C4773</v>
+        <v>9B324FE3</v>
       </c>
       <c r="U168">
         <v>54</v>
@@ -16032,31 +16194,31 @@
       </c>
       <c r="W168" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>11410B14</v>
+        <v>D9C90454</v>
       </c>
       <c r="X168" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>0E2EC195</v>
+        <v>7CA47A4F</v>
       </c>
       <c r="Y168" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>0E2EC195</v>
+        <v>7CA47A4F</v>
       </c>
       <c r="Z168" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>CA3AD3B4</v>
+        <v>3D33AA55</v>
       </c>
       <c r="AA168" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>8C3044D9</v>
+        <v>3F705509</v>
       </c>
       <c r="AB168" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>13116C90</v>
+        <v>00980256</v>
       </c>
       <c r="AC168" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>494F0B15</v>
+        <v>DB6B8C59</v>
       </c>
     </row>
     <row r="169" spans="2:29" x14ac:dyDescent="0.3">
@@ -16110,11 +16272,11 @@
       </c>
       <c r="R169" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>DEAE8D5E</v>
+        <v>B4EDFE68</v>
       </c>
       <c r="S169" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>BD5D1ABD</v>
+        <v>69DBFCD1</v>
       </c>
       <c r="U169">
         <v>55</v>
@@ -16124,31 +16286,31 @@
       </c>
       <c r="W169" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>8A304490</v>
+        <v>3D300255</v>
       </c>
       <c r="X169" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>E5D059DF</v>
+        <v>A622924A</v>
       </c>
       <c r="Y169" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>E5D059DF</v>
+        <v>A622924A</v>
       </c>
       <c r="Z169" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>0E2EC195</v>
+        <v>7CA47A4F</v>
       </c>
       <c r="AA169" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>328EB4ED</v>
+        <v>4F4CEA95</v>
       </c>
       <c r="AB169" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>8C3044D9</v>
+        <v>3F705509</v>
       </c>
       <c r="AC169" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>13116C90</v>
+        <v>00980256</v>
       </c>
     </row>
     <row r="170" spans="2:29" x14ac:dyDescent="0.3">
@@ -16202,11 +16364,11 @@
       </c>
       <c r="R170" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>4A2055C2</v>
+        <v>3D1299F5</v>
       </c>
       <c r="S170" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>9440AB84</v>
+        <v>7A2533EA</v>
       </c>
       <c r="U170">
         <v>56</v>
@@ -16216,31 +16378,31 @@
       </c>
       <c r="W170" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>0E2EC4DD</v>
+        <v>7F647A0D</v>
       </c>
       <c r="X170" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>FEA7D5C9</v>
+        <v>4D8FB67D</v>
       </c>
       <c r="Y170" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>FEA7D5C9</v>
+        <v>4D8FB67D</v>
       </c>
       <c r="Z170" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>E5D059DF</v>
+        <v>A622924A</v>
       </c>
       <c r="AA170" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>438BB065</v>
+        <v>DF291E93</v>
       </c>
       <c r="AB170" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>328EB4ED</v>
+        <v>4F4CEA95</v>
       </c>
       <c r="AC170" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>8C3044D9</v>
+        <v>3F705509</v>
       </c>
     </row>
     <row r="171" spans="2:29" x14ac:dyDescent="0.3">
@@ -16294,11 +16456,11 @@
       </c>
       <c r="R171" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>59EC4F26</v>
+        <v>E27BFD06</v>
       </c>
       <c r="S171" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>B3D89E4C</v>
+        <v>C4F7FA0D</v>
       </c>
       <c r="U171">
         <v>57</v>
@@ -16308,31 +16470,31 @@
       </c>
       <c r="W171" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>638AB0ED</v>
+        <v>CF289A93</v>
       </c>
       <c r="X171" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>07AA0A2D</v>
+        <v>14A3762E</v>
       </c>
       <c r="Y171" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>07AA0A2D</v>
+        <v>14A3762E</v>
       </c>
       <c r="Z171" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>FEA7D5C9</v>
+        <v>4D8FB67D</v>
       </c>
       <c r="AA171" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F9741677</v>
+        <v>A988A492</v>
       </c>
       <c r="AB171" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>438BB065</v>
+        <v>DF291E93</v>
       </c>
       <c r="AC171" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>328EB4ED</v>
+        <v>4F4CEA95</v>
       </c>
     </row>
     <row r="172" spans="2:29" x14ac:dyDescent="0.3">
@@ -16386,11 +16548,11 @@
       </c>
       <c r="R172" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>464744FB</v>
+        <v>6B0B44AF</v>
       </c>
       <c r="S172" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>8C8E89F6</v>
+        <v>D616895E</v>
       </c>
       <c r="U172">
         <v>58</v>
@@ -16400,31 +16562,31 @@
       </c>
       <c r="W172" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>FBA79465</v>
+        <v>CD89B693</v>
       </c>
       <c r="X172" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>3F21D5C4</v>
+        <v>1677AD24</v>
       </c>
       <c r="Y172" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>3F21D5C4</v>
+        <v>1677AD24</v>
       </c>
       <c r="Z172" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>07AA0A2D</v>
+        <v>14A3762E</v>
       </c>
       <c r="AA172" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>7FA9F572</v>
+        <v>5363ED9F</v>
       </c>
       <c r="AB172" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F9741677</v>
+        <v>A988A492</v>
       </c>
       <c r="AC172" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>438BB065</v>
+        <v>DF291E93</v>
       </c>
     </row>
     <row r="173" spans="2:29" x14ac:dyDescent="0.3">
@@ -16478,11 +16640,11 @@
       </c>
       <c r="R173" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>147327E8</v>
+        <v>1F9A83BC</v>
       </c>
       <c r="S173" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>28E64FD0</v>
+        <v>3F350778</v>
       </c>
       <c r="U173">
         <v>59</v>
@@ -16492,31 +16654,31 @@
       </c>
       <c r="W173" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>7FA81677</v>
+        <v>11A3E49E</v>
       </c>
       <c r="X173" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>5F708C0F</v>
+        <v>8E136C07</v>
       </c>
       <c r="Y173" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>5F708C0F</v>
+        <v>8E136C07</v>
       </c>
       <c r="Z173" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>3F21D5C4</v>
+        <v>1677AD24</v>
       </c>
       <c r="AA173" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>41EA828B</v>
+        <v>8528DD8B</v>
       </c>
       <c r="AB173" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>7FA9F572</v>
+        <v>5363ED9F</v>
       </c>
       <c r="AC173" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F9741677</v>
+        <v>A988A492</v>
       </c>
     </row>
     <row r="174" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -16570,11 +16732,11 @@
       </c>
       <c r="R174" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>1FE2FD5D</v>
+        <v>FD19ABF9</v>
       </c>
       <c r="S174" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>3FC5FABA</v>
+        <v>FA3357F3</v>
       </c>
       <c r="U174" s="12">
         <v>60</v>
@@ -16584,31 +16746,31 @@
       </c>
       <c r="W174" s="13" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>7FA9D5C2</v>
+        <v>1763ED8F</v>
       </c>
       <c r="X174" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>361125BA</v>
+        <v>0CA927E1</v>
       </c>
       <c r="Y174" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>361125BA</v>
+        <v>0CA927E1</v>
       </c>
       <c r="Z174" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>5F708C0F</v>
+        <v>8E136C07</v>
       </c>
       <c r="AA174" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>0FC87571</v>
+        <v>059DEB49</v>
       </c>
       <c r="AB174" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>41EA828B</v>
+        <v>8528DD8B</v>
       </c>
       <c r="AC174" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>7FA9F572</v>
+        <v>5363ED9F</v>
       </c>
     </row>
     <row r="175" spans="2:29" x14ac:dyDescent="0.3">
@@ -16662,11 +16824,11 @@
       </c>
       <c r="R175" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>DE3B7BF9</v>
+        <v>3286A1F6</v>
       </c>
       <c r="S175" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>BC76F7F3</v>
+        <v>650D43EC</v>
       </c>
       <c r="U175">
         <v>61</v>
@@ -16676,31 +16838,31 @@
       </c>
       <c r="W175" s="7" t="str">
         <f t="shared" ref="W175:W194" ca="1" si="145">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z174),HEX2DEC(AA174)),HEX2DEC(AB174)),8)</f>
-        <v>11527BF5</v>
+        <v>0EA65AC5</v>
       </c>
       <c r="X175" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>D9FAE276</v>
+        <v>269F4A47</v>
       </c>
       <c r="Y175" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>D9FAE276</v>
+        <v>269F4A47</v>
       </c>
       <c r="Z175" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>361125BA</v>
+        <v>0CA927E1</v>
       </c>
       <c r="AA175" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>D7DC2303</v>
+        <v>E384DB01</v>
       </c>
       <c r="AB175" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>0FC87571</v>
+        <v>059DEB49</v>
       </c>
       <c r="AC175" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>41EA828B</v>
+        <v>8528DD8B</v>
       </c>
     </row>
     <row r="176" spans="2:29" x14ac:dyDescent="0.3">
@@ -16754,11 +16916,11 @@
       </c>
       <c r="R176" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>D327932D</v>
+        <v>EAAE40C9</v>
       </c>
       <c r="S176" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>A64F265B</v>
+        <v>D55C8193</v>
       </c>
       <c r="U176">
         <v>62</v>
@@ -16768,31 +16930,31 @@
       </c>
       <c r="W176" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>EE0573C8</v>
+        <v>EAB017A9</v>
       </c>
       <c r="X176" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>DFFE2D5F</v>
+        <v>E3818181</v>
       </c>
       <c r="Y176" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>DFFE2D5F</v>
+        <v>E3818181</v>
       </c>
       <c r="Z176" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>D9FAE276</v>
+        <v>269F4A47</v>
       </c>
       <c r="AA176" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>8D84496E</v>
+        <v>432A49F8</v>
       </c>
       <c r="AB176" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>D7DC2303</v>
+        <v>E384DB01</v>
       </c>
       <c r="AC176" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>0FC87571</v>
+        <v>059DEB49</v>
       </c>
     </row>
     <row r="177" spans="2:29" x14ac:dyDescent="0.3">
@@ -16846,11 +17008,11 @@
       </c>
       <c r="R177" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>0E761925</v>
+        <v>437DDB8A</v>
       </c>
       <c r="S177" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>1CEC324A</v>
+        <v>86FBB714</v>
       </c>
       <c r="U177">
         <v>63</v>
@@ -16860,31 +17022,31 @@
       </c>
       <c r="W177" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>83A2881B</v>
+        <v>8631D8BE</v>
       </c>
       <c r="X177" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>7A7F9DA7</v>
+        <v>4D5E6D2D</v>
       </c>
       <c r="Y177" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>7A7F9DA7</v>
+        <v>4D5E6D2D</v>
       </c>
       <c r="Z177" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>DFFE2D5F</v>
+        <v>E3818181</v>
       </c>
       <c r="AA177" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>B67EB89D</v>
+        <v>C9A7D291</v>
       </c>
       <c r="AB177" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>8D84496E</v>
+        <v>432A49F8</v>
       </c>
       <c r="AC177" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>D7DC2303</v>
+        <v>E384DB01</v>
       </c>
     </row>
     <row r="178" spans="2:29" x14ac:dyDescent="0.3">
@@ -16938,11 +17100,11 @@
       </c>
       <c r="R178" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>DFB4F74F</v>
+        <v>6AD7B635</v>
       </c>
       <c r="S178" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>BF69EE9F</v>
+        <v>D5AF6C6A</v>
       </c>
       <c r="U178">
         <v>64</v>
@@ -16952,31 +17114,31 @@
       </c>
       <c r="W178" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>E404DCAC</v>
+        <v>690C1AE8</v>
       </c>
       <c r="X178" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>95A16513</v>
+        <v>9870C9D2</v>
       </c>
       <c r="Y178" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>95A16513</v>
+        <v>9870C9D2</v>
       </c>
       <c r="Z178" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>7A7F9DA7</v>
+        <v>4D5E6D2D</v>
       </c>
       <c r="AA178" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F7FF8B57</v>
+        <v>78E06060</v>
       </c>
       <c r="AB178" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>B67EB89D</v>
+        <v>C9A7D291</v>
       </c>
       <c r="AC178" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>8D84496E</v>
+        <v>432A49F8</v>
       </c>
     </row>
     <row r="179" spans="2:29" x14ac:dyDescent="0.3">
@@ -17030,11 +17192,11 @@
       </c>
       <c r="R179" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>BEE6189D</v>
+        <v>166900A4</v>
       </c>
       <c r="S179" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>7DCC313B</v>
+        <v>2CD20148</v>
       </c>
       <c r="U179">
         <v>65</v>
@@ -17044,31 +17206,31 @@
       </c>
       <c r="W179" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>3BFEAE6D</v>
+        <v>FC19DFDC</v>
       </c>
       <c r="X179" t="str">
         <f t="shared" ref="X179:X194" ca="1" si="148">DEC2HEX(MOD(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(Y178),5),_xlfn.BITRSHIFT(HEX2DEC(Y178),27)),4294967295)+HEX2DEC(W179)+HEX2DEC(AC178)+HEX2DEC(V179)+HEX2DEC(S179),4294967296),8)</f>
-        <v>C5DE8D5E</v>
+        <v>44922745</v>
       </c>
       <c r="Y179" s="7" t="str">
         <f t="shared" ref="Y179:Y194" ca="1" si="149">X179</f>
-        <v>C5DE8D5E</v>
+        <v>44922745</v>
       </c>
       <c r="Z179" t="str">
         <f t="shared" ref="Z179:Z194" ca="1" si="150">Y178</f>
-        <v>95A16513</v>
+        <v>9870C9D2</v>
       </c>
       <c r="AA179" t="str">
         <f t="shared" ref="AA179:AA194" ca="1" si="151">DEC2HEX(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(MOD(HEX2DEC(Z178),4),30),_xlfn.BITRSHIFT(HEX2DEC(Z178),2)),4294967295),8)</f>
-        <v>DE9FE769</v>
+        <v>53579B4B</v>
       </c>
       <c r="AB179" t="str">
         <f t="shared" ref="AB179:AB194" ca="1" si="152">AA178</f>
-        <v>F7FF8B57</v>
+        <v>78E06060</v>
       </c>
       <c r="AC179" s="19" t="str">
         <f t="shared" ref="AC179:AC194" ca="1" si="153">AB178</f>
-        <v>B67EB89D</v>
+        <v>C9A7D291</v>
       </c>
     </row>
     <row r="180" spans="2:29" x14ac:dyDescent="0.3">
@@ -17122,11 +17284,11 @@
       </c>
       <c r="R180" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>5FA73716</v>
+        <v>921ADA28</v>
       </c>
       <c r="S180" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>BF4E6E2C</v>
+        <v>2435B451</v>
       </c>
       <c r="U180">
         <v>66</v>
@@ -17136,31 +17298,31 @@
       </c>
       <c r="W180" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>BCC1092D</v>
+        <v>B3C732F9</v>
       </c>
       <c r="X180" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>B8C29DA4</v>
+        <v>FE4C6459</v>
       </c>
       <c r="Y180" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>B8C29DA4</v>
+        <v>FE4C6459</v>
       </c>
       <c r="Z180" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>C5DE8D5E</v>
+        <v>44922745</v>
       </c>
       <c r="AA180" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>E5685944</v>
+        <v>A61C3274</v>
       </c>
       <c r="AB180" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>DE9FE769</v>
+        <v>53579B4B</v>
       </c>
       <c r="AC180" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>F7FF8B57</v>
+        <v>78E06060</v>
       </c>
     </row>
     <row r="181" spans="2:29" x14ac:dyDescent="0.3">
@@ -17214,11 +17376,11 @@
       </c>
       <c r="R181" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>720AAE61</v>
+        <v>9FDB5C7B</v>
       </c>
       <c r="S181" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>E4155CC2</v>
+        <v>3FB6B8F7</v>
       </c>
       <c r="U181">
         <v>67</v>
@@ -17228,31 +17390,31 @@
       </c>
       <c r="W181" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>FE293373</v>
+        <v>B1D98E7A</v>
       </c>
       <c r="X181" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>BCF491F9</v>
+        <v>FE5FF4E6</v>
       </c>
       <c r="Y181" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>BCF491F9</v>
+        <v>FE5FF4E6</v>
       </c>
       <c r="Z181" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>B8C29DA4</v>
+        <v>FE4C6459</v>
       </c>
       <c r="AA181" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>B177A357</v>
+        <v>512489D1</v>
       </c>
       <c r="AB181" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>E5685944</v>
+        <v>A61C3274</v>
       </c>
       <c r="AC181" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>DE9FE769</v>
+        <v>53579B4B</v>
       </c>
     </row>
     <row r="182" spans="2:29" x14ac:dyDescent="0.3">
@@ -17306,11 +17468,11 @@
       </c>
       <c r="R182" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>744638F3</v>
+        <v>71B19E7F</v>
       </c>
       <c r="S182" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>E88C71E6</v>
+        <v>E3633CFE</v>
       </c>
       <c r="U182">
         <v>68</v>
@@ -17320,31 +17482,31 @@
       </c>
       <c r="W182" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>ECDD67B7</v>
+        <v>0974DFFC</v>
       </c>
       <c r="X182" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>1CFEC213</v>
+        <v>D69116FA</v>
       </c>
       <c r="Y182" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>1CFEC213</v>
+        <v>D69116FA</v>
       </c>
       <c r="Z182" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>BCF491F9</v>
+        <v>FE5FF4E6</v>
       </c>
       <c r="AA182" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>2E30A769</v>
+        <v>7F931916</v>
       </c>
       <c r="AB182" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>B177A357</v>
+        <v>512489D1</v>
       </c>
       <c r="AC182" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>E5685944</v>
+        <v>A61C3274</v>
       </c>
     </row>
     <row r="183" spans="2:29" x14ac:dyDescent="0.3">
@@ -17398,11 +17560,11 @@
       </c>
       <c r="R183" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>E1259BBA</v>
+        <v>B9EBB5DC</v>
       </c>
       <c r="S183" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>C24B3775</v>
+        <v>73D76BB9</v>
       </c>
       <c r="U183">
         <v>69</v>
@@ -17412,31 +17574,31 @@
       </c>
       <c r="W183" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>23B395C7</v>
+        <v>D0E86421</v>
       </c>
       <c r="X183" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>35A22AB9</v>
+        <v>8761A37E</v>
       </c>
       <c r="Y183" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>35A22AB9</v>
+        <v>8761A37E</v>
       </c>
       <c r="Z183" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>1CFEC213</v>
+        <v>D69116FA</v>
       </c>
       <c r="AA183" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>6F3D247E</v>
+        <v>BF97FD39</v>
       </c>
       <c r="AB183" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>2E30A769</v>
+        <v>7F931916</v>
       </c>
       <c r="AC183" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>B177A357</v>
+        <v>512489D1</v>
       </c>
     </row>
     <row r="184" spans="2:29" x14ac:dyDescent="0.3">
@@ -17490,11 +17652,11 @@
       </c>
       <c r="R184" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>9326966E</v>
+        <v>0BFD456D</v>
       </c>
       <c r="S184" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>264D2CDD</v>
+        <v>17FA8ADA</v>
       </c>
       <c r="U184">
         <v>70</v>
@@ -17504,31 +17666,31 @@
       </c>
       <c r="W184" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>5DF34104</v>
+        <v>1695F2D5</v>
       </c>
       <c r="X184" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>B4602A34</v>
+        <v>364C3926</v>
       </c>
       <c r="Y184" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>B4602A34</v>
+        <v>364C3926</v>
       </c>
       <c r="Z184" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>35A22AB9</v>
+        <v>8761A37E</v>
       </c>
       <c r="AA184" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>C73FB084</v>
+        <v>B5A445BE</v>
       </c>
       <c r="AB184" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>6F3D247E</v>
+        <v>BF97FD39</v>
       </c>
       <c r="AC184" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>2E30A769</v>
+        <v>7F931916</v>
       </c>
     </row>
     <row r="185" spans="2:29" x14ac:dyDescent="0.3">
@@ -17582,11 +17744,11 @@
       </c>
       <c r="R185" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>FAE5C75D</v>
+        <v>C8B48D36</v>
       </c>
       <c r="S185" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>F5CB8EBB</v>
+        <v>91691A6D</v>
       </c>
       <c r="U185">
         <v>71</v>
@@ -17596,31 +17758,31 @@
       </c>
       <c r="W185" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>9DA0BE43</v>
+        <v>8D521BF9</v>
       </c>
       <c r="X185" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>1804FCD3</v>
+        <v>32383618</v>
       </c>
       <c r="Y185" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>1804FCD3</v>
+        <v>32383618</v>
       </c>
       <c r="Z185" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>B4602A34</v>
+        <v>364C3926</v>
       </c>
       <c r="AA185" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>4D688AAE</v>
+        <v>A1D868DF</v>
       </c>
       <c r="AB185" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>C73FB084</v>
+        <v>B5A445BE</v>
       </c>
       <c r="AC185" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>6F3D247E</v>
+        <v>BF97FD39</v>
       </c>
     </row>
     <row r="186" spans="2:29" x14ac:dyDescent="0.3">
@@ -17674,11 +17836,11 @@
       </c>
       <c r="R186" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>65ECFB98</v>
+        <v>0A4BBD67</v>
       </c>
       <c r="S186" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>CBD9F730</v>
+        <v>14977ACE</v>
       </c>
       <c r="U186">
         <v>72</v>
@@ -17688,31 +17850,31 @@
       </c>
       <c r="W186" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>3E37101E</v>
+        <v>22301447</v>
       </c>
       <c r="X186" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>44508805</v>
+        <v>07C9112A</v>
       </c>
       <c r="Y186" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>44508805</v>
+        <v>07C9112A</v>
       </c>
       <c r="Z186" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>1804FCD3</v>
+        <v>32383618</v>
       </c>
       <c r="AA186" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>2D180A8D</v>
+        <v>8D930E49</v>
       </c>
       <c r="AB186" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>4D688AAE</v>
+        <v>A1D868DF</v>
       </c>
       <c r="AC186" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>C73FB084</v>
+        <v>B5A445BE</v>
       </c>
     </row>
     <row r="187" spans="2:29" x14ac:dyDescent="0.3">
@@ -17766,11 +17928,11 @@
       </c>
       <c r="R187" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>C0BFCC7A</v>
+        <v>C0EA76E7</v>
       </c>
       <c r="S187" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>817F98F5</v>
+        <v>81D4EDCF</v>
       </c>
       <c r="U187">
         <v>73</v>
@@ -17780,31 +17942,31 @@
       </c>
       <c r="W187" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>78747CF0</v>
+        <v>1E73508E</v>
       </c>
       <c r="X187" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>15A788E7</v>
+        <v>19716B31</v>
       </c>
       <c r="Y187" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>15A788E7</v>
+        <v>19716B31</v>
       </c>
       <c r="Z187" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>44508805</v>
+        <v>07C9112A</v>
       </c>
       <c r="AA187" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>C6013F34</v>
+        <v>0C8E0D86</v>
       </c>
       <c r="AB187" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>2D180A8D</v>
+        <v>8D930E49</v>
       </c>
       <c r="AC187" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>4D688AAE</v>
+        <v>A1D868DF</v>
       </c>
     </row>
     <row r="188" spans="2:29" x14ac:dyDescent="0.3">
@@ -17858,11 +18020,11 @@
       </c>
       <c r="R188" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>F9CE93DB</v>
+        <v>99797091</v>
       </c>
       <c r="S188" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>F39D27B7</v>
+        <v>32F2E123</v>
       </c>
       <c r="U188">
         <v>74</v>
@@ -17872,31 +18034,31 @@
       </c>
       <c r="W188" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>AF49BDBC</v>
+        <v>86D412E5</v>
       </c>
       <c r="X188" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>6FA34ED9</v>
+        <v>542F84E0</v>
       </c>
       <c r="Y188" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>6FA34ED9</v>
+        <v>542F84E0</v>
       </c>
       <c r="Z188" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>15A788E7</v>
+        <v>19716B31</v>
       </c>
       <c r="AA188" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>51142201</v>
+        <v>81F2444A</v>
       </c>
       <c r="AB188" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>C6013F34</v>
+        <v>0C8E0D86</v>
       </c>
       <c r="AC188" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>2D180A8D</v>
+        <v>8D930E49</v>
       </c>
     </row>
     <row r="189" spans="2:29" x14ac:dyDescent="0.3">
@@ -17950,11 +18112,11 @@
       </c>
       <c r="R189" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>BB5C13D1</v>
+        <v>711986AD</v>
       </c>
       <c r="S189" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>76B827A3</v>
+        <v>E2330D5A</v>
       </c>
       <c r="U189">
         <v>75</v>
@@ -17964,31 +18126,31 @@
       </c>
       <c r="W189" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>82B295D2</v>
+        <v>940D22FD</v>
       </c>
       <c r="X189" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>E54F6505</v>
+        <v>54269C80</v>
       </c>
       <c r="Y189" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>E54F6505</v>
+        <v>54269C80</v>
       </c>
       <c r="Z189" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>6FA34ED9</v>
+        <v>542F84E0</v>
       </c>
       <c r="AA189" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>C569E239</v>
+        <v>465C5ACC</v>
       </c>
       <c r="AB189" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>51142201</v>
+        <v>81F2444A</v>
       </c>
       <c r="AC189" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>C6013F34</v>
+        <v>0C8E0D86</v>
       </c>
     </row>
     <row r="190" spans="2:29" x14ac:dyDescent="0.3">
@@ -18042,11 +18204,11 @@
       </c>
       <c r="R190" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>F07935F2</v>
+        <v>4DD80751</v>
       </c>
       <c r="S190" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>E0F26BE5</v>
+        <v>9BB00EA2</v>
       </c>
       <c r="U190">
         <v>76</v>
@@ -18056,31 +18218,31 @@
       </c>
       <c r="W190" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>FBDE8EE1</v>
+        <v>93819A66</v>
       </c>
       <c r="X190" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>17219C8C</v>
+        <v>8AF6086E</v>
       </c>
       <c r="Y190" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>17219C8C</v>
+        <v>8AF6086E</v>
       </c>
       <c r="Z190" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>E54F6505</v>
+        <v>54269C80</v>
       </c>
       <c r="AA190" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>5BE8D3B6</v>
+        <v>150BE138</v>
       </c>
       <c r="AB190" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>C569E239</v>
+        <v>465C5ACC</v>
       </c>
       <c r="AC190" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>51142201</v>
+        <v>81F2444A</v>
       </c>
     </row>
     <row r="191" spans="2:29" x14ac:dyDescent="0.3">
@@ -18134,11 +18296,11 @@
       </c>
       <c r="R191" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>914CD57B</v>
+        <v>A2D37E62</v>
       </c>
       <c r="S191" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>2299AAF7</v>
+        <v>45A6FCC5</v>
       </c>
       <c r="U191">
         <v>77</v>
@@ -18148,31 +18310,31 @@
       </c>
       <c r="W191" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>7BCE548A</v>
+        <v>07712774</v>
       </c>
       <c r="X191" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>9E1274DA</v>
+        <v>F82E382A</v>
       </c>
       <c r="Y191" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>9E1274DA</v>
+        <v>F82E382A</v>
       </c>
       <c r="Z191" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>17219C8C</v>
+        <v>8AF6086E</v>
       </c>
       <c r="AA191" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>7953D941</v>
+        <v>1509A720</v>
       </c>
       <c r="AB191" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>5BE8D3B6</v>
+        <v>150BE138</v>
       </c>
       <c r="AC191" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>C569E239</v>
+        <v>465C5ACC</v>
       </c>
     </row>
     <row r="192" spans="2:29" x14ac:dyDescent="0.3">
@@ -18226,11 +18388,11 @@
       </c>
       <c r="R192" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>49D3C3BA</v>
+        <v>F53A6A79</v>
       </c>
       <c r="S192" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>93A78774</v>
+        <v>EA74D4F3</v>
       </c>
       <c r="U192">
         <v>78</v>
@@ -18240,31 +18402,31 @@
       </c>
       <c r="W192" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>359A967B</v>
+        <v>8AF44E76</v>
       </c>
       <c r="X192" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>1B5D5D51</v>
+        <v>8BEF456A</v>
       </c>
       <c r="Y192" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>1B5D5D51</v>
+        <v>8BEF456A</v>
       </c>
       <c r="Z192" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>9E1274DA</v>
+        <v>F82E382A</v>
       </c>
       <c r="AA192" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>05C86723</v>
+        <v>A2BD821B</v>
       </c>
       <c r="AB192" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>7953D941</v>
+        <v>1509A720</v>
       </c>
       <c r="AC192" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>5BE8D3B6</v>
+        <v>150BE138</v>
       </c>
     </row>
     <row r="193" spans="2:29" x14ac:dyDescent="0.3">
@@ -18318,11 +18480,11 @@
       </c>
       <c r="R193" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>7419E62F</v>
+        <v>A0F0A293</v>
       </c>
       <c r="S193" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>E833CC5E</v>
+        <v>41E14527</v>
       </c>
       <c r="U193">
         <v>79</v>
@@ -18332,31 +18494,31 @@
       </c>
       <c r="W193" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>E289CAB8</v>
+        <v>4F9A1D11</v>
       </c>
       <c r="X193" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>5CB4D6C5</v>
+        <v>EED2B297</v>
       </c>
       <c r="Y193" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>5CB4D6C5</v>
+        <v>EED2B297</v>
       </c>
       <c r="Z193" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>1B5D5D51</v>
+        <v>8BEF456A</v>
       </c>
       <c r="AA193" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>A7849D36</v>
+        <v>BE0B8E0A</v>
       </c>
       <c r="AB193" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>05C86723</v>
+        <v>A2BD821B</v>
       </c>
       <c r="AC193" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>7953D941</v>
+        <v>1509A720</v>
       </c>
     </row>
     <row r="194" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18410,11 +18572,11 @@
       </c>
       <c r="R194" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>E967DD74</v>
+        <v>A0AB5E30</v>
       </c>
       <c r="S194" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>D2CFBAE9</v>
+        <v>4156BC61</v>
       </c>
       <c r="U194" s="12">
         <v>80</v>
@@ -18424,31 +18586,31 @@
       </c>
       <c r="W194" s="13" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>B911A744</v>
+        <v>9759497B</v>
       </c>
       <c r="X194" s="12" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>6632D5EF</v>
+        <v>9272C1CF</v>
       </c>
       <c r="Y194" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>6632D5EF</v>
+        <v>9272C1CF</v>
       </c>
       <c r="Z194" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>5CB4D6C5</v>
+        <v>EED2B297</v>
       </c>
       <c r="AA194" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>46D75754</v>
+        <v>A2FBD15A</v>
       </c>
       <c r="AB194" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>A7849D36</v>
+        <v>BE0B8E0A</v>
       </c>
       <c r="AC194" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>05C86723</v>
+        <v>A2BD821B</v>
       </c>
     </row>
     <row r="195" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18480,23 +18642,23 @@
       </c>
       <c r="Y195" s="21" t="str">
         <f t="shared" ref="Y195:AC195" ca="1" si="160">DEC2HEX(_xlfn.BITAND(HEX2DEC(Y194)+HEX2DEC(Y114),4294967295),8)</f>
-        <v>74C91FAA</v>
+        <v>A1090B8A</v>
       </c>
       <c r="Z195" s="22" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>E15A6BB9</v>
+        <v>7378478B</v>
       </c>
       <c r="AA195" s="22" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>4C488147</v>
+        <v>A86CFB4D</v>
       </c>
       <c r="AB195" s="22" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>98333A7D</v>
+        <v>AEBA2B51</v>
       </c>
       <c r="AC195" s="6" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>65729A48</v>
+        <v>0267B540</v>
       </c>
     </row>
     <row r="196" spans="2:29" x14ac:dyDescent="0.3">
@@ -18506,7 +18668,7 @@
       </c>
       <c r="Y196" t="str">
         <f ca="1">Y195&amp;Z195&amp;AA195&amp;AB195&amp;AC195</f>
-        <v>74C91FAAE15A6BB94C48814798333A7D65729A48</v>
+        <v>A1090B8A7378478BA86CFB4DAEBA2B510267B540</v>
       </c>
     </row>
   </sheetData>

--- a/TOTP.xlsx
+++ b/TOTP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\工程文件\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F8A65-7E6A-4A48-8484-265B45F03578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D5FBEC-8C94-4A59-8390-D0C2832B6074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="382" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="148">
   <si>
     <t>Select Item</t>
   </si>
@@ -541,6 +541,10 @@
     <t>Avoid access SHA1_Calculation Sheet and cells in black. It contains sensitive info and compute steps (incl your keys)!</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Even though, this worksheet cannot offer the same security level as specialized software. Use at your own risk!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -937,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1038,12 +1042,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1056,14 +1054,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1094,16 +1095,6 @@
           <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1379,7 +1370,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J206"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1397,11 +1388,11 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="53">
         <f ca="1">NOW()</f>
-        <v>45954.120190624999</v>
+        <v>45954.512363773145</v>
       </c>
       <c r="B1" s="44" t="str">
         <f ca="1">DEC2HEX(INT(A2/_xlfn.XLOOKUP($A$4,$A$6:$A$205,$B$6:$B$205,30)))</f>
-        <v>37FD0DA</v>
+        <v>37FD543</v>
       </c>
       <c r="C1" s="44" t="str">
         <f>_xlfn.XLOOKUP($A$4,$A$6:$A$205,$D$6:$D$205,AAAA)</f>
@@ -1417,21 +1408,21 @@
       </c>
       <c r="F1" s="46" t="str">
         <f ca="1" xml:space="preserve"> E1 &amp; B2</f>
-        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FD0DA</v>
+        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FD543</v>
       </c>
       <c r="G1" s="47" t="str">
         <f ca="1">SHA1_Calculation!A12</f>
-        <v>420CB14584D53E766B1D13094EF0302268BFD432</v>
+        <v>F2676E8FAC46FF36E2ED215B8CE4C177453F7814</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="24">
         <f ca="1">(NOW()-DATE(1970,1,1))*86400-B4*3600</f>
-        <v>1761245584.4699998</v>
+        <v>1761279468.2299998</v>
       </c>
       <c r="B2" s="48" t="str">
         <f ca="1">REPT("0",16-LEN(B1))&amp;B1</f>
-        <v>00000000037FD0DA</v>
+        <v>00000000037FD543</v>
       </c>
       <c r="C2" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP((MID(C1,ROW(INDIRECT("1:"&amp;LEN(C1))),1)),H5:H36,I5:I36))</f>
@@ -1447,11 +1438,11 @@
       </c>
       <c r="F2" s="50" t="str">
         <f ca="1" xml:space="preserve"> E2 &amp; G1</f>
-        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C420CB14584D53E766B1D13094EF0302268BFD432</v>
+        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5CF2676E8FAC46FF36E2ED215B8CE4C177453F7814</v>
       </c>
       <c r="G2" s="47" t="str">
         <f ca="1">SHA1_Calculation!A112</f>
-        <v>99EAE9F731ADA75834D8C65BB1F76F0402E4DC12</v>
+        <v>1A45CA32E4C11A1AD6B13B1FC92C3011F04639B3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.5">
@@ -1463,7 +1454,7 @@
       </c>
       <c r="C3" s="51">
         <f ca="1" xml:space="preserve"> _xlfn.BITAND(HEX2DEC(RIGHT(G2, 2)), 15)* 2 + 1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="52">
         <f>_xlfn.XLOOKUP($A$4,$A$6:$A$205,$C$6:$C$205,6)</f>
@@ -1471,7 +1462,7 @@
       </c>
       <c r="E3" s="47">
         <f ca="1">MOD( _xlfn.BITAND( HEX2DEC(MID(G2, C3, 8)), HEX2DEC("7FFFFFFF")), POWER(10,D3))</f>
-        <v>807789</v>
+        <v>852442</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1485,7 +1476,7 @@
         <v>137</v>
       </c>
       <c r="D4" s="57" t="str">
-        <f>IF(AND(About!B2="OK", About!B3="OK", About!B4="OK", About!B5="OK", About!B6="OK"), REPT("0",D3-LEN(E3))&amp;E3, "Go to About sheet first")</f>
+        <f>IF( About!C3="Good to go", REPT("0",D3-LEN(E3))&amp;E3, "Go to About sheet first")</f>
         <v>Go to About sheet first</v>
       </c>
       <c r="I4" s="40"/>
@@ -4217,16 +4208,16 @@
       <c r="D204" s="33"/>
     </row>
     <row r="205" spans="1:4" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A205" s="61"/>
-      <c r="B205" s="62" t="str">
+      <c r="A205" s="59"/>
+      <c r="B205" s="60" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="C205" s="62" t="str">
+      <c r="C205" s="60" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D205" s="63"/>
+      <c r="D205" s="61"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="34"/>
@@ -4256,19 +4247,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73261110-0B73-4351-A039-DF9C2C67621F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.58203125" customWidth="1"/>
     <col min="2" max="2" width="13.08203125" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>141</v>
       </c>
@@ -4276,7 +4268,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>144</v>
       </c>
@@ -4284,37 +4276,47 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="54"/>
-    </row>
-    <row r="4" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="55" t="str">
+        <f>IF(AND(B2="OK", B3="OK", B4="OK", B5="OK", B6="OK", B7="OK"), "Good to go", "&lt;=Read the items and enter ok")</f>
+        <v>&lt;=Read the items and enter ok</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="60"/>
-    </row>
-    <row r="5" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="58"/>
+    </row>
+    <row r="5" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="58"/>
+    </row>
+    <row r="6" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="60"/>
-    </row>
-    <row r="6" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="B6" s="58"/>
+    </row>
+    <row r="7" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B7" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A6">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A3:A7">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>NOT(B2="OK")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4346,11 +4348,11 @@
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="str">
         <f ca="1">TOTP!F1</f>
-        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FD0DA</v>
+        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FD543</v>
       </c>
       <c r="B1" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">_xlfn.TEXTJOIN("", TRUE, DEC2BIN(HEX2DEC(MID(UPPER(A1), ROW(INDIRECT("1:" &amp; LEN(A1))), 1)), 4))</f>
-        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101000011011010</v>
+        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101010101000011</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>32</v>
@@ -4422,7 +4424,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">B1&amp;"1"&amp;REPT("0",J1)</f>
-        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101000011011010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101010101000011100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"...("&amp;LEN(B2)&amp;")"</f>
@@ -4550,7 +4552,7 @@
       </c>
       <c r="B8" t="str">
         <f ca="1">B2&amp;B7</f>
-        <v>0011011001110010000001000010001011110001011101000110001010000000000000111111100110110010010100110000110001100000111000011111000001000011100010000100000111101001001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000000000000000000000000000000000000000110111111111010000110110101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
+        <v>0011011001110010000001000010001011110001011101000110001010000000000000111111100110110010010100110000110001100000111000011111000001000011100010000100000111101001001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000000000000000000000000000000000000000110111111111010101010000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
       </c>
       <c r="E8" t="str">
         <f ca="1">"...("&amp;LEN(B8)&amp;")"</f>
@@ -4576,7 +4578,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f ca="1">IF($F$1=1,J96,Y96)</f>
-        <v>420CB14584D53E766B1D13094EF0302268BFD432</v>
+        <v>F2676E8FAC46FF36E2ED215B8CE4C177453F7814</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -4613,7 +4615,7 @@
       </c>
       <c r="Q13" s="5" t="str">
         <f ca="1">MID(B8,513,512)</f>
-        <v>00000000000000000000000000000000000000110111111111010000110110101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
+        <v>00000000000000000000000000000000000000110111111111010101010000111000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" t="str">
@@ -4865,15 +4867,15 @@
       </c>
       <c r="Q16" t="str">
         <f t="shared" ref="Q16:Q30" ca="1" si="15">MID($Q$13,32*(U16-1)+1,32)</f>
-        <v>00000011011111111101000011011010</v>
+        <v>00000011011111111101010101000011</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" ref="R16:R30" ca="1" si="16">TEXT(BIN2HEX(MID(Q16,1,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q16,9,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q16,17,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q16,25,8),2),"00")</f>
-        <v>037FD0DA</v>
+        <v>037FD543</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>037FD0DA</v>
+        <v>037FD543</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -4887,11 +4889,11 @@
       </c>
       <c r="X16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B7CEF65F</v>
+        <v>B7CEFAC8</v>
       </c>
       <c r="Y16" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B7CEF65F</v>
+        <v>B7CEFAC8</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" ref="Z16:AC16" ca="1" si="17">Y15</f>
@@ -4981,15 +4983,15 @@
       </c>
       <c r="X17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FBF71D08</v>
+        <v>FBF7AA28</v>
       </c>
       <c r="Y17" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>FBF71D08</v>
+        <v>FBF7AA28</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" ref="Z17:AC17" ca="1" si="18">Y16</f>
-        <v>B7CEF65F</v>
+        <v>B7CEFAC8</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5071,23 +5073,23 @@
       </c>
       <c r="W18" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>596719B5</v>
+        <v>59671D27</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B575684A</v>
+        <v>B5870FBC</v>
       </c>
       <c r="Y18" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B575684A</v>
+        <v>B5870FBC</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" ref="Z18:AC18" ca="1" si="19">Y17</f>
-        <v>FBF71D08</v>
+        <v>FBF7AA28</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>EDF3BD97</v>
+        <v>2DF3BEB2</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -5165,27 +5167,27 @@
       </c>
       <c r="W19" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E9F31D35</v>
+        <v>29F3BA35</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4D43E00B</v>
+        <v>8F796B4B</v>
       </c>
       <c r="Y19" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4D43E00B</v>
+        <v>8F796B4B</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" ref="Z19:AC19" ca="1" si="20">Y18</f>
-        <v>B575684A</v>
+        <v>B5870FBC</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>3EFDC742</v>
+        <v>3EFDEA8A</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>EDF3BD97</v>
+        <v>2DF3BEB2</v>
       </c>
       <c r="AC19" s="19" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -5259,31 +5261,31 @@
       </c>
       <c r="W20" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7CF7D5D7</v>
+        <v>3CF5BA8A</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>996C690E</v>
+        <v>A01BB5C9</v>
       </c>
       <c r="Y20" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>996C690E</v>
+        <v>A01BB5C9</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" ref="Z20:AC20" ca="1" si="21">Y19</f>
-        <v>4D43E00B</v>
+        <v>8F796B4B</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>AD5D5A12</v>
+        <v>2D61C3EF</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>3EFDC742</v>
+        <v>3EFDEA8A</v>
       </c>
       <c r="AC20" s="19" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>EDF3BD97</v>
+        <v>2DF3BEB2</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.3">
@@ -5353,31 +5355,31 @@
       </c>
       <c r="W21" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3FFD4742</v>
+        <v>3DE5C3CB</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B600A045</v>
+        <v>C9D2B54A</v>
       </c>
       <c r="Y21" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B600A045</v>
+        <v>C9D2B54A</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" ref="Z21:AC21" ca="1" si="22">Y20</f>
-        <v>996C690E</v>
+        <v>A01BB5C9</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D350F802</v>
+        <v>E3DE5AD2</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>AD5D5A12</v>
+        <v>2D61C3EF</v>
       </c>
       <c r="AC21" s="19" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>3EFDC742</v>
+        <v>3EFDEA8A</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.3">
@@ -5447,31 +5449,31 @@
       </c>
       <c r="W22" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B5517A12</v>
+        <v>AD7A52E6</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0EE5C3A3</v>
+        <v>81516062</v>
       </c>
       <c r="Y22" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0EE5C3A3</v>
+        <v>81516062</v>
       </c>
       <c r="Z22" t="str">
         <f t="shared" ref="Z22:AC22" ca="1" si="23">Y21</f>
-        <v>B600A045</v>
+        <v>C9D2B54A</v>
       </c>
       <c r="AA22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A65B1A43</v>
+        <v>6806ED72</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>D350F802</v>
+        <v>E3DE5AD2</v>
       </c>
       <c r="AC22" s="19" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>AD5D5A12</v>
+        <v>2D61C3EF</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.3">
@@ -5541,31 +5543,31 @@
       </c>
       <c r="W23" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E7505843</v>
+        <v>6A0EEFD2</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CBE8A04F</v>
+        <v>1C1F39AA</v>
       </c>
       <c r="Y23" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CBE8A04F</v>
+        <v>1C1F39AA</v>
       </c>
       <c r="Z23" t="str">
         <f t="shared" ref="Z23:AC23" ca="1" si="24">Y22</f>
-        <v>0EE5C3A3</v>
+        <v>81516062</v>
       </c>
       <c r="AA23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>6D802811</v>
+        <v>B274AD52</v>
       </c>
       <c r="AB23" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>A65B1A43</v>
+        <v>6806ED72</v>
       </c>
       <c r="AC23" s="19" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>D350F802</v>
+        <v>E3DE5AD2</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
@@ -5635,31 +5637,31 @@
       </c>
       <c r="W24" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AC9A1841</v>
+        <v>E856AD52</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>578193D5</v>
+        <v>AA9EB700</v>
       </c>
       <c r="Y24" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>578193D5</v>
+        <v>AA9EB700</v>
       </c>
       <c r="Z24" t="str">
         <f t="shared" ref="Z24:AC24" ca="1" si="25">Y23</f>
-        <v>CBE8A04F</v>
+        <v>1C1F39AA</v>
       </c>
       <c r="AA24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>C3B970E8</v>
+        <v>A0545818</v>
       </c>
       <c r="AB24" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>6D802811</v>
+        <v>B274AD52</v>
       </c>
       <c r="AC24" s="19" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>A65B1A43</v>
+        <v>6806ED72</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
@@ -5729,31 +5731,31 @@
       </c>
       <c r="W25" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E7A82858</v>
+        <v>A2749C58</v>
       </c>
       <c r="X25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D8B836DE</v>
+        <v>B8D4E378</v>
       </c>
       <c r="Y25" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D8B836DE</v>
+        <v>B8D4E378</v>
       </c>
       <c r="Z25" t="str">
         <f t="shared" ref="Z25:AC25" ca="1" si="26">Y24</f>
-        <v>578193D5</v>
+        <v>AA9EB700</v>
       </c>
       <c r="AA25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F2FA2813</v>
+        <v>8707CE6A</v>
       </c>
       <c r="AB25" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>C3B970E8</v>
+        <v>A0545818</v>
       </c>
       <c r="AC25" s="19" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>6D802811</v>
+        <v>B274AD52</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.3">
@@ -5823,31 +5825,31 @@
       </c>
       <c r="W26" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D2B86039</v>
+        <v>8246CE18</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B1C1DDBE</v>
+        <v>A9DA641A</v>
       </c>
       <c r="Y26" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B1C1DDBE</v>
+        <v>A9DA641A</v>
       </c>
       <c r="Z26" t="str">
         <f t="shared" ref="Z26:AC26" ca="1" si="27">Y25</f>
-        <v>D8B836DE</v>
+        <v>B8D4E378</v>
       </c>
       <c r="AA26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>55E064F5</v>
+        <v>2AA7ADC0</v>
       </c>
       <c r="AB26" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>F2FA2813</v>
+        <v>8707CE6A</v>
       </c>
       <c r="AC26" s="19" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>C3B970E8</v>
+        <v>A0545818</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.3">
@@ -5917,31 +5919,31 @@
       </c>
       <c r="W27" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>72E22CD5</v>
+        <v>2F87AD42</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C959CF2C</v>
+        <v>65AB0248</v>
       </c>
       <c r="Y27" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C959CF2C</v>
+        <v>65AB0248</v>
       </c>
       <c r="Z27" t="str">
         <f t="shared" ref="Z27:AC27" ca="1" si="28">Y26</f>
-        <v>B1C1DDBE</v>
+        <v>A9DA641A</v>
       </c>
       <c r="AA27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B62E0DB7</v>
+        <v>2E3538DE</v>
       </c>
       <c r="AB27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>55E064F5</v>
+        <v>2AA7ADC0</v>
       </c>
       <c r="AC27" s="19" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>F2FA2813</v>
+        <v>8707CE6A</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.3">
@@ -6011,31 +6013,31 @@
       </c>
       <c r="W28" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F4202DF7</v>
+        <v>2A35A9DA</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6CD6B53C</v>
+        <v>C1203AE9</v>
       </c>
       <c r="Y28" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6CD6B53C</v>
+        <v>C1203AE9</v>
       </c>
       <c r="Z28" t="str">
         <f t="shared" ref="Z28:AC28" ca="1" si="29">Y27</f>
-        <v>C959CF2C</v>
+        <v>65AB0248</v>
       </c>
       <c r="AA28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>AC70776F</v>
+        <v>AA769906</v>
       </c>
       <c r="AB28" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>B62E0DB7</v>
+        <v>2E3538DE</v>
       </c>
       <c r="AC28" s="19" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>55E064F5</v>
+        <v>2AA7ADC0</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6105,31 +6107,31 @@
       </c>
       <c r="W29" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BE7647BF</v>
+        <v>2A363896</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09AFCDDA</v>
+        <v>D367BD27</v>
       </c>
       <c r="Y29" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>09AFCDDA</v>
+        <v>D367BD27</v>
       </c>
       <c r="Z29" t="str">
         <f t="shared" ref="Z29:AC29" ca="1" si="30">Y28</f>
-        <v>6CD6B53C</v>
+        <v>C1203AE9</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>325673CB</v>
+        <v>196AC092</v>
       </c>
       <c r="AB29" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>AC70776F</v>
+        <v>AA769906</v>
       </c>
       <c r="AC29" s="19" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>B62E0DB7</v>
+        <v>2E3538DE</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
@@ -6199,35 +6201,35 @@
       </c>
       <c r="W30" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A076734B</v>
+        <v>2B768186</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E720B81C</v>
+        <v>2125DB37</v>
       </c>
       <c r="Y30" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>E720B81C</v>
+        <v>2125DB37</v>
       </c>
       <c r="Z30" t="str">
         <f t="shared" ref="Z30:AC30" ca="1" si="31">Y29</f>
-        <v>09AFCDDA</v>
+        <v>D367BD27</v>
       </c>
       <c r="AA30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1B35AD4F</v>
+        <v>70480EBA</v>
       </c>
       <c r="AB30" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>325673CB</v>
+        <v>196AC092</v>
       </c>
       <c r="AC30" s="19" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>AC70776F</v>
+        <v>AA769906</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="62" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="11" t="str">
@@ -6272,7 +6274,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>5489DBC4</v>
       </c>
-      <c r="Q31" s="58" t="s">
+      <c r="Q31" s="62" t="s">
         <v>63</v>
       </c>
       <c r="R31" s="11" t="str">
@@ -6291,35 +6293,35 @@
       </c>
       <c r="W31" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3B75BF4B</v>
+        <v>58484CB2</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>267FB3F0</v>
+        <v>81FCC636</v>
       </c>
       <c r="Y31" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>267FB3F0</v>
+        <v>81FCC636</v>
       </c>
       <c r="Z31" t="str">
         <f t="shared" ref="Z31:AC31" ca="1" si="34">Y30</f>
-        <v>E720B81C</v>
+        <v>2125DB37</v>
       </c>
       <c r="AA31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>826BF376</v>
+        <v>F4D9EF49</v>
       </c>
       <c r="AB31" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>1B35AD4F</v>
+        <v>70480EBA</v>
       </c>
       <c r="AC31" s="19" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>325673CB</v>
+        <v>196AC092</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="59"/>
+      <c r="B32" s="63"/>
       <c r="C32" t="str">
         <f ca="1">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D29),HEX2DEC(D24)),_xlfn.BITXOR(HEX2DEC(D18),HEX2DEC(D16))),8)</f>
         <v>FD148370</v>
@@ -6362,14 +6364,14 @@
         <f t="shared" ca="1" si="14"/>
         <v>2C903AA8</v>
       </c>
-      <c r="Q32" s="59"/>
+      <c r="Q32" s="63"/>
       <c r="R32" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>037FD0DA</v>
+        <v>037FD543</v>
       </c>
       <c r="S32" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>06FFA1B4</v>
+        <v>06FFAA86</v>
       </c>
       <c r="U32">
         <v>18</v>
@@ -6379,35 +6381,35 @@
       </c>
       <c r="W32" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>9A35B557</v>
+        <v>7049CF89</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FE04C273</v>
+        <v>2ACF7B0A</v>
       </c>
       <c r="Y32" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>FE04C273</v>
+        <v>2ACF7B0A</v>
       </c>
       <c r="Z32" t="str">
         <f t="shared" ref="Z32:AC32" ca="1" si="35">Y31</f>
-        <v>267FB3F0</v>
+        <v>81FCC636</v>
       </c>
       <c r="AA32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>39C82E07</v>
+        <v>C84976CD</v>
       </c>
       <c r="AB32" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>826BF376</v>
+        <v>F4D9EF49</v>
       </c>
       <c r="AC32" s="19" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>1B35AD4F</v>
+        <v>70480EBA</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
+      <c r="B33" s="63"/>
       <c r="C33" t="str">
         <f t="shared" ref="C33:C94" ca="1" si="36">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D30),HEX2DEC(D25)),_xlfn.BITXOR(HEX2DEC(D19),HEX2DEC(D17))),8)</f>
         <v>4071F3BA</v>
@@ -6450,7 +6452,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>FFD8EFDC</v>
       </c>
-      <c r="Q33" s="59"/>
+      <c r="Q33" s="63"/>
       <c r="R33" t="str">
         <f t="shared" ca="1" si="32"/>
         <v>80000240</v>
@@ -6467,35 +6469,35 @@
       </c>
       <c r="W33" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>A0486206</v>
+        <v>F4496F4D</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D698DBEE</v>
+        <v>19035D66</v>
       </c>
       <c r="Y33" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D698DBEE</v>
+        <v>19035D66</v>
       </c>
       <c r="Z33" t="str">
         <f t="shared" ref="Z33:AC33" ca="1" si="38">Y32</f>
-        <v>FE04C273</v>
+        <v>2ACF7B0A</v>
       </c>
       <c r="AA33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>099FECFC</v>
+        <v>A07F318D</v>
       </c>
       <c r="AB33" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>39C82E07</v>
+        <v>C84976CD</v>
       </c>
       <c r="AC33" s="19" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>826BF376</v>
+        <v>F4D9EF49</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
+      <c r="B34" s="63"/>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="36"/>
         <v>67778D12</v>
@@ -6538,7 +6540,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>0B9EB322</v>
       </c>
-      <c r="Q34" s="59"/>
+      <c r="Q34" s="63"/>
       <c r="R34" t="str">
         <f t="shared" ca="1" si="32"/>
         <v>00000001</v>
@@ -6555,31 +6557,31 @@
       </c>
       <c r="W34" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>09CCEC74</v>
+        <v>E04F35CD</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B9D6D75F</v>
+        <v>50174B74</v>
       </c>
       <c r="Y34" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B9D6D75F</v>
+        <v>50174B74</v>
       </c>
       <c r="Z34" t="str">
         <f t="shared" ref="Z34:AC34" ca="1" si="39">Y33</f>
-        <v>D698DBEE</v>
+        <v>19035D66</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>FF81309C</v>
+        <v>8AB3DEC2</v>
       </c>
       <c r="AB34" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>099FECFC</v>
+        <v>A07F318D</v>
       </c>
       <c r="AC34" s="19" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>39C82E07</v>
+        <v>C84976CD</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.3">
@@ -6633,11 +6635,11 @@
       </c>
       <c r="R35" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>06FFA1B4</v>
+        <v>06FFAA86</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>0DFF4368</v>
+        <v>0DFF550C</v>
       </c>
       <c r="U35">
         <v>21</v>
@@ -6647,31 +6649,31 @@
       </c>
       <c r="W35" s="7" t="str">
         <f t="shared" ref="W35:W54" ca="1" si="40">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z34),HEX2DEC(AA34)),HEX2DEC(AB34)),8)</f>
-        <v>2086078E</v>
+        <v>33CFB229</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>12025095</v>
+        <v>7BDBD82D</v>
       </c>
       <c r="Y35" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>12025095</v>
+        <v>7BDBD82D</v>
       </c>
       <c r="Z35" t="str">
         <f t="shared" ref="Z35:AC35" ca="1" si="41">Y34</f>
-        <v>B9D6D75F</v>
+        <v>50174B74</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B5A636FB</v>
+        <v>8640D759</v>
       </c>
       <c r="AB35" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>FF81309C</v>
+        <v>8AB3DEC2</v>
       </c>
       <c r="AC35" s="19" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>099FECFC</v>
+        <v>A07F318D</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.3">
@@ -6739,31 +6741,31 @@
       </c>
       <c r="W36" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>F3F1D138</v>
+        <v>5CE442EF</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ACB5C579</v>
+        <v>E7B86ECE</v>
       </c>
       <c r="Y36" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ACB5C579</v>
+        <v>E7B86ECE</v>
       </c>
       <c r="Z36" t="str">
         <f t="shared" ref="Z36:AC36" ca="1" si="43">Y35</f>
-        <v>12025095</v>
+        <v>7BDBD82D</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>EE75B5D7</v>
+        <v>1405D2DD</v>
       </c>
       <c r="AB36" t="str">
         <f t="shared" ca="1" si="43"/>
-        <v>B5A636FB</v>
+        <v>8640D759</v>
       </c>
       <c r="AC36" s="19" t="str">
         <f t="shared" ca="1" si="43"/>
-        <v>FF81309C</v>
+        <v>8AB3DEC2</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.3">
@@ -6831,31 +6833,31 @@
       </c>
       <c r="W37" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>49D1D3B9</v>
+        <v>E99EDDA9</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4EE59F2F</v>
+        <v>DA3A81EC</v>
       </c>
       <c r="Y37" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4EE59F2F</v>
+        <v>DA3A81EC</v>
       </c>
       <c r="Z37" t="str">
         <f t="shared" ref="Z37:AC37" ca="1" si="44">Y36</f>
-        <v>ACB5C579</v>
+        <v>E7B86ECE</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>44809425</v>
+        <v>5EF6F60B</v>
       </c>
       <c r="AB37" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>EE75B5D7</v>
+        <v>1405D2DD</v>
       </c>
       <c r="AC37" s="19" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>B5A636FB</v>
+        <v>8640D759</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.3">
@@ -6909,11 +6911,11 @@
       </c>
       <c r="R38" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>0DFF4128</v>
+        <v>0DFF574C</v>
       </c>
       <c r="S38" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>1BFE8250</v>
+        <v>1BFEAE98</v>
       </c>
       <c r="U38">
         <v>24</v>
@@ -6923,31 +6925,31 @@
       </c>
       <c r="W38" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>0640E48B</v>
+        <v>AD4B4A18</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>23736F60</v>
+        <v>05B4F945</v>
       </c>
       <c r="Y38" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>23736F60</v>
+        <v>05B4F945</v>
       </c>
       <c r="Z38" t="str">
         <f t="shared" ref="Z38:AC38" ca="1" si="45">Y37</f>
-        <v>4EE59F2F</v>
+        <v>DA3A81EC</v>
       </c>
       <c r="AA38" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>6B2D715E</v>
+        <v>B9EE1BB3</v>
       </c>
       <c r="AB38" t="str">
         <f t="shared" ca="1" si="45"/>
-        <v>44809425</v>
+        <v>5EF6F60B</v>
       </c>
       <c r="AC38" s="19" t="str">
         <f t="shared" ca="1" si="45"/>
-        <v>EE75B5D7</v>
+        <v>1405D2DD</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.3">
@@ -7015,31 +7017,31 @@
       </c>
       <c r="W39" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>61487A54</v>
+        <v>3D226C54</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2D0619D6</v>
+        <v>76A16578</v>
       </c>
       <c r="Y39" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2D0619D6</v>
+        <v>76A16578</v>
       </c>
       <c r="Z39" t="str">
         <f t="shared" ref="Z39:AC39" ca="1" si="46">Y38</f>
-        <v>23736F60</v>
+        <v>05B4F945</v>
       </c>
       <c r="AA39" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D3B967CB</v>
+        <v>368EA07B</v>
       </c>
       <c r="AB39" t="str">
         <f t="shared" ca="1" si="46"/>
-        <v>6B2D715E</v>
+        <v>B9EE1BB3</v>
       </c>
       <c r="AC39" s="19" t="str">
         <f t="shared" ca="1" si="46"/>
-        <v>44809425</v>
+        <v>5EF6F60B</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.3">
@@ -7093,11 +7095,11 @@
       </c>
       <c r="R40" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>06FFA1B0</v>
+        <v>06FFAA82</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>0DFF4360</v>
+        <v>0DFF5504</v>
       </c>
       <c r="U40">
         <v>26</v>
@@ -7107,31 +7109,31 @@
       </c>
       <c r="W40" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>9BE779F5</v>
+        <v>8AD4428D</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FE0477E0</v>
+        <v>3AD1284B</v>
       </c>
       <c r="Y40" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>FE0477E0</v>
+        <v>3AD1284B</v>
       </c>
       <c r="Z40" t="str">
         <f t="shared" ref="Z40:AC40" ca="1" si="47">Y39</f>
-        <v>2D0619D6</v>
+        <v>76A16578</v>
       </c>
       <c r="AA40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>08DCDBD8</v>
+        <v>416D3E51</v>
       </c>
       <c r="AB40" t="str">
         <f t="shared" ca="1" si="47"/>
-        <v>D3B967CB</v>
+        <v>368EA07B</v>
       </c>
       <c r="AC40" s="19" t="str">
         <f t="shared" ca="1" si="47"/>
-        <v>6B2D715E</v>
+        <v>B9EE1BB3</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.3">
@@ -7185,11 +7187,11 @@
       </c>
       <c r="R41" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1BFE86D1</v>
+        <v>1BFEAA19</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>37FD0DA2</v>
+        <v>37FD5432</v>
       </c>
       <c r="U41">
         <v>27</v>
@@ -7199,31 +7201,31 @@
       </c>
       <c r="W41" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>F663A5C5</v>
+        <v>0142FB52</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C8F70C85</v>
+        <v>BC2D603F</v>
       </c>
       <c r="Y41" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C8F70C85</v>
+        <v>BC2D603F</v>
       </c>
       <c r="Z41" t="str">
         <f t="shared" ref="Z41:AC41" ca="1" si="48">Y40</f>
-        <v>FE0477E0</v>
+        <v>3AD1284B</v>
       </c>
       <c r="AA41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>8B418675</v>
+        <v>1DA8595E</v>
       </c>
       <c r="AB41" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>08DCDBD8</v>
+        <v>416D3E51</v>
       </c>
       <c r="AC41" s="19" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>D3B967CB</v>
+        <v>368EA07B</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.3">
@@ -7291,31 +7293,31 @@
       </c>
       <c r="W42" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>7D992A4D</v>
+        <v>66144F44</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DF0E327A</v>
+        <v>9129075F</v>
       </c>
       <c r="Y42" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DF0E327A</v>
+        <v>9129075F</v>
       </c>
       <c r="Z42" t="str">
         <f t="shared" ref="Z42:AC42" ca="1" si="49">Y41</f>
-        <v>C8F70C85</v>
+        <v>BC2D603F</v>
       </c>
       <c r="AA42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>3F811DF8</v>
+        <v>CEB44A12</v>
       </c>
       <c r="AB42" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>8B418675</v>
+        <v>1DA8595E</v>
       </c>
       <c r="AC42" s="19" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>08DCDBD8</v>
+        <v>416D3E51</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.3">
@@ -7383,31 +7385,31 @@
       </c>
       <c r="W43" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>7C379708</v>
+        <v>6F317373</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D5B4ADEC</v>
+        <v>44998967</v>
       </c>
       <c r="Y43" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D5B4ADEC</v>
+        <v>44998967</v>
       </c>
       <c r="Z43" t="str">
         <f t="shared" ref="Z43:AC43" ca="1" si="50">Y42</f>
-        <v>DF0E327A</v>
+        <v>9129075F</v>
       </c>
       <c r="AA43" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>723DC321</v>
+        <v>EF0B580F</v>
       </c>
       <c r="AB43" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>3F811DF8</v>
+        <v>CEB44A12</v>
       </c>
       <c r="AC43" s="19" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>8B418675</v>
+        <v>1DA8595E</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.3">
@@ -7461,11 +7463,11 @@
       </c>
       <c r="R44" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>37FD06E0</v>
+        <v>37FD5F70</v>
       </c>
       <c r="S44" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>6FFA0DC0</v>
+        <v>6FFABEE0</v>
       </c>
       <c r="U44">
         <v>30</v>
@@ -7475,31 +7477,31 @@
       </c>
       <c r="W44" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>92B2ECA3</v>
+        <v>B0961542</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B35E2A13</v>
+        <v>40444609</v>
       </c>
       <c r="Y44" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B35E2A13</v>
+        <v>40444609</v>
       </c>
       <c r="Z44" t="str">
         <f t="shared" ref="Z44:AC44" ca="1" si="51">Y43</f>
-        <v>D5B4ADEC</v>
+        <v>44998967</v>
       </c>
       <c r="AA44" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B7C38C9E</v>
+        <v>E44A41D7</v>
       </c>
       <c r="AB44" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>723DC321</v>
+        <v>EF0B580F</v>
       </c>
       <c r="AC44" s="19" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>3F811DF8</v>
+        <v>CEB44A12</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.3">
@@ -7567,31 +7569,31 @@
       </c>
       <c r="W45" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>104AE253</v>
+        <v>4FD890BF</v>
       </c>
       <c r="X45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2A6B767C</v>
+        <v>95EFCFB4</v>
       </c>
       <c r="Y45" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2A6B767C</v>
+        <v>95EFCFB4</v>
       </c>
       <c r="Z45" t="str">
         <f t="shared" ref="Z45:AC45" ca="1" si="52">Y44</f>
-        <v>B35E2A13</v>
+        <v>40444609</v>
       </c>
       <c r="AA45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>356D2B7B</v>
+        <v>D1266259</v>
       </c>
       <c r="AB45" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v>B7C38C9E</v>
+        <v>E44A41D7</v>
       </c>
       <c r="AC45" s="19" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v>723DC321</v>
+        <v>EF0B580F</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.3">
@@ -7645,11 +7647,11 @@
       </c>
       <c r="R46" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1D0121B4</v>
+        <v>1D01064E</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>3A024368</v>
+        <v>3A020C9C</v>
       </c>
       <c r="U46">
         <v>32</v>
@@ -7659,31 +7661,31 @@
       </c>
       <c r="W46" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>31F08DF6</v>
+        <v>75286587</v>
       </c>
       <c r="X46" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>9A794FA5</v>
+        <v>CB09AC65</v>
       </c>
       <c r="Y46" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>9A794FA5</v>
+        <v>CB09AC65</v>
       </c>
       <c r="Z46" t="str">
         <f t="shared" ref="Z46:AC46" ca="1" si="53">Y45</f>
-        <v>2A6B767C</v>
+        <v>95EFCFB4</v>
       </c>
       <c r="AA46" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ECD78A84</v>
+        <v>50111182</v>
       </c>
       <c r="AB46" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>356D2B7B</v>
+        <v>D1266259</v>
       </c>
       <c r="AC46" s="19" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>B7C38C9E</v>
+        <v>E44A41D7</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.3">
@@ -7737,11 +7739,11 @@
       </c>
       <c r="R47" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>6FFA1B46</v>
+        <v>6FFAA866</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>DFF4368C</v>
+        <v>DFF550CC</v>
       </c>
       <c r="U47">
         <v>33</v>
@@ -7751,31 +7753,31 @@
       </c>
       <c r="W47" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>F3D1D783</v>
+        <v>14D8BC6F</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>498D7B01</v>
+        <v>A927C76C</v>
       </c>
       <c r="Y47" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>498D7B01</v>
+        <v>A927C76C</v>
       </c>
       <c r="Z47" t="str">
         <f t="shared" ref="Z47:AC47" ca="1" si="55">Y46</f>
-        <v>9A794FA5</v>
+        <v>CB09AC65</v>
       </c>
       <c r="AA47" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>0A9ADD9F</v>
+        <v>257BF3ED</v>
       </c>
       <c r="AB47" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>ECD78A84</v>
+        <v>50111182</v>
       </c>
       <c r="AC47" s="19" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>356D2B7B</v>
+        <v>D1266259</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.3">
@@ -7829,11 +7831,11 @@
       </c>
       <c r="R48" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>0B00AACC</v>
+        <v>0B00B79A</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>16015598</v>
+        <v>16016F34</v>
       </c>
       <c r="U48">
         <v>34</v>
@@ -7843,31 +7845,31 @@
       </c>
       <c r="W48" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>7C3418BE</v>
+        <v>BE634E0A</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>682BE59B</v>
+        <v>395DF8CD</v>
       </c>
       <c r="Y48" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>682BE59B</v>
+        <v>395DF8CD</v>
       </c>
       <c r="Z48" t="str">
         <f t="shared" ref="Z48:AC48" ca="1" si="56">Y47</f>
-        <v>498D7B01</v>
+        <v>A927C76C</v>
       </c>
       <c r="AA48" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>669E53E9</v>
+        <v>72C26B19</v>
       </c>
       <c r="AB48" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>0A9ADD9F</v>
+        <v>257BF3ED</v>
       </c>
       <c r="AC48" s="19" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>ECD78A84</v>
+        <v>50111182</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.3">
@@ -7935,31 +7937,31 @@
       </c>
       <c r="W49" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>2589F577</v>
+        <v>FE9E5F98</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>86B8314F</v>
+        <v>E94888A8</v>
       </c>
       <c r="Y49" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>86B8314F</v>
+        <v>E94888A8</v>
       </c>
       <c r="Z49" t="str">
         <f t="shared" ref="Z49:AC49" ca="1" si="57">Y48</f>
-        <v>682BE59B</v>
+        <v>395DF8CD</v>
       </c>
       <c r="AA49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>52635EC0</v>
+        <v>2A49F1DB</v>
       </c>
       <c r="AB49" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>669E53E9</v>
+        <v>72C26B19</v>
       </c>
       <c r="AC49" s="19" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>0A9ADD9F</v>
+        <v>257BF3ED</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.3">
@@ -8013,11 +8015,11 @@
       </c>
       <c r="R50" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>DFF41B84</v>
+        <v>DFF57DC4</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>BFE83709</v>
+        <v>BFEAFB89</v>
       </c>
       <c r="U50">
         <v>36</v>
@@ -8027,31 +8029,31 @@
       </c>
       <c r="W50" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>5CD6E8B2</v>
+        <v>61D6620F</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6D3A12EB</v>
+        <v>DF285243</v>
       </c>
       <c r="Y50" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6D3A12EB</v>
+        <v>DF285243</v>
       </c>
       <c r="Z50" t="str">
         <f t="shared" ref="Z50:AC50" ca="1" si="58">Y49</f>
-        <v>86B8314F</v>
+        <v>E94888A8</v>
       </c>
       <c r="AA50" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>DA0AF966</v>
+        <v>4E577E33</v>
       </c>
       <c r="AB50" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>52635EC0</v>
+        <v>2A49F1DB</v>
       </c>
       <c r="AC50" s="19" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>669E53E9</v>
+        <v>72C26B19</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.3">
@@ -8105,11 +8107,11 @@
       </c>
       <c r="R51" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1BFE16E4</v>
+        <v>1BFE3A2C</v>
       </c>
       <c r="S51" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>37FC2DC8</v>
+        <v>37FC7458</v>
       </c>
       <c r="U51">
         <v>37</v>
@@ -8119,31 +8121,31 @@
       </c>
       <c r="W51" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>0ED196E9</v>
+        <v>8D560740</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C38861A8</v>
+        <v>8BF91ACD</v>
       </c>
       <c r="Y51" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C38861A8</v>
+        <v>8BF91ACD</v>
       </c>
       <c r="Z51" t="str">
         <f t="shared" ref="Z51:AC51" ca="1" si="59">Y50</f>
-        <v>6D3A12EB</v>
+        <v>DF285243</v>
       </c>
       <c r="AA51" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>E1AE0C53</v>
+        <v>3A52222A</v>
       </c>
       <c r="AB51" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>DA0AF966</v>
+        <v>4E577E33</v>
       </c>
       <c r="AC51" s="19" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>52635EC0</v>
+        <v>2A49F1DB</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.3">
@@ -8197,11 +8199,11 @@
       </c>
       <c r="R52" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>740494D4</v>
+        <v>74040B3C</v>
       </c>
       <c r="S52" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>E80929A8</v>
+        <v>E8081678</v>
       </c>
       <c r="U52">
         <v>38</v>
@@ -8211,31 +8213,31 @@
       </c>
       <c r="W52" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>569EE7DE</v>
+        <v>AB2D0E5A</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>70F190FF</v>
+        <v>AB7C5BFF</v>
       </c>
       <c r="Y52" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>70F190FF</v>
+        <v>AB7C5BFF</v>
       </c>
       <c r="Z52" t="str">
         <f t="shared" ref="Z52:AC52" ca="1" si="60">Y51</f>
-        <v>C38861A8</v>
+        <v>8BF91ACD</v>
       </c>
       <c r="AA52" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>DB4E84BA</v>
+        <v>F7CA1490</v>
       </c>
       <c r="AB52" t="str">
         <f t="shared" ca="1" si="60"/>
-        <v>E1AE0C53</v>
+        <v>3A52222A</v>
       </c>
       <c r="AC52" s="19" t="str">
         <f t="shared" ca="1" si="60"/>
-        <v>DA0AF966</v>
+        <v>4E577E33</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.3">
@@ -8289,11 +8291,11 @@
       </c>
       <c r="R53" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFE86D11</v>
+        <v>BFEAA191</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FD0DA23</v>
+        <v>7FD54323</v>
       </c>
       <c r="U53">
         <v>39</v>
@@ -8303,31 +8305,31 @@
       </c>
       <c r="W53" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>F968E941</v>
+        <v>46612C77</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E050C859</v>
+        <v>F2F35963</v>
       </c>
       <c r="Y53" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>E050C859</v>
+        <v>F2F35963</v>
       </c>
       <c r="Z53" t="str">
         <f t="shared" ref="Z53:AC53" ca="1" si="61">Y52</f>
-        <v>70F190FF</v>
+        <v>AB7C5BFF</v>
       </c>
       <c r="AA53" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>30E2186A</v>
+        <v>62FE46B3</v>
       </c>
       <c r="AB53" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>DB4E84BA</v>
+        <v>F7CA1490</v>
       </c>
       <c r="AC53" s="19" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>E1AE0C53</v>
+        <v>3A52222A</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.3">
@@ -8381,11 +8383,11 @@
       </c>
       <c r="R54" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1BFFAF90</v>
+        <v>1BFF8358</v>
       </c>
       <c r="S54" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>37FF5F20</v>
+        <v>37FF06B0</v>
       </c>
       <c r="U54" s="12">
         <v>40</v>
@@ -8395,31 +8397,31 @@
       </c>
       <c r="W54" s="13" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>9B5D0C2F</v>
+        <v>3E4809DC</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2DFD6E7F</v>
+        <v>7DDE4AD5</v>
       </c>
       <c r="Y54" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2DFD6E7F</v>
+        <v>7DDE4AD5</v>
       </c>
       <c r="Z54" t="str">
         <f t="shared" ref="Z54:AC54" ca="1" si="62">Y53</f>
-        <v>E050C859</v>
+        <v>F2F35963</v>
       </c>
       <c r="AA54" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>DC3C643F</v>
+        <v>EADF16FF</v>
       </c>
       <c r="AB54" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>30E2186A</v>
+        <v>62FE46B3</v>
       </c>
       <c r="AC54" s="19" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>DB4E84BA</v>
+        <v>F7CA1490</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.3">
@@ -8487,31 +8489,31 @@
       </c>
       <c r="W55" s="7" t="str">
         <f t="shared" ref="W55:W74" ca="1" si="63">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITAND(HEX2DEC(Z54),HEX2DEC(AA54)),_xlfn.BITAND(HEX2DEC(Z54),HEX2DEC(AB54))),_xlfn.BITAND(HEX2DEC(AA54),HEX2DEC(AB54))),8)</f>
-        <v>F070487B</v>
+        <v>E2FF56F3</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1A885AF6</v>
+        <v>25AE840E</v>
       </c>
       <c r="Y55" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1A885AF6</v>
+        <v>25AE840E</v>
       </c>
       <c r="Z55" t="str">
         <f t="shared" ref="Z55:AC55" ca="1" si="64">Y54</f>
-        <v>2DFD6E7F</v>
+        <v>7DDE4AD5</v>
       </c>
       <c r="AA55" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>78143216</v>
+        <v>FCBCD658</v>
       </c>
       <c r="AB55" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>DC3C643F</v>
+        <v>EADF16FF</v>
       </c>
       <c r="AC55" s="19" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>30E2186A</v>
+        <v>62FE46B3</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.3">
@@ -8565,11 +8567,11 @@
       </c>
       <c r="R56" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>642EE8D3</v>
+        <v>642B5D1B</v>
       </c>
       <c r="S56" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C85DD1A6</v>
+        <v>C856BA36</v>
       </c>
       <c r="U56">
         <v>42</v>
@@ -8579,31 +8581,31 @@
       </c>
       <c r="W56" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>7C3C663F</v>
+        <v>FCDE56DD</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>55A36BEE</v>
+        <v>6D1F9666</v>
       </c>
       <c r="Y56" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>55A36BEE</v>
+        <v>6D1F9666</v>
       </c>
       <c r="Z56" t="str">
         <f t="shared" ref="Z56:AC56" ca="1" si="65">Y55</f>
-        <v>1A885AF6</v>
+        <v>25AE840E</v>
       </c>
       <c r="AA56" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>CB7F5B9F</v>
+        <v>5F7792B5</v>
       </c>
       <c r="AB56" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>78143216</v>
+        <v>FCBCD658</v>
       </c>
       <c r="AC56" s="19" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>DC3C643F</v>
+        <v>EADF16FF</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.3">
@@ -8671,31 +8673,31 @@
       </c>
       <c r="W57" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>5A1C5A96</v>
+        <v>7DBE961C</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>79E67B23</v>
+        <v>9BB0B86C</v>
       </c>
       <c r="Y57" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>79E67B23</v>
+        <v>9BB0B86C</v>
       </c>
       <c r="Z57" t="str">
         <f t="shared" ref="Z57:AC57" ca="1" si="67">Y56</f>
-        <v>55A36BEE</v>
+        <v>6D1F9666</v>
       </c>
       <c r="AA57" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>86A216BD</v>
+        <v>896BA103</v>
       </c>
       <c r="AB57" t="str">
         <f t="shared" ca="1" si="67"/>
-        <v>CB7F5B9F</v>
+        <v>5F7792B5</v>
       </c>
       <c r="AC57" s="19" t="str">
         <f t="shared" ca="1" si="67"/>
-        <v>78143216</v>
+        <v>FCBCD658</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.3">
@@ -8749,11 +8751,11 @@
       </c>
       <c r="R58" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>D0121FC1</v>
+        <v>D0106061</v>
       </c>
       <c r="S58" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>A0243F83</v>
+        <v>A020C0C3</v>
       </c>
       <c r="U58">
         <v>44</v>
@@ -8763,31 +8765,31 @@
       </c>
       <c r="W58" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>C7A35BBF</v>
+        <v>4D7F9227</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ABC6EEA3</v>
+        <v>EF8FF3B1</v>
       </c>
       <c r="Y58" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ABC6EEA3</v>
+        <v>EF8FF3B1</v>
       </c>
       <c r="Z58" t="str">
         <f t="shared" ref="Z58:AC58" ca="1" si="68">Y57</f>
-        <v>79E67B23</v>
+        <v>9BB0B86C</v>
       </c>
       <c r="AA58" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>9568DAFB</v>
+        <v>9B47E599</v>
       </c>
       <c r="AB58" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>86A216BD</v>
+        <v>896BA103</v>
       </c>
       <c r="AC58" s="19" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>CB7F5B9F</v>
+        <v>5F7792B5</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.3">
@@ -8841,11 +8843,11 @@
       </c>
       <c r="R59" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>FFA1B464</v>
+        <v>FFAA8664</v>
       </c>
       <c r="S59" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>FF4368C9</v>
+        <v>FF550CC9</v>
       </c>
       <c r="U59">
         <v>45</v>
@@ -8855,31 +8857,31 @@
       </c>
       <c r="W59" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>95E25ABB</v>
+        <v>9B63A109</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>689EB074</v>
+        <v>7B4A73A0</v>
       </c>
       <c r="Y59" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>689EB074</v>
+        <v>7B4A73A0</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" ref="Z59:AC59" ca="1" si="69">Y58</f>
-        <v>ABC6EEA3</v>
+        <v>EF8FF3B1</v>
       </c>
       <c r="AA59" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>DE799EC8</v>
+        <v>26EC2E1B</v>
       </c>
       <c r="AB59" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>9568DAFB</v>
+        <v>9B47E599</v>
       </c>
       <c r="AC59" s="19" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>86A216BD</v>
+        <v>896BA103</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.3">
@@ -8933,11 +8935,11 @@
       </c>
       <c r="R60" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BDF5E6A8</v>
+        <v>BDF425AC</v>
       </c>
       <c r="S60" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7BEBCD51</v>
+        <v>7BE84B59</v>
       </c>
       <c r="U60">
         <v>46</v>
@@ -8947,31 +8949,31 @@
       </c>
       <c r="W60" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>9F68DEEB</v>
+        <v>AFCFE799</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>44E88E62</v>
+        <v>AD8E04E0</v>
       </c>
       <c r="Y60" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>44E88E62</v>
+        <v>AD8E04E0</v>
       </c>
       <c r="Z60" t="str">
         <f t="shared" ref="Z60:AC60" ca="1" si="70">Y59</f>
-        <v>689EB074</v>
+        <v>7B4A73A0</v>
       </c>
       <c r="AA60" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>EAF1BBA8</v>
+        <v>7BE3FCEC</v>
       </c>
       <c r="AB60" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>DE799EC8</v>
+        <v>26EC2E1B</v>
       </c>
       <c r="AC60" s="19" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>9568DAFB</v>
+        <v>9B47E599</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.3">
@@ -9039,31 +9041,31 @@
       </c>
       <c r="W61" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>EAF9BAE8</v>
+        <v>7BEA7EA8</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AC915573</v>
+        <v>580FF39E</v>
       </c>
       <c r="Y61" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>AC915573</v>
+        <v>580FF39E</v>
       </c>
       <c r="Z61" t="str">
         <f t="shared" ref="Z61:AC61" ca="1" si="71">Y60</f>
-        <v>44E88E62</v>
+        <v>AD8E04E0</v>
       </c>
       <c r="AA61" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1A27AC1D</v>
+        <v>1ED29CE8</v>
       </c>
       <c r="AB61" t="str">
         <f t="shared" ca="1" si="71"/>
-        <v>EAF1BBA8</v>
+        <v>7BE3FCEC</v>
       </c>
       <c r="AC61" s="19" t="str">
         <f t="shared" ca="1" si="71"/>
-        <v>DE799EC8</v>
+        <v>26EC2E1B</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.3">
@@ -9117,11 +9119,11 @@
       </c>
       <c r="R62" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>E4BF2119</v>
+        <v>E4A969D1</v>
       </c>
       <c r="S62" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C97E4233</v>
+        <v>C952D3A3</v>
       </c>
       <c r="U62">
         <v>48</v>
@@ -9131,31 +9133,31 @@
       </c>
       <c r="W62" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>4AE1AE28</v>
+        <v>3FC29CE8</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>141FFA74</v>
+        <v>C11BCF4D</v>
       </c>
       <c r="Y62" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>141FFA74</v>
+        <v>C11BCF4D</v>
       </c>
       <c r="Z62" t="str">
         <f t="shared" ref="Z62:AC62" ca="1" si="72">Y61</f>
-        <v>AC915573</v>
+        <v>580FF39E</v>
       </c>
       <c r="AA62" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>913A2398</v>
+        <v>2B638138</v>
       </c>
       <c r="AB62" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>1A27AC1D</v>
+        <v>1ED29CE8</v>
       </c>
       <c r="AC62" s="19" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>EAF1BBA8</v>
+        <v>7BE3FCEC</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.3">
@@ -9209,11 +9211,11 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>A41FE89B</v>
+        <v>A41D08D3</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>483FD137</v>
+        <v>483A11A7</v>
       </c>
       <c r="U63">
         <v>49</v>
@@ -9223,31 +9225,31 @@
       </c>
       <c r="W63" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>98332519</v>
+        <v>1A4391B8</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DE7FBD56</v>
+        <v>90F746DF</v>
       </c>
       <c r="Y63" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DE7FBD56</v>
+        <v>90F746DF</v>
       </c>
       <c r="Z63" t="str">
         <f t="shared" ref="Z63:AC63" ca="1" si="73">Y62</f>
-        <v>141FFA74</v>
+        <v>C11BCF4D</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>EB24555C</v>
+        <v>9603FCE7</v>
       </c>
       <c r="AB63" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>913A2398</v>
+        <v>2B638138</v>
       </c>
       <c r="AC63" s="19" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>1A27AC1D</v>
+        <v>1ED29CE8</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.3">
@@ -9301,11 +9303,11 @@
       </c>
       <c r="R64" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>61B5855B</v>
+        <v>61BC18E7</v>
       </c>
       <c r="S64" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C36B0AB6</v>
+        <v>C37831CE</v>
       </c>
       <c r="U64">
         <v>50</v>
@@ -9315,31 +9317,31 @@
       </c>
       <c r="W64" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>913E735C</v>
+        <v>8303CD6D</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CDE491E6</v>
+        <v>135334F1</v>
       </c>
       <c r="Y64" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CDE491E6</v>
+        <v>135334F1</v>
       </c>
       <c r="Z64" t="str">
         <f t="shared" ref="Z64:AC64" ca="1" si="74">Y63</f>
-        <v>DE7FBD56</v>
+        <v>90F746DF</v>
       </c>
       <c r="AA64" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>0507FE9D</v>
+        <v>7046F3D3</v>
       </c>
       <c r="AB64" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>EB24555C</v>
+        <v>9603FCE7</v>
       </c>
       <c r="AC64" s="19" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>913A2398</v>
+        <v>2B638138</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.3">
@@ -9393,11 +9395,11 @@
       </c>
       <c r="R65" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>FE86FC15</v>
+        <v>FEAA3415</v>
       </c>
       <c r="S65" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>FD0DF82B</v>
+        <v>FD54682B</v>
       </c>
       <c r="U65">
         <v>51</v>
@@ -9407,31 +9409,31 @@
       </c>
       <c r="W65" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>CF27FD5C</v>
+        <v>9047F6D7</v>
       </c>
       <c r="X65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A91E12D4</v>
+        <v>B2823B38</v>
       </c>
       <c r="Y65" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A91E12D4</v>
+        <v>B2823B38</v>
       </c>
       <c r="Z65" t="str">
         <f t="shared" ref="Z65:AC65" ca="1" si="75">Y64</f>
-        <v>CDE491E6</v>
+        <v>135334F1</v>
       </c>
       <c r="AA65" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B79FEF55</v>
+        <v>E43DD1B7</v>
       </c>
       <c r="AB65" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>0507FE9D</v>
+        <v>7046F3D3</v>
       </c>
       <c r="AC65" s="19" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>EB24555C</v>
+        <v>9603FCE7</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.3">
@@ -9485,11 +9487,11 @@
       </c>
       <c r="R66" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFFAF015</v>
+        <v>BFF83C95</v>
       </c>
       <c r="S66" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FF5E02B</v>
+        <v>7FF0792B</v>
       </c>
       <c r="U66">
         <v>52</v>
@@ -9499,31 +9501,31 @@
       </c>
       <c r="W66" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>8587FFD5</v>
+        <v>7057F1F3</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A3804CCD</v>
+        <v>65AF8BF7</v>
       </c>
       <c r="Y66" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A3804CCD</v>
+        <v>65AF8BF7</v>
       </c>
       <c r="Z66" t="str">
         <f t="shared" ref="Z66:AC66" ca="1" si="76">Y65</f>
-        <v>A91E12D4</v>
+        <v>B2823B38</v>
       </c>
       <c r="AA66" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B3792479</v>
+        <v>44D4CD3C</v>
       </c>
       <c r="AB66" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>B79FEF55</v>
+        <v>E43DD1B7</v>
       </c>
       <c r="AC66" s="19" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>0507FE9D</v>
+        <v>7046F3D3</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.3">
@@ -9577,11 +9579,11 @@
       </c>
       <c r="R67" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>74049594</v>
+        <v>74040A7C</v>
       </c>
       <c r="S67" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>E8092B28</v>
+        <v>E80814F8</v>
       </c>
       <c r="U67">
         <v>53</v>
@@ -9591,31 +9593,31 @@
       </c>
       <c r="W67" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>B31F2655</v>
+        <v>E494D93C</v>
       </c>
       <c r="X67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>9F55A6AA</v>
+        <v>81F11DCF</v>
       </c>
       <c r="Y67" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>9F55A6AA</v>
+        <v>81F11DCF</v>
       </c>
       <c r="Z67" t="str">
         <f t="shared" ref="Z67:AC67" ca="1" si="77">Y66</f>
-        <v>A3804CCD</v>
+        <v>65AF8BF7</v>
       </c>
       <c r="AA67" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2A4784B5</v>
+        <v>2CA08ECE</v>
       </c>
       <c r="AB67" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v>B3792479</v>
+        <v>44D4CD3C</v>
       </c>
       <c r="AC67" s="19" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v>B79FEF55</v>
+        <v>E43DD1B7</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.3">
@@ -9669,11 +9671,11 @@
       </c>
       <c r="R68" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>591043F2</v>
+        <v>594B33BA</v>
       </c>
       <c r="S68" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>B22087E4</v>
+        <v>B2966774</v>
       </c>
       <c r="U68">
         <v>54</v>
@@ -9683,31 +9685,31 @@
       </c>
       <c r="W68" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>A34104FD</v>
+        <v>64A48FFE</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>86D20E65</v>
+        <v>C8B83FF5</v>
       </c>
       <c r="Y68" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>86D20E65</v>
+        <v>C8B83FF5</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68:AC68" ca="1" si="78">Y67</f>
-        <v>9F55A6AA</v>
+        <v>81F11DCF</v>
       </c>
       <c r="AA68" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>68E01333</v>
+        <v>D96BE2FD</v>
       </c>
       <c r="AB68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2A4784B5</v>
+        <v>2CA08ECE</v>
       </c>
       <c r="AC68" s="19" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>B3792479</v>
+        <v>44D4CD3C</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.3">
@@ -9775,31 +9777,31 @@
       </c>
       <c r="W69" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2A4586B3</v>
+        <v>89E18ECF</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>47644F80</v>
+        <v>75223268</v>
       </c>
       <c r="Y69" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>47644F80</v>
+        <v>75223268</v>
       </c>
       <c r="Z69" t="str">
         <f t="shared" ref="Z69:AC69" ca="1" si="79">Y68</f>
-        <v>86D20E65</v>
+        <v>C8B83FF5</v>
       </c>
       <c r="AA69" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A7D569AA</v>
+        <v>E07C4773</v>
       </c>
       <c r="AB69" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>68E01333</v>
+        <v>D96BE2FD</v>
       </c>
       <c r="AC69" s="19" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>2A4784B5</v>
+        <v>2CA08ECE</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.3">
@@ -9853,11 +9855,11 @@
       </c>
       <c r="R70" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>DED5E79D</v>
+        <v>DEF37BDD</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>BDABCF3B</v>
+        <v>BDE6F7BB</v>
       </c>
       <c r="U70">
         <v>56</v>
@@ -9867,31 +9869,31 @@
       </c>
       <c r="W70" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>A6D00B23</v>
+        <v>C87867F5</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0A690BF7</v>
+        <v>E661F868</v>
       </c>
       <c r="Y70" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0A690BF7</v>
+        <v>E661F868</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" ref="Z70:AC70" ca="1" si="80">Y69</f>
-        <v>47644F80</v>
+        <v>75223268</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>61B48399</v>
+        <v>722E0FFD</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" ca="1" si="80"/>
-        <v>A7D569AA</v>
+        <v>E07C4773</v>
       </c>
       <c r="AC70" s="19" t="str">
         <f t="shared" ca="1" si="80"/>
-        <v>68E01333</v>
+        <v>D96BE2FD</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.3">
@@ -9945,11 +9947,11 @@
       </c>
       <c r="R71" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>FA1BD67B</v>
+        <v>FAA8F67B</v>
       </c>
       <c r="S71" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>F437ACF7</v>
+        <v>F551ECF7</v>
       </c>
       <c r="U71">
         <v>57</v>
@@ -9959,31 +9961,31 @@
       </c>
       <c r="W71" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>67F44B88</v>
+        <v>702E0779</v>
       </c>
       <c r="X71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A149476F</v>
+        <v>9A46A165</v>
       </c>
       <c r="Y71" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A149476F</v>
+        <v>9A46A165</v>
       </c>
       <c r="Z71" t="str">
         <f t="shared" ref="Z71:AC71" ca="1" si="81">Y70</f>
-        <v>0A690BF7</v>
+        <v>E661F868</v>
       </c>
       <c r="AA71" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>11D913E0</v>
+        <v>1D488C9A</v>
       </c>
       <c r="AB71" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>61B48399</v>
+        <v>722E0FFD</v>
       </c>
       <c r="AC71" s="19" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>A7D569AA</v>
+        <v>E07C4773</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.3">
@@ -10037,11 +10039,11 @@
       </c>
       <c r="R72" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>AB5AFE5B</v>
+        <v>AB4651F3</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>56B5FCB7</v>
+        <v>568CA3E7</v>
       </c>
       <c r="U72">
         <v>58</v>
@@ -10051,31 +10053,31 @@
       </c>
       <c r="W72" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>01F903F1</v>
+        <v>76688CF8</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B8C91522</v>
+        <v>856161E1</v>
       </c>
       <c r="Y72" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B8C91522</v>
+        <v>856161E1</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" ref="Z72:AC72" ca="1" si="82">Y71</f>
-        <v>A149476F</v>
+        <v>9A46A165</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>C29A42FD</v>
+        <v>39987E1A</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>11D913E0</v>
+        <v>1D488C9A</v>
       </c>
       <c r="AC72" s="19" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>61B48399</v>
+        <v>722E0FFD</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.3">
@@ -10129,11 +10131,11 @@
       </c>
       <c r="R73" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFE1DE71</v>
+        <v>BFE312F1</v>
       </c>
       <c r="S73" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FC3BCE3</v>
+        <v>7FC625E3</v>
       </c>
       <c r="U73">
         <v>59</v>
@@ -10143,31 +10145,31 @@
       </c>
       <c r="W73" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>81D943ED</v>
+        <v>1948AC1A</v>
       </c>
       <c r="X73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0B8FE59C</v>
+        <v>4684DB06</v>
       </c>
       <c r="Y73" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0B8FE59C</v>
+        <v>4684DB06</v>
       </c>
       <c r="Z73" t="str">
         <f t="shared" ref="Z73:AC73" ca="1" si="83">Y72</f>
-        <v>B8C91522</v>
+        <v>856161E1</v>
       </c>
       <c r="AA73" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>E85251DB</v>
+        <v>6691A859</v>
       </c>
       <c r="AB73" t="str">
         <f t="shared" ca="1" si="83"/>
-        <v>C29A42FD</v>
+        <v>39987E1A</v>
       </c>
       <c r="AC73" s="19" t="str">
         <f t="shared" ca="1" si="83"/>
-        <v>11D913E0</v>
+        <v>1D488C9A</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.3">
@@ -10221,11 +10223,11 @@
       </c>
       <c r="R74" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>500DBE0E</v>
+        <v>51691E46</v>
       </c>
       <c r="S74" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>A01B7C1C</v>
+        <v>A2D23C8C</v>
       </c>
       <c r="U74" s="12">
         <v>60</v>
@@ -10235,31 +10237,31 @@
       </c>
       <c r="W74" s="13" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>E8DA51FB</v>
+        <v>25916859</v>
       </c>
       <c r="X74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>9BE75254</v>
+        <v>45634F23</v>
       </c>
       <c r="Y74" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>9BE75254</v>
+        <v>45634F23</v>
       </c>
       <c r="Z74" t="str">
         <f t="shared" ref="Z74:AC74" ca="1" si="84">Y73</f>
-        <v>0B8FE59C</v>
+        <v>4684DB06</v>
       </c>
       <c r="AA74" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>AE324548</v>
+        <v>61585878</v>
       </c>
       <c r="AB74" t="str">
         <f t="shared" ca="1" si="84"/>
-        <v>E85251DB</v>
+        <v>6691A859</v>
       </c>
       <c r="AC74" s="19" t="str">
         <f t="shared" ca="1" si="84"/>
-        <v>C29A42FD</v>
+        <v>39987E1A</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.3">
@@ -10313,11 +10315,11 @@
       </c>
       <c r="R75" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>41FE893A</v>
+        <v>41D08DBA</v>
       </c>
       <c r="S75" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>83FD1274</v>
+        <v>83A11B74</v>
       </c>
       <c r="U75">
         <v>61</v>
@@ -10327,31 +10329,31 @@
       </c>
       <c r="W75" s="7" t="str">
         <f t="shared" ref="W75:W94" ca="1" si="85">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z74),HEX2DEC(AA74)),HEX2DEC(AB74)),8)</f>
-        <v>4DEFF10F</v>
+        <v>414D2B27</v>
       </c>
       <c r="X75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DBD452E9</v>
+        <v>75536AF3</v>
       </c>
       <c r="Y75" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DBD452E9</v>
+        <v>75536AF3</v>
       </c>
       <c r="Z75" t="str">
         <f t="shared" ref="Z75:AC75" ca="1" si="86">Y74</f>
-        <v>9BE75254</v>
+        <v>45634F23</v>
       </c>
       <c r="AA75" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>02E3F967</v>
+        <v>91A136C1</v>
       </c>
       <c r="AB75" t="str">
         <f t="shared" ca="1" si="86"/>
-        <v>AE324548</v>
+        <v>61585878</v>
       </c>
       <c r="AC75" s="19" t="str">
         <f t="shared" ca="1" si="86"/>
-        <v>E85251DB</v>
+        <v>6691A859</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.3">
@@ -10405,11 +10407,11 @@
       </c>
       <c r="R76" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>7F76B465</v>
+        <v>7FEADA6D</v>
       </c>
       <c r="S76" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>FEED68CA</v>
+        <v>FFD5B4DA</v>
       </c>
       <c r="U76">
         <v>62</v>
@@ -10419,31 +10421,31 @@
       </c>
       <c r="W76" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>3736EE7B</v>
+        <v>B59A219A</v>
       </c>
       <c r="X76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6363C831</v>
+        <v>90D19F11</v>
       </c>
       <c r="Y76" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6363C831</v>
+        <v>90D19F11</v>
       </c>
       <c r="Z76" t="str">
         <f t="shared" ref="Z76:AC76" ca="1" si="88">Y75</f>
-        <v>DBD452E9</v>
+        <v>75536AF3</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>26F9D495</v>
+        <v>D158D3C8</v>
       </c>
       <c r="AB76" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>02E3F967</v>
+        <v>91A136C1</v>
       </c>
       <c r="AC76" s="19" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>AE324548</v>
+        <v>61585878</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.3">
@@ -10497,11 +10499,11 @@
       </c>
       <c r="R77" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>E86D818F</v>
+        <v>EAA1018F</v>
       </c>
       <c r="S77" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>D0DB031F</v>
+        <v>D542031F</v>
       </c>
       <c r="U77">
         <v>63</v>
@@ -10511,31 +10513,31 @@
       </c>
       <c r="W77" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>FFCE7F1B</v>
+        <v>35AA8FFA</v>
       </c>
       <c r="X77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B5B78F84</v>
+        <v>50DB8F99</v>
       </c>
       <c r="Y77" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B5B78F84</v>
+        <v>50DB8F99</v>
       </c>
       <c r="Z77" t="str">
         <f t="shared" ref="Z77:AC77" ca="1" si="89">Y76</f>
-        <v>6363C831</v>
+        <v>90D19F11</v>
       </c>
       <c r="AA77" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>76F514BA</v>
+        <v>DD54DABC</v>
       </c>
       <c r="AB77" t="str">
         <f t="shared" ca="1" si="89"/>
-        <v>26F9D495</v>
+        <v>D158D3C8</v>
       </c>
       <c r="AC77" s="19" t="str">
         <f t="shared" ca="1" si="89"/>
-        <v>02E3F967</v>
+        <v>91A136C1</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.3">
@@ -10589,11 +10591,11 @@
       </c>
       <c r="R78" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>344395CA</v>
+        <v>346D0EA2</v>
       </c>
       <c r="S78" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>68872B94</v>
+        <v>68DA1D44</v>
       </c>
       <c r="U78">
         <v>64</v>
@@ -10603,31 +10605,31 @@
       </c>
       <c r="W78" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>336F081E</v>
+        <v>9CDD9665</v>
       </c>
       <c r="X78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>202EDF85</v>
+        <v>7D2D9F6A</v>
       </c>
       <c r="Y78" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>202EDF85</v>
+        <v>7D2D9F6A</v>
       </c>
       <c r="Z78" t="str">
         <f t="shared" ref="Z78:AC78" ca="1" si="90">Y77</f>
-        <v>B5B78F84</v>
+        <v>50DB8F99</v>
       </c>
       <c r="AA78" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>58D8F20C</v>
+        <v>643467C4</v>
       </c>
       <c r="AB78" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>76F514BA</v>
+        <v>DD54DABC</v>
       </c>
       <c r="AC78" s="19" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>26F9D495</v>
+        <v>D158D3C8</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.3">
@@ -10681,11 +10683,11 @@
       </c>
       <c r="R79" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFE8ED21</v>
+        <v>BFEA21A1</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FD1DA43</v>
+        <v>7FD44343</v>
       </c>
       <c r="U79">
         <v>65</v>
@@ -10695,31 +10697,31 @@
       </c>
       <c r="W79" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>9B9A6932</v>
+        <v>E9BB32E1</v>
       </c>
       <c r="X79" t="str">
         <f t="shared" ref="X79:X94" ca="1" si="92">DEC2HEX(MOD(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(Y78),5),_xlfn.BITRSHIFT(HEX2DEC(Y78),27)),4294967295)+HEX2DEC(W79)+HEX2DEC(AC78)+HEX2DEC(V79)+HEX2DEC(S79),4294967296),8)</f>
-        <v>12A4CA84</v>
+        <v>AAFEF911</v>
       </c>
       <c r="Y79" s="7" t="str">
         <f t="shared" ref="Y79:Y94" ca="1" si="93">X79</f>
-        <v>12A4CA84</v>
+        <v>AAFEF911</v>
       </c>
       <c r="Z79" t="str">
         <f t="shared" ref="Z79:AC79" ca="1" si="94">Y78</f>
-        <v>202EDF85</v>
+        <v>7D2D9F6A</v>
       </c>
       <c r="AA79" t="str">
         <f t="shared" ref="AA79:AA94" ca="1" si="95">DEC2HEX(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(MOD(HEX2DEC(Z78),4),30),_xlfn.BITRSHIFT(HEX2DEC(Z78),2)),4294967295),8)</f>
-        <v>2D6DE3E1</v>
+        <v>5436E3E6</v>
       </c>
       <c r="AB79" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v>58D8F20C</v>
+        <v>643467C4</v>
       </c>
       <c r="AC79" s="19" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v>76F514BA</v>
+        <v>DD54DABC</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.3">
@@ -10773,11 +10775,11 @@
       </c>
       <c r="R80" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>3AF01535</v>
+        <v>3F46E81D</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>75E02A6A</v>
+        <v>7E8DD03A</v>
       </c>
       <c r="U80">
         <v>66</v>
@@ -10787,31 +10789,31 @@
       </c>
       <c r="W80" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>559BCE68</v>
+        <v>4D2F1B48</v>
       </c>
       <c r="X80" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>616D1FE4</v>
+        <v>D353AA49</v>
       </c>
       <c r="Y80" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>616D1FE4</v>
+        <v>D353AA49</v>
       </c>
       <c r="Z80" t="str">
         <f t="shared" ref="Z80:AC80" ca="1" si="100">Y79</f>
-        <v>12A4CA84</v>
+        <v>AAFEF911</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>480BB7E1</v>
+        <v>9F4B67DA</v>
       </c>
       <c r="AB80" t="str">
         <f t="shared" ca="1" si="100"/>
-        <v>2D6DE3E1</v>
+        <v>5436E3E6</v>
       </c>
       <c r="AC80" s="19" t="str">
         <f t="shared" ca="1" si="100"/>
-        <v>58D8F20C</v>
+        <v>643467C4</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.3">
@@ -10879,31 +10881,31 @@
       </c>
       <c r="W81" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>77C29E84</v>
+        <v>61837D2D</v>
       </c>
       <c r="X81" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>CD22D7DA</v>
+        <v>FF1078E9</v>
       </c>
       <c r="Y81" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>CD22D7DA</v>
+        <v>FF1078E9</v>
       </c>
       <c r="Z81" t="str">
         <f t="shared" ref="Z81:AC81" ca="1" si="101">Y80</f>
-        <v>616D1FE4</v>
+        <v>D353AA49</v>
       </c>
       <c r="AA81" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>04A932A1</v>
+        <v>6ABFBE44</v>
       </c>
       <c r="AB81" t="str">
         <f t="shared" ca="1" si="101"/>
-        <v>480BB7E1</v>
+        <v>9F4B67DA</v>
       </c>
       <c r="AC81" s="19" t="str">
         <f t="shared" ca="1" si="101"/>
-        <v>2D6DE3E1</v>
+        <v>5436E3E6</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.3">
@@ -10957,11 +10959,11 @@
       </c>
       <c r="R82" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>121FC190</v>
+        <v>10606190</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>243F8320</v>
+        <v>20C0C320</v>
       </c>
       <c r="U82">
         <v>68</v>
@@ -10971,31 +10973,31 @@
       </c>
       <c r="W82" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>2DCF9AA4</v>
+        <v>26A773D7</v>
       </c>
       <c r="X82" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>EE3ABED4</v>
+        <v>4810F9F2</v>
       </c>
       <c r="Y82" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>EE3ABED4</v>
+        <v>4810F9F2</v>
       </c>
       <c r="Z82" t="str">
         <f t="shared" ref="Z82:AC82" ca="1" si="102">Y81</f>
-        <v>CD22D7DA</v>
+        <v>FF1078E9</v>
       </c>
       <c r="AA82" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>185B47F9</v>
+        <v>74D4EA92</v>
       </c>
       <c r="AB82" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>04A932A1</v>
+        <v>6ABFBE44</v>
       </c>
       <c r="AC82" s="19" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>480BB7E1</v>
+        <v>9F4B67DA</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.3">
@@ -11049,11 +11051,11 @@
       </c>
       <c r="R83" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1E5C09FE</v>
+        <v>156CC57E</v>
       </c>
       <c r="S83" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>3CB813FC</v>
+        <v>2AD98AFC</v>
       </c>
       <c r="U83">
         <v>69</v>
@@ -11063,31 +11065,31 @@
       </c>
       <c r="W83" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>D1D0A282</v>
+        <v>E17B2C3F</v>
       </c>
       <c r="X83" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>E84F0AD2</v>
+        <v>78221F34</v>
       </c>
       <c r="Y83" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>E84F0AD2</v>
+        <v>78221F34</v>
       </c>
       <c r="Z83" t="str">
         <f t="shared" ref="Z83:AC83" ca="1" si="103">Y82</f>
-        <v>EE3ABED4</v>
+        <v>4810F9F2</v>
       </c>
       <c r="AA83" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>B348B5F6</v>
+        <v>7FC41E3A</v>
       </c>
       <c r="AB83" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>185B47F9</v>
+        <v>74D4EA92</v>
       </c>
       <c r="AC83" s="19" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>04A932A1</v>
+        <v>6ABFBE44</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.3">
@@ -11141,11 +11143,11 @@
       </c>
       <c r="R84" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>F5E6A8FD</v>
+        <v>F425ACFD</v>
       </c>
       <c r="S84" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>EBCD51FB</v>
+        <v>E84B59FB</v>
       </c>
       <c r="U84">
         <v>70</v>
@@ -11155,31 +11157,31 @@
       </c>
       <c r="W84" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>45294CDB</v>
+        <v>43000D5A</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>09E3EDAA</v>
+        <v>64B1CDFE</v>
       </c>
       <c r="Y84" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>09E3EDAA</v>
+        <v>64B1CDFE</v>
       </c>
       <c r="Z84" t="str">
         <f t="shared" ref="Z84:AC84" ca="1" si="104">Y83</f>
-        <v>E84F0AD2</v>
+        <v>78221F34</v>
       </c>
       <c r="AA84" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>3B8EAFB5</v>
+        <v>92043E7C</v>
       </c>
       <c r="AB84" t="str">
         <f t="shared" ca="1" si="104"/>
-        <v>B348B5F6</v>
+        <v>7FC41E3A</v>
       </c>
       <c r="AC84" s="19" t="str">
         <f t="shared" ca="1" si="104"/>
-        <v>185B47F9</v>
+        <v>74D4EA92</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.3">
@@ -11247,31 +11249,31 @@
       </c>
       <c r="W85" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>60891091</v>
+        <v>95E23F72</v>
       </c>
       <c r="X85" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>80FB3BA1</v>
+        <v>6C8A17A6</v>
       </c>
       <c r="Y85" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>80FB3BA1</v>
+        <v>6C8A17A6</v>
       </c>
       <c r="Z85" t="str">
         <f t="shared" ref="Z85:AC85" ca="1" si="105">Y84</f>
-        <v>09E3EDAA</v>
+        <v>64B1CDFE</v>
       </c>
       <c r="AA85" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>BA13C2B4</v>
+        <v>1E0887CD</v>
       </c>
       <c r="AB85" t="str">
         <f t="shared" ca="1" si="105"/>
-        <v>3B8EAFB5</v>
+        <v>92043E7C</v>
       </c>
       <c r="AC85" s="19" t="str">
         <f t="shared" ca="1" si="105"/>
-        <v>B348B5F6</v>
+        <v>7FC41E3A</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.3">
@@ -11325,11 +11327,11 @@
       </c>
       <c r="R86" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BF210BE4</v>
+        <v>A969C3E4</v>
       </c>
       <c r="S86" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7E4217C9</v>
+        <v>52D387C9</v>
       </c>
       <c r="U86">
         <v>72</v>
@@ -11339,31 +11341,31 @@
       </c>
       <c r="W86" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>887E80AB</v>
+        <v>E8BD744F</v>
       </c>
       <c r="X86" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>A3D38470</v>
+        <v>16FAD0F5</v>
       </c>
       <c r="Y86" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>A3D38470</v>
+        <v>16FAD0F5</v>
       </c>
       <c r="Z86" t="str">
         <f t="shared" ref="Z86:AC86" ca="1" si="106">Y85</f>
-        <v>80FB3BA1</v>
+        <v>6C8A17A6</v>
       </c>
       <c r="AA86" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>8278FB6A</v>
+        <v>992C737F</v>
       </c>
       <c r="AB86" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>BA13C2B4</v>
+        <v>1E0887CD</v>
       </c>
       <c r="AC86" s="19" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>3B8EAFB5</v>
+        <v>92043E7C</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.3">
@@ -11417,11 +11419,11 @@
       </c>
       <c r="R87" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1FE89BAC</v>
+        <v>1D08D3AC</v>
       </c>
       <c r="S87" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>3FD13758</v>
+        <v>3A11A758</v>
       </c>
       <c r="U87">
         <v>73</v>
@@ -11431,31 +11433,31 @@
       </c>
       <c r="W87" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>B890027F</v>
+        <v>EBAEE314</v>
       </c>
       <c r="X87" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>78C33976</v>
+        <v>6181A960</v>
       </c>
       <c r="Y87" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>78C33976</v>
+        <v>6181A960</v>
       </c>
       <c r="Z87" t="str">
         <f t="shared" ref="Z87:AC87" ca="1" si="107">Y86</f>
-        <v>A3D38470</v>
+        <v>16FAD0F5</v>
       </c>
       <c r="AA87" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>603ECEE8</v>
+        <v>9B2285E9</v>
       </c>
       <c r="AB87" t="str">
         <f t="shared" ca="1" si="107"/>
-        <v>8278FB6A</v>
+        <v>992C737F</v>
       </c>
       <c r="AC87" s="19" t="str">
         <f t="shared" ca="1" si="107"/>
-        <v>BA13C2B4</v>
+        <v>1E0887CD</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.3">
@@ -11509,11 +11511,11 @@
       </c>
       <c r="R88" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>8278C6C1</v>
+        <v>8BE52351</v>
       </c>
       <c r="S88" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>04F18D83</v>
+        <v>17CA46A3</v>
       </c>
       <c r="U88">
         <v>74</v>
@@ -11523,31 +11525,31 @@
       </c>
       <c r="W88" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>4195B1F2</v>
+        <v>14F42663</v>
       </c>
       <c r="X88" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>E364F2CE</v>
+        <v>455EE2B5</v>
       </c>
       <c r="Y88" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>E364F2CE</v>
+        <v>455EE2B5</v>
       </c>
       <c r="Z88" t="str">
         <f t="shared" ref="Z88:AC88" ca="1" si="108">Y87</f>
-        <v>78C33976</v>
+        <v>6181A960</v>
       </c>
       <c r="AA88" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>28F4E11C</v>
+        <v>45BEB43D</v>
       </c>
       <c r="AB88" t="str">
         <f t="shared" ca="1" si="108"/>
-        <v>603ECEE8</v>
+        <v>9B2285E9</v>
       </c>
       <c r="AC88" s="19" t="str">
         <f t="shared" ca="1" si="108"/>
-        <v>8278FB6A</v>
+        <v>992C737F</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.3">
@@ -11601,11 +11603,11 @@
       </c>
       <c r="R89" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>86FC31B6</v>
+        <v>AA3431B6</v>
       </c>
       <c r="S89" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>0DF8636D</v>
+        <v>5468636D</v>
       </c>
       <c r="U89">
         <v>75</v>
@@ -11615,31 +11617,31 @@
       </c>
       <c r="W89" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>30091682</v>
+        <v>BF1D98B4</v>
       </c>
       <c r="X89" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>F77B910B</v>
+        <v>22F1881E</v>
       </c>
       <c r="Y89" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>F77B910B</v>
+        <v>22F1881E</v>
       </c>
       <c r="Z89" t="str">
         <f t="shared" ref="Z89:AC89" ca="1" si="109">Y88</f>
-        <v>E364F2CE</v>
+        <v>455EE2B5</v>
       </c>
       <c r="AA89" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>9E30CE5D</v>
+        <v>18606A58</v>
       </c>
       <c r="AB89" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>28F4E11C</v>
+        <v>45BEB43D</v>
       </c>
       <c r="AC89" s="19" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>603ECEE8</v>
+        <v>9B2285E9</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.3">
@@ -11693,11 +11695,11 @@
       </c>
       <c r="R90" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>4518A0AE</v>
+        <v>47D6EC2E</v>
       </c>
       <c r="S90" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>8A31415C</v>
+        <v>8FADD85C</v>
       </c>
       <c r="U90">
         <v>76</v>
@@ -11707,31 +11709,31 @@
       </c>
       <c r="W90" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>55A0DD8F</v>
+        <v>18803CD0</v>
       </c>
       <c r="X90" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>F9E5D127</v>
+        <v>6BE460AF</v>
       </c>
       <c r="Y90" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>F9E5D127</v>
+        <v>6BE460AF</v>
       </c>
       <c r="Z90" t="str">
         <f t="shared" ref="Z90:AC90" ca="1" si="110">Y89</f>
-        <v>F77B910B</v>
+        <v>22F1881E</v>
       </c>
       <c r="AA90" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>B8D93CB3</v>
+        <v>5157B8AD</v>
       </c>
       <c r="AB90" t="str">
         <f t="shared" ca="1" si="110"/>
-        <v>9E30CE5D</v>
+        <v>18606A58</v>
       </c>
       <c r="AC90" s="19" t="str">
         <f t="shared" ca="1" si="110"/>
-        <v>28F4E11C</v>
+        <v>45BEB43D</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.3">
@@ -11785,11 +11787,11 @@
       </c>
       <c r="R91" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>6B6F8F14</v>
+        <v>6BF0D434</v>
       </c>
       <c r="S91" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>D6DF1E28</v>
+        <v>D7E1A868</v>
       </c>
       <c r="U91">
         <v>77</v>
@@ -11799,31 +11801,31 @@
       </c>
       <c r="W91" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>D19263E5</v>
+        <v>6BC65AEB</v>
       </c>
       <c r="X91" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>D88349FE</v>
+        <v>D0558F53</v>
       </c>
       <c r="Y91" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>D88349FE</v>
+        <v>D0558F53</v>
       </c>
       <c r="Z91" t="str">
         <f t="shared" ref="Z91:AC91" ca="1" si="111">Y90</f>
-        <v>F9E5D127</v>
+        <v>6BE460AF</v>
       </c>
       <c r="AA91" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>FDDEE442</v>
+        <v>88BC6207</v>
       </c>
       <c r="AB91" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>B8D93CB3</v>
+        <v>5157B8AD</v>
       </c>
       <c r="AC91" s="19" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>9E30CE5D</v>
+        <v>18606A58</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.3">
@@ -11877,11 +11879,11 @@
       </c>
       <c r="R92" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>705F71C8</v>
+        <v>2B2C9308</v>
       </c>
       <c r="S92" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>E0BEE390</v>
+        <v>56592610</v>
       </c>
       <c r="U92">
         <v>78</v>
@@ -11891,31 +11893,31 @@
       </c>
       <c r="W92" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>BCE209D6</v>
+        <v>B20FBA05</v>
       </c>
       <c r="X92" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>169DBD74</v>
+        <v>F5DDF6BD</v>
       </c>
       <c r="Y92" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>169DBD74</v>
+        <v>F5DDF6BD</v>
       </c>
       <c r="Z92" t="str">
         <f t="shared" ref="Z92:AC92" ca="1" si="112">Y91</f>
-        <v>D88349FE</v>
+        <v>D0558F53</v>
       </c>
       <c r="AA92" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>FE797449</v>
+        <v>DAF9182B</v>
       </c>
       <c r="AB92" t="str">
         <f t="shared" ca="1" si="112"/>
-        <v>FDDEE442</v>
+        <v>88BC6207</v>
       </c>
       <c r="AC92" s="19" t="str">
         <f t="shared" ca="1" si="112"/>
-        <v>B8D93CB3</v>
+        <v>5157B8AD</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.3">
@@ -11983,31 +11985,31 @@
       </c>
       <c r="W93" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>DB24D9F5</v>
+        <v>8210F57F</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>7A346F00</v>
+        <v>A1A62FC0</v>
       </c>
       <c r="Y93" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>7A346F00</v>
+        <v>A1A62FC0</v>
       </c>
       <c r="Z93" t="str">
         <f t="shared" ref="Z93:AC93" ca="1" si="113">Y92</f>
-        <v>169DBD74</v>
+        <v>F5DDF6BD</v>
       </c>
       <c r="AA93" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>B620D27F</v>
+        <v>F41563D4</v>
       </c>
       <c r="AB93" t="str">
         <f t="shared" ca="1" si="113"/>
-        <v>FE797449</v>
+        <v>DAF9182B</v>
       </c>
       <c r="AC93" s="19" t="str">
         <f t="shared" ca="1" si="113"/>
-        <v>FDDEE442</v>
+        <v>88BC6207</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.3">
@@ -12061,11 +12063,11 @@
       </c>
       <c r="R94" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>B5FA081F</v>
+        <v>9365E2DF</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>6BF4103F</v>
+        <v>26CBC5BF</v>
       </c>
       <c r="U94" s="12">
         <v>80</v>
@@ -12075,31 +12077,31 @@
       </c>
       <c r="W94" s="13" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>5EC41B42</v>
+        <v>DB318D42</v>
       </c>
       <c r="X94" s="12" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>D987B1A8</v>
+        <v>89E26EF2</v>
       </c>
       <c r="Y94" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>D987B1A8</v>
+        <v>89E26EF2</v>
       </c>
       <c r="Z94" t="str">
         <f t="shared" ref="Z94:AC94" ca="1" si="114">Y93</f>
-        <v>7A346F00</v>
+        <v>A1A62FC0</v>
       </c>
       <c r="AA94" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>05A76F5D</v>
+        <v>7D777DAF</v>
       </c>
       <c r="AB94" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v>B620D27F</v>
+        <v>F41563D4</v>
       </c>
       <c r="AC94" s="19" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v>FE797449</v>
+        <v>DAF9182B</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.3">
@@ -12131,23 +12133,23 @@
       </c>
       <c r="Y95" s="21" t="str">
         <f t="shared" ref="Y95:AC95" ca="1" si="116">DEC2HEX(_xlfn.BITAND(HEX2DEC(Y94)+HEX2DEC(Y14),4294967295),8)</f>
-        <v>420CB145</v>
+        <v>F2676E8F</v>
       </c>
       <c r="Z95" s="22" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>84D53E76</v>
+        <v>AC46FF36</v>
       </c>
       <c r="AA95" s="22" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>6B1D1309</v>
+        <v>E2ED215B</v>
       </c>
       <c r="AB95" s="22" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>4EF03022</v>
+        <v>8CE4C177</v>
       </c>
       <c r="AC95" s="6" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>68BFD432</v>
+        <v>453F7814</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.3">
@@ -12157,17 +12159,17 @@
       </c>
       <c r="Y96" t="str">
         <f ca="1">Y95&amp;Z95&amp;AA95&amp;AB95&amp;AC95</f>
-        <v>420CB14584D53E766B1D13094EF0302268BFD432</v>
+        <v>F2676E8FAC46FF36E2ED215B8CE4C177453F7814</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="39" t="str">
         <f ca="1">TOTP!F2</f>
-        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C420CB14584D53E766B1D13094EF0302268BFD432</v>
+        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5CF2676E8FAC46FF36E2ED215B8CE4C177453F7814</v>
       </c>
       <c r="B101" t="str" cm="1">
         <f t="array" aca="1" ref="B101" ca="1">_xlfn.TEXTJOIN("", TRUE, DEC2BIN(HEX2DEC(MID(UPPER(A101), ROW(INDIRECT("1:" &amp; LEN(A101))), 1)), 4))</f>
-        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000100001000001100101100010100010110000100110101010011111001110110011010110001110100010011000010010100111011110000001100000010001001101000101111111101010000110010</v>
+        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111001111001001100111011011101000111110101100010001101111111100110110111000101110110100100001010110111000110011100100110000010111011101000101001111110111100000010100</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>32</v>
@@ -12204,7 +12206,7 @@
       </c>
       <c r="B102" t="str">
         <f ca="1">B101&amp;"1"&amp;REPT("0",J101)</f>
-        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000100001000001100101100010100010110000100110101010011111001110110011010110001110100010011000010010100111011110000001100000010001001101000101111111101010000110010100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111001111001001100111011011101000111110101100010001101111111100110110111000101110110100100001010110111000110011100100110000010111011101000101001111110111100000010100100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="E102" t="str">
         <f ca="1">"...("&amp;LEN(B102)&amp;")"</f>
@@ -12274,7 +12276,7 @@
       </c>
       <c r="B108" t="str">
         <f ca="1">B102&amp;B107</f>
-        <v>0101110000011000011011100100100010011011000111100000100011101010011010011001001111011000001110010110011000001010100010111001101000101001111000100010101110000011010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001000010000011001011000101000101100001001101010100111110011101100110101100011101000100110000100101001110111100000011000000100010011010001011111111010100001100101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
+        <v>0101110000011000011011100100100010011011000111100000100011101010011010011001001111011000001110010110011000001010100010111001101000101001111000100010101110000011010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110011110010011001110110111010001111101011000100011011111111001101101110001011101101001000010101101110001100111001001100000101110111010001010011111101111000000101001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
       </c>
       <c r="E108" t="str">
         <f ca="1">"...("&amp;LEN(B108)&amp;")"</f>
@@ -12289,7 +12291,7 @@
     <row r="112" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="str">
         <f ca="1">IF($F$101=1,J196,Y196)</f>
-        <v>99EAE9F731ADA75834D8C65BB1F76F0402E4DC12</v>
+        <v>1A45CA32E4C11A1AD6B13B1FC92C3011F04639B3</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12326,7 +12328,7 @@
       </c>
       <c r="Q113" s="5" t="str">
         <f ca="1">MID(B108,513,512)</f>
-        <v>01000010000011001011000101000101100001001101010100111110011101100110101100011101000100110000100101001110111100000011000000100010011010001011111111010100001100101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
+        <v>11110010011001110110111010001111101011000100011011111111001101101110001011101101001000010101101110001100111001001100000101110111010001010011111101111000000101001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
       </c>
       <c r="R113" s="6"/>
       <c r="S113" t="str">
@@ -12487,15 +12489,15 @@
       </c>
       <c r="Q115" t="str">
         <f ca="1">MID($Q$113,32*(U115-1)+1,32)</f>
-        <v>01000010000011001011000101000101</v>
+        <v>11110010011001110110111010001111</v>
       </c>
       <c r="R115" t="str">
         <f ca="1">TEXT(BIN2HEX(MID(Q115,1,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q115,9,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q115,17,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q115,25,8),2),"00")</f>
-        <v>420CB145</v>
+        <v>F2676E8F</v>
       </c>
       <c r="S115" t="str">
         <f t="shared" ref="S115:S130" ca="1" si="118">R115</f>
-        <v>420CB145</v>
+        <v>F2676E8F</v>
       </c>
       <c r="U115">
         <v>1</v>
@@ -12509,11 +12511,11 @@
       </c>
       <c r="X115" t="str">
         <f t="shared" ref="X115:X178" ca="1" si="120">DEC2HEX(MOD(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(Y114),5),_xlfn.BITRSHIFT(HEX2DEC(Y114),27)),4294967295)+HEX2DEC(W115)+HEX2DEC(AC114)+HEX2DEC(V115)+HEX2DEC(S115),4294967296),8)</f>
-        <v>432D9F57</v>
+        <v>F3885CA1</v>
       </c>
       <c r="Y115" s="7" t="str">
         <f t="shared" ref="Y115:Y178" ca="1" si="121">X115</f>
-        <v>432D9F57</v>
+        <v>F3885CA1</v>
       </c>
       <c r="Z115" t="str">
         <f t="shared" ref="Z115:Z178" ca="1" si="122">Y114</f>
@@ -12581,15 +12583,15 @@
       </c>
       <c r="Q116" t="str">
         <f t="shared" ref="Q116:Q130" ca="1" si="135">MID($Q$113,32*(U116-1)+1,32)</f>
-        <v>10000100110101010011111001110110</v>
+        <v>10101100010001101111111100110110</v>
       </c>
       <c r="R116" t="str">
         <f t="shared" ref="R116:R130" ca="1" si="136">TEXT(BIN2HEX(MID(Q116,1,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q116,9,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q116,17,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q116,25,8),2),"00")</f>
-        <v>84D53E76</v>
+        <v>AC46FF36</v>
       </c>
       <c r="S116" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>84D53E76</v>
+        <v>AC46FF36</v>
       </c>
       <c r="U116">
         <v>2</v>
@@ -12603,15 +12605,15 @@
       </c>
       <c r="X116" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>371BA1B7</v>
+        <v>69E50BCD</v>
       </c>
       <c r="Y116" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>371BA1B7</v>
+        <v>69E50BCD</v>
       </c>
       <c r="Z116" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>432D9F57</v>
+        <v>F3885CA1</v>
       </c>
       <c r="AA116" t="str">
         <f t="shared" ca="1" si="123"/>
@@ -12675,15 +12677,15 @@
       </c>
       <c r="Q117" t="str">
         <f t="shared" ca="1" si="135"/>
-        <v>01101011000111010001001100001001</v>
+        <v>11100010111011010010000101011011</v>
       </c>
       <c r="R117" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>6B1D1309</v>
+        <v>E2ED215B</v>
       </c>
       <c r="S117" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>6B1D1309</v>
+        <v>E2ED215B</v>
       </c>
       <c r="U117">
         <v>3</v>
@@ -12693,23 +12695,23 @@
       </c>
       <c r="W117" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>6325F26E</v>
+        <v>C3A1313C</v>
       </c>
       <c r="X117" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>11AADFE9</v>
+        <v>43236FD0</v>
       </c>
       <c r="Y117" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>11AADFE9</v>
+        <v>43236FD0</v>
       </c>
       <c r="Z117" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>371BA1B7</v>
+        <v>69E50BCD</v>
       </c>
       <c r="AA117" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>D0CB67D5</v>
+        <v>7CE21728</v>
       </c>
       <c r="AB117" t="str">
         <f t="shared" ca="1" si="124"/>
@@ -12769,15 +12771,15 @@
       </c>
       <c r="Q118" t="str">
         <f t="shared" ca="1" si="135"/>
-        <v>01001110111100000011000000100010</v>
+        <v>10001100111001001100000101110111</v>
       </c>
       <c r="R118" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>4EF03022</v>
+        <v>8CE4C177</v>
       </c>
       <c r="S118" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>4EF03022</v>
+        <v>8CE4C177</v>
       </c>
       <c r="U118">
         <v>4</v>
@@ -12787,27 +12789,27 @@
       </c>
       <c r="W118" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>D0AF33DD</v>
+        <v>EAE0932A</v>
       </c>
       <c r="X118" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>D0A73FF7</v>
+        <v>57DF2D7F</v>
       </c>
       <c r="Y118" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>D0A73FF7</v>
+        <v>57DF2D7F</v>
       </c>
       <c r="Z118" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>11AADFE9</v>
+        <v>43236FD0</v>
       </c>
       <c r="AA118" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>CDC6E86D</v>
+        <v>5A7942F3</v>
       </c>
       <c r="AB118" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>D0CB67D5</v>
+        <v>7CE21728</v>
       </c>
       <c r="AC118" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
@@ -12863,15 +12865,15 @@
       </c>
       <c r="Q119" t="str">
         <f t="shared" ca="1" si="135"/>
-        <v>01101000101111111101010000110010</v>
+        <v>01000101001111110111100000010100</v>
       </c>
       <c r="R119" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>68BFD432</v>
+        <v>453F7814</v>
       </c>
       <c r="S119" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>68BFD432</v>
+        <v>453F7814</v>
       </c>
       <c r="U119">
         <v>5</v>
@@ -12881,31 +12883,31 @@
       </c>
       <c r="W119" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>C1C3E87D</v>
+        <v>7EE152F8</v>
       </c>
       <c r="X119" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>5D93C7B0</v>
+        <v>DE2E86FD</v>
       </c>
       <c r="Y119" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>5D93C7B0</v>
+        <v>DE2E86FD</v>
       </c>
       <c r="Z119" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>D0A73FF7</v>
+        <v>57DF2D7F</v>
       </c>
       <c r="AA119" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>446AB7FA</v>
+        <v>10C8DBF4</v>
       </c>
       <c r="AB119" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>CDC6E86D</v>
+        <v>5A7942F3</v>
       </c>
       <c r="AC119" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>D0CB67D5</v>
+        <v>7CE21728</v>
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.3">
@@ -12975,31 +12977,31 @@
       </c>
       <c r="W120" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>4D62F7FA</v>
+        <v>18E84BF4</v>
       </c>
       <c r="X120" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>AB29CF73</v>
+        <v>361DBC70</v>
       </c>
       <c r="Y120" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>AB29CF73</v>
+        <v>361DBC70</v>
       </c>
       <c r="Z120" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>5D93C7B0</v>
+        <v>DE2E86FD</v>
       </c>
       <c r="AA120" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F429CFFD</v>
+        <v>D5F7CB5F</v>
       </c>
       <c r="AB120" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>446AB7FA</v>
+        <v>10C8DBF4</v>
       </c>
       <c r="AC120" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>CDC6E86D</v>
+        <v>5A7942F3</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.3">
@@ -13069,31 +13071,31 @@
       </c>
       <c r="W121" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>5469F7FA</v>
+        <v>D4E6DB5D</v>
       </c>
       <c r="X121" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>E1ED4875</v>
+        <v>4D9A25EF</v>
       </c>
       <c r="Y121" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>E1ED4875</v>
+        <v>4D9A25EF</v>
       </c>
       <c r="Z121" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>AB29CF73</v>
+        <v>361DBC70</v>
       </c>
       <c r="AA121" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1764F1EC</v>
+        <v>778BA1BF</v>
       </c>
       <c r="AB121" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F429CFFD</v>
+        <v>D5F7CB5F</v>
       </c>
       <c r="AC121" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>446AB7FA</v>
+        <v>10C8DBF4</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.3">
@@ -13163,31 +13165,31 @@
       </c>
       <c r="W122" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>5720C1EC</v>
+        <v>F7EBE33F</v>
       </c>
       <c r="X122" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>33B7023B</v>
+        <v>167BF6B5</v>
       </c>
       <c r="Y122" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>33B7023B</v>
+        <v>167BF6B5</v>
       </c>
       <c r="Z122" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>E1ED4875</v>
+        <v>4D9A25EF</v>
       </c>
       <c r="AA122" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>EACA73DC</v>
+        <v>0D876F1C</v>
       </c>
       <c r="AB122" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1764F1EC</v>
+        <v>778BA1BF</v>
       </c>
       <c r="AC122" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F429CFFD</v>
+        <v>D5F7CB5F</v>
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.3">
@@ -13257,31 +13259,31 @@
       </c>
       <c r="W123" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>F6C8F1DC</v>
+        <v>3F83A51C</v>
       </c>
       <c r="X123" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>BC5582D8</v>
+        <v>3F7CC0B6</v>
       </c>
       <c r="Y123" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>BC5582D8</v>
+        <v>3F7CC0B6</v>
       </c>
       <c r="Z123" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>33B7023B</v>
+        <v>167BF6B5</v>
       </c>
       <c r="AA123" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>787B521D</v>
+        <v>D366897B</v>
       </c>
       <c r="AB123" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>EACA73DC</v>
+        <v>0D876F1C</v>
       </c>
       <c r="AC123" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1764F1EC</v>
+        <v>778BA1BF</v>
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.3">
@@ -13351,31 +13353,31 @@
       </c>
       <c r="W124" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>F87B73DD</v>
+        <v>1BE68939</v>
       </c>
       <c r="X124" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F5133A79</v>
+        <v>DD8CBB58</v>
       </c>
       <c r="Y124" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F5133A79</v>
+        <v>DD8CBB58</v>
       </c>
       <c r="Z124" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>BC5582D8</v>
+        <v>3F7CC0B6</v>
       </c>
       <c r="AA124" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>CCEDC08E</v>
+        <v>459EFDAD</v>
       </c>
       <c r="AB124" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>787B521D</v>
+        <v>D366897B</v>
       </c>
       <c r="AC124" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>EACA73DC</v>
+        <v>0D876F1C</v>
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.3">
@@ -13445,31 +13447,31 @@
       </c>
       <c r="W125" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>CC6FD08D</v>
+        <v>C51EC9ED</v>
       </c>
       <c r="X125" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>B4240D40</v>
+        <v>DEC01DBD</v>
       </c>
       <c r="Y125" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>B4240D40</v>
+        <v>DEC01DBD</v>
       </c>
       <c r="Z125" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F5133A79</v>
+        <v>DD8CBB58</v>
       </c>
       <c r="AA125" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>2F1560B6</v>
+        <v>8FDF302D</v>
       </c>
       <c r="AB125" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>CCEDC08E</v>
+        <v>459EFDAD</v>
       </c>
       <c r="AC125" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>787B521D</v>
+        <v>D366897B</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.3">
@@ -13539,31 +13541,31 @@
       </c>
       <c r="W126" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>2DFDE0B6</v>
+        <v>8D9E74AD</v>
       </c>
       <c r="X126" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>857D5482</v>
+        <v>938B2F7C</v>
       </c>
       <c r="Y126" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>857D5482</v>
+        <v>938B2F7C</v>
       </c>
       <c r="Z126" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>B4240D40</v>
+        <v>DEC01DBD</v>
       </c>
       <c r="AA126" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>7D44CE9E</v>
+        <v>37632ED6</v>
       </c>
       <c r="AB126" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>2F1560B6</v>
+        <v>8FDF302D</v>
       </c>
       <c r="AC126" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>CCEDC08E</v>
+        <v>459EFDAD</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.3">
@@ -13633,31 +13635,31 @@
       </c>
       <c r="W127" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>3F156CB6</v>
+        <v>175F2C94</v>
       </c>
       <c r="X127" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>1630372D</v>
+        <v>28E6936C</v>
       </c>
       <c r="Y127" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>1630372D</v>
+        <v>28E6936C</v>
       </c>
       <c r="Z127" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>857D5482</v>
+        <v>938B2F7C</v>
       </c>
       <c r="AA127" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>2D090350</v>
+        <v>77B0076F</v>
       </c>
       <c r="AB127" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>7D44CE9E</v>
+        <v>37632ED6</v>
       </c>
       <c r="AC127" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>2F1560B6</v>
+        <v>8FDF302D</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.3">
@@ -13727,31 +13729,31 @@
       </c>
       <c r="W128" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>7D098A1C</v>
+        <v>37E007EE</v>
       </c>
       <c r="X128" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>CCA84A0D</v>
+        <v>3F141F39</v>
       </c>
       <c r="Y128" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>CCA84A0D</v>
+        <v>3F141F39</v>
       </c>
       <c r="Z128" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>1630372D</v>
+        <v>28E6936C</v>
       </c>
       <c r="AA128" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>A15F5520</v>
+        <v>24E2CBDF</v>
       </c>
       <c r="AB128" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>2D090350</v>
+        <v>77B0076F</v>
       </c>
       <c r="AC128" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>7D44CE9E</v>
+        <v>37632ED6</v>
       </c>
     </row>
     <row r="129" spans="2:29" x14ac:dyDescent="0.3">
@@ -13821,31 +13823,31 @@
       </c>
       <c r="W129" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>29191570</v>
+        <v>77F2874F</v>
       </c>
       <c r="X129" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>95E99F60</v>
+        <v>EC5C16E5</v>
       </c>
       <c r="Y129" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>95E99F60</v>
+        <v>EC5C16E5</v>
       </c>
       <c r="Z129" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>CCA84A0D</v>
+        <v>3F141F39</v>
       </c>
       <c r="AA129" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>458C0DCB</v>
+        <v>0A39A4DB</v>
       </c>
       <c r="AB129" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>A15F5520</v>
+        <v>24E2CBDF</v>
       </c>
       <c r="AC129" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>2D090350</v>
+        <v>77B0076F</v>
       </c>
     </row>
     <row r="130" spans="2:29" x14ac:dyDescent="0.3">
@@ -13915,35 +13917,35 @@
       </c>
       <c r="W130" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>65DF1D29</v>
+        <v>0AF2C4DF</v>
       </c>
       <c r="X130" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>AA9E88C4</v>
+        <v>68A82544</v>
       </c>
       <c r="Y130" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>AA9E88C4</v>
+        <v>68A82544</v>
       </c>
       <c r="Z130" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>95E99F60</v>
+        <v>EC5C16E5</v>
       </c>
       <c r="AA130" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>732A1283</v>
+        <v>4FC507CE</v>
       </c>
       <c r="AB130" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>458C0DCB</v>
+        <v>0A39A4DB</v>
       </c>
       <c r="AC130" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>A15F5520</v>
+        <v>24E2CBDF</v>
       </c>
     </row>
     <row r="131" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B131" s="58" t="s">
+      <c r="B131" s="62" t="s">
         <v>63</v>
       </c>
       <c r="C131" s="11" t="str">
@@ -13988,16 +13990,16 @@
         <f t="shared" ca="1" si="134"/>
         <v>56DD2C8C</v>
       </c>
-      <c r="Q131" s="58" t="s">
+      <c r="Q131" s="62" t="s">
         <v>63</v>
       </c>
       <c r="R131" s="11" t="str">
         <f t="shared" ref="R131:R194" ca="1" si="137">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(S128),HEX2DEC(S123)),_xlfn.BITXOR(HEX2DEC(S117),HEX2DEC(S115))),8)</f>
-        <v>2911A24C</v>
+        <v>108A4FD4</v>
       </c>
       <c r="S131" s="11" t="str">
         <f t="shared" ref="S131:S194" ca="1" si="138">DEC2HEX(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(R131),1),_xlfn.BITRSHIFT(HEX2DEC(R131),31)),4294967295),8)</f>
-        <v>52234498</v>
+        <v>21149FA8</v>
       </c>
       <c r="U131">
         <v>17</v>
@@ -14007,35 +14009,35 @@
       </c>
       <c r="W131" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>512C128B</v>
+        <v>4E65A6DE</v>
       </c>
       <c r="X131" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F3023E71</v>
+        <v>03E4348B</v>
       </c>
       <c r="Y131" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F3023E71</v>
+        <v>03E4348B</v>
       </c>
       <c r="Z131" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>AA9E88C4</v>
+        <v>68A82544</v>
       </c>
       <c r="AA131" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>257A67D8</v>
+        <v>7B1705B9</v>
       </c>
       <c r="AB131" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>732A1283</v>
+        <v>4FC507CE</v>
       </c>
       <c r="AC131" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>458C0DCB</v>
+        <v>0A39A4DB</v>
       </c>
     </row>
     <row r="132" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B132" s="59"/>
+      <c r="B132" s="63"/>
       <c r="C132" t="str">
         <f ca="1">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D129),HEX2DEC(D124)),_xlfn.BITXOR(HEX2DEC(D118),HEX2DEC(D116))),8)</f>
         <v>FD148370</v>
@@ -14078,14 +14080,14 @@
         <f t="shared" ca="1" si="134"/>
         <v>710839EC</v>
       </c>
-      <c r="Q132" s="59"/>
+      <c r="Q132" s="63"/>
       <c r="R132" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>CA250E54</v>
+        <v>20A23E41</v>
       </c>
       <c r="S132" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>944A1CA9</v>
+        <v>41447C82</v>
       </c>
       <c r="U132">
         <v>18</v>
@@ -14095,35 +14097,35 @@
       </c>
       <c r="W132" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>713A12C3</v>
+        <v>6F45078A</v>
       </c>
       <c r="X132" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>05DA850E</v>
+        <v>91CC33E0</v>
       </c>
       <c r="Y132" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>05DA850E</v>
+        <v>91CC33E0</v>
       </c>
       <c r="Z132" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F3023E71</v>
+        <v>03E4348B</v>
       </c>
       <c r="AA132" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>2AA7A231</v>
+        <v>1A2A0951</v>
       </c>
       <c r="AB132" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>257A67D8</v>
+        <v>7B1705B9</v>
       </c>
       <c r="AC132" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>732A1283</v>
+        <v>4FC507CE</v>
       </c>
     </row>
     <row r="133" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B133" s="59"/>
+      <c r="B133" s="63"/>
       <c r="C133" t="str">
         <f t="shared" ref="C133:C194" ca="1" si="139">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D130),HEX2DEC(D125)),_xlfn.BITXOR(HEX2DEC(D119),HEX2DEC(D117))),8)</f>
         <v>4071F3BA</v>
@@ -14166,14 +14168,14 @@
         <f t="shared" ca="1" si="134"/>
         <v>A0ECE362</v>
       </c>
-      <c r="Q133" s="59"/>
+      <c r="Q133" s="63"/>
       <c r="R133" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>03A2C59B</v>
+        <v>A7D25BEF</v>
       </c>
       <c r="S133" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>07458B36</v>
+        <v>4FA4B7DF</v>
       </c>
       <c r="U133">
         <v>19</v>
@@ -14183,35 +14185,35 @@
       </c>
       <c r="W133" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>267A63B9</v>
+        <v>7A330131</v>
       </c>
       <c r="X133" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>B6BD1CCB</v>
+        <v>ADA5B689</v>
       </c>
       <c r="Y133" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>B6BD1CCB</v>
+        <v>ADA5B689</v>
       </c>
       <c r="Z133" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>05DA850E</v>
+        <v>91CC33E0</v>
       </c>
       <c r="AA133" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>7CC08F9C</v>
+        <v>C0F90D22</v>
       </c>
       <c r="AB133" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>2AA7A231</v>
+        <v>1A2A0951</v>
       </c>
       <c r="AC133" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>257A67D8</v>
+        <v>7B1705B9</v>
       </c>
     </row>
     <row r="134" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="59"/>
+      <c r="B134" s="63"/>
       <c r="C134" t="str">
         <f t="shared" ca="1" si="139"/>
         <v>0D1DE778</v>
@@ -14254,14 +14256,14 @@
         <f t="shared" ca="1" si="134"/>
         <v>01337874</v>
       </c>
-      <c r="Q134" s="59"/>
+      <c r="Q134" s="63"/>
       <c r="R134" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>9CD374BA</v>
+        <v>2DF05EDF</v>
       </c>
       <c r="S134" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>39A6E975</v>
+        <v>5BE0BDBE</v>
       </c>
       <c r="U134" s="12">
         <v>20</v>
@@ -14271,31 +14273,31 @@
       </c>
       <c r="W134" s="13" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>2EE5A73D</v>
+        <v>8AEA0931</v>
       </c>
       <c r="X134" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>C02D0B99</v>
+        <v>711B1776</v>
       </c>
       <c r="Y134" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>C02D0B99</v>
+        <v>711B1776</v>
       </c>
       <c r="Z134" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>B6BD1CCB</v>
+        <v>ADA5B689</v>
       </c>
       <c r="AA134" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>8176A143</v>
+        <v>24730CF8</v>
       </c>
       <c r="AB134" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>7CC08F9C</v>
+        <v>C0F90D22</v>
       </c>
       <c r="AC134" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>2AA7A231</v>
+        <v>1A2A0951</v>
       </c>
     </row>
     <row r="135" spans="2:29" x14ac:dyDescent="0.3">
@@ -14349,11 +14351,11 @@
       </c>
       <c r="R135" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>FCF5C89B</v>
+        <v>047B0496</v>
       </c>
       <c r="S135" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>F9EB9137</v>
+        <v>08F6092C</v>
       </c>
       <c r="U135">
         <v>21</v>
@@ -14363,31 +14365,31 @@
       </c>
       <c r="W135" s="7" t="str">
         <f t="shared" ref="W135:W154" ca="1" si="141">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z134),HEX2DEC(AA134)),HEX2DEC(AB134)),8)</f>
-        <v>4B0B3214</v>
+        <v>492FB753</v>
       </c>
       <c r="X135" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>E419C455</v>
+        <v>FE8CA43F</v>
       </c>
       <c r="Y135" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>E419C455</v>
+        <v>FE8CA43F</v>
       </c>
       <c r="Z135" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>C02D0B99</v>
+        <v>711B1776</v>
       </c>
       <c r="AA135" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>EDAF4732</v>
+        <v>6B696DA2</v>
       </c>
       <c r="AB135" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>8176A143</v>
+        <v>24730CF8</v>
       </c>
       <c r="AC135" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>7CC08F9C</v>
+        <v>C0F90D22</v>
       </c>
     </row>
     <row r="136" spans="2:29" x14ac:dyDescent="0.3">
@@ -14441,11 +14443,11 @@
       </c>
       <c r="R136" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>87458B36</v>
+        <v>CFA4B7DF</v>
       </c>
       <c r="S136" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>0E8B166D</v>
+        <v>9F496FBF</v>
       </c>
       <c r="U136">
         <v>22</v>
@@ -14455,31 +14457,31 @@
       </c>
       <c r="W136" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>ACF4EDE8</v>
+        <v>3E01762C</v>
       </c>
       <c r="X136" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>2A530A4E</v>
+        <v>DEB266AD</v>
       </c>
       <c r="Y136" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>2A530A4E</v>
+        <v>DEB266AD</v>
       </c>
       <c r="Z136" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>E419C455</v>
+        <v>FE8CA43F</v>
       </c>
       <c r="AA136" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>700B42E6</v>
+        <v>9C46C5DD</v>
       </c>
       <c r="AB136" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>EDAF4732</v>
+        <v>6B696DA2</v>
       </c>
       <c r="AC136" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>8176A143</v>
+        <v>24730CF8</v>
       </c>
     </row>
     <row r="137" spans="2:29" x14ac:dyDescent="0.3">
@@ -14533,11 +14535,11 @@
       </c>
       <c r="R137" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>39A6E975</v>
+        <v>5BE0BDBE</v>
       </c>
       <c r="S137" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>734DD2EA</v>
+        <v>B7C17B7C</v>
       </c>
       <c r="U137">
         <v>23</v>
@@ -14547,31 +14549,31 @@
       </c>
       <c r="W137" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>79BDC181</v>
+        <v>09A30C40</v>
       </c>
       <c r="X137" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>27BD6B14</v>
+        <v>2AFE5610</v>
       </c>
       <c r="Y137" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>27BD6B14</v>
+        <v>2AFE5610</v>
       </c>
       <c r="Z137" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>2A530A4E</v>
+        <v>DEB266AD</v>
       </c>
       <c r="AA137" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>79067115</v>
+        <v>FFA3290F</v>
       </c>
       <c r="AB137" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>700B42E6</v>
+        <v>9C46C5DD</v>
       </c>
       <c r="AC137" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>EDAF4732</v>
+        <v>6B696DA2</v>
       </c>
     </row>
     <row r="138" spans="2:29" x14ac:dyDescent="0.3">
@@ -14625,11 +14627,11 @@
       </c>
       <c r="R138" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>F9EB9397</v>
+        <v>08F60B8C</v>
       </c>
       <c r="S138" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>F3D7272F</v>
+        <v>11EC1718</v>
       </c>
       <c r="U138">
         <v>24</v>
@@ -14639,31 +14641,31 @@
       </c>
       <c r="W138" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>235E39BD</v>
+        <v>BD578A7F</v>
       </c>
       <c r="X138" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>6B6BF643</v>
+        <v>0951BCDF</v>
       </c>
       <c r="Y138" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>6B6BF643</v>
+        <v>0951BCDF</v>
       </c>
       <c r="Z138" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>27BD6B14</v>
+        <v>2AFE5610</v>
       </c>
       <c r="AA138" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>8A94C293</v>
+        <v>77AC99AB</v>
       </c>
       <c r="AB138" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>79067115</v>
+        <v>FFA3290F</v>
       </c>
       <c r="AC138" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>700B42E6</v>
+        <v>9C46C5DD</v>
       </c>
     </row>
     <row r="139" spans="2:29" x14ac:dyDescent="0.3">
@@ -14717,11 +14719,11 @@
       </c>
       <c r="R139" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>5CA852F5</v>
+        <v>BE5DF017</v>
       </c>
       <c r="S139" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>B950A5EA</v>
+        <v>7CBBE02F</v>
       </c>
       <c r="U139">
         <v>25</v>
@@ -14731,31 +14733,31 @@
       </c>
       <c r="W139" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>D42FD892</v>
+        <v>A2F1E6B4</v>
       </c>
       <c r="X139" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>D9E47570</v>
+        <v>55061442</v>
       </c>
       <c r="Y139" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>D9E47570</v>
+        <v>55061442</v>
       </c>
       <c r="Z139" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>6B6BF643</v>
+        <v>0951BCDF</v>
       </c>
       <c r="AA139" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>09EF5AC5</v>
+        <v>0ABF9584</v>
       </c>
       <c r="AB139" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>8A94C293</v>
+        <v>77AC99AB</v>
       </c>
       <c r="AC139" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>79067115</v>
+        <v>FFA3290F</v>
       </c>
     </row>
     <row r="140" spans="2:29" x14ac:dyDescent="0.3">
@@ -14809,11 +14811,11 @@
       </c>
       <c r="R140" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>E707CE43</v>
+        <v>F68507FE</v>
       </c>
       <c r="S140" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>CE0F9C87</v>
+        <v>ED0A0FFD</v>
       </c>
       <c r="U140">
         <v>26</v>
@@ -14823,31 +14825,31 @@
       </c>
       <c r="W140" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>E8106E15</v>
+        <v>7442B0F0</v>
       </c>
       <c r="X140" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>DA8F156D</v>
+        <v>708C5DE7</v>
       </c>
       <c r="Y140" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>DA8F156D</v>
+        <v>708C5DE7</v>
       </c>
       <c r="Z140" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>D9E47570</v>
+        <v>55061442</v>
       </c>
       <c r="AA140" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>DADAFD90</v>
+        <v>C2546F37</v>
       </c>
       <c r="AB140" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>09EF5AC5</v>
+        <v>0ABF9584</v>
       </c>
       <c r="AC140" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>8A94C293</v>
+        <v>77AC99AB</v>
       </c>
     </row>
     <row r="141" spans="2:29" x14ac:dyDescent="0.3">
@@ -14901,11 +14903,11 @@
       </c>
       <c r="R141" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>F492AC19</v>
+        <v>5E48A0C7</v>
       </c>
       <c r="S141" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>E9255833</v>
+        <v>BC91418E</v>
       </c>
       <c r="U141">
         <v>27</v>
@@ -14915,31 +14917,31 @@
       </c>
       <c r="W141" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>0AD1D225</v>
+        <v>9DEDEEF1</v>
       </c>
       <c r="X141" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>3F488647</v>
+        <v>529172B9</v>
       </c>
       <c r="Y141" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>3F488647</v>
+        <v>529172B9</v>
       </c>
       <c r="Z141" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>DA8F156D</v>
+        <v>708C5DE7</v>
       </c>
       <c r="AA141" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>36791D5C</v>
+        <v>95418510</v>
       </c>
       <c r="AB141" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>DADAFD90</v>
+        <v>C2546F37</v>
       </c>
       <c r="AC141" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>09EF5AC5</v>
+        <v>0ABF9584</v>
       </c>
     </row>
     <row r="142" spans="2:29" x14ac:dyDescent="0.3">
@@ -14993,11 +14995,11 @@
       </c>
       <c r="R142" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>80F64C9F</v>
+        <v>275B5D91</v>
       </c>
       <c r="S142" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>01EC993F</v>
+        <v>4EB6BB22</v>
       </c>
       <c r="U142">
         <v>28</v>
@@ -15007,31 +15009,31 @@
       </c>
       <c r="W142" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>362CF5A1</v>
+        <v>2799B7C0</v>
       </c>
       <c r="X142" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>99F39E2D</v>
+        <v>42184B31</v>
       </c>
       <c r="Y142" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>99F39E2D</v>
+        <v>42184B31</v>
       </c>
       <c r="Z142" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>3F488647</v>
+        <v>529172B9</v>
       </c>
       <c r="AA142" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>76A3C55B</v>
+        <v>DC231779</v>
       </c>
       <c r="AB142" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>36791D5C</v>
+        <v>95418510</v>
       </c>
       <c r="AC142" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>DADAFD90</v>
+        <v>C2546F37</v>
       </c>
     </row>
     <row r="143" spans="2:29" x14ac:dyDescent="0.3">
@@ -15085,11 +15087,11 @@
       </c>
       <c r="R143" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>37E40DB0</v>
+        <v>E5FC06D1</v>
       </c>
       <c r="S143" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>6FC81B60</v>
+        <v>CBF80DA3</v>
       </c>
       <c r="U143">
         <v>29</v>
@@ -15099,31 +15101,31 @@
       </c>
       <c r="W143" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>7F925E40</v>
+        <v>1BF3E0D0</v>
       </c>
       <c r="X143" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>77832884</v>
+        <v>5C23AF73</v>
       </c>
       <c r="Y143" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>77832884</v>
+        <v>5C23AF73</v>
       </c>
       <c r="Z143" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>99F39E2D</v>
+        <v>42184B31</v>
       </c>
       <c r="AA143" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>CFD22191</v>
+        <v>54A45CAE</v>
       </c>
       <c r="AB143" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>76A3C55B</v>
+        <v>DC231779</v>
       </c>
       <c r="AC143" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>36791D5C</v>
+        <v>95418510</v>
       </c>
     </row>
     <row r="144" spans="2:29" x14ac:dyDescent="0.3">
@@ -15177,11 +15179,11 @@
       </c>
       <c r="R144" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>E7AE4CFE</v>
+        <v>23D82C91</v>
       </c>
       <c r="S144" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>CF5C99FD</v>
+        <v>47B05922</v>
       </c>
       <c r="U144">
         <v>30</v>
@@ -15191,31 +15193,31 @@
       </c>
       <c r="W144" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>20827AE7</v>
+        <v>CA9F00E6</v>
       </c>
       <c r="X144" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>85972E6F</v>
+        <v>9AE0B924</v>
       </c>
       <c r="Y144" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>85972E6F</v>
+        <v>9AE0B924</v>
       </c>
       <c r="Z144" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>77832884</v>
+        <v>5C23AF73</v>
       </c>
       <c r="AA144" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>667CE78B</v>
+        <v>508612CC</v>
       </c>
       <c r="AB144" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>CFD22191</v>
+        <v>54A45CAE</v>
       </c>
       <c r="AC144" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>76A3C55B</v>
+        <v>DC231779</v>
       </c>
     </row>
     <row r="145" spans="2:29" x14ac:dyDescent="0.3">
@@ -15269,11 +15271,11 @@
       </c>
       <c r="R145" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>20820F4D</v>
+        <v>D8635FF6</v>
       </c>
       <c r="S145" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>41041E9A</v>
+        <v>B0C6BFED</v>
       </c>
       <c r="U145">
         <v>31</v>
@@ -15283,31 +15285,31 @@
       </c>
       <c r="W145" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>DE2DEE9E</v>
+        <v>5801E111</v>
       </c>
       <c r="X145" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>B7958C24</v>
+        <v>AFDCC8AB</v>
       </c>
       <c r="Y145" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>B7958C24</v>
+        <v>AFDCC8AB</v>
       </c>
       <c r="Z145" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>85972E6F</v>
+        <v>9AE0B924</v>
       </c>
       <c r="AA145" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1DE0CA21</v>
+        <v>D708EBDC</v>
       </c>
       <c r="AB145" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>667CE78B</v>
+        <v>508612CC</v>
       </c>
       <c r="AC145" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>CFD22191</v>
+        <v>54A45CAE</v>
       </c>
     </row>
     <row r="146" spans="2:29" x14ac:dyDescent="0.3">
@@ -15361,11 +15363,11 @@
       </c>
       <c r="R146" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>08552246</v>
+        <v>9B506499</v>
       </c>
       <c r="S146" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>10AA448C</v>
+        <v>36A0C933</v>
       </c>
       <c r="U146">
         <v>32</v>
@@ -15375,31 +15377,31 @@
       </c>
       <c r="W146" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>FE0B03C5</v>
+        <v>1D6E4034</v>
       </c>
       <c r="X146" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>4012DA19</v>
+        <v>1326672B</v>
       </c>
       <c r="Y146" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>4012DA19</v>
+        <v>1326672B</v>
       </c>
       <c r="Z146" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>B7958C24</v>
+        <v>AFDCC8AB</v>
       </c>
       <c r="AA146" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E165CB9B</v>
+        <v>26B82E49</v>
       </c>
       <c r="AB146" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1DE0CA21</v>
+        <v>D708EBDC</v>
       </c>
       <c r="AC146" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>667CE78B</v>
+        <v>508612CC</v>
       </c>
     </row>
     <row r="147" spans="2:29" x14ac:dyDescent="0.3">
@@ -15453,11 +15455,11 @@
       </c>
       <c r="R147" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>236AF3B9</v>
+        <v>55BB917A</v>
       </c>
       <c r="S147" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>46D5E772</v>
+        <v>AB7722F4</v>
       </c>
       <c r="U147">
         <v>33</v>
@@ -15467,31 +15469,31 @@
       </c>
       <c r="W147" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>4B108D9E</v>
+        <v>5E6C0D3E</v>
       </c>
       <c r="X147" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>69988B64</v>
+        <v>2E101401</v>
       </c>
       <c r="Y147" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>69988B64</v>
+        <v>2E101401</v>
       </c>
       <c r="Z147" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>4012DA19</v>
+        <v>1326672B</v>
       </c>
       <c r="AA147" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>2DE56309</v>
+        <v>EBF7322A</v>
       </c>
       <c r="AB147" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E165CB9B</v>
+        <v>26B82E49</v>
       </c>
       <c r="AC147" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1DE0CA21</v>
+        <v>D708EBDC</v>
       </c>
     </row>
     <row r="148" spans="2:29" x14ac:dyDescent="0.3">
@@ -15545,11 +15547,11 @@
       </c>
       <c r="R148" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>22E777C1</v>
+        <v>4768712C</v>
       </c>
       <c r="S148" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>45CEEF82</v>
+        <v>8ED0E258</v>
       </c>
       <c r="U148">
         <v>34</v>
@@ -15559,31 +15561,31 @@
       </c>
       <c r="W148" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>8C92728B</v>
+        <v>DE697B48</v>
       </c>
       <c r="X148" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>922D845C</v>
+        <v>751FB542</v>
       </c>
       <c r="Y148" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>922D845C</v>
+        <v>751FB542</v>
       </c>
       <c r="Z148" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>69988B64</v>
+        <v>2E101401</v>
       </c>
       <c r="AA148" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>5004B686</v>
+        <v>C4C999CA</v>
       </c>
       <c r="AB148" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>2DE56309</v>
+        <v>EBF7322A</v>
       </c>
       <c r="AC148" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E165CB9B</v>
+        <v>26B82E49</v>
       </c>
     </row>
     <row r="149" spans="2:29" x14ac:dyDescent="0.3">
@@ -15637,11 +15639,11 @@
       </c>
       <c r="R149" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>072106BE</v>
+        <v>CD63364E</v>
       </c>
       <c r="S149" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>0E420D7C</v>
+        <v>9AC66C9D</v>
       </c>
       <c r="U149">
         <v>35</v>
@@ -15651,31 +15653,31 @@
       </c>
       <c r="W149" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>14795EEB</v>
+        <v>012EBFE1</v>
       </c>
       <c r="X149" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>B8ABAF35</v>
+        <v>D57DEEB6</v>
       </c>
       <c r="Y149" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>B8ABAF35</v>
+        <v>D57DEEB6</v>
       </c>
       <c r="Z149" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>922D845C</v>
+        <v>751FB542</v>
       </c>
       <c r="AA149" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1A6622D9</v>
+        <v>4B840500</v>
       </c>
       <c r="AB149" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>5004B686</v>
+        <v>C4C999CA</v>
       </c>
       <c r="AC149" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>2DE56309</v>
+        <v>EBF7322A</v>
       </c>
     </row>
     <row r="150" spans="2:29" x14ac:dyDescent="0.3">
@@ -15729,11 +15731,11 @@
       </c>
       <c r="R150" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>70148155</v>
+        <v>21684BD7</v>
       </c>
       <c r="S150" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>E02902AA</v>
+        <v>42D097AE</v>
       </c>
       <c r="U150">
         <v>36</v>
@@ -15743,31 +15745,31 @@
       </c>
       <c r="W150" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>D84F1003</v>
+        <v>FA522988</v>
       </c>
       <c r="X150" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>6AAD480E</v>
+        <v>47B1B5DB</v>
       </c>
       <c r="Y150" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>6AAD480E</v>
+        <v>47B1B5DB</v>
       </c>
       <c r="Z150" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>B8ABAF35</v>
+        <v>D57DEEB6</v>
       </c>
       <c r="AA150" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>248B6117</v>
+        <v>9D47ED50</v>
       </c>
       <c r="AB150" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1A6622D9</v>
+        <v>4B840500</v>
       </c>
       <c r="AC150" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>5004B686</v>
+        <v>C4C999CA</v>
       </c>
     </row>
     <row r="151" spans="2:29" x14ac:dyDescent="0.3">
@@ -15821,11 +15823,11 @@
       </c>
       <c r="R151" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>A0A0B73F</v>
+        <v>FA1F9DAB</v>
       </c>
       <c r="S151" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>41416E7F</v>
+        <v>F43F3B57</v>
       </c>
       <c r="U151">
         <v>37</v>
@@ -15835,31 +15837,31 @@
       </c>
       <c r="W151" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>8646ECFB</v>
+        <v>03BE06E6</v>
       </c>
       <c r="X151" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>DC0FFF6E</v>
+        <v>21D78310</v>
       </c>
       <c r="Y151" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>DC0FFF6E</v>
+        <v>21D78310</v>
       </c>
       <c r="Z151" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>6AAD480E</v>
+        <v>47B1B5DB</v>
       </c>
       <c r="AA151" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>6E2AEBCD</v>
+        <v>B55F7BAD</v>
       </c>
       <c r="AB151" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>248B6117</v>
+        <v>9D47ED50</v>
       </c>
       <c r="AC151" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1A6622D9</v>
+        <v>4B840500</v>
       </c>
     </row>
     <row r="152" spans="2:29" x14ac:dyDescent="0.3">
@@ -15913,11 +15915,11 @@
       </c>
       <c r="R152" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>3C42A5C3</v>
+        <v>53D34D18</v>
       </c>
       <c r="S152" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>78854B86</v>
+        <v>A7A69A30</v>
       </c>
       <c r="U152">
         <v>38</v>
@@ -15927,31 +15929,31 @@
       </c>
       <c r="W152" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>200CC2D4</v>
+        <v>6FA92326</v>
       </c>
       <c r="X152" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>A3D20AAF</v>
+        <v>0C9E0FFB</v>
       </c>
       <c r="Y152" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>A3D20AAF</v>
+        <v>0C9E0FFB</v>
       </c>
       <c r="Z152" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>DC0FFF6E</v>
+        <v>21D78310</v>
       </c>
       <c r="AA152" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>9AAB5203</v>
+        <v>D1EC6D76</v>
       </c>
       <c r="AB152" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>6E2AEBCD</v>
+        <v>B55F7BAD</v>
       </c>
       <c r="AC152" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>248B6117</v>
+        <v>9D47ED50</v>
       </c>
     </row>
     <row r="153" spans="2:29" x14ac:dyDescent="0.3">
@@ -16005,11 +16007,11 @@
       </c>
       <c r="R153" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>6B306B30</v>
+        <v>396CB310</v>
       </c>
       <c r="S153" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>D660D660</v>
+        <v>72D96620</v>
       </c>
       <c r="U153">
         <v>39</v>
@@ -16019,31 +16021,31 @@
       </c>
       <c r="W153" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>288E46A0</v>
+        <v>456495CB</v>
       </c>
       <c r="X153" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>0C95BFAC</v>
+        <v>5821D43D</v>
       </c>
       <c r="Y153" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>0C95BFAC</v>
+        <v>5821D43D</v>
       </c>
       <c r="Z153" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>A3D20AAF</v>
+        <v>0C9E0FFB</v>
       </c>
       <c r="AA153" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>B703FFDB</v>
+        <v>0875E0C4</v>
       </c>
       <c r="AB153" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>9AAB5203</v>
+        <v>D1EC6D76</v>
       </c>
       <c r="AC153" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>6E2AEBCD</v>
+        <v>B55F7BAD</v>
       </c>
     </row>
     <row r="154" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -16097,11 +16099,11 @@
       </c>
       <c r="R154" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>6C33915B</v>
+        <v>3E79EA81</v>
       </c>
       <c r="S154" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>D86722B6</v>
+        <v>7CF3D502</v>
       </c>
       <c r="U154" s="12">
         <v>40</v>
@@ -16111,31 +16113,31 @@
       </c>
       <c r="W154" s="13" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>8E7AA777</v>
+        <v>D5078249</v>
       </c>
       <c r="X154" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>D69E971C</v>
+        <v>7A6F4644</v>
       </c>
       <c r="Y154" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>D69E971C</v>
+        <v>7A6F4644</v>
       </c>
       <c r="Z154" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>0C95BFAC</v>
+        <v>5821D43D</v>
       </c>
       <c r="AA154" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E8F482AB</v>
+        <v>C32783FE</v>
       </c>
       <c r="AB154" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>B703FFDB</v>
+        <v>0875E0C4</v>
       </c>
       <c r="AC154" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>9AAB5203</v>
+        <v>D1EC6D76</v>
       </c>
     </row>
     <row r="155" spans="2:29" x14ac:dyDescent="0.3">
@@ -16189,11 +16191,11 @@
       </c>
       <c r="R155" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>6E25512D</v>
+        <v>CCFB1965</v>
       </c>
       <c r="S155" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>DC4AA25A</v>
+        <v>99F632CB</v>
       </c>
       <c r="U155">
         <v>41</v>
@@ -16203,31 +16205,31 @@
       </c>
       <c r="W155" s="7" t="str">
         <f t="shared" ref="W155:W174" ca="1" si="143">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITAND(HEX2DEC(Z154),HEX2DEC(AA154)),_xlfn.BITAND(HEX2DEC(Z154),HEX2DEC(AB154))),_xlfn.BITAND(HEX2DEC(AA154),HEX2DEC(AB154))),8)</f>
-        <v>AC95BFAB</v>
+        <v>4825C0FC</v>
       </c>
       <c r="X155" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>867A547E</v>
+        <v>910CE6A8</v>
       </c>
       <c r="Y155" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>867A547E</v>
+        <v>910CE6A8</v>
       </c>
       <c r="Z155" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>D69E971C</v>
+        <v>7A6F4644</v>
       </c>
       <c r="AA155" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>03256FEB</v>
+        <v>5608750F</v>
       </c>
       <c r="AB155" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E8F482AB</v>
+        <v>C32783FE</v>
       </c>
       <c r="AC155" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>B703FFDB</v>
+        <v>0875E0C4</v>
       </c>
     </row>
     <row r="156" spans="2:29" x14ac:dyDescent="0.3">
@@ -16281,11 +16283,11 @@
       </c>
       <c r="R156" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>5C4D3C5A</v>
+        <v>5FB530A7</v>
       </c>
       <c r="S156" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>B89A78B4</v>
+        <v>BF6A614E</v>
       </c>
       <c r="U156">
         <v>42</v>
@@ -16295,31 +16297,31 @@
       </c>
       <c r="W156" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>C2B487AB</v>
+        <v>522F474E</v>
       </c>
       <c r="X156" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>90B94CE6</v>
+        <v>CAC81B4E</v>
       </c>
       <c r="Y156" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>90B94CE6</v>
+        <v>CAC81B4E</v>
       </c>
       <c r="Z156" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>867A547E</v>
+        <v>910CE6A8</v>
       </c>
       <c r="AA156" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>35A7A5C7</v>
+        <v>1E9BD191</v>
       </c>
       <c r="AB156" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>03256FEB</v>
+        <v>5608750F</v>
       </c>
       <c r="AC156" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E8F482AB</v>
+        <v>C32783FE</v>
       </c>
     </row>
     <row r="157" spans="2:29" x14ac:dyDescent="0.3">
@@ -16373,11 +16375,11 @@
       </c>
       <c r="R157" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>50C86C99</v>
+        <v>915CF5B2</v>
       </c>
       <c r="S157" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>A190D932</v>
+        <v>22B9EB65</v>
       </c>
       <c r="U157">
         <v>43</v>
@@ -16387,31 +16389,31 @@
       </c>
       <c r="W157" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>072765EF</v>
+        <v>1608F589</v>
       </c>
       <c r="X157" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>37F21B7A</v>
+        <v>E4098BA1</v>
       </c>
       <c r="Y157" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>37F21B7A</v>
+        <v>E4098BA1</v>
       </c>
       <c r="Z157" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>90B94CE6</v>
+        <v>CAC81B4E</v>
       </c>
       <c r="AA157" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>A19E951F</v>
+        <v>244339AA</v>
       </c>
       <c r="AB157" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>35A7A5C7</v>
+        <v>1E9BD191</v>
       </c>
       <c r="AC157" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>03256FEB</v>
+        <v>5608750F</v>
       </c>
     </row>
     <row r="158" spans="2:29" x14ac:dyDescent="0.3">
@@ -16465,11 +16467,11 @@
       </c>
       <c r="R158" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>F2D3A032</v>
+        <v>D2204765</v>
       </c>
       <c r="S158" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>E5A74065</v>
+        <v>A4408ECB</v>
       </c>
       <c r="U158">
         <v>44</v>
@@ -16479,31 +16481,31 @@
       </c>
       <c r="W158" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>B1BF85C7</v>
+        <v>0ECB198A</v>
       </c>
       <c r="X158" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>27EB6239</v>
+        <v>19614E7C</v>
       </c>
       <c r="Y158" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>27EB6239</v>
+        <v>19614E7C</v>
       </c>
       <c r="Z158" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>37F21B7A</v>
+        <v>E4098BA1</v>
       </c>
       <c r="AA158" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>A42E5339</v>
+        <v>B2B206D3</v>
       </c>
       <c r="AB158" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>A19E951F</v>
+        <v>244339AA</v>
       </c>
       <c r="AC158" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>35A7A5C7</v>
+        <v>1E9BD191</v>
       </c>
     </row>
     <row r="159" spans="2:29" x14ac:dyDescent="0.3">
@@ -16557,11 +16559,11 @@
       </c>
       <c r="R159" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>D7171331</v>
+        <v>306BE857</v>
       </c>
       <c r="S159" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>AE2E2663</v>
+        <v>60D7D0AE</v>
       </c>
       <c r="U159">
         <v>45</v>
@@ -16571,31 +16573,31 @@
       </c>
       <c r="W159" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>A5BE133B</v>
+        <v>A4030BA3</v>
       </c>
       <c r="X159" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>161BE365</v>
+        <v>DEBC3A41</v>
       </c>
       <c r="Y159" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>161BE365</v>
+        <v>DEBC3A41</v>
       </c>
       <c r="Z159" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>27EB6239</v>
+        <v>19614E7C</v>
       </c>
       <c r="AA159" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>8DFC86DE</v>
+        <v>790262E8</v>
       </c>
       <c r="AB159" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>A42E5339</v>
+        <v>B2B206D3</v>
       </c>
       <c r="AC159" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>A19E951F</v>
+        <v>244339AA</v>
       </c>
     </row>
     <row r="160" spans="2:29" x14ac:dyDescent="0.3">
@@ -16649,11 +16651,11 @@
       </c>
       <c r="R160" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>06E34FC5</v>
+        <v>F40FE144</v>
       </c>
       <c r="S160" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>0DC69F8A</v>
+        <v>E81FC289</v>
       </c>
       <c r="U160">
         <v>46</v>
@@ -16663,31 +16665,31 @@
       </c>
       <c r="W160" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>A5EE4239</v>
+        <v>392246F8</v>
       </c>
       <c r="X160" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>A7EBA060</v>
+        <v>AC284842</v>
       </c>
       <c r="Y160" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>A7EBA060</v>
+        <v>AC284842</v>
       </c>
       <c r="Z160" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>161BE365</v>
+        <v>DEBC3A41</v>
       </c>
       <c r="AA160" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>49FAD88E</v>
+        <v>0658539F</v>
       </c>
       <c r="AB160" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>8DFC86DE</v>
+        <v>790262E8</v>
       </c>
       <c r="AC160" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>A42E5339</v>
+        <v>B2B206D3</v>
       </c>
     </row>
     <row r="161" spans="2:29" x14ac:dyDescent="0.3">
@@ -16741,11 +16743,11 @@
       </c>
       <c r="R161" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>34166FED</v>
+        <v>CD2875F2</v>
       </c>
       <c r="S161" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>682CDFDA</v>
+        <v>9A50EBE5</v>
       </c>
       <c r="U161">
         <v>47</v>
@@ -16755,31 +16757,31 @@
       </c>
       <c r="W161" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>0DFAC2CE</v>
+        <v>5E1872C9</v>
       </c>
       <c r="X161" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>A6E5BED1</v>
+        <v>BF402AB2</v>
       </c>
       <c r="Y161" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>A6E5BED1</v>
+        <v>BF402AB2</v>
       </c>
       <c r="Z161" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>A7EBA060</v>
+        <v>AC284842</v>
       </c>
       <c r="AA161" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>4586F8D9</v>
+        <v>77AF0E90</v>
       </c>
       <c r="AB161" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>49FAD88E</v>
+        <v>0658539F</v>
       </c>
       <c r="AC161" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>8DFC86DE</v>
+        <v>790262E8</v>
       </c>
     </row>
     <row r="162" spans="2:29" x14ac:dyDescent="0.3">
@@ -16833,11 +16835,11 @@
       </c>
       <c r="R162" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>232DAFDB</v>
+        <v>A4542EC7</v>
       </c>
       <c r="S162" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>465B5FB6</v>
+        <v>48A85D8F</v>
       </c>
       <c r="U162">
         <v>48</v>
@@ -16847,31 +16849,31 @@
       </c>
       <c r="W162" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>45EAF8C8</v>
+        <v>26284A92</v>
       </c>
       <c r="X162" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>8616766C</v>
+        <v>5EF41E3C</v>
       </c>
       <c r="Y162" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>8616766C</v>
+        <v>5EF41E3C</v>
       </c>
       <c r="Z162" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>A6E5BED1</v>
+        <v>BF402AB2</v>
       </c>
       <c r="AA162" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>29FAE818</v>
+        <v>AB0A1210</v>
       </c>
       <c r="AB162" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>4586F8D9</v>
+        <v>77AF0E90</v>
       </c>
       <c r="AC162" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>49FAD88E</v>
+        <v>0658539F</v>
       </c>
     </row>
     <row r="163" spans="2:29" x14ac:dyDescent="0.3">
@@ -16925,11 +16927,11 @@
       </c>
       <c r="R163" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>991BD7DE</v>
+        <v>4058BE2B</v>
       </c>
       <c r="S163" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>3237AFBD</v>
+        <v>80B17C56</v>
       </c>
       <c r="U163">
         <v>49</v>
@@ -16939,31 +16941,31 @@
       </c>
       <c r="W163" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>25E6F8D9</v>
+        <v>BF0A0A90</v>
       </c>
       <c r="X163" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F4040B90</v>
+        <v>B3B35EEC</v>
       </c>
       <c r="Y163" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F4040B90</v>
+        <v>B3B35EEC</v>
       </c>
       <c r="Z163" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>8616766C</v>
+        <v>5EF41E3C</v>
       </c>
       <c r="AA163" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>69B96FB4</v>
+        <v>AFD00AAC</v>
       </c>
       <c r="AB163" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>29FAE818</v>
+        <v>AB0A1210</v>
       </c>
       <c r="AC163" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>4586F8D9</v>
+        <v>77AF0E90</v>
       </c>
     </row>
     <row r="164" spans="2:29" x14ac:dyDescent="0.3">
@@ -17017,11 +17019,11 @@
       </c>
       <c r="R164" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>75514A46</v>
+        <v>E93AFF5D</v>
       </c>
       <c r="S164" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>EAA2948C</v>
+        <v>D275FEBB</v>
       </c>
       <c r="U164">
         <v>50</v>
@@ -17031,31 +17033,31 @@
       </c>
       <c r="W164" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>29BA6E3C</v>
+        <v>AFD01A3C</v>
       </c>
       <c r="X164" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>69812A9B</v>
+        <v>FF7CC1F9</v>
       </c>
       <c r="Y164" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>69812A9B</v>
+        <v>FF7CC1F9</v>
       </c>
       <c r="Z164" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F4040B90</v>
+        <v>B3B35EEC</v>
       </c>
       <c r="AA164" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>21859D9B</v>
+        <v>17BD078F</v>
       </c>
       <c r="AB164" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>69B96FB4</v>
+        <v>AFD00AAC</v>
       </c>
       <c r="AC164" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>29FAE818</v>
+        <v>AB0A1210</v>
       </c>
     </row>
     <row r="165" spans="2:29" x14ac:dyDescent="0.3">
@@ -17109,11 +17111,11 @@
       </c>
       <c r="R165" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>A8C8E587</v>
+        <v>04E8E120</v>
       </c>
       <c r="S165" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>5191CB0F</v>
+        <v>09D1C240</v>
       </c>
       <c r="U165">
         <v>51</v>
@@ -17123,31 +17125,31 @@
       </c>
       <c r="W165" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>61850F90</v>
+        <v>B7B10EAC</v>
       </c>
       <c r="X165" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>9C52D300</v>
+        <v>EB40DF17</v>
       </c>
       <c r="Y165" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>9C52D300</v>
+        <v>EB40DF17</v>
       </c>
       <c r="Z165" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>69812A9B</v>
+        <v>FF7CC1F9</v>
       </c>
       <c r="AA165" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>3D0102E4</v>
+        <v>2CECD7BB</v>
       </c>
       <c r="AB165" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>21859D9B</v>
+        <v>17BD078F</v>
       </c>
       <c r="AC165" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>69B96FB4</v>
+        <v>AFD00AAC</v>
       </c>
     </row>
     <row r="166" spans="2:29" x14ac:dyDescent="0.3">
@@ -17201,11 +17203,11 @@
       </c>
       <c r="R166" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>4F3CA6F4</v>
+        <v>C187FF03</v>
       </c>
       <c r="S166" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>9E794DE8</v>
+        <v>830FFE07</v>
       </c>
       <c r="U166">
         <v>52</v>
@@ -17215,31 +17217,31 @@
       </c>
       <c r="W166" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>29810A9B</v>
+        <v>3FFCC7BB</v>
       </c>
       <c r="X166" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>4B29E526</v>
+        <v>6A147047</v>
       </c>
       <c r="Y166" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>4B29E526</v>
+        <v>6A147047</v>
       </c>
       <c r="Z166" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>9C52D300</v>
+        <v>EB40DF17</v>
       </c>
       <c r="AA166" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>DA604AA6</v>
+        <v>7FDF307E</v>
       </c>
       <c r="AB166" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>3D0102E4</v>
+        <v>2CECD7BB</v>
       </c>
       <c r="AC166" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>21859D9B</v>
+        <v>17BD078F</v>
       </c>
     </row>
     <row r="167" spans="2:29" x14ac:dyDescent="0.3">
@@ -17293,11 +17295,11 @@
       </c>
       <c r="R167" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>D3AD0AF0</v>
+        <v>34447362</v>
       </c>
       <c r="S167" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>A75A15E1</v>
+        <v>6888E6C4</v>
       </c>
       <c r="U167">
         <v>53</v>
@@ -17307,31 +17309,31 @@
       </c>
       <c r="W167" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>9C4042A4</v>
+        <v>6FCCD73F</v>
       </c>
       <c r="X167" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>597857C5</v>
+        <v>C1BC8B5B</v>
       </c>
       <c r="Y167" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>597857C5</v>
+        <v>C1BC8B5B</v>
       </c>
       <c r="Z167" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>4B29E526</v>
+        <v>6A147047</v>
       </c>
       <c r="AA167" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>2714B4C0</v>
+        <v>FAD037C5</v>
       </c>
       <c r="AB167" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>DA604AA6</v>
+        <v>7FDF307E</v>
       </c>
       <c r="AC167" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>3D0102E4</v>
+        <v>2CECD7BB</v>
       </c>
     </row>
     <row r="168" spans="2:29" x14ac:dyDescent="0.3">
@@ -17385,11 +17387,11 @@
       </c>
       <c r="R168" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>FCB53DB5</v>
+        <v>3A9B4FFB</v>
       </c>
       <c r="S168" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>F96A7B6B</v>
+        <v>75369FF6</v>
       </c>
       <c r="U168">
         <v>54</v>
@@ -17399,31 +17401,31 @@
       </c>
       <c r="W168" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>4B20E4A6</v>
+        <v>7AD43047</v>
       </c>
       <c r="X168" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>3FB3187C</v>
+        <v>E3A4D04C</v>
       </c>
       <c r="Y168" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>3FB3187C</v>
+        <v>E3A4D04C</v>
       </c>
       <c r="Z168" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>597857C5</v>
+        <v>C1BC8B5B</v>
       </c>
       <c r="AA168" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>92CA7949</v>
+        <v>DA851C11</v>
       </c>
       <c r="AB168" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>2714B4C0</v>
+        <v>FAD037C5</v>
       </c>
       <c r="AC168" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>DA604AA6</v>
+        <v>7FDF307E</v>
       </c>
     </row>
     <row r="169" spans="2:29" x14ac:dyDescent="0.3">
@@ -17477,11 +17479,11 @@
       </c>
       <c r="R169" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>FC7FE608</v>
+        <v>F2704109</v>
       </c>
       <c r="S169" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>F8FFCC11</v>
+        <v>E4E08213</v>
       </c>
       <c r="U169">
         <v>55</v>
@@ -17491,31 +17493,31 @@
       </c>
       <c r="W169" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>135875C1</v>
+        <v>DA941F51</v>
       </c>
       <c r="X169" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>6C3758DB</v>
+        <v>4309985A</v>
       </c>
       <c r="Y169" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>6C3758DB</v>
+        <v>4309985A</v>
       </c>
       <c r="Z169" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>3FB3187C</v>
+        <v>E3A4D04C</v>
       </c>
       <c r="AA169" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>565E15F1</v>
+        <v>F06F22D6</v>
       </c>
       <c r="AB169" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>92CA7949</v>
+        <v>DA851C11</v>
       </c>
       <c r="AC169" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>2714B4C0</v>
+        <v>FAD037C5</v>
       </c>
     </row>
     <row r="170" spans="2:29" x14ac:dyDescent="0.3">
@@ -17569,11 +17571,11 @@
       </c>
       <c r="R170" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>81FC1055</v>
+        <v>E3B90F07</v>
       </c>
       <c r="S170" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>03F820AB</v>
+        <v>C7721E0F</v>
       </c>
       <c r="U170">
         <v>56</v>
@@ -17583,31 +17585,31 @@
       </c>
       <c r="W170" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>16DA1979</v>
+        <v>F2A51054</v>
       </c>
       <c r="X170" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>57EDC72D</v>
+        <v>A5362E4C</v>
       </c>
       <c r="Y170" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>57EDC72D</v>
+        <v>A5362E4C</v>
       </c>
       <c r="Z170" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>6C3758DB</v>
+        <v>4309985A</v>
       </c>
       <c r="AA170" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>0FECC61F</v>
+        <v>38E93413</v>
       </c>
       <c r="AB170" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>565E15F1</v>
+        <v>F06F22D6</v>
       </c>
       <c r="AC170" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>92CA7949</v>
+        <v>DA851C11</v>
       </c>
     </row>
     <row r="171" spans="2:29" x14ac:dyDescent="0.3">
@@ -17661,11 +17663,11 @@
       </c>
       <c r="R171" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>B687AFBE</v>
+        <v>4EC83A0E</v>
       </c>
       <c r="S171" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>6D0F5F7D</v>
+        <v>9D90741C</v>
       </c>
       <c r="U171">
         <v>57</v>
@@ -17675,31 +17677,31 @@
       </c>
       <c r="W171" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>4E7E54DB</v>
+        <v>70693052</v>
       </c>
       <c r="X171" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>DB2CD027</v>
+        <v>1E6046EF</v>
       </c>
       <c r="Y171" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>DB2CD027</v>
+        <v>1E6046EF</v>
       </c>
       <c r="Z171" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>57EDC72D</v>
+        <v>A5362E4C</v>
       </c>
       <c r="AA171" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>DB0DD636</v>
+        <v>90C26616</v>
       </c>
       <c r="AB171" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>0FECC61F</v>
+        <v>38E93413</v>
       </c>
       <c r="AC171" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>565E15F1</v>
+        <v>F06F22D6</v>
       </c>
     </row>
     <row r="172" spans="2:29" x14ac:dyDescent="0.3">
@@ -17753,11 +17755,11 @@
       </c>
       <c r="R172" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>4F60604C</v>
+        <v>2DBF932D</v>
       </c>
       <c r="S172" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>9EC0C098</v>
+        <v>5B7F265A</v>
       </c>
       <c r="U172">
         <v>58</v>
@@ -17767,31 +17769,31 @@
       </c>
       <c r="W172" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>5FEDC63F</v>
+        <v>B0E22616</v>
       </c>
       <c r="X172" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>49C25E9F</v>
+        <v>57F50A05</v>
       </c>
       <c r="Y172" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>49C25E9F</v>
+        <v>57F50A05</v>
       </c>
       <c r="Z172" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>DB2CD027</v>
+        <v>1E6046EF</v>
       </c>
       <c r="AA172" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>55FB71CB</v>
+        <v>294D8B93</v>
       </c>
       <c r="AB172" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>DB0DD636</v>
+        <v>90C26616</v>
       </c>
       <c r="AC172" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>0FECC61F</v>
+        <v>38E93413</v>
       </c>
     </row>
     <row r="173" spans="2:29" x14ac:dyDescent="0.3">
@@ -17845,11 +17847,11 @@
       </c>
       <c r="R173" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>5DD714F5</v>
+        <v>8CCDE784</v>
       </c>
       <c r="S173" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>BBAE29EA</v>
+        <v>199BCF09</v>
       </c>
       <c r="U173">
         <v>59</v>
@@ -17859,31 +17861,31 @@
       </c>
       <c r="W173" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>DB2DD027</v>
+        <v>18404697</v>
       </c>
       <c r="X173" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>6E3050F5</v>
+        <v>F8824739</v>
       </c>
       <c r="Y173" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>6E3050F5</v>
+        <v>F8824739</v>
       </c>
       <c r="Z173" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>49C25E9F</v>
+        <v>57F50A05</v>
       </c>
       <c r="AA173" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F6CB3409</v>
+        <v>C79811BB</v>
       </c>
       <c r="AB173" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>55FB71CB</v>
+        <v>294D8B93</v>
       </c>
       <c r="AC173" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>DB0DD636</v>
+        <v>90C26616</v>
       </c>
     </row>
     <row r="174" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -17937,11 +17939,11 @@
       </c>
       <c r="R174" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>1B17CD7A</v>
+        <v>52C0C659</v>
       </c>
       <c r="S174" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>362F9AF4</v>
+        <v>A5818CB2</v>
       </c>
       <c r="U174" s="12">
         <v>60</v>
@@ -17951,31 +17953,31 @@
       </c>
       <c r="W174" s="13" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>55CB748B</v>
+        <v>47DD0B93</v>
       </c>
       <c r="X174" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>BC2EC13E</v>
+        <v>1D85A276</v>
       </c>
       <c r="Y174" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>BC2EC13E</v>
+        <v>1D85A276</v>
       </c>
       <c r="Z174" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>6E3050F5</v>
+        <v>F8824739</v>
       </c>
       <c r="AA174" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>D27097A7</v>
+        <v>55FD4281</v>
       </c>
       <c r="AB174" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F6CB3409</v>
+        <v>C79811BB</v>
       </c>
       <c r="AC174" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>55FB71CB</v>
+        <v>294D8B93</v>
       </c>
     </row>
     <row r="175" spans="2:29" x14ac:dyDescent="0.3">
@@ -18029,11 +18031,11 @@
       </c>
       <c r="R175" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>FF982CC0</v>
+        <v>C970FBD5</v>
       </c>
       <c r="S175" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>FF305981</v>
+        <v>92E1F7AB</v>
       </c>
       <c r="U175">
         <v>61</v>
@@ -18043,31 +18045,31 @@
       </c>
       <c r="W175" s="7" t="str">
         <f t="shared" ref="W175:W194" ca="1" si="145">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z174),HEX2DEC(AA174)),HEX2DEC(AB174)),8)</f>
-        <v>4A8BF35B</v>
+        <v>6AE71403</v>
       </c>
       <c r="X175" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>EFF2A854</v>
+        <v>A22DA7DA</v>
       </c>
       <c r="Y175" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>EFF2A854</v>
+        <v>A22DA7DA</v>
       </c>
       <c r="Z175" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>BC2EC13E</v>
+        <v>1D85A276</v>
       </c>
       <c r="AA175" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>5B8C143D</v>
+        <v>7E2091CE</v>
       </c>
       <c r="AB175" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>D27097A7</v>
+        <v>55FD4281</v>
       </c>
       <c r="AC175" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F6CB3409</v>
+        <v>C79811BB</v>
       </c>
     </row>
     <row r="176" spans="2:29" x14ac:dyDescent="0.3">
@@ -18121,11 +18123,11 @@
       </c>
       <c r="R176" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>095992BD</v>
+        <v>CC1ACFF9</v>
       </c>
       <c r="S176" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>12B3257A</v>
+        <v>98359FF3</v>
       </c>
       <c r="U176">
         <v>62</v>
@@ -18135,31 +18137,31 @@
       </c>
       <c r="W176" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>35D242A4</v>
+        <v>36587139</v>
       </c>
       <c r="X176" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>0808689A</v>
+        <v>A63DE011</v>
       </c>
       <c r="Y176" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>0808689A</v>
+        <v>A63DE011</v>
       </c>
       <c r="Z176" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>EFF2A854</v>
+        <v>A22DA7DA</v>
       </c>
       <c r="AA176" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>AF0BB04F</v>
+        <v>8761689D</v>
       </c>
       <c r="AB176" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>5B8C143D</v>
+        <v>7E2091CE</v>
       </c>
       <c r="AC176" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>D27097A7</v>
+        <v>55FD4281</v>
       </c>
     </row>
     <row r="177" spans="2:29" x14ac:dyDescent="0.3">
@@ -18213,11 +18215,11 @@
       </c>
       <c r="R177" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>94CB2682</v>
+        <v>5B809912</v>
       </c>
       <c r="S177" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>29964D05</v>
+        <v>B7013224</v>
       </c>
       <c r="U177">
         <v>63</v>
@@ -18227,31 +18229,31 @@
       </c>
       <c r="W177" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>1B750C26</v>
+        <v>5B6C5E89</v>
       </c>
       <c r="X177" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>E2EBC5E9</v>
+        <v>FA899738</v>
       </c>
       <c r="Y177" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>E2EBC5E9</v>
+        <v>FA899738</v>
       </c>
       <c r="Z177" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>0808689A</v>
+        <v>A63DE011</v>
       </c>
       <c r="AA177" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>3BFCAA15</v>
+        <v>A88B69F6</v>
       </c>
       <c r="AB177" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>AF0BB04F</v>
+        <v>8761689D</v>
       </c>
       <c r="AC177" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>5B8C143D</v>
+        <v>7E2091CE</v>
       </c>
     </row>
     <row r="178" spans="2:29" x14ac:dyDescent="0.3">
@@ -18305,11 +18307,11 @@
       </c>
       <c r="R178" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>5031B210</v>
+        <v>CF4E4A90</v>
       </c>
       <c r="S178" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>A0636420</v>
+        <v>9E9C9521</v>
       </c>
       <c r="U178">
         <v>64</v>
@@ -18319,31 +18321,31 @@
       </c>
       <c r="W178" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>9CFF72C0</v>
+        <v>89D7E17A</v>
       </c>
       <c r="X178" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>C0CA6A2F</v>
+        <v>C22AB15E</v>
       </c>
       <c r="Y178" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>C0CA6A2F</v>
+        <v>C22AB15E</v>
       </c>
       <c r="Z178" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>E2EBC5E9</v>
+        <v>FA899738</v>
       </c>
       <c r="AA178" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>82021A26</v>
+        <v>698F7804</v>
       </c>
       <c r="AB178" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>3BFCAA15</v>
+        <v>A88B69F6</v>
       </c>
       <c r="AC178" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>AF0BB04F</v>
+        <v>8761689D</v>
       </c>
     </row>
     <row r="179" spans="2:29" x14ac:dyDescent="0.3">
@@ -18397,11 +18399,11 @@
       </c>
       <c r="R179" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>1C1A1EB5</v>
+        <v>8CC555F9</v>
       </c>
       <c r="S179" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>38343D6A</v>
+        <v>198AABF3</v>
       </c>
       <c r="U179">
         <v>65</v>
@@ -18411,31 +18413,31 @@
       </c>
       <c r="W179" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>5B1575DA</v>
+        <v>3B8D86CA</v>
       </c>
       <c r="X179" t="str">
         <f t="shared" ref="X179:X194" ca="1" si="148">DEC2HEX(MOD(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(Y178),5),_xlfn.BITRSHIFT(HEX2DEC(Y178),27)),4294967295)+HEX2DEC(W179)+HEX2DEC(AC178)+HEX2DEC(V179)+HEX2DEC(S179),4294967296),8)</f>
-        <v>26056B61</v>
+        <v>EC328908</v>
       </c>
       <c r="Y179" s="7" t="str">
         <f t="shared" ref="Y179:Y194" ca="1" si="149">X179</f>
-        <v>26056B61</v>
+        <v>EC328908</v>
       </c>
       <c r="Z179" t="str">
         <f t="shared" ref="Z179:Z194" ca="1" si="150">Y178</f>
-        <v>C0CA6A2F</v>
+        <v>C22AB15E</v>
       </c>
       <c r="AA179" t="str">
         <f t="shared" ref="AA179:AA194" ca="1" si="151">DEC2HEX(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(MOD(HEX2DEC(Z178),4),30),_xlfn.BITRSHIFT(HEX2DEC(Z178),2)),4294967295),8)</f>
-        <v>78BAF17A</v>
+        <v>3EA265CE</v>
       </c>
       <c r="AB179" t="str">
         <f t="shared" ref="AB179:AB194" ca="1" si="152">AA178</f>
-        <v>82021A26</v>
+        <v>698F7804</v>
       </c>
       <c r="AC179" s="19" t="str">
         <f t="shared" ref="AC179:AC194" ca="1" si="153">AB178</f>
-        <v>3BFCAA15</v>
+        <v>A88B69F6</v>
       </c>
     </row>
     <row r="180" spans="2:29" x14ac:dyDescent="0.3">
@@ -18489,11 +18491,11 @@
       </c>
       <c r="R180" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>C38D54F9</v>
+        <v>BD0414C2</v>
       </c>
       <c r="S180" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>871AA9F3</v>
+        <v>7A082985</v>
       </c>
       <c r="U180">
         <v>66</v>
@@ -18503,31 +18505,31 @@
       </c>
       <c r="W180" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>3A728173</v>
+        <v>9507AC94</v>
       </c>
       <c r="X180" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>889A0375</v>
+        <v>084F2302</v>
       </c>
       <c r="Y180" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>889A0375</v>
+        <v>084F2302</v>
       </c>
       <c r="Z180" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>26056B61</v>
+        <v>EC328908</v>
       </c>
       <c r="AA180" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>F0329A8B</v>
+        <v>B08AAC57</v>
       </c>
       <c r="AB180" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>78BAF17A</v>
+        <v>3EA265CE</v>
       </c>
       <c r="AC180" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>82021A26</v>
+        <v>698F7804</v>
       </c>
     </row>
     <row r="181" spans="2:29" x14ac:dyDescent="0.3">
@@ -18581,11 +18583,11 @@
       </c>
       <c r="R181" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>ED069324</v>
+        <v>E65E7EAC</v>
       </c>
       <c r="S181" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>DA0D2649</v>
+        <v>CCBCFD59</v>
       </c>
       <c r="U181">
         <v>67</v>
@@ -18595,31 +18597,31 @@
       </c>
       <c r="W181" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>AE8D0090</v>
+        <v>621A4091</v>
       </c>
       <c r="X181" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>E83F7186</v>
+        <v>6CADD805</v>
       </c>
       <c r="Y181" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>E83F7186</v>
+        <v>6CADD805</v>
       </c>
       <c r="Z181" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>889A0375</v>
+        <v>084F2302</v>
       </c>
       <c r="AA181" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>49815AD8</v>
+        <v>3B0CA242</v>
       </c>
       <c r="AB181" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>F0329A8B</v>
+        <v>B08AAC57</v>
       </c>
       <c r="AC181" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>78BAF17A</v>
+        <v>3EA265CE</v>
       </c>
     </row>
     <row r="182" spans="2:29" x14ac:dyDescent="0.3">
@@ -18673,11 +18675,11 @@
       </c>
       <c r="R182" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>6908911D</v>
+        <v>4A3246B0</v>
       </c>
       <c r="S182" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>D211223A</v>
+        <v>94648D60</v>
       </c>
       <c r="U182">
         <v>68</v>
@@ -18687,31 +18689,31 @@
       </c>
       <c r="W182" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>3129C326</v>
+        <v>83C92D17</v>
       </c>
       <c r="X182" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>4E46C98D</v>
+        <v>B6EDE2C8</v>
       </c>
       <c r="Y182" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>4E46C98D</v>
+        <v>B6EDE2C8</v>
       </c>
       <c r="Z182" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>E83F7186</v>
+        <v>6CADD805</v>
       </c>
       <c r="AA182" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>622680DD</v>
+        <v>8213C8C0</v>
       </c>
       <c r="AB182" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>49815AD8</v>
+        <v>3B0CA242</v>
       </c>
       <c r="AC182" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>F0329A8B</v>
+        <v>B08AAC57</v>
       </c>
     </row>
     <row r="183" spans="2:29" x14ac:dyDescent="0.3">
@@ -18765,11 +18767,11 @@
       </c>
       <c r="R183" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>278F2982</v>
+        <v>6481BAF9</v>
       </c>
       <c r="S183" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>4F1E5304</v>
+        <v>C90375F2</v>
       </c>
       <c r="U183">
         <v>69</v>
@@ -18779,31 +18781,31 @@
       </c>
       <c r="W183" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>C398AB83</v>
+        <v>D5B2B287</v>
       </c>
       <c r="X183" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>96258C91</v>
+        <v>F75FEFBC</v>
       </c>
       <c r="Y183" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>96258C91</v>
+        <v>F75FEFBC</v>
       </c>
       <c r="Z183" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>4E46C98D</v>
+        <v>B6EDE2C8</v>
       </c>
       <c r="AA183" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>BA0FDC61</v>
+        <v>5B2B7601</v>
       </c>
       <c r="AB183" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>622680DD</v>
+        <v>8213C8C0</v>
       </c>
       <c r="AC183" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>49815AD8</v>
+        <v>3B0CA242</v>
       </c>
     </row>
     <row r="184" spans="2:29" x14ac:dyDescent="0.3">
@@ -18857,11 +18859,11 @@
       </c>
       <c r="R184" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>322C58F3</v>
+        <v>E6CDE353</v>
       </c>
       <c r="S184" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>6458B1E6</v>
+        <v>CD9BC6A7</v>
       </c>
       <c r="U184">
         <v>70</v>
@@ -18871,31 +18873,31 @@
       </c>
       <c r="W184" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>966F9531</v>
+        <v>6FD55C09</v>
       </c>
       <c r="X184" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>D35DF5F7</v>
+        <v>2EDE7E66</v>
       </c>
       <c r="Y184" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>D35DF5F7</v>
+        <v>2EDE7E66</v>
       </c>
       <c r="Z184" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>96258C91</v>
+        <v>F75FEFBC</v>
       </c>
       <c r="AA184" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>5391B263</v>
+        <v>2DBB78B2</v>
       </c>
       <c r="AB184" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>BA0FDC61</v>
+        <v>5B2B7601</v>
       </c>
       <c r="AC184" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>622680DD</v>
+        <v>8213C8C0</v>
       </c>
     </row>
     <row r="185" spans="2:29" x14ac:dyDescent="0.3">
@@ -18949,11 +18951,11 @@
       </c>
       <c r="R185" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>6E77FC53</v>
+        <v>5A15494B</v>
       </c>
       <c r="S185" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>DCEFF8A6</v>
+        <v>B42A9296</v>
       </c>
       <c r="U185">
         <v>71</v>
@@ -18963,31 +18965,31 @@
       </c>
       <c r="W185" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>7FBBE293</v>
+        <v>81CFE10F</v>
       </c>
       <c r="X185" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>F4F3DCE6</v>
+        <v>5E40CB00</v>
       </c>
       <c r="Y185" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>F4F3DCE6</v>
+        <v>5E40CB00</v>
       </c>
       <c r="Z185" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>D35DF5F7</v>
+        <v>2EDE7E66</v>
       </c>
       <c r="AA185" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>65896324</v>
+        <v>3DD7FBEF</v>
       </c>
       <c r="AB185" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>5391B263</v>
+        <v>2DBB78B2</v>
       </c>
       <c r="AC185" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>BA0FDC61</v>
+        <v>5B2B7601</v>
       </c>
     </row>
     <row r="186" spans="2:29" x14ac:dyDescent="0.3">
@@ -19041,11 +19043,11 @@
       </c>
       <c r="R186" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>7245D717</v>
+        <v>CB92D886</v>
       </c>
       <c r="S186" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>E48BAE2E</v>
+        <v>9725B10D</v>
       </c>
       <c r="U186">
         <v>72</v>
@@ -19055,31 +19057,31 @@
       </c>
       <c r="W186" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>E54524B0</v>
+        <v>3EB2FD3B</v>
       </c>
       <c r="X186" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>ECBF0DF3</v>
+        <v>C380462A</v>
       </c>
       <c r="Y186" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>ECBF0DF3</v>
+        <v>C380462A</v>
       </c>
       <c r="Z186" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>F4F3DCE6</v>
+        <v>5E40CB00</v>
       </c>
       <c r="AA186" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>F4D77D7D</v>
+        <v>8BB79F99</v>
       </c>
       <c r="AB186" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>65896324</v>
+        <v>3DD7FBEF</v>
       </c>
       <c r="AC186" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>5391B263</v>
+        <v>2DBB78B2</v>
       </c>
     </row>
     <row r="187" spans="2:29" x14ac:dyDescent="0.3">
@@ -19133,11 +19135,11 @@
       </c>
       <c r="R187" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>8ACDFA1B</v>
+        <v>501AD641</v>
       </c>
       <c r="S187" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>159BF437</v>
+        <v>A035AC82</v>
       </c>
       <c r="U187">
         <v>73</v>
@@ -19147,31 +19149,31 @@
       </c>
       <c r="W187" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>65ADC2BF</v>
+        <v>E820AF76</v>
       </c>
       <c r="X187" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>311FE9AC</v>
+        <v>F07D5BD8</v>
       </c>
       <c r="Y187" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>311FE9AC</v>
+        <v>F07D5BD8</v>
       </c>
       <c r="Z187" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>ECBF0DF3</v>
+        <v>C380462A</v>
       </c>
       <c r="AA187" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>BD3CF739</v>
+        <v>179032C0</v>
       </c>
       <c r="AB187" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>F4D77D7D</v>
+        <v>8BB79F99</v>
       </c>
       <c r="AC187" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>65896324</v>
+        <v>3DD7FBEF</v>
       </c>
     </row>
     <row r="188" spans="2:29" x14ac:dyDescent="0.3">
@@ -19225,11 +19227,11 @@
       </c>
       <c r="R188" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>F31A0B39</v>
+        <v>30DC11FB</v>
       </c>
       <c r="S188" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>E6341673</v>
+        <v>61B823F6</v>
       </c>
       <c r="U188">
         <v>74</v>
@@ -19239,31 +19241,31 @@
       </c>
       <c r="W188" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>A55487B7</v>
+        <v>5FA7EB73</v>
       </c>
       <c r="X188" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>DF71F8AA</v>
+        <v>D946484C</v>
       </c>
       <c r="Y188" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>DF71F8AA</v>
+        <v>D946484C</v>
       </c>
       <c r="Z188" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>311FE9AC</v>
+        <v>F07D5BD8</v>
       </c>
       <c r="AA188" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>FB2FC37C</v>
+        <v>B0E0118A</v>
       </c>
       <c r="AB188" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>BD3CF739</v>
+        <v>179032C0</v>
       </c>
       <c r="AC188" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>F4D77D7D</v>
+        <v>8BB79F99</v>
       </c>
     </row>
     <row r="189" spans="2:29" x14ac:dyDescent="0.3">
@@ -19317,11 +19319,11 @@
       </c>
       <c r="R189" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>7A18F80C</v>
+        <v>D0E374F6</v>
       </c>
       <c r="S189" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>F431F018</v>
+        <v>A1C6E9ED</v>
       </c>
       <c r="U189">
         <v>75</v>
@@ -19331,31 +19333,31 @@
       </c>
       <c r="W189" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>770CDDE9</v>
+        <v>570D7892</v>
       </c>
       <c r="X189" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>18B822AF</v>
+        <v>77B7CD89</v>
       </c>
       <c r="Y189" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>18B822AF</v>
+        <v>77B7CD89</v>
       </c>
       <c r="Z189" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>DF71F8AA</v>
+        <v>D946484C</v>
       </c>
       <c r="AA189" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>0C47FA6B</v>
+        <v>3C1F56F6</v>
       </c>
       <c r="AB189" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>FB2FC37C</v>
+        <v>B0E0118A</v>
       </c>
       <c r="AC189" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>BD3CF739</v>
+        <v>179032C0</v>
       </c>
     </row>
     <row r="190" spans="2:29" x14ac:dyDescent="0.3">
@@ -19409,11 +19411,11 @@
       </c>
       <c r="R190" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>E3166983</v>
+        <v>09E532A3</v>
       </c>
       <c r="S190" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>C62CD307</v>
+        <v>13CA6546</v>
       </c>
       <c r="U190">
         <v>76</v>
@@ -19423,31 +19425,31 @@
       </c>
       <c r="W190" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>2819C1BD</v>
+        <v>55B90F30</v>
       </c>
       <c r="X190" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>8CEAA3B6</v>
+        <v>42701A3A</v>
       </c>
       <c r="Y190" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>8CEAA3B6</v>
+        <v>42701A3A</v>
       </c>
       <c r="Z190" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>18B822AF</v>
+        <v>77B7CD89</v>
       </c>
       <c r="AA190" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>B7DC7E2A</v>
+        <v>36519213</v>
       </c>
       <c r="AB190" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>0C47FA6B</v>
+        <v>3C1F56F6</v>
       </c>
       <c r="AC190" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>FB2FC37C</v>
+        <v>B0E0118A</v>
       </c>
     </row>
     <row r="191" spans="2:29" x14ac:dyDescent="0.3">
@@ -19501,11 +19503,11 @@
       </c>
       <c r="R191" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>7F8C51F3</v>
+        <v>8D5B938B</v>
       </c>
       <c r="S191" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>FF18A3E6</v>
+        <v>1AB72717</v>
       </c>
       <c r="U191">
         <v>77</v>
@@ -19515,31 +19517,31 @@
       </c>
       <c r="W191" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>A323A6EE</v>
+        <v>7DF9096C</v>
       </c>
       <c r="X191" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>052346F7</v>
+        <v>61F64B2B</v>
       </c>
       <c r="Y191" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>052346F7</v>
+        <v>61F64B2B</v>
       </c>
       <c r="Z191" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>8CEAA3B6</v>
+        <v>42701A3A</v>
       </c>
       <c r="AA191" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>C62E08AB</v>
+        <v>5DEDF362</v>
       </c>
       <c r="AB191" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>B7DC7E2A</v>
+        <v>36519213</v>
       </c>
       <c r="AC191" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>0C47FA6B</v>
+        <v>3C1F56F6</v>
       </c>
     </row>
     <row r="192" spans="2:29" x14ac:dyDescent="0.3">
@@ -19593,11 +19595,11 @@
       </c>
       <c r="R192" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>22B900A4</v>
+        <v>6AF42598</v>
       </c>
       <c r="S192" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>45720148</v>
+        <v>D5E84B30</v>
       </c>
       <c r="U192">
         <v>78</v>
@@ -19607,31 +19609,31 @@
       </c>
       <c r="W192" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>FD18D537</v>
+        <v>29CC7B4B</v>
       </c>
       <c r="X192" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>BD9E71A0</v>
+        <v>450044B3</v>
       </c>
       <c r="Y192" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>BD9E71A0</v>
+        <v>450044B3</v>
       </c>
       <c r="Z192" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>052346F7</v>
+        <v>61F64B2B</v>
       </c>
       <c r="AA192" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>A33AA8ED</v>
+        <v>909C068E</v>
       </c>
       <c r="AB192" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>C62E08AB</v>
+        <v>5DEDF362</v>
       </c>
       <c r="AC192" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>B7DC7E2A</v>
+        <v>36519213</v>
       </c>
     </row>
     <row r="193" spans="2:29" x14ac:dyDescent="0.3">
@@ -19685,11 +19687,11 @@
       </c>
       <c r="R193" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>0B615BCE</v>
+        <v>096B6E07</v>
       </c>
       <c r="S193" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>16C2B79C</v>
+        <v>12D6DC0E</v>
       </c>
       <c r="U193">
         <v>79</v>
@@ -19699,31 +19701,31 @@
       </c>
       <c r="W193" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>6037E6B1</v>
+        <v>AC87BEC7</v>
       </c>
       <c r="X193" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>AD081264</v>
+        <v>601B8526</v>
       </c>
       <c r="Y193" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>AD081264</v>
+        <v>601B8526</v>
       </c>
       <c r="Z193" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>BD9E71A0</v>
+        <v>450044B3</v>
       </c>
       <c r="AA193" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>C148D1BD</v>
+        <v>D87D92CA</v>
       </c>
       <c r="AB193" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>A33AA8ED</v>
+        <v>909C068E</v>
       </c>
       <c r="AC193" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>C62E08AB</v>
+        <v>5DEDF362</v>
       </c>
     </row>
     <row r="194" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -19777,11 +19779,11 @@
       </c>
       <c r="R194" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>3CEAC01B</v>
+        <v>69062ABE</v>
       </c>
       <c r="S194" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>79D58036</v>
+        <v>D20C557C</v>
       </c>
       <c r="U194" s="12">
         <v>80</v>
@@ -19791,31 +19793,31 @@
       </c>
       <c r="W194" s="13" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>DFEC08F0</v>
+        <v>0DE1D0F7</v>
       </c>
       <c r="X194" s="12" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>8B54A03C</v>
+        <v>0BAF8077</v>
       </c>
       <c r="Y194" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>8B54A03C</v>
+        <v>0BAF8077</v>
       </c>
       <c r="Z194" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>AD081264</v>
+        <v>601B8526</v>
       </c>
       <c r="AA194" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>2F679C68</v>
+        <v>D140112C</v>
       </c>
       <c r="AB194" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>C148D1BD</v>
+        <v>D87D92CA</v>
       </c>
       <c r="AC194" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>A33AA8ED</v>
+        <v>909C068E</v>
       </c>
     </row>
     <row r="195" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -19847,23 +19849,23 @@
       </c>
       <c r="Y195" s="21" t="str">
         <f t="shared" ref="Y195:AC195" ca="1" si="160">DEC2HEX(_xlfn.BITAND(HEX2DEC(Y194)+HEX2DEC(Y114),4294967295),8)</f>
-        <v>99EAE9F7</v>
+        <v>1A45CA32</v>
       </c>
       <c r="Z195" s="22" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>31ADA758</v>
+        <v>E4C11A1A</v>
       </c>
       <c r="AA195" s="22" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>34D8C65B</v>
+        <v>D6B13B1F</v>
       </c>
       <c r="AB195" s="22" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>B1F76F04</v>
+        <v>C92C3011</v>
       </c>
       <c r="AC195" s="6" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>02E4DC12</v>
+        <v>F04639B3</v>
       </c>
     </row>
     <row r="196" spans="2:29" x14ac:dyDescent="0.3">
@@ -19873,7 +19875,7 @@
       </c>
       <c r="Y196" t="str">
         <f ca="1">Y195&amp;Z195&amp;AA195&amp;AB195&amp;AC195</f>
-        <v>99EAE9F731ADA75834D8C65BB1F76F0402E4DC12</v>
+        <v>1A45CA32E4C11A1AD6B13B1FC92C3011F04639B3</v>
       </c>
     </row>
   </sheetData>

--- a/TOTP.xlsx
+++ b/TOTP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\工程文件\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9797952-BC22-404D-889D-BF98CE09A418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24373D3-DBEC-4AA1-BF84-DDB181848DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="382" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SHA1_Calculation" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOTP!$A$5:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TOTP!$A$5:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -957,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1017,9 +1017,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1067,15 +1064,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,100 +1400,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="53">
+      <c r="A1" s="52">
         <f ca="1">NOW()</f>
-        <v>45954.935742708331</v>
-      </c>
-      <c r="B1" s="44" t="str">
+        <v>45957.61697210648</v>
+      </c>
+      <c r="B1" s="43" t="str">
         <f ca="1">DEC2HEX(INT(A2/_xlfn.XLOOKUP($A$4,$A$6:$A$205,$B$6:$B$205,30)))</f>
-        <v>37FDA06</v>
-      </c>
-      <c r="C1" s="44" t="str" cm="1">
+        <v>37FF830</v>
+      </c>
+      <c r="C1" s="43" t="str" cm="1">
         <f t="array" ref="C1">SUBSTITUTE(_xlfn.XLOOKUP($A$4,$A$6:$A$205,$D$6:$D$205,AAAA), " ", "")</f>
         <v>ABCDEFGHIJKLMNOPQRSTUVWXYZ234567</v>
       </c>
-      <c r="D1" s="45" t="str" cm="1">
+      <c r="D1" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="D1" ca="1">_xlfn.TEXTJOIN("", TRUE, DEC2HEX(BIN2DEC(MID(C2, _xlfn.SEQUENCE(LEN(C2)/4, 1, 1, 4), 4))))</f>
         <v>00443214C74254B635CF84653A56D7C675BE77DF</v>
       </c>
-      <c r="E1" s="46" t="str" cm="1">
+      <c r="E1" s="45" t="str" cm="1">
         <f t="array" aca="1" ref="E1" ca="1" xml:space="preserve"> _xlfn.TEXTJOIN("", TRUE, _xlfn.MAP(_xlfn.SEQUENCE(64), _xlfn.LAMBDA(_xlpm.i, DEC2HEX(_xlfn.BITXOR(HEX2DEC(MID(D2, 2*(_xlpm.i-1)+1, 2)), HEX2DEC("36")), 2))))</f>
         <v>36720422F174628003F9B2530C60E1F0438841E93636363636363636363636363636363636363636363636363636363636363636363636363636363636363636</v>
       </c>
-      <c r="F1" s="46" t="str">
+      <c r="F1" s="45" t="str">
         <f ca="1" xml:space="preserve"> E1 &amp; B2</f>
-        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FDA06</v>
-      </c>
-      <c r="G1" s="47" t="str">
+        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FF830</v>
+      </c>
+      <c r="G1" s="46" t="str">
         <f ca="1">SHA1_Calculation!A12</f>
-        <v>021BE345A9EBB97E6D1D59BD4B10FD8BC02AD441</v>
+        <v>14A08A70AEA5F1C0E63FBABA69151665248B2BEE</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="24">
         <f ca="1">(NOW()-DATE(1970,1,1))*86400-B4*3600</f>
-        <v>1761316048.1699998</v>
-      </c>
-      <c r="B2" s="48" t="str">
+        <v>1761547706.3899999</v>
+      </c>
+      <c r="B2" s="47" t="str">
         <f ca="1">REPT("0",16-LEN(B1))&amp;B1</f>
-        <v>00000000037FDA06</v>
-      </c>
-      <c r="C2" s="48" t="str" cm="1">
+        <v>00000000037FF830</v>
+      </c>
+      <c r="C2" s="47" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_xlfn.TEXTJOIN("",TRUE,_xlfn.XLOOKUP((MID(C1,ROW(INDIRECT("1:"&amp;LEN(C1))),1)),H5:H36,I5:I36))</f>
         <v>0000000001000100001100100001010011000111010000100101010010110110001101011100111110000100011001010011101001010110110101111100011001110101101111100111011111011111</v>
       </c>
-      <c r="D2" s="49" t="str">
+      <c r="D2" s="48" t="str">
         <f ca="1">D1 &amp; REPT("00", 64 - LEN(D1)/2)</f>
         <v>00443214C74254B635CF84653A56D7C675BE77DF0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
-      <c r="E2" s="50" t="str" cm="1">
+      <c r="E2" s="49" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.TEXTJOIN("", TRUE, _xlfn.MAP(_xlfn.SEQUENCE(64), _xlfn.LAMBDA(_xlpm.i, DEC2HEX(_xlfn.BITXOR(HEX2DEC(MID(D2, 2*(_xlpm.i-1)+1, 2)), HEX2DEC("5C")), 2))))</f>
         <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C</v>
       </c>
-      <c r="F2" s="50" t="str">
+      <c r="F2" s="49" t="str">
         <f ca="1" xml:space="preserve"> E2 &amp; G1</f>
-        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C021BE345A9EBB97E6D1D59BD4B10FD8BC02AD441</v>
-      </c>
-      <c r="G2" s="47" t="str">
+        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C14A08A70AEA5F1C0E63FBABA69151665248B2BEE</v>
+      </c>
+      <c r="G2" s="46" t="str">
         <f ca="1">SHA1_Calculation!A112</f>
-        <v>D6B596198FE64103A1A13D9B1E87C04063699635</v>
+        <v>21D2DC14575B3E0262FD1AB425A532D3A0D8E3BF</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="50">
         <f ca="1" xml:space="preserve"> _xlfn.BITAND(HEX2DEC(RIGHT(G2, 2)), 15)* 2 + 1</f>
-        <v>11</v>
-      </c>
-      <c r="D3" s="52">
+        <v>31</v>
+      </c>
+      <c r="D3" s="51">
         <f>_xlfn.XLOOKUP($A$4,$A$6:$A$205,$C$6:$C$205,6)</f>
         <v>6</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <f ca="1">MOD( _xlfn.BITAND( HEX2DEC(MID(G2, C3, 8)), HEX2DEC("7FFFFFFF")), POWER(10,D3))</f>
-        <v>536801</v>
+        <v>50211</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>8</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="57" t="str">
+      <c r="D4" s="56" t="str">
         <f>IF( About!C3="Good to go", REPT("0",D3-LEN(E3))&amp;E3, "Go to About sheet first")</f>
         <v>Go to About sheet first</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
@@ -1511,7 +1508,7 @@
       <c r="D5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="35" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="23" t="str">
@@ -1544,7 +1541,7 @@
       <c r="D6" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="23" t="str">
@@ -1574,7 +1571,7 @@
         <v/>
       </c>
       <c r="D7" s="32"/>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="23" t="str">
@@ -1599,8 +1596,8 @@
         <f t="shared" ref="C8:C71" si="1">IF(ISBLANK(D8),"",6)</f>
         <v/>
       </c>
-      <c r="D8" s="33"/>
-      <c r="H8" s="36" t="s">
+      <c r="D8" s="32"/>
+      <c r="H8" s="35" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="23" t="str">
@@ -1625,8 +1622,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D9" s="33"/>
-      <c r="H9" s="36" t="s">
+      <c r="D9" s="32"/>
+      <c r="H9" s="35" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="23" t="str">
@@ -1651,8 +1648,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D10" s="33"/>
-      <c r="H10" s="36" t="s">
+      <c r="D10" s="32"/>
+      <c r="H10" s="35" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="23" t="str">
@@ -1677,8 +1674,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D11" s="33"/>
-      <c r="H11" s="36" t="s">
+      <c r="D11" s="32"/>
+      <c r="H11" s="35" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="23" t="str">
@@ -1704,7 +1701,7 @@
         <v/>
       </c>
       <c r="D12" s="32"/>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="35" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="23" t="str">
@@ -1729,8 +1726,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="33"/>
-      <c r="H13" s="36" t="s">
+      <c r="D13" s="32"/>
+      <c r="H13" s="35" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="23" t="str">
@@ -1755,8 +1752,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="33"/>
-      <c r="H14" s="36" t="s">
+      <c r="D14" s="32"/>
+      <c r="H14" s="35" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="23" t="str">
@@ -1781,8 +1778,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="33"/>
-      <c r="H15" s="37" t="s">
+      <c r="D15" s="32"/>
+      <c r="H15" s="36" t="s">
         <v>134</v>
       </c>
       <c r="I15" s="23" t="str">
@@ -1807,8 +1804,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="33"/>
-      <c r="H16" s="36" t="s">
+      <c r="D16" s="32"/>
+      <c r="H16" s="35" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="23" t="str">
@@ -1834,7 +1831,7 @@
         <v/>
       </c>
       <c r="D17" s="32"/>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="35" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="23" t="str">
@@ -1859,8 +1856,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D18" s="33"/>
-      <c r="H18" s="36" t="s">
+      <c r="D18" s="32"/>
+      <c r="H18" s="35" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="23" t="str">
@@ -1885,8 +1882,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D19" s="33"/>
-      <c r="H19" s="36" t="s">
+      <c r="D19" s="32"/>
+      <c r="H19" s="35" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="23" t="str">
@@ -1911,8 +1908,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D20" s="33"/>
-      <c r="H20" s="36" t="s">
+      <c r="D20" s="32"/>
+      <c r="H20" s="35" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="23" t="str">
@@ -1937,8 +1934,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D21" s="33"/>
-      <c r="H21" s="36" t="s">
+      <c r="D21" s="32"/>
+      <c r="H21" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="23" t="str">
@@ -1964,7 +1961,7 @@
         <v/>
       </c>
       <c r="D22" s="32"/>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="23" t="str">
@@ -1989,8 +1986,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D23" s="33"/>
-      <c r="H23" s="36" t="s">
+      <c r="D23" s="32"/>
+      <c r="H23" s="35" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="23" t="str">
@@ -2015,8 +2012,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D24" s="33"/>
-      <c r="H24" s="36" t="s">
+      <c r="D24" s="32"/>
+      <c r="H24" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I24" s="23" t="str">
@@ -2041,8 +2038,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D25" s="33"/>
-      <c r="H25" s="36" t="s">
+      <c r="D25" s="32"/>
+      <c r="H25" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="23" t="str">
@@ -2067,8 +2064,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D26" s="33"/>
-      <c r="H26" s="36" t="s">
+      <c r="D26" s="32"/>
+      <c r="H26" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="23" t="str">
@@ -2094,7 +2091,7 @@
         <v/>
       </c>
       <c r="D27" s="32"/>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="23" t="str">
@@ -2119,8 +2116,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D28" s="33"/>
-      <c r="H28" s="36" t="s">
+      <c r="D28" s="32"/>
+      <c r="H28" s="35" t="s">
         <v>28</v>
       </c>
       <c r="I28" s="23" t="str">
@@ -2145,8 +2142,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D29" s="33"/>
-      <c r="H29" s="36" t="s">
+      <c r="D29" s="32"/>
+      <c r="H29" s="35" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="23" t="str">
@@ -2171,8 +2168,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D30" s="33"/>
-      <c r="H30" s="36" t="s">
+      <c r="D30" s="32"/>
+      <c r="H30" s="35" t="s">
         <v>30</v>
       </c>
       <c r="I30" s="23" t="str">
@@ -2197,8 +2194,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D31" s="33"/>
-      <c r="H31" s="37" t="s">
+      <c r="D31" s="32"/>
+      <c r="H31" s="36" t="s">
         <v>129</v>
       </c>
       <c r="I31" s="23" t="str">
@@ -2224,7 +2221,7 @@
         <v/>
       </c>
       <c r="D32" s="32"/>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="36" t="s">
         <v>128</v>
       </c>
       <c r="I32" s="23" t="str">
@@ -2249,8 +2246,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D33" s="33"/>
-      <c r="H33" s="37" t="s">
+      <c r="D33" s="32"/>
+      <c r="H33" s="36" t="s">
         <v>130</v>
       </c>
       <c r="I33" s="23" t="str">
@@ -2275,8 +2272,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D34" s="33"/>
-      <c r="H34" s="37" t="s">
+      <c r="D34" s="32"/>
+      <c r="H34" s="36" t="s">
         <v>133</v>
       </c>
       <c r="I34" s="23" t="str">
@@ -2301,8 +2298,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D35" s="33"/>
-      <c r="H35" s="37" t="s">
+      <c r="D35" s="32"/>
+      <c r="H35" s="36" t="s">
         <v>132</v>
       </c>
       <c r="I35" s="23" t="str">
@@ -2327,8 +2324,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D36" s="33"/>
-      <c r="H36" s="37" t="s">
+      <c r="D36" s="32"/>
+      <c r="H36" s="36" t="s">
         <v>131</v>
       </c>
       <c r="I36" s="23" t="str">
@@ -2369,7 +2366,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="32"/>
       <c r="K38" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K38))),INDIRECT("A"&amp;ROW(K38)),"")</f>
         <v/>
@@ -2385,7 +2382,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D39" s="33"/>
+      <c r="D39" s="32"/>
       <c r="K39" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K39" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K39))),INDIRECT("A"&amp;ROW(K39)),"")</f>
         <v/>
@@ -2401,7 +2398,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D40" s="33"/>
+      <c r="D40" s="32"/>
       <c r="K40" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K40))),INDIRECT("A"&amp;ROW(K40)),"")</f>
         <v/>
@@ -2417,7 +2414,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D41" s="33"/>
+      <c r="D41" s="32"/>
       <c r="K41" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K41))),INDIRECT("A"&amp;ROW(K41)),"")</f>
         <v/>
@@ -2449,7 +2446,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D43" s="33"/>
+      <c r="D43" s="32"/>
       <c r="K43" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K43))),INDIRECT("A"&amp;ROW(K43)),"")</f>
         <v/>
@@ -2465,7 +2462,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D44" s="33"/>
+      <c r="D44" s="32"/>
       <c r="K44" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K44))),INDIRECT("A"&amp;ROW(K44)),"")</f>
         <v/>
@@ -2481,7 +2478,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D45" s="33"/>
+      <c r="D45" s="32"/>
       <c r="K45" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K45" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K45))),INDIRECT("A"&amp;ROW(K45)),"")</f>
         <v/>
@@ -2497,7 +2494,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D46" s="33"/>
+      <c r="D46" s="32"/>
       <c r="K46" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K46" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K46))),INDIRECT("A"&amp;ROW(K46)),"")</f>
         <v/>
@@ -2529,7 +2526,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="32"/>
       <c r="K48" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K48" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K48))),INDIRECT("A"&amp;ROW(K48)),"")</f>
         <v/>
@@ -2545,7 +2542,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D49" s="33"/>
+      <c r="D49" s="32"/>
       <c r="K49" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K49" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K49))),INDIRECT("A"&amp;ROW(K49)),"")</f>
         <v/>
@@ -2561,7 +2558,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D50" s="33"/>
+      <c r="D50" s="32"/>
       <c r="K50" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K50" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K50))),INDIRECT("A"&amp;ROW(K50)),"")</f>
         <v/>
@@ -2577,7 +2574,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D51" s="33"/>
+      <c r="D51" s="32"/>
       <c r="K51" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K51" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K51))),INDIRECT("A"&amp;ROW(K51)),"")</f>
         <v/>
@@ -2609,7 +2606,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D53" s="33"/>
+      <c r="D53" s="32"/>
       <c r="K53" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K53" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K53))),INDIRECT("A"&amp;ROW(K53)),"")</f>
         <v/>
@@ -2625,7 +2622,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D54" s="33"/>
+      <c r="D54" s="32"/>
       <c r="K54" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K54" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K54))),INDIRECT("A"&amp;ROW(K54)),"")</f>
         <v/>
@@ -2641,7 +2638,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D55" s="33"/>
+      <c r="D55" s="32"/>
       <c r="K55" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K55" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K55))),INDIRECT("A"&amp;ROW(K55)),"")</f>
         <v/>
@@ -2657,7 +2654,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D56" s="33"/>
+      <c r="D56" s="32"/>
       <c r="K56" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K56" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K56))),INDIRECT("A"&amp;ROW(K56)),"")</f>
         <v/>
@@ -2689,7 +2686,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D58" s="33"/>
+      <c r="D58" s="32"/>
       <c r="K58" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K58" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K58))),INDIRECT("A"&amp;ROW(K58)),"")</f>
         <v/>
@@ -2705,7 +2702,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D59" s="33"/>
+      <c r="D59" s="32"/>
       <c r="K59" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K59" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K59))),INDIRECT("A"&amp;ROW(K59)),"")</f>
         <v/>
@@ -2721,7 +2718,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D60" s="33"/>
+      <c r="D60" s="32"/>
       <c r="K60" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K60" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K60))),INDIRECT("A"&amp;ROW(K60)),"")</f>
         <v/>
@@ -2737,7 +2734,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D61" s="33"/>
+      <c r="D61" s="32"/>
       <c r="K61" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K61" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K61))),INDIRECT("A"&amp;ROW(K61)),"")</f>
         <v/>
@@ -2769,7 +2766,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D63" s="33"/>
+      <c r="D63" s="32"/>
       <c r="K63" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K63" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K63))),INDIRECT("A"&amp;ROW(K63)),"")</f>
         <v/>
@@ -2785,7 +2782,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D64" s="33"/>
+      <c r="D64" s="32"/>
       <c r="K64" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K64" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K64))),INDIRECT("A"&amp;ROW(K64)),"")</f>
         <v/>
@@ -2801,7 +2798,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D65" s="33"/>
+      <c r="D65" s="32"/>
       <c r="K65" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K65" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K65))),INDIRECT("A"&amp;ROW(K65)),"")</f>
         <v/>
@@ -2817,7 +2814,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D66" s="33"/>
+      <c r="D66" s="32"/>
       <c r="K66" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K66" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K66))),INDIRECT("A"&amp;ROW(K66)),"")</f>
         <v/>
@@ -2849,7 +2846,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D68" s="33"/>
+      <c r="D68" s="32"/>
       <c r="K68" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K68" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K68))),INDIRECT("A"&amp;ROW(K68)),"")</f>
         <v/>
@@ -2865,7 +2862,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D69" s="33"/>
+      <c r="D69" s="32"/>
       <c r="K69" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K69" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K69))),INDIRECT("A"&amp;ROW(K69)),"")</f>
         <v/>
@@ -2881,7 +2878,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D70" s="33"/>
+      <c r="D70" s="32"/>
       <c r="K70" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K70" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K70))),INDIRECT("A"&amp;ROW(K70)),"")</f>
         <v/>
@@ -2897,7 +2894,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D71" s="33"/>
+      <c r="D71" s="32"/>
       <c r="K71" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K71" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K71))),INDIRECT("A"&amp;ROW(K71)),"")</f>
         <v/>
@@ -2929,7 +2926,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D73" s="33"/>
+      <c r="D73" s="32"/>
       <c r="K73" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K73" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K73))),INDIRECT("A"&amp;ROW(K73)),"")</f>
         <v/>
@@ -2945,7 +2942,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D74" s="33"/>
+      <c r="D74" s="32"/>
       <c r="K74" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K74" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K74))),INDIRECT("A"&amp;ROW(K74)),"")</f>
         <v/>
@@ -2961,7 +2958,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D75" s="33"/>
+      <c r="D75" s="32"/>
       <c r="K75" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K75" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K75))),INDIRECT("A"&amp;ROW(K75)),"")</f>
         <v/>
@@ -2977,7 +2974,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D76" s="33"/>
+      <c r="D76" s="32"/>
       <c r="K76" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K76" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K76))),INDIRECT("A"&amp;ROW(K76)),"")</f>
         <v/>
@@ -3009,7 +3006,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D78" s="33"/>
+      <c r="D78" s="32"/>
       <c r="K78" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K78" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K78))),INDIRECT("A"&amp;ROW(K78)),"")</f>
         <v/>
@@ -3025,7 +3022,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D79" s="33"/>
+      <c r="D79" s="32"/>
       <c r="K79" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K79" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K79))),INDIRECT("A"&amp;ROW(K79)),"")</f>
         <v/>
@@ -3041,7 +3038,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D80" s="33"/>
+      <c r="D80" s="32"/>
       <c r="K80" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K80" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K80))),INDIRECT("A"&amp;ROW(K80)),"")</f>
         <v/>
@@ -3057,7 +3054,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D81" s="33"/>
+      <c r="D81" s="32"/>
       <c r="K81" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K81" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K81))),INDIRECT("A"&amp;ROW(K81)),"")</f>
         <v/>
@@ -3089,7 +3086,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D83" s="33"/>
+      <c r="D83" s="32"/>
       <c r="K83" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K83" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K83))),INDIRECT("A"&amp;ROW(K83)),"")</f>
         <v/>
@@ -3105,7 +3102,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D84" s="33"/>
+      <c r="D84" s="32"/>
       <c r="K84" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K84" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K84))),INDIRECT("A"&amp;ROW(K84)),"")</f>
         <v/>
@@ -3121,7 +3118,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D85" s="33"/>
+      <c r="D85" s="32"/>
       <c r="K85" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K85" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K85))),INDIRECT("A"&amp;ROW(K85)),"")</f>
         <v/>
@@ -3137,7 +3134,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D86" s="33"/>
+      <c r="D86" s="32"/>
       <c r="K86" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K86" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K86))),INDIRECT("A"&amp;ROW(K86)),"")</f>
         <v/>
@@ -3169,7 +3166,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D88" s="33"/>
+      <c r="D88" s="32"/>
       <c r="K88" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K88" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K88))),INDIRECT("A"&amp;ROW(K88)),"")</f>
         <v/>
@@ -3185,7 +3182,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D89" s="33"/>
+      <c r="D89" s="32"/>
       <c r="K89" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K89" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K89))),INDIRECT("A"&amp;ROW(K89)),"")</f>
         <v/>
@@ -3201,7 +3198,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D90" s="33"/>
+      <c r="D90" s="32"/>
       <c r="K90" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K90" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K90))),INDIRECT("A"&amp;ROW(K90)),"")</f>
         <v/>
@@ -3217,7 +3214,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D91" s="33"/>
+      <c r="D91" s="32"/>
       <c r="K91" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K91" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K91))),INDIRECT("A"&amp;ROW(K91)),"")</f>
         <v/>
@@ -3249,7 +3246,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D93" s="33"/>
+      <c r="D93" s="32"/>
       <c r="K93" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K93" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K93))),INDIRECT("A"&amp;ROW(K93)),"")</f>
         <v/>
@@ -3265,7 +3262,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D94" s="33"/>
+      <c r="D94" s="32"/>
       <c r="K94" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K94" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K94))),INDIRECT("A"&amp;ROW(K94)),"")</f>
         <v/>
@@ -3281,7 +3278,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D95" s="33"/>
+      <c r="D95" s="32"/>
       <c r="K95" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K95" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K95))),INDIRECT("A"&amp;ROW(K95)),"")</f>
         <v/>
@@ -3297,7 +3294,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D96" s="33"/>
+      <c r="D96" s="32"/>
       <c r="K96" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K96" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K96))),INDIRECT("A"&amp;ROW(K96)),"")</f>
         <v/>
@@ -3329,7 +3326,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D98" s="33"/>
+      <c r="D98" s="32"/>
       <c r="K98" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K98" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K98))),INDIRECT("A"&amp;ROW(K98)),"")</f>
         <v/>
@@ -3345,7 +3342,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D99" s="33"/>
+      <c r="D99" s="32"/>
       <c r="K99" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K99" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K99))),INDIRECT("A"&amp;ROW(K99)),"")</f>
         <v/>
@@ -3361,7 +3358,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D100" s="33"/>
+      <c r="D100" s="32"/>
       <c r="K100" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K100" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K100))),INDIRECT("A"&amp;ROW(K100)),"")</f>
         <v/>
@@ -3377,7 +3374,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D101" s="33"/>
+      <c r="D101" s="32"/>
       <c r="K101" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K101" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K101))),INDIRECT("A"&amp;ROW(K101)),"")</f>
         <v/>
@@ -3409,7 +3406,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D103" s="33"/>
+      <c r="D103" s="32"/>
       <c r="K103" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K103" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K103))),INDIRECT("A"&amp;ROW(K103)),"")</f>
         <v/>
@@ -3425,7 +3422,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D104" s="33"/>
+      <c r="D104" s="32"/>
       <c r="K104" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K104" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K104))),INDIRECT("A"&amp;ROW(K104)),"")</f>
         <v/>
@@ -3441,7 +3438,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D105" s="33"/>
+      <c r="D105" s="32"/>
       <c r="K105" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K105" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K105))),INDIRECT("A"&amp;ROW(K105)),"")</f>
         <v/>
@@ -3457,7 +3454,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D106" s="33"/>
+      <c r="D106" s="32"/>
       <c r="K106" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K106" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K106))),INDIRECT("A"&amp;ROW(K106)),"")</f>
         <v/>
@@ -3489,7 +3486,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D108" s="33"/>
+      <c r="D108" s="32"/>
       <c r="K108" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K108" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K108))),INDIRECT("A"&amp;ROW(K108)),"")</f>
         <v/>
@@ -3505,7 +3502,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D109" s="33"/>
+      <c r="D109" s="32"/>
       <c r="K109" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K109" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K109))),INDIRECT("A"&amp;ROW(K109)),"")</f>
         <v/>
@@ -3521,7 +3518,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D110" s="33"/>
+      <c r="D110" s="32"/>
       <c r="K110" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K110" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K110))),INDIRECT("A"&amp;ROW(K110)),"")</f>
         <v/>
@@ -3537,7 +3534,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D111" s="33"/>
+      <c r="D111" s="32"/>
       <c r="K111" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K111" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K111))),INDIRECT("A"&amp;ROW(K111)),"")</f>
         <v/>
@@ -3569,7 +3566,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D113" s="33"/>
+      <c r="D113" s="32"/>
       <c r="K113" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K113" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K113))),INDIRECT("A"&amp;ROW(K113)),"")</f>
         <v/>
@@ -3585,7 +3582,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D114" s="33"/>
+      <c r="D114" s="32"/>
       <c r="K114" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K114" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K114))),INDIRECT("A"&amp;ROW(K114)),"")</f>
         <v/>
@@ -3601,7 +3598,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D115" s="33"/>
+      <c r="D115" s="32"/>
       <c r="K115" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K115" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K115))),INDIRECT("A"&amp;ROW(K115)),"")</f>
         <v/>
@@ -3617,7 +3614,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D116" s="33"/>
+      <c r="D116" s="32"/>
       <c r="K116" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K116" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K116))),INDIRECT("A"&amp;ROW(K116)),"")</f>
         <v/>
@@ -3649,7 +3646,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D118" s="33"/>
+      <c r="D118" s="32"/>
       <c r="K118" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K118" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K118))),INDIRECT("A"&amp;ROW(K118)),"")</f>
         <v/>
@@ -3665,7 +3662,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D119" s="33"/>
+      <c r="D119" s="32"/>
       <c r="K119" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K119" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K119))),INDIRECT("A"&amp;ROW(K119)),"")</f>
         <v/>
@@ -3681,7 +3678,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D120" s="33"/>
+      <c r="D120" s="32"/>
       <c r="K120" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K120" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K120))),INDIRECT("A"&amp;ROW(K120)),"")</f>
         <v/>
@@ -3697,7 +3694,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D121" s="33"/>
+      <c r="D121" s="32"/>
       <c r="K121" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K121" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K121))),INDIRECT("A"&amp;ROW(K121)),"")</f>
         <v/>
@@ -3729,7 +3726,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D123" s="33"/>
+      <c r="D123" s="32"/>
       <c r="K123" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K123" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K123))),INDIRECT("A"&amp;ROW(K123)),"")</f>
         <v/>
@@ -3745,7 +3742,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D124" s="33"/>
+      <c r="D124" s="32"/>
       <c r="K124" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K124" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K124))),INDIRECT("A"&amp;ROW(K124)),"")</f>
         <v/>
@@ -3761,7 +3758,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D125" s="33"/>
+      <c r="D125" s="32"/>
       <c r="K125" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K125" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K125))),INDIRECT("A"&amp;ROW(K125)),"")</f>
         <v/>
@@ -3777,7 +3774,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D126" s="33"/>
+      <c r="D126" s="32"/>
       <c r="K126" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K126" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K126))),INDIRECT("A"&amp;ROW(K126)),"")</f>
         <v/>
@@ -3809,7 +3806,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D128" s="33"/>
+      <c r="D128" s="32"/>
       <c r="K128" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K128" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K128))),INDIRECT("A"&amp;ROW(K128)),"")</f>
         <v/>
@@ -3825,7 +3822,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D129" s="33"/>
+      <c r="D129" s="32"/>
       <c r="K129" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K129" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K129))),INDIRECT("A"&amp;ROW(K129)),"")</f>
         <v/>
@@ -3841,7 +3838,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D130" s="33"/>
+      <c r="D130" s="32"/>
       <c r="K130" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K130" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K130))),INDIRECT("A"&amp;ROW(K130)),"")</f>
         <v/>
@@ -3857,7 +3854,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D131" s="33"/>
+      <c r="D131" s="32"/>
       <c r="K131" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K131" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K131))),INDIRECT("A"&amp;ROW(K131)),"")</f>
         <v/>
@@ -3889,7 +3886,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D133" s="33"/>
+      <c r="D133" s="32"/>
       <c r="K133" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K133" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K133))),INDIRECT("A"&amp;ROW(K133)),"")</f>
         <v/>
@@ -3905,7 +3902,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D134" s="33"/>
+      <c r="D134" s="32"/>
       <c r="K134" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K134" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K134))),INDIRECT("A"&amp;ROW(K134)),"")</f>
         <v/>
@@ -3921,7 +3918,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D135" s="33"/>
+      <c r="D135" s="32"/>
       <c r="K135" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K135" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K135))),INDIRECT("A"&amp;ROW(K135)),"")</f>
         <v/>
@@ -3937,7 +3934,7 @@
         <f t="shared" ref="C136:C199" si="6">IF(ISBLANK(D136),"",6)</f>
         <v/>
       </c>
-      <c r="D136" s="33"/>
+      <c r="D136" s="32"/>
       <c r="K136" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K136" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K136))),INDIRECT("A"&amp;ROW(K136)),"")</f>
         <v/>
@@ -3969,7 +3966,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D138" s="33"/>
+      <c r="D138" s="32"/>
       <c r="K138" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K138" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K138))),INDIRECT("A"&amp;ROW(K138)),"")</f>
         <v/>
@@ -3985,7 +3982,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D139" s="33"/>
+      <c r="D139" s="32"/>
       <c r="K139" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K139" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K139))),INDIRECT("A"&amp;ROW(K139)),"")</f>
         <v/>
@@ -4001,7 +3998,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D140" s="33"/>
+      <c r="D140" s="32"/>
       <c r="K140" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K140" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K140))),INDIRECT("A"&amp;ROW(K140)),"")</f>
         <v/>
@@ -4017,7 +4014,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D141" s="33"/>
+      <c r="D141" s="32"/>
       <c r="K141" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K141" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K141))),INDIRECT("A"&amp;ROW(K141)),"")</f>
         <v/>
@@ -4049,7 +4046,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D143" s="33"/>
+      <c r="D143" s="32"/>
       <c r="K143" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K143" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K143))),INDIRECT("A"&amp;ROW(K143)),"")</f>
         <v/>
@@ -4065,7 +4062,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D144" s="33"/>
+      <c r="D144" s="32"/>
       <c r="K144" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K144" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K144))),INDIRECT("A"&amp;ROW(K144)),"")</f>
         <v/>
@@ -4081,7 +4078,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D145" s="33"/>
+      <c r="D145" s="32"/>
       <c r="K145" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K145" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K145))),INDIRECT("A"&amp;ROW(K145)),"")</f>
         <v/>
@@ -4097,7 +4094,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D146" s="33"/>
+      <c r="D146" s="32"/>
       <c r="K146" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K146" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K146))),INDIRECT("A"&amp;ROW(K146)),"")</f>
         <v/>
@@ -4129,7 +4126,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D148" s="33"/>
+      <c r="D148" s="32"/>
       <c r="K148" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K148" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K148))),INDIRECT("A"&amp;ROW(K148)),"")</f>
         <v/>
@@ -4145,7 +4142,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D149" s="33"/>
+      <c r="D149" s="32"/>
       <c r="K149" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K149" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K149))),INDIRECT("A"&amp;ROW(K149)),"")</f>
         <v/>
@@ -4161,7 +4158,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D150" s="33"/>
+      <c r="D150" s="32"/>
       <c r="K150" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K150" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K150))),INDIRECT("A"&amp;ROW(K150)),"")</f>
         <v/>
@@ -4177,7 +4174,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D151" s="33"/>
+      <c r="D151" s="32"/>
       <c r="K151" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K151" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K151))),INDIRECT("A"&amp;ROW(K151)),"")</f>
         <v/>
@@ -4209,7 +4206,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D153" s="33"/>
+      <c r="D153" s="32"/>
       <c r="K153" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K153" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K153))),INDIRECT("A"&amp;ROW(K153)),"")</f>
         <v/>
@@ -4225,7 +4222,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D154" s="33"/>
+      <c r="D154" s="32"/>
       <c r="K154" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K154" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K154))),INDIRECT("A"&amp;ROW(K154)),"")</f>
         <v/>
@@ -4241,7 +4238,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D155" s="33"/>
+      <c r="D155" s="32"/>
       <c r="K155" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K155" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K155))),INDIRECT("A"&amp;ROW(K155)),"")</f>
         <v/>
@@ -4257,7 +4254,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D156" s="33"/>
+      <c r="D156" s="32"/>
       <c r="K156" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K156" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K156))),INDIRECT("A"&amp;ROW(K156)),"")</f>
         <v/>
@@ -4289,7 +4286,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D158" s="33"/>
+      <c r="D158" s="32"/>
       <c r="K158" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K158" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K158))),INDIRECT("A"&amp;ROW(K158)),"")</f>
         <v/>
@@ -4305,7 +4302,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D159" s="33"/>
+      <c r="D159" s="32"/>
       <c r="K159" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K159" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K159))),INDIRECT("A"&amp;ROW(K159)),"")</f>
         <v/>
@@ -4321,7 +4318,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D160" s="33"/>
+      <c r="D160" s="32"/>
       <c r="K160" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K160" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K160))),INDIRECT("A"&amp;ROW(K160)),"")</f>
         <v/>
@@ -4337,7 +4334,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D161" s="33"/>
+      <c r="D161" s="32"/>
       <c r="K161" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K161" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K161))),INDIRECT("A"&amp;ROW(K161)),"")</f>
         <v/>
@@ -4369,7 +4366,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D163" s="33"/>
+      <c r="D163" s="32"/>
       <c r="K163" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K163" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K163))),INDIRECT("A"&amp;ROW(K163)),"")</f>
         <v/>
@@ -4385,7 +4382,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D164" s="33"/>
+      <c r="D164" s="32"/>
       <c r="K164" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K164" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K164))),INDIRECT("A"&amp;ROW(K164)),"")</f>
         <v/>
@@ -4401,7 +4398,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D165" s="33"/>
+      <c r="D165" s="32"/>
       <c r="K165" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K165" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K165))),INDIRECT("A"&amp;ROW(K165)),"")</f>
         <v/>
@@ -4417,7 +4414,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D166" s="33"/>
+      <c r="D166" s="32"/>
       <c r="K166" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K166" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K166))),INDIRECT("A"&amp;ROW(K166)),"")</f>
         <v/>
@@ -4449,7 +4446,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D168" s="33"/>
+      <c r="D168" s="32"/>
       <c r="K168" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K168" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K168))),INDIRECT("A"&amp;ROW(K168)),"")</f>
         <v/>
@@ -4465,7 +4462,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D169" s="33"/>
+      <c r="D169" s="32"/>
       <c r="K169" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K169" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K169))),INDIRECT("A"&amp;ROW(K169)),"")</f>
         <v/>
@@ -4481,7 +4478,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D170" s="33"/>
+      <c r="D170" s="32"/>
       <c r="K170" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K170" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K170))),INDIRECT("A"&amp;ROW(K170)),"")</f>
         <v/>
@@ -4497,7 +4494,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D171" s="33"/>
+      <c r="D171" s="32"/>
       <c r="K171" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K171" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K171))),INDIRECT("A"&amp;ROW(K171)),"")</f>
         <v/>
@@ -4529,7 +4526,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D173" s="33"/>
+      <c r="D173" s="32"/>
       <c r="K173" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K173" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K173))),INDIRECT("A"&amp;ROW(K173)),"")</f>
         <v/>
@@ -4545,7 +4542,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D174" s="33"/>
+      <c r="D174" s="32"/>
       <c r="K174" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K174" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K174))),INDIRECT("A"&amp;ROW(K174)),"")</f>
         <v/>
@@ -4561,7 +4558,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D175" s="33"/>
+      <c r="D175" s="32"/>
       <c r="K175" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K175" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K175))),INDIRECT("A"&amp;ROW(K175)),"")</f>
         <v/>
@@ -4577,7 +4574,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D176" s="33"/>
+      <c r="D176" s="32"/>
       <c r="K176" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K176" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K176))),INDIRECT("A"&amp;ROW(K176)),"")</f>
         <v/>
@@ -4609,7 +4606,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D178" s="33"/>
+      <c r="D178" s="32"/>
       <c r="K178" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K178" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K178))),INDIRECT("A"&amp;ROW(K178)),"")</f>
         <v/>
@@ -4625,7 +4622,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D179" s="33"/>
+      <c r="D179" s="32"/>
       <c r="K179" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K179" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K179))),INDIRECT("A"&amp;ROW(K179)),"")</f>
         <v/>
@@ -4641,7 +4638,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D180" s="33"/>
+      <c r="D180" s="32"/>
       <c r="K180" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K180" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K180))),INDIRECT("A"&amp;ROW(K180)),"")</f>
         <v/>
@@ -4657,7 +4654,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D181" s="33"/>
+      <c r="D181" s="32"/>
       <c r="K181" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K181" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K181))),INDIRECT("A"&amp;ROW(K181)),"")</f>
         <v/>
@@ -4689,7 +4686,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D183" s="33"/>
+      <c r="D183" s="32"/>
       <c r="K183" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K183" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K183))),INDIRECT("A"&amp;ROW(K183)),"")</f>
         <v/>
@@ -4705,7 +4702,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D184" s="33"/>
+      <c r="D184" s="32"/>
       <c r="K184" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K184" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K184))),INDIRECT("A"&amp;ROW(K184)),"")</f>
         <v/>
@@ -4721,7 +4718,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D185" s="33"/>
+      <c r="D185" s="32"/>
       <c r="K185" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K185" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K185))),INDIRECT("A"&amp;ROW(K185)),"")</f>
         <v/>
@@ -4737,7 +4734,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D186" s="33"/>
+      <c r="D186" s="32"/>
       <c r="K186" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K186" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K186))),INDIRECT("A"&amp;ROW(K186)),"")</f>
         <v/>
@@ -4753,7 +4750,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D187" s="33"/>
+      <c r="D187" s="32"/>
       <c r="K187" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K187" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K187))),INDIRECT("A"&amp;ROW(K187)),"")</f>
         <v/>
@@ -4785,7 +4782,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D189" s="33"/>
+      <c r="D189" s="32"/>
       <c r="K189" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K189" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K189))),INDIRECT("A"&amp;ROW(K189)),"")</f>
         <v/>
@@ -4801,7 +4798,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D190" s="33"/>
+      <c r="D190" s="32"/>
       <c r="K190" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K190" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K190))),INDIRECT("A"&amp;ROW(K190)),"")</f>
         <v/>
@@ -4817,7 +4814,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D191" s="33"/>
+      <c r="D191" s="32"/>
       <c r="K191" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K191" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K191))),INDIRECT("A"&amp;ROW(K191)),"")</f>
         <v/>
@@ -4833,7 +4830,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D192" s="33"/>
+      <c r="D192" s="32"/>
       <c r="K192" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K192" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K192))),INDIRECT("A"&amp;ROW(K192)),"")</f>
         <v/>
@@ -4865,7 +4862,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D194" s="33"/>
+      <c r="D194" s="32"/>
       <c r="K194" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K194" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K194))),INDIRECT("A"&amp;ROW(K194)),"")</f>
         <v/>
@@ -4881,7 +4878,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D195" s="33"/>
+      <c r="D195" s="32"/>
       <c r="K195" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K195" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K195))),INDIRECT("A"&amp;ROW(K195)),"")</f>
         <v/>
@@ -4897,7 +4894,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D196" s="33"/>
+      <c r="D196" s="32"/>
       <c r="K196" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K196" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K196))),INDIRECT("A"&amp;ROW(K196)),"")</f>
         <v/>
@@ -4913,7 +4910,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D197" s="33"/>
+      <c r="D197" s="32"/>
       <c r="K197" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K197" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K197))),INDIRECT("A"&amp;ROW(K197)),"")</f>
         <v/>
@@ -4945,7 +4942,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D199" s="33"/>
+      <c r="D199" s="32"/>
       <c r="K199" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K199" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K199))),INDIRECT("A"&amp;ROW(K199)),"")</f>
         <v/>
@@ -4961,7 +4958,7 @@
         <f t="shared" ref="C200:C205" si="8">IF(ISBLANK(D200),"",6)</f>
         <v/>
       </c>
-      <c r="D200" s="33"/>
+      <c r="D200" s="32"/>
       <c r="K200" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K200" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K200))),INDIRECT("A"&amp;ROW(K200)),"")</f>
         <v/>
@@ -4977,7 +4974,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D201" s="33"/>
+      <c r="D201" s="32"/>
       <c r="K201" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K201" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K201))),INDIRECT("A"&amp;ROW(K201)),"")</f>
         <v/>
@@ -4993,7 +4990,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D202" s="33"/>
+      <c r="D202" s="32"/>
       <c r="K202" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K202" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K202))),INDIRECT("A"&amp;ROW(K202)),"")</f>
         <v/>
@@ -5009,7 +5006,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D203" s="33"/>
+      <c r="D203" s="32"/>
       <c r="K203" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K203" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K203))),INDIRECT("A"&amp;ROW(K203)),"")</f>
         <v/>
@@ -5025,37 +5022,37 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D204" s="33"/>
+      <c r="D204" s="32"/>
       <c r="K204" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K204" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K204))),INDIRECT("A"&amp;ROW(K204)),"")</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A205" s="59"/>
-      <c r="B205" s="60" t="str">
+      <c r="A205" s="58"/>
+      <c r="B205" s="59" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="C205" s="60" t="str">
+      <c r="C205" s="59" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D205" s="61"/>
+      <c r="D205" s="63"/>
       <c r="K205" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="K205" ca="1">IF(SUBTOTAL(103,INDIRECT("A"&amp;ROW(K205))),INDIRECT("A"&amp;ROW(K205)),"")</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A206" s="34"/>
-      <c r="B206" s="34"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="34"/>
-      <c r="K206" s="62"/>
+      <c r="A206" s="33"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="K206" s="60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:D5" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D6:D205">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
@@ -5090,54 +5087,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55" t="str">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54" t="str">
         <f>IF(AND(B2="OK", B3="OK", B4="OK", B5="OK", B6="OK", B7="OK"), "Good to go", "&lt;=Read the items and enter ok")</f>
         <v>&lt;=Read the items and enter ok</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="57"/>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -5175,13 +5172,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="str">
+      <c r="A1" s="38" t="str">
         <f ca="1">TOTP!F1</f>
-        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FDA06</v>
+        <v>36720422F174628003F9B2530C60E1F0438841E9363636363636363636363636363636363636363636363636363636363636363636363636363636363636363600000000037FF830</v>
       </c>
       <c r="B1" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">_xlfn.TEXTJOIN("", TRUE, DEC2BIN(HEX2DEC(MID(UPPER(A1), ROW(INDIRECT("1:" &amp; LEN(A1))), 1)), 4))</f>
-        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101101000000110</v>
+        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111111100000110000</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>32</v>
@@ -5211,7 +5208,7 @@
         <f ca="1">H1-D1-1</f>
         <v>383</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="34" t="s">
         <v>31</v>
       </c>
       <c r="O1" t="str" cm="1">
@@ -5253,7 +5250,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">B1&amp;"1"&amp;REPT("0",J1)</f>
-        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111101101000000110100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>001101100111001000000100001000101111000101110100011000101000000000000011111110011011001001010011000011000110000011100001111100000100001110001000010000011110100100110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100000000000000000000000000000000000000011011111111111100000110000100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"...("&amp;LEN(B2)&amp;")"</f>
@@ -5381,7 +5378,7 @@
       </c>
       <c r="B8" t="str">
         <f ca="1">B2&amp;B7</f>
-        <v>0011011001110010000001000010001011110001011101000110001010000000000000111111100110110010010100110000110001100000111000011111000001000011100010000100000111101001001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000000000000000000000000000000000000000110111111111011010000001101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
+        <v>0011011001110010000001000010001011110001011101000110001010000000000000111111100110110010010100110000110001100000111000011111000001000011100010000100000111101001001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000110110001101100011011000000000000000000000000000000000000000110111111111111000001100001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
       </c>
       <c r="E8" t="str">
         <f ca="1">"...("&amp;LEN(B8)&amp;")"</f>
@@ -5407,7 +5404,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f ca="1">IF($F$1=1,J96,Y96)</f>
-        <v>021BE345A9EBB97E6D1D59BD4B10FD8BC02AD441</v>
+        <v>14A08A70AEA5F1C0E63FBABA69151665248B2BEE</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -5444,7 +5441,7 @@
       </c>
       <c r="Q13" s="5" t="str">
         <f ca="1">MID(B8,513,512)</f>
-        <v>00000000000000000000000000000000000000110111111111011010000001101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
+        <v>00000000000000000000000000000000000000110111111111111000001100001000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001001000000</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" t="str">
@@ -5696,15 +5693,15 @@
       </c>
       <c r="Q16" t="str">
         <f t="shared" ref="Q16:Q30" ca="1" si="15">MID($Q$13,32*(U16-1)+1,32)</f>
-        <v>00000011011111111101101000000110</v>
+        <v>00000011011111111111100000110000</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" ref="R16:R30" ca="1" si="16">TEXT(BIN2HEX(MID(Q16,1,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q16,9,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q16,17,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q16,25,8),2),"00")</f>
-        <v>037FDA06</v>
+        <v>037FF830</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>037FDA06</v>
+        <v>037FF830</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -5718,11 +5715,11 @@
       </c>
       <c r="X16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B7CEFF8B</v>
+        <v>B7CF1DB5</v>
       </c>
       <c r="Y16" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B7CEFF8B</v>
+        <v>B7CF1DB5</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" ref="Z16:AC16" ca="1" si="17">Y15</f>
@@ -5812,15 +5809,15 @@
       </c>
       <c r="X17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FBF84288</v>
+        <v>FBFC07C8</v>
       </c>
       <c r="Y17" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>FBF84288</v>
+        <v>FBFC07C8</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" ref="Z17:AC17" ca="1" si="18">Y16</f>
-        <v>B7CEFF8B</v>
+        <v>B7CF1DB5</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5902,23 +5899,23 @@
       </c>
       <c r="W18" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>59671865</v>
+        <v>59663A77</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B59A16FA</v>
+        <v>B611E10C</v>
       </c>
       <c r="Y18" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B59A16FA</v>
+        <v>B611E10C</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" ref="Z18:AC18" ca="1" si="19">Y17</f>
-        <v>FBF84288</v>
+        <v>FBFC07C8</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>EDF3BFE2</v>
+        <v>6DF3C76D</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -5996,27 +5993,27 @@
       </c>
       <c r="W19" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E9F61AB5</v>
+        <v>69F21F7D</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>51DCB38B</v>
+        <v>E0D1FA93</v>
       </c>
       <c r="Y19" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>51DCB38B</v>
+        <v>E0D1FA93</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" ref="Z19:AC19" ca="1" si="20">Y18</f>
-        <v>B59A16FA</v>
+        <v>B611E10C</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>3EFE10A2</v>
+        <v>3EFF01F2</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>EDF3BFE2</v>
+        <v>6DF3C76D</v>
       </c>
       <c r="AC19" s="19" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -6090,31 +6087,31 @@
       </c>
       <c r="W20" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7CFBB9A2</v>
+        <v>7FF30761</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2C8ABCDA</v>
+        <v>0E2AEBAB</v>
       </c>
       <c r="Y20" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2C8ABCDA</v>
+        <v>0E2AEBAB</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" ref="Z20:AC20" ca="1" si="21">Y19</f>
-        <v>51DCB38B</v>
+        <v>E0D1FA93</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>AD6685BE</v>
+        <v>2D847843</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>3EFE10A2</v>
+        <v>3EFF01F2</v>
       </c>
       <c r="AC20" s="19" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>EDF3BFE2</v>
+        <v>6DF3C76D</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.3">
@@ -6184,31 +6181,31 @@
       </c>
       <c r="W21" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2F6681AA</v>
+        <v>3EAE7963</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0934566A</v>
+        <v>CC822FCA</v>
       </c>
       <c r="Y21" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0934566A</v>
+        <v>CC822FCA</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" ref="Z21:AC21" ca="1" si="22">Y20</f>
-        <v>2C8ABCDA</v>
+        <v>0E2AEBAB</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D4772CE2</v>
+        <v>F8347EA4</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>AD6685BE</v>
+        <v>2D847843</v>
       </c>
       <c r="AC21" s="19" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>3EFE10A2</v>
+        <v>3EFF01F2</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.3">
@@ -6278,31 +6275,31 @@
       </c>
       <c r="W22" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>85662DE6</v>
+        <v>29A47AE0</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>45718562</v>
+        <v>536BEFC4</v>
       </c>
       <c r="Y22" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>45718562</v>
+        <v>536BEFC4</v>
       </c>
       <c r="Z22" t="str">
         <f t="shared" ref="Z22:AC22" ca="1" si="23">Y21</f>
-        <v>0934566A</v>
+        <v>CC822FCA</v>
       </c>
       <c r="AA22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>8B22AF36</v>
+        <v>C38ABAEA</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>D4772CE2</v>
+        <v>F8347EA4</v>
       </c>
       <c r="AC22" s="19" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>AD6685BE</v>
+        <v>2D847843</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.3">
@@ -6372,31 +6369,31 @@
       </c>
       <c r="W23" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DD632EA2</v>
+        <v>F0B67AEE</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>937CDA41</v>
+        <v>E63B6554</v>
       </c>
       <c r="Y23" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>937CDA41</v>
+        <v>E63B6554</v>
       </c>
       <c r="Z23" t="str">
         <f t="shared" ref="Z23:AC23" ca="1" si="24">Y22</f>
-        <v>45718562</v>
+        <v>536BEFC4</v>
       </c>
       <c r="AA23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>824D159A</v>
+        <v>B3208BF2</v>
       </c>
       <c r="AB23" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>8B22AF36</v>
+        <v>C38ABAEA</v>
       </c>
       <c r="AC23" s="19" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>D4772CE2</v>
+        <v>F8347EA4</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
@@ -6466,31 +6463,31 @@
       </c>
       <c r="W24" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8A432F16</v>
+        <v>93A09BEA</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>28D81DC3</v>
+        <v>ADC43EC3</v>
       </c>
       <c r="Y24" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>28D81DC3</v>
+        <v>ADC43EC3</v>
       </c>
       <c r="Z24" t="str">
         <f t="shared" ref="Z24:AC24" ca="1" si="25">Y23</f>
-        <v>937CDA41</v>
+        <v>E63B6554</v>
       </c>
       <c r="AA24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>915C6158</v>
+        <v>14DAFBF1</v>
       </c>
       <c r="AB24" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>824D159A</v>
+        <v>B3208BF2</v>
       </c>
       <c r="AC24" s="19" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>8B22AF36</v>
+        <v>C38ABAEA</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
@@ -6560,31 +6557,31 @@
       </c>
       <c r="W25" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>915D45DA</v>
+        <v>151AEBF2</v>
       </c>
       <c r="X25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>9206270E</v>
+        <v>EBAFF8EA</v>
       </c>
       <c r="Y25" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>9206270E</v>
+        <v>EBAFF8EA</v>
       </c>
       <c r="Z25" t="str">
         <f t="shared" ref="Z25:AC25" ca="1" si="26">Y24</f>
-        <v>28D81DC3</v>
+        <v>ADC43EC3</v>
       </c>
       <c r="AA25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>64DF3690</v>
+        <v>398ED955</v>
       </c>
       <c r="AB25" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>915C6158</v>
+        <v>14DAFBF1</v>
       </c>
       <c r="AC25" s="19" t="str">
         <f t="shared" ca="1" si="26"/>
-        <v>824D159A</v>
+        <v>B3208BF2</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.3">
@@ -6654,31 +6651,31 @@
       </c>
       <c r="W26" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>B1DC7498</v>
+        <v>399ED971</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CF70E59D</v>
+        <v>BD40FC59</v>
       </c>
       <c r="Y26" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CF70E59D</v>
+        <v>BD40FC59</v>
       </c>
       <c r="Z26" t="str">
         <f t="shared" ref="Z26:AC26" ca="1" si="27">Y25</f>
-        <v>9206270E</v>
+        <v>EBAFF8EA</v>
       </c>
       <c r="AA26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>CA360770</v>
+        <v>EB710FB0</v>
       </c>
       <c r="AB26" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>64DF3690</v>
+        <v>398ED955</v>
       </c>
       <c r="AC26" s="19" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>915C6158</v>
+        <v>14DAFBF1</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.3">
@@ -6748,31 +6745,31 @@
       </c>
       <c r="W27" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>E6DF1790</v>
+        <v>FB2109B5</v>
       </c>
       <c r="X27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C0DAA63A</v>
+        <v>129E0A76</v>
       </c>
       <c r="Y27" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C0DAA63A</v>
+        <v>129E0A76</v>
       </c>
       <c r="Z27" t="str">
         <f t="shared" ref="Z27:AC27" ca="1" si="28">Y26</f>
-        <v>CF70E59D</v>
+        <v>BD40FC59</v>
       </c>
       <c r="AA27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A48189C3</v>
+        <v>BAEBFE3A</v>
       </c>
       <c r="AB27" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>CA360770</v>
+        <v>EB710FB0</v>
       </c>
       <c r="AC27" s="19" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>64DF3690</v>
+        <v>398ED955</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.3">
@@ -6842,31 +6839,31 @@
       </c>
       <c r="W28" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>840683E1</v>
+        <v>FA71FFB8</v>
       </c>
       <c r="X28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5EBCFB62</v>
+        <v>E244A168</v>
       </c>
       <c r="Y28" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5EBCFB62</v>
+        <v>E244A168</v>
       </c>
       <c r="Z28" t="str">
         <f t="shared" ref="Z28:AC28" ca="1" si="29">Y27</f>
-        <v>C0DAA63A</v>
+        <v>129E0A76</v>
       </c>
       <c r="AA28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>73DC3967</v>
+        <v>6F503F16</v>
       </c>
       <c r="AB28" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>A48189C3</v>
+        <v>BAEBFE3A</v>
       </c>
       <c r="AC28" s="19" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>CA360770</v>
+        <v>EB710FB0</v>
       </c>
     </row>
     <row r="29" spans="2:29" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -6936,31 +6933,31 @@
       </c>
       <c r="W29" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>64D929E3</v>
+        <v>AA71FE1E</v>
       </c>
       <c r="X29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>61311737</v>
+        <v>38F9B483</v>
       </c>
       <c r="Y29" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>61311737</v>
+        <v>38F9B483</v>
       </c>
       <c r="Z29" t="str">
         <f t="shared" ref="Z29:AC29" ca="1" si="30">Y28</f>
-        <v>5EBCFB62</v>
+        <v>E244A168</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B036A98E</v>
+        <v>84A7829D</v>
       </c>
       <c r="AB29" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>73DC3967</v>
+        <v>6F503F16</v>
       </c>
       <c r="AC29" s="19" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>A48189C3</v>
+        <v>BAEBFE3A</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
@@ -7030,35 +7027,35 @@
       </c>
       <c r="W30" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3174A907</v>
+        <v>8D149E1E</v>
       </c>
       <c r="X30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>569B958F</v>
+        <v>C1B9A898</v>
       </c>
       <c r="Y30" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>569B958F</v>
+        <v>C1B9A898</v>
       </c>
       <c r="Z30" t="str">
         <f t="shared" ref="Z30:AC30" ca="1" si="31">Y29</f>
-        <v>61311737</v>
+        <v>38F9B483</v>
       </c>
       <c r="AA30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>97AF3ED8</v>
+        <v>3891285A</v>
       </c>
       <c r="AB30" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>B036A98E</v>
+        <v>84A7829D</v>
       </c>
       <c r="AC30" s="19" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>73DC3967</v>
+        <v>6F503F16</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="61" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="11" t="str">
@@ -7103,7 +7100,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>5489DBC4</v>
       </c>
-      <c r="Q31" s="63" t="s">
+      <c r="Q31" s="61" t="s">
         <v>63</v>
       </c>
       <c r="R31" s="11" t="str">
@@ -7122,35 +7119,35 @@
       </c>
       <c r="W31" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>9127BE98</v>
+        <v>BC97221E</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>32F92383</v>
+        <v>BD9EEDE6</v>
       </c>
       <c r="Y31" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>32F92383</v>
+        <v>BD9EEDE6</v>
       </c>
       <c r="Z31" t="str">
         <f t="shared" ref="Z31:AC31" ca="1" si="34">Y30</f>
-        <v>569B958F</v>
+        <v>C1B9A898</v>
       </c>
       <c r="AA31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D84C45CD</v>
+        <v>CE3E6D20</v>
       </c>
       <c r="AB31" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>97AF3ED8</v>
+        <v>3891285A</v>
       </c>
       <c r="AC31" s="19" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>B036A98E</v>
+        <v>84A7829D</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
+      <c r="B32" s="62"/>
       <c r="C32" t="str">
         <f ca="1">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D29),HEX2DEC(D24)),_xlfn.BITXOR(HEX2DEC(D18),HEX2DEC(D16))),8)</f>
         <v>FD148370</v>
@@ -7193,14 +7190,14 @@
         <f t="shared" ca="1" si="14"/>
         <v>2C903AA8</v>
       </c>
-      <c r="Q32" s="64"/>
+      <c r="Q32" s="62"/>
       <c r="R32" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>037FDA06</v>
+        <v>037FF830</v>
       </c>
       <c r="S32" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>06FFB40C</v>
+        <v>06FFF060</v>
       </c>
       <c r="U32">
         <v>18</v>
@@ -7210,35 +7207,35 @@
       </c>
       <c r="W32" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D12C2FDD</v>
+        <v>F8382842</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>42097776</v>
+        <v>923FD1AF</v>
       </c>
       <c r="Y32" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>42097776</v>
+        <v>923FD1AF</v>
       </c>
       <c r="Z32" t="str">
         <f t="shared" ref="Z32:AC32" ca="1" si="35">Y31</f>
-        <v>32F92383</v>
+        <v>BD9EEDE6</v>
       </c>
       <c r="AA32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D5A6E563</v>
+        <v>306E6A26</v>
       </c>
       <c r="AB32" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>D84C45CD</v>
+        <v>CE3E6D20</v>
       </c>
       <c r="AC32" s="19" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>97AF3ED8</v>
+        <v>3891285A</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
+      <c r="B33" s="62"/>
       <c r="C33" t="str">
         <f t="shared" ref="C33:C94" ca="1" si="36">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D30),HEX2DEC(D25)),_xlfn.BITXOR(HEX2DEC(D19),HEX2DEC(D17))),8)</f>
         <v>4071F3BA</v>
@@ -7281,7 +7278,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>FFD8EFDC</v>
       </c>
-      <c r="Q33" s="64"/>
+      <c r="Q33" s="62"/>
       <c r="R33" t="str">
         <f t="shared" ca="1" si="32"/>
         <v>80000240</v>
@@ -7298,35 +7295,35 @@
       </c>
       <c r="W33" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D8A4654F</v>
+        <v>722E6826</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0C051109</v>
+        <v>4D3C448C</v>
       </c>
       <c r="Y33" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0C051109</v>
+        <v>4D3C448C</v>
       </c>
       <c r="Z33" t="str">
         <f t="shared" ref="Z33:AC33" ca="1" si="38">Y32</f>
-        <v>42097776</v>
+        <v>923FD1AF</v>
       </c>
       <c r="AA33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>CCBE48E0</v>
+        <v>AF67BB79</v>
       </c>
       <c r="AB33" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>D5A6E563</v>
+        <v>306E6A26</v>
       </c>
       <c r="AC33" s="19" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>D84C45CD</v>
+        <v>CE3E6D20</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
+      <c r="B34" s="62"/>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="36"/>
         <v>67778D12</v>
@@ -7369,7 +7366,7 @@
         <f t="shared" ca="1" si="14"/>
         <v>0B9EB322</v>
       </c>
-      <c r="Q34" s="64"/>
+      <c r="Q34" s="62"/>
       <c r="R34" t="str">
         <f t="shared" ca="1" si="32"/>
         <v>00000001</v>
@@ -7386,31 +7383,31 @@
       </c>
       <c r="W34" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>D5AEC061</v>
+        <v>A267BB29</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>891FA0EA</v>
+        <v>72B1336D</v>
       </c>
       <c r="Y34" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>891FA0EA</v>
+        <v>72B1336D</v>
       </c>
       <c r="Z34" t="str">
         <f t="shared" ref="Z34:AC34" ca="1" si="39">Y33</f>
-        <v>0C051109</v>
+        <v>4D3C448C</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>90825DDD</v>
+        <v>E48FF46B</v>
       </c>
       <c r="AB34" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>CCBE48E0</v>
+        <v>AF67BB79</v>
       </c>
       <c r="AC34" s="19" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>D5A6E563</v>
+        <v>306E6A26</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.3">
@@ -7464,11 +7461,11 @@
       </c>
       <c r="R35" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>06FFB40C</v>
+        <v>06FFF060</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>0DFF6818</v>
+        <v>0DFFE0C0</v>
       </c>
       <c r="U35">
         <v>21</v>
@@ -7478,31 +7475,31 @@
       </c>
       <c r="W35" s="7" t="str">
         <f t="shared" ref="W35:W54" ca="1" si="40">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z34),HEX2DEC(AA34)),HEX2DEC(AB34)),8)</f>
-        <v>50390434</v>
+        <v>06D40B9E</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>C6AD5AA1</v>
+        <v>0A42AFD3</v>
       </c>
       <c r="Y35" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>C6AD5AA1</v>
+        <v>0A42AFD3</v>
       </c>
       <c r="Z35" t="str">
         <f t="shared" ref="Z35:AC35" ca="1" si="41">Y34</f>
-        <v>891FA0EA</v>
+        <v>72B1336D</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>43014442</v>
+        <v>134F1123</v>
       </c>
       <c r="AB35" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>90825DDD</v>
+        <v>E48FF46B</v>
       </c>
       <c r="AC35" s="19" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>CCBE48E0</v>
+        <v>AF67BB79</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.3">
@@ -7570,31 +7567,31 @@
       </c>
       <c r="W36" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>5A9CB975</v>
+        <v>8571D625</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6BE04B30</v>
+        <v>EC0980A2</v>
       </c>
       <c r="Y36" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6BE04B30</v>
+        <v>EC0980A2</v>
       </c>
       <c r="Z36" t="str">
         <f t="shared" ref="Z36:AC36" ca="1" si="43">Y35</f>
-        <v>C6AD5AA1</v>
+        <v>0A42AFD3</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A247E83A</v>
+        <v>5CAC4CDB</v>
       </c>
       <c r="AB36" t="str">
         <f t="shared" ca="1" si="43"/>
-        <v>43014442</v>
+        <v>134F1123</v>
       </c>
       <c r="AC36" s="19" t="str">
         <f t="shared" ca="1" si="43"/>
-        <v>90825DDD</v>
+        <v>E48FF46B</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.3">
@@ -7662,31 +7659,31 @@
       </c>
       <c r="W37" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>27EBF6D9</v>
+        <v>45A1F22B</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A351A668</v>
+        <v>1A3BE698</v>
       </c>
       <c r="Y37" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A351A668</v>
+        <v>1A3BE698</v>
       </c>
       <c r="Z37" t="str">
         <f t="shared" ref="Z37:AC37" ca="1" si="44">Y36</f>
-        <v>6BE04B30</v>
+        <v>EC0980A2</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>71AB56A8</v>
+        <v>C290ABF4</v>
       </c>
       <c r="AB37" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>A247E83A</v>
+        <v>5CAC4CDB</v>
       </c>
       <c r="AC37" s="19" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>43014442</v>
+        <v>134F1123</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.3">
@@ -7740,11 +7737,11 @@
       </c>
       <c r="R38" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>0DFF6A58</v>
+        <v>0DFFE280</v>
       </c>
       <c r="S38" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>1BFED4B0</v>
+        <v>1BFFC500</v>
       </c>
       <c r="U38">
         <v>24</v>
@@ -7754,31 +7751,31 @@
       </c>
       <c r="W38" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>B80CF5A2</v>
+        <v>7235678D</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F01BC749</v>
+        <v>57DAFC54</v>
       </c>
       <c r="Y38" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F01BC749</v>
+        <v>57DAFC54</v>
       </c>
       <c r="Z38" t="str">
         <f t="shared" ref="Z38:AC38" ca="1" si="45">Y37</f>
-        <v>A351A668</v>
+        <v>1A3BE698</v>
       </c>
       <c r="AA38" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1AF812CC</v>
+        <v>BB026028</v>
       </c>
       <c r="AB38" t="str">
         <f t="shared" ca="1" si="45"/>
-        <v>71AB56A8</v>
+        <v>C290ABF4</v>
       </c>
       <c r="AC38" s="19" t="str">
         <f t="shared" ca="1" si="45"/>
-        <v>A247E83A</v>
+        <v>5CAC4CDB</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.3">
@@ -7846,31 +7843,31 @@
       </c>
       <c r="W39" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>C802E20C</v>
+        <v>63A92D44</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DC9DB12B</v>
+        <v>2A8F0250</v>
       </c>
       <c r="Y39" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DC9DB12B</v>
+        <v>2A8F0250</v>
       </c>
       <c r="Z39" t="str">
         <f t="shared" ref="Z39:AC39" ca="1" si="46">Y38</f>
-        <v>F01BC749</v>
+        <v>57DAFC54</v>
       </c>
       <c r="AA39" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>28D4699A</v>
+        <v>068EF9A6</v>
       </c>
       <c r="AB39" t="str">
         <f t="shared" ca="1" si="46"/>
-        <v>1AF812CC</v>
+        <v>BB026028</v>
       </c>
       <c r="AC39" s="19" t="str">
         <f t="shared" ca="1" si="46"/>
-        <v>71AB56A8</v>
+        <v>C290ABF4</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.3">
@@ -7924,11 +7921,11 @@
       </c>
       <c r="R40" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>06FFB408</v>
+        <v>06FFF064</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>0DFF6810</v>
+        <v>0DFFE0C8</v>
       </c>
       <c r="U40">
         <v>26</v>
@@ -7938,31 +7935,31 @@
       </c>
       <c r="W40" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>C237BC1F</v>
+        <v>EA5665DA</v>
       </c>
       <c r="X40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>44728BF3</v>
+        <v>7BA1283C</v>
       </c>
       <c r="Y40" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>44728BF3</v>
+        <v>7BA1283C</v>
       </c>
       <c r="Z40" t="str">
         <f t="shared" ref="Z40:AC40" ca="1" si="47">Y39</f>
-        <v>DC9DB12B</v>
+        <v>2A8F0250</v>
       </c>
       <c r="AA40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>7C06F1D2</v>
+        <v>15F6BF15</v>
       </c>
       <c r="AB40" t="str">
         <f t="shared" ca="1" si="47"/>
-        <v>28D4699A</v>
+        <v>068EF9A6</v>
       </c>
       <c r="AC40" s="19" t="str">
         <f t="shared" ca="1" si="47"/>
-        <v>1AF812CC</v>
+        <v>BB026028</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.3">
@@ -8016,11 +8013,11 @@
       </c>
       <c r="R41" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1BFED031</v>
+        <v>1BFFC181</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>37FDA062</v>
+        <v>37FF8302</v>
       </c>
       <c r="U41">
         <v>27</v>
@@ -8030,31 +8027,31 @@
       </c>
       <c r="W41" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>884F2963</v>
+        <v>39F744E3</v>
       </c>
       <c r="X41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D870469A</v>
+        <v>0FF81B3D</v>
       </c>
       <c r="Y41" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D870469A</v>
+        <v>0FF81B3D</v>
       </c>
       <c r="Z41" t="str">
         <f t="shared" ref="Z41:AC41" ca="1" si="48">Y40</f>
-        <v>44728BF3</v>
+        <v>7BA1283C</v>
       </c>
       <c r="AA41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F7276C4A</v>
+        <v>0AA3C094</v>
       </c>
       <c r="AB41" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>7C06F1D2</v>
+        <v>15F6BF15</v>
       </c>
       <c r="AC41" s="19" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>28D4699A</v>
+        <v>068EF9A6</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.3">
@@ -8122,31 +8119,31 @@
       </c>
       <c r="W42" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>CF53166B</v>
+        <v>64F457BD</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>750A6309</v>
+        <v>D960C8AD</v>
       </c>
       <c r="Y42" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>750A6309</v>
+        <v>D960C8AD</v>
       </c>
       <c r="Z42" t="str">
         <f t="shared" ref="Z42:AC42" ca="1" si="49">Y41</f>
-        <v>D870469A</v>
+        <v>0FF81B3D</v>
       </c>
       <c r="AA42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D11CA2FC</v>
+        <v>1EE84A0F</v>
       </c>
       <c r="AB42" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>F7276C4A</v>
+        <v>0AA3C094</v>
       </c>
       <c r="AC42" s="19" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>7C06F1D2</v>
+        <v>15F6BF15</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.3">
@@ -8214,31 +8211,31 @@
       </c>
       <c r="W43" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>FE4B882C</v>
+        <v>1BB391A6</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8A78C6DD</v>
+        <v>CC9D5227</v>
       </c>
       <c r="Y43" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8A78C6DD</v>
+        <v>CC9D5227</v>
       </c>
       <c r="Z43" t="str">
         <f t="shared" ref="Z43:AC43" ca="1" si="50">Y42</f>
-        <v>750A6309</v>
+        <v>D960C8AD</v>
       </c>
       <c r="AA43" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B61C11A6</v>
+        <v>43FE06CF</v>
       </c>
       <c r="AB43" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>D11CA2FC</v>
+        <v>1EE84A0F</v>
       </c>
       <c r="AC43" s="19" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>F7276C4A</v>
+        <v>0AA3C094</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.3">
@@ -8292,11 +8289,11 @@
       </c>
       <c r="R44" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>37FDAB20</v>
+        <v>37FF8840</v>
       </c>
       <c r="S44" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>6FFB5640</v>
+        <v>6FFF1080</v>
       </c>
       <c r="U44">
         <v>30</v>
@@ -8306,31 +8303,31 @@
       </c>
       <c r="W44" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>120AD053</v>
+        <v>8476846D</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>37205A2F</v>
+        <v>019D861B</v>
       </c>
       <c r="Y44" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>37205A2F</v>
+        <v>019D861B</v>
       </c>
       <c r="Z44" t="str">
         <f t="shared" ref="Z44:AC44" ca="1" si="51">Y43</f>
-        <v>8A78C6DD</v>
+        <v>CC9D5227</v>
       </c>
       <c r="AA44" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>5D4298C2</v>
+        <v>7658322B</v>
       </c>
       <c r="AB44" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>B61C11A6</v>
+        <v>43FE06CF</v>
       </c>
       <c r="AC44" s="19" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v>D11CA2FC</v>
+        <v>1EE84A0F</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.3">
@@ -8398,31 +8395,31 @@
       </c>
       <c r="W45" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>61264FB9</v>
+        <v>F93B66C3</v>
       </c>
       <c r="X45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>85286C56</v>
+        <v>BAAEA7ED</v>
       </c>
       <c r="Y45" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>85286C56</v>
+        <v>BAAEA7ED</v>
       </c>
       <c r="Z45" t="str">
         <f t="shared" ref="Z45:AC45" ca="1" si="52">Y44</f>
-        <v>37205A2F</v>
+        <v>019D861B</v>
       </c>
       <c r="AA45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>629E31B7</v>
+        <v>F3275489</v>
       </c>
       <c r="AB45" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v>5D4298C2</v>
+        <v>7658322B</v>
       </c>
       <c r="AC45" s="19" t="str">
         <f t="shared" ca="1" si="52"/>
-        <v>B61C11A6</v>
+        <v>43FE06CF</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.3">
@@ -8476,11 +8473,11 @@
       </c>
       <c r="R46" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1D0162EC</v>
+        <v>1D003730</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>3A02C5D8</v>
+        <v>3A006E60</v>
       </c>
       <c r="U46">
         <v>32</v>
@@ -8490,31 +8487,31 @@
       </c>
       <c r="W46" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>08FCF35A</v>
+        <v>84E2E0B9</v>
       </c>
       <c r="X46" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0D034149</v>
+        <v>C7903F40</v>
       </c>
       <c r="Y46" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0D034149</v>
+        <v>C7903F40</v>
       </c>
       <c r="Z46" t="str">
         <f t="shared" ref="Z46:AC46" ca="1" si="53">Y45</f>
-        <v>85286C56</v>
+        <v>BAAEA7ED</v>
       </c>
       <c r="AA46" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>CDC8168B</v>
+        <v>C0676186</v>
       </c>
       <c r="AB46" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>629E31B7</v>
+        <v>F3275489</v>
       </c>
       <c r="AC46" s="19" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>5D4298C2</v>
+        <v>7658322B</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.3">
@@ -8568,11 +8565,11 @@
       </c>
       <c r="R47" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>6FFB40C6</v>
+        <v>6FFF0606</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>DFF6818C</v>
+        <v>DFFE0C0C</v>
       </c>
       <c r="U47">
         <v>33</v>
@@ -8582,31 +8579,31 @@
       </c>
       <c r="W47" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>2A7E4B6A</v>
+        <v>89EE92E2</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>76F97A7A</v>
+        <v>4126A4D2</v>
       </c>
       <c r="Y47" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>76F97A7A</v>
+        <v>4126A4D2</v>
       </c>
       <c r="Z47" t="str">
         <f t="shared" ref="Z47:AC47" ca="1" si="55">Y46</f>
-        <v>0D034149</v>
+        <v>C7903F40</v>
       </c>
       <c r="AA47" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A14A1B15</v>
+        <v>6EABA9FB</v>
       </c>
       <c r="AB47" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CDC8168B</v>
+        <v>C0676186</v>
       </c>
       <c r="AC47" s="19" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>629E31B7</v>
+        <v>F3275489</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.3">
@@ -8660,11 +8657,11 @@
       </c>
       <c r="R48" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>0B009404</v>
+        <v>0B0058B0</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>16012808</v>
+        <v>1600B160</v>
       </c>
       <c r="U48">
         <v>34</v>
@@ -8674,31 +8671,31 @@
       </c>
       <c r="W48" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>61814CD7</v>
+        <v>695CF73D</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2829E185</v>
+        <v>0633830F</v>
       </c>
       <c r="Y48" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2829E185</v>
+        <v>0633830F</v>
       </c>
       <c r="Z48" t="str">
         <f t="shared" ref="Z48:AC48" ca="1" si="56">Y47</f>
-        <v>76F97A7A</v>
+        <v>4126A4D2</v>
       </c>
       <c r="AA48" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>4340D052</v>
+        <v>31E40FD0</v>
       </c>
       <c r="AB48" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>A14A1B15</v>
+        <v>6EABA9FB</v>
       </c>
       <c r="AC48" s="19" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>CDC8168B</v>
+        <v>C0676186</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.3">
@@ -8766,31 +8763,31 @@
       </c>
       <c r="W49" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>94F3B13D</v>
+        <v>1E6902F9</v>
       </c>
       <c r="X49" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D6D1F654</v>
+        <v>141AC446</v>
       </c>
       <c r="Y49" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D6D1F654</v>
+        <v>141AC446</v>
       </c>
       <c r="Z49" t="str">
         <f t="shared" ref="Z49:AC49" ca="1" si="57">Y48</f>
-        <v>2829E185</v>
+        <v>0633830F</v>
       </c>
       <c r="AA49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>9DBE5E9E</v>
+        <v>9049A934</v>
       </c>
       <c r="AB49" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>4340D052</v>
+        <v>31E40FD0</v>
       </c>
       <c r="AC49" s="19" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>A14A1B15</v>
+        <v>6EABA9FB</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.3">
@@ -8844,11 +8841,11 @@
       </c>
       <c r="R50" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>DFF6AC84</v>
+        <v>DFFE2104</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>BFED5909</v>
+        <v>BFFC4209</v>
       </c>
       <c r="U50">
         <v>36</v>
@@ -8858,31 +8855,31 @@
       </c>
       <c r="W50" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>F6D76F49</v>
+        <v>A79E25EB</v>
       </c>
       <c r="X50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A12799A2</v>
+        <v>C8788652</v>
       </c>
       <c r="Y50" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A12799A2</v>
+        <v>C8788652</v>
       </c>
       <c r="Z50" t="str">
         <f t="shared" ref="Z50:AC50" ca="1" si="58">Y49</f>
-        <v>D6D1F654</v>
+        <v>141AC446</v>
       </c>
       <c r="AA50" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>4A0A7861</v>
+        <v>C18CE0C3</v>
       </c>
       <c r="AB50" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>9DBE5E9E</v>
+        <v>9049A934</v>
       </c>
       <c r="AC50" s="19" t="str">
         <f t="shared" ca="1" si="58"/>
-        <v>4340D052</v>
+        <v>31E40FD0</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.3">
@@ -8936,11 +8933,11 @@
       </c>
       <c r="R51" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1BFE4004</v>
+        <v>1BFF51B4</v>
       </c>
       <c r="S51" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>37FC8008</v>
+        <v>37FEA368</v>
       </c>
       <c r="U51">
         <v>37</v>
@@ -8950,31 +8947,31 @@
       </c>
       <c r="W51" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>0165D0AB</v>
+        <v>45DF8DB1</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>107040FA</v>
+        <v>2DACF6E3</v>
       </c>
       <c r="Y51" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>107040FA</v>
+        <v>2DACF6E3</v>
       </c>
       <c r="Z51" t="str">
         <f t="shared" ref="Z51:AC51" ca="1" si="59">Y50</f>
-        <v>A12799A2</v>
+        <v>C8788652</v>
       </c>
       <c r="AA51" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>35B47D95</v>
+        <v>8506B111</v>
       </c>
       <c r="AB51" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>4A0A7861</v>
+        <v>C18CE0C3</v>
       </c>
       <c r="AC51" s="19" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>9DBE5E9E</v>
+        <v>9049A934</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.3">
@@ -9028,11 +9025,11 @@
       </c>
       <c r="R52" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>740599B4</v>
+        <v>7400CEC4</v>
       </c>
       <c r="S52" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>E80B3368</v>
+        <v>E8019D88</v>
       </c>
       <c r="U52">
         <v>38</v>
@@ -9042,31 +9039,31 @@
       </c>
       <c r="W52" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>DE999C56</v>
+        <v>8CF2D780</v>
       </c>
       <c r="X52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>E145393F</v>
+        <v>29B6E642</v>
       </c>
       <c r="Y52" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>E145393F</v>
+        <v>29B6E642</v>
       </c>
       <c r="Z52" t="str">
         <f t="shared" ref="Z52:AC52" ca="1" si="60">Y51</f>
-        <v>107040FA</v>
+        <v>2DACF6E3</v>
       </c>
       <c r="AA52" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A849E668</v>
+        <v>B21E2194</v>
       </c>
       <c r="AB52" t="str">
         <f t="shared" ca="1" si="60"/>
-        <v>35B47D95</v>
+        <v>8506B111</v>
       </c>
       <c r="AC52" s="19" t="str">
         <f t="shared" ca="1" si="60"/>
-        <v>4A0A7861</v>
+        <v>C18CE0C3</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.3">
@@ -9120,11 +9117,11 @@
       </c>
       <c r="R53" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFED0311</v>
+        <v>BFFC1811</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FDA0623</v>
+        <v>7FF83023</v>
       </c>
       <c r="U53">
         <v>39</v>
@@ -9134,31 +9131,31 @@
       </c>
       <c r="W53" s="7" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>8D8DDB07</v>
+        <v>1AB46666</v>
       </c>
       <c r="X53" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EEF36D28</v>
+        <v>01F02B32</v>
       </c>
       <c r="Y53" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>EEF36D28</v>
+        <v>01F02B32</v>
       </c>
       <c r="Z53" t="str">
         <f t="shared" ref="Z53:AC53" ca="1" si="61">Y52</f>
-        <v>E145393F</v>
+        <v>29B6E642</v>
       </c>
       <c r="AA53" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>841C103E</v>
+        <v>CB6B3DB8</v>
       </c>
       <c r="AB53" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>A849E668</v>
+        <v>B21E2194</v>
       </c>
       <c r="AC53" s="19" t="str">
         <f t="shared" ca="1" si="61"/>
-        <v>35B47D95</v>
+        <v>8506B111</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.3">
@@ -9212,11 +9209,11 @@
       </c>
       <c r="R54" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1BFFF970</v>
+        <v>1BFEE8C0</v>
       </c>
       <c r="S54" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>37FFF2E0</v>
+        <v>37FDD180</v>
       </c>
       <c r="U54" s="12">
         <v>40</v>
@@ -9226,31 +9223,31 @@
       </c>
       <c r="W54" s="13" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>CD10CF69</v>
+        <v>50C3FA6E</v>
       </c>
       <c r="X54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>880CD09C</v>
+        <v>BAA7CEE0</v>
       </c>
       <c r="Y54" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>880CD09C</v>
+        <v>BAA7CEE0</v>
       </c>
       <c r="Z54" t="str">
         <f t="shared" ref="Z54:AC54" ca="1" si="62">Y53</f>
-        <v>EEF36D28</v>
+        <v>01F02B32</v>
       </c>
       <c r="AA54" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F8514E4F</v>
+        <v>8A6DB990</v>
       </c>
       <c r="AB54" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>841C103E</v>
+        <v>CB6B3DB8</v>
       </c>
       <c r="AC54" s="19" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>A849E668</v>
+        <v>B21E2194</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.3">
@@ -9318,31 +9315,31 @@
       </c>
       <c r="W55" s="7" t="str">
         <f t="shared" ref="W55:W74" ca="1" si="63">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITAND(HEX2DEC(Z54),HEX2DEC(AA54)),_xlfn.BITAND(HEX2DEC(Z54),HEX2DEC(AB54))),_xlfn.BITAND(HEX2DEC(AA54),HEX2DEC(AB54))),8)</f>
-        <v>EC514C2E</v>
+        <v>8B6939B0</v>
       </c>
       <c r="X55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>25510403</v>
+        <v>219CF537</v>
       </c>
       <c r="Y55" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>25510403</v>
+        <v>219CF537</v>
       </c>
       <c r="Z55" t="str">
         <f t="shared" ref="Z55:AC55" ca="1" si="64">Y54</f>
-        <v>880CD09C</v>
+        <v>BAA7CEE0</v>
       </c>
       <c r="AA55" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>3BBCDB4A</v>
+        <v>807C0ACC</v>
       </c>
       <c r="AB55" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>F8514E4F</v>
+        <v>8A6DB990</v>
       </c>
       <c r="AC55" s="19" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>841C103E</v>
+        <v>CB6B3DB8</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.3">
@@ -9396,11 +9393,11 @@
       </c>
       <c r="R56" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>64246233</v>
+        <v>64074583</v>
       </c>
       <c r="S56" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C848C466</v>
+        <v>C80E8B06</v>
       </c>
       <c r="U56">
         <v>42</v>
@@ -9410,31 +9407,31 @@
       </c>
       <c r="W56" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>B81CDA4E</v>
+        <v>8A6D8AC0</v>
       </c>
       <c r="X56" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3DBDEC32</v>
+        <v>E0A1B73E</v>
       </c>
       <c r="Y56" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3DBDEC32</v>
+        <v>E0A1B73E</v>
       </c>
       <c r="Z56" t="str">
         <f t="shared" ref="Z56:AC56" ca="1" si="65">Y55</f>
-        <v>25510403</v>
+        <v>219CF537</v>
       </c>
       <c r="AA56" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>22033427</v>
+        <v>2EA9F3B8</v>
       </c>
       <c r="AB56" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>3BBCDB4A</v>
+        <v>807C0ACC</v>
       </c>
       <c r="AC56" s="19" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>F8514E4F</v>
+        <v>8A6DB990</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.3">
@@ -9502,31 +9499,31 @@
       </c>
       <c r="W57" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>23111403</v>
+        <v>20BCF3BC</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6240271D</v>
+        <v>4E81D3AC</v>
       </c>
       <c r="Y57" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6240271D</v>
+        <v>4E81D3AC</v>
       </c>
       <c r="Z57" t="str">
         <f t="shared" ref="Z57:AC57" ca="1" si="67">Y56</f>
-        <v>3DBDEC32</v>
+        <v>E0A1B73E</v>
       </c>
       <c r="AA57" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>C9544100</v>
+        <v>C8673D4D</v>
       </c>
       <c r="AB57" t="str">
         <f t="shared" ca="1" si="67"/>
-        <v>22033427</v>
+        <v>2EA9F3B8</v>
       </c>
       <c r="AC57" s="19" t="str">
         <f t="shared" ca="1" si="67"/>
-        <v>3BBCDB4A</v>
+        <v>807C0ACC</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.3">
@@ -9580,11 +9577,11 @@
       </c>
       <c r="R58" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>D0162A41</v>
+        <v>D0037781</v>
       </c>
       <c r="S58" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>A02C5483</v>
+        <v>A006EF03</v>
       </c>
       <c r="U58">
         <v>44</v>
@@ -9594,31 +9591,31 @@
       </c>
       <c r="W58" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>29156422</v>
+        <v>E8A1B73C</v>
       </c>
       <c r="X58" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DC1F3477</v>
+        <v>687AE370</v>
       </c>
       <c r="Y58" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DC1F3477</v>
+        <v>687AE370</v>
       </c>
       <c r="Z58" t="str">
         <f t="shared" ref="Z58:AC58" ca="1" si="68">Y57</f>
-        <v>6240271D</v>
+        <v>4E81D3AC</v>
       </c>
       <c r="AA58" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>8F6F7B0C</v>
+        <v>B8286DCF</v>
       </c>
       <c r="AB58" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>C9544100</v>
+        <v>C8673D4D</v>
       </c>
       <c r="AC58" s="19" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>22033427</v>
+        <v>2EA9F3B8</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.3">
@@ -9672,11 +9669,11 @@
       </c>
       <c r="R59" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>FFB40C64</v>
+        <v>FFF06064</v>
       </c>
       <c r="S59" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>FF6818C9</v>
+        <v>FFE0C0C9</v>
       </c>
       <c r="U59">
         <v>45</v>
@@ -9686,31 +9683,31 @@
       </c>
       <c r="W59" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>CB44630C</v>
+        <v>C8217DCD</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FFB1FBD3</v>
+        <v>95245D37</v>
       </c>
       <c r="Y59" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>FFB1FBD3</v>
+        <v>95245D37</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" ref="Z59:AC59" ca="1" si="69">Y58</f>
-        <v>DC1F3477</v>
+        <v>687AE370</v>
       </c>
       <c r="AA59" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>589009C7</v>
+        <v>13A074EB</v>
       </c>
       <c r="AB59" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>8F6F7B0C</v>
+        <v>B8286DCF</v>
       </c>
       <c r="AC59" s="19" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>C9544100</v>
+        <v>C8673D4D</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.3">
@@ -9764,11 +9761,11 @@
       </c>
       <c r="R60" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BDF62158</v>
+        <v>BDFA62C0</v>
       </c>
       <c r="S60" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7BEC42B1</v>
+        <v>7BF4C581</v>
       </c>
       <c r="U60">
         <v>46</v>
@@ -9778,31 +9775,31 @@
       </c>
       <c r="W60" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>DC1F3947</v>
+        <v>382865EB</v>
       </c>
       <c r="X60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A6BAF453</v>
+        <v>B02BCC87</v>
       </c>
       <c r="Y60" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A6BAF453</v>
+        <v>B02BCC87</v>
       </c>
       <c r="Z60" t="str">
         <f t="shared" ref="Z60:AC60" ca="1" si="70">Y59</f>
-        <v>FFB1FBD3</v>
+        <v>95245D37</v>
       </c>
       <c r="AA60" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F707CD1D</v>
+        <v>1A1EB8DC</v>
       </c>
       <c r="AB60" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>589009C7</v>
+        <v>13A074EB</v>
       </c>
       <c r="AC60" s="19" t="str">
         <f t="shared" ca="1" si="70"/>
-        <v>8F6F7B0C</v>
+        <v>B8286DCF</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.3">
@@ -9870,31 +9867,31 @@
       </c>
       <c r="W61" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>FF91C9D7</v>
+        <v>13247CFF</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F57CC29F</v>
+        <v>5FE36F0C</v>
       </c>
       <c r="Y61" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F57CC29F</v>
+        <v>5FE36F0C</v>
       </c>
       <c r="Z61" t="str">
         <f t="shared" ref="Z61:AC61" ca="1" si="71">Y60</f>
-        <v>A6BAF453</v>
+        <v>B02BCC87</v>
       </c>
       <c r="AA61" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>FFEC7EF4</v>
+        <v>E549174D</v>
       </c>
       <c r="AB61" t="str">
         <f t="shared" ca="1" si="71"/>
-        <v>F707CD1D</v>
+        <v>1A1EB8DC</v>
       </c>
       <c r="AC61" s="19" t="str">
         <f t="shared" ca="1" si="71"/>
-        <v>589009C7</v>
+        <v>13A074EB</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.3">
@@ -9948,11 +9945,11 @@
       </c>
       <c r="R62" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>E49407F9</v>
+        <v>E41DCE49</v>
       </c>
       <c r="S62" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C9280FF3</v>
+        <v>C83B9C93</v>
       </c>
       <c r="U62">
         <v>48</v>
@@ -9962,31 +9959,31 @@
       </c>
       <c r="W62" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>F7AEFC55</v>
+        <v>B00B9CCD</v>
       </c>
       <c r="X62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>581B26E9</v>
+        <v>17714CB2</v>
       </c>
       <c r="Y62" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>581B26E9</v>
+        <v>17714CB2</v>
       </c>
       <c r="Z62" t="str">
         <f t="shared" ref="Z62:AC62" ca="1" si="72">Y61</f>
-        <v>F57CC29F</v>
+        <v>5FE36F0C</v>
       </c>
       <c r="AA62" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>E9AEBD14</v>
+        <v>EC0AF321</v>
       </c>
       <c r="AB62" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>FFEC7EF4</v>
+        <v>E549174D</v>
       </c>
       <c r="AC62" s="19" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>F707CD1D</v>
+        <v>1A1EB8DC</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.3">
@@ -10040,11 +10037,11 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>A41AD07B</v>
+        <v>A40ADACB</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>4835A0F7</v>
+        <v>4815B597</v>
       </c>
       <c r="U63">
         <v>49</v>
@@ -10054,31 +10051,31 @@
       </c>
       <c r="W63" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>FDECFE94</v>
+        <v>ED4B770D</v>
       </c>
       <c r="X63" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CFAB06AF</v>
+        <v>CCC5389E</v>
       </c>
       <c r="Y63" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CFAB06AF</v>
+        <v>CCC5389E</v>
       </c>
       <c r="Z63" t="str">
         <f t="shared" ref="Z63:AC63" ca="1" si="73">Y62</f>
-        <v>581B26E9</v>
+        <v>17714CB2</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>FD5F30A7</v>
+        <v>17F8DBC3</v>
       </c>
       <c r="AB63" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>E9AEBD14</v>
+        <v>EC0AF321</v>
       </c>
       <c r="AC63" s="19" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>FFEC7EF4</v>
+        <v>E549174D</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.3">
@@ -10132,11 +10129,11 @@
       </c>
       <c r="R64" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>61A5830B</v>
+        <v>61F34E03</v>
       </c>
       <c r="S64" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C34B0616</v>
+        <v>C3E69C06</v>
       </c>
       <c r="U64">
         <v>50</v>
@@ -10146,31 +10143,31 @@
       </c>
       <c r="W64" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>F91F34A5</v>
+        <v>1778DBA3</v>
       </c>
       <c r="X64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>40D34C84</v>
+        <v>E86B5FAB</v>
       </c>
       <c r="Y64" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>40D34C84</v>
+        <v>E86B5FAB</v>
       </c>
       <c r="Z64" t="str">
         <f t="shared" ref="Z64:AC64" ca="1" si="74">Y63</f>
-        <v>CFAB06AF</v>
+        <v>CCC5389E</v>
       </c>
       <c r="AA64" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>5606C9BA</v>
+        <v>85DC532C</v>
       </c>
       <c r="AB64" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>FD5F30A7</v>
+        <v>17F8DBC3</v>
       </c>
       <c r="AC64" s="19" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>E9AEBD14</v>
+        <v>EC0AF321</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.3">
@@ -10224,11 +10221,11 @@
       </c>
       <c r="R65" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>FED01C15</v>
+        <v>FFC1AC15</v>
       </c>
       <c r="S65" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>FDA0382B</v>
+        <v>FF83582B</v>
       </c>
       <c r="U65">
         <v>51</v>
@@ -10238,31 +10235,31 @@
       </c>
       <c r="W65" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>DF0F00AF</v>
+        <v>85DC5B8E</v>
       </c>
       <c r="X65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6FE34352</v>
+        <v>0DF25933</v>
       </c>
       <c r="Y65" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6FE34352</v>
+        <v>0DF25933</v>
       </c>
       <c r="Z65" t="str">
         <f t="shared" ref="Z65:AC65" ca="1" si="75">Y64</f>
-        <v>40D34C84</v>
+        <v>E86B5FAB</v>
       </c>
       <c r="AA65" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F3EAC1AB</v>
+        <v>B3314E27</v>
       </c>
       <c r="AB65" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>5606C9BA</v>
+        <v>85DC532C</v>
       </c>
       <c r="AC65" s="19" t="str">
         <f t="shared" ca="1" si="75"/>
-        <v>FD5F30A7</v>
+        <v>17F8DBC3</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.3">
@@ -10316,11 +10313,11 @@
       </c>
       <c r="R66" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFFF9E15</v>
+        <v>BFEE8515</v>
       </c>
       <c r="S66" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FFF3C2B</v>
+        <v>7FDD0A2B</v>
       </c>
       <c r="U66">
         <v>52</v>
@@ -10330,31 +10327,31 @@
       </c>
       <c r="W66" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>52C2C9AA</v>
+        <v>A1795F2F</v>
       </c>
       <c r="X66" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5BA55DA5</v>
+        <v>86B6285A</v>
       </c>
       <c r="Y66" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5BA55DA5</v>
+        <v>86B6285A</v>
       </c>
       <c r="Z66" t="str">
         <f t="shared" ref="Z66:AC66" ca="1" si="76">Y65</f>
-        <v>6FE34352</v>
+        <v>0DF25933</v>
       </c>
       <c r="AA66" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1034D321</v>
+        <v>FA1AD7EA</v>
       </c>
       <c r="AB66" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>F3EAC1AB</v>
+        <v>B3314E27</v>
       </c>
       <c r="AC66" s="19" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>5606C9BA</v>
+        <v>85DC532C</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.3">
@@ -10408,11 +10405,11 @@
       </c>
       <c r="R67" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>740598F4</v>
+        <v>7400CF84</v>
       </c>
       <c r="S67" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>E80B31E8</v>
+        <v>E8019F08</v>
       </c>
       <c r="U67">
         <v>53</v>
@@ -10422,31 +10419,31 @@
       </c>
       <c r="W67" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>73E2C323</v>
+        <v>BB325F23</v>
       </c>
       <c r="X67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B5BC304C</v>
+        <v>8EF11983</v>
       </c>
       <c r="Y67" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B5BC304C</v>
+        <v>8EF11983</v>
       </c>
       <c r="Z67" t="str">
         <f t="shared" ref="Z67:AC67" ca="1" si="77">Y66</f>
-        <v>5BA55DA5</v>
+        <v>86B6285A</v>
       </c>
       <c r="AA67" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>9BF8D0D4</v>
+        <v>C37C964C</v>
       </c>
       <c r="AB67" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v>1034D321</v>
+        <v>FA1AD7EA</v>
       </c>
       <c r="AC67" s="19" t="str">
         <f t="shared" ca="1" si="77"/>
-        <v>F3EAC1AB</v>
+        <v>B3314E27</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.3">
@@ -10500,11 +10497,11 @@
       </c>
       <c r="R68" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>59B8BB12</v>
+        <v>5B8BD1A2</v>
       </c>
       <c r="S68" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>B3717624</v>
+        <v>B717A344</v>
       </c>
       <c r="U68">
         <v>54</v>
@@ -10514,31 +10511,31 @@
       </c>
       <c r="W68" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>1BB4D1A5</v>
+        <v>C23E964A</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>09B2CFE6</v>
+        <v>99C67502</v>
       </c>
       <c r="Y68" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>09B2CFE6</v>
+        <v>99C67502</v>
       </c>
       <c r="Z68" t="str">
         <f t="shared" ref="Z68:AC68" ca="1" si="78">Y67</f>
-        <v>B5BC304C</v>
+        <v>8EF11983</v>
       </c>
       <c r="AA68" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>56E95769</v>
+        <v>A1AD8A16</v>
       </c>
       <c r="AB68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9BF8D0D4</v>
+        <v>C37C964C</v>
       </c>
       <c r="AC68" s="19" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1034D321</v>
+        <v>FA1AD7EA</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.3">
@@ -10606,31 +10603,31 @@
       </c>
       <c r="W69" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>97F8504C</v>
+        <v>83FD9A06</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6DEAF7D2</v>
+        <v>464AE9E7</v>
       </c>
       <c r="Y69" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6DEAF7D2</v>
+        <v>464AE9E7</v>
       </c>
       <c r="Z69" t="str">
         <f t="shared" ref="Z69:AC69" ca="1" si="79">Y68</f>
-        <v>09B2CFE6</v>
+        <v>99C67502</v>
       </c>
       <c r="AA69" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2D6F0C13</v>
+        <v>E3BC4660</v>
       </c>
       <c r="AB69" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>56E95769</v>
+        <v>A1AD8A16</v>
       </c>
       <c r="AC69" s="19" t="str">
         <f t="shared" ca="1" si="79"/>
-        <v>9BF8D0D4</v>
+        <v>C37C964C</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.3">
@@ -10684,11 +10681,11 @@
       </c>
       <c r="R70" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>DE94089D</v>
+        <v>DFC9591D</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>BD28113B</v>
+        <v>BF92B23B</v>
       </c>
       <c r="U70">
         <v>56</v>
@@ -10698,31 +10695,31 @@
       </c>
       <c r="W70" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>0DEB4F63</v>
+        <v>A1AC4602</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>B386E89B</v>
+        <v>7D34884D</v>
       </c>
       <c r="Y70" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>B386E89B</v>
+        <v>7D34884D</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" ref="Z70:AC70" ca="1" si="80">Y69</f>
-        <v>6DEAF7D2</v>
+        <v>464AE9E7</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>826CB3F9</v>
+        <v>A6719D40</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" ca="1" si="80"/>
-        <v>2D6F0C13</v>
+        <v>E3BC4660</v>
       </c>
       <c r="AC70" s="19" t="str">
         <f t="shared" ca="1" si="80"/>
-        <v>56E95769</v>
+        <v>A1AD8A16</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.3">
@@ -10776,11 +10773,11 @@
       </c>
       <c r="R71" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>FB40567B</v>
+        <v>FF06967B</v>
       </c>
       <c r="S71" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>F680ACF7</v>
+        <v>FE0D2CF7</v>
       </c>
       <c r="U71">
         <v>57</v>
@@ -10790,31 +10787,31 @@
       </c>
       <c r="W71" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2D6EB7D3</v>
+        <v>E678CD60</v>
       </c>
       <c r="X71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7AD18C85</v>
+        <v>BBE04AF8</v>
       </c>
       <c r="Y71" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>7AD18C85</v>
+        <v>BBE04AF8</v>
       </c>
       <c r="Z71" t="str">
         <f t="shared" ref="Z71:AC71" ca="1" si="81">Y70</f>
-        <v>B386E89B</v>
+        <v>7D34884D</v>
       </c>
       <c r="AA71" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>9B7ABDF4</v>
+        <v>D192BA79</v>
       </c>
       <c r="AB71" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>826CB3F9</v>
+        <v>A6719D40</v>
       </c>
       <c r="AC71" s="19" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>2D6F0C13</v>
+        <v>E3BC4660</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.3">
@@ -10868,11 +10865,11 @@
       </c>
       <c r="R72" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>AB678C3B</v>
+        <v>ABA6E2CB</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>56CF1877</v>
+        <v>574DC597</v>
       </c>
       <c r="U72">
         <v>58</v>
@@ -10882,31 +10879,31 @@
       </c>
       <c r="W72" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>936EB9F9</v>
+        <v>F5309849</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>00FA2C0E</v>
+        <v>3B5FC033</v>
       </c>
       <c r="Y72" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>00FA2C0E</v>
+        <v>3B5FC033</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" ref="Z72:AC72" ca="1" si="82">Y71</f>
-        <v>7AD18C85</v>
+        <v>BBE04AF8</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ECE1BA26</v>
+        <v>5F4D2213</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>9B7ABDF4</v>
+        <v>D192BA79</v>
       </c>
       <c r="AC72" s="19" t="str">
         <f t="shared" ca="1" si="82"/>
-        <v>826CB3F9</v>
+        <v>A6719D40</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.3">
@@ -10960,11 +10957,11 @@
       </c>
       <c r="R73" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFE4B071</v>
+        <v>BFF5AB71</v>
       </c>
       <c r="S73" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FC960E3</v>
+        <v>7FEB56E3</v>
       </c>
       <c r="U73">
         <v>59</v>
@@ -10974,31 +10971,31 @@
       </c>
       <c r="W73" s="7" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>FAF1BCA4</v>
+        <v>DBC02A79</v>
       </c>
       <c r="X73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AB89101C</v>
+        <v>FD30E1DF</v>
       </c>
       <c r="Y73" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>AB89101C</v>
+        <v>FD30E1DF</v>
       </c>
       <c r="Z73" t="str">
         <f t="shared" ref="Z73:AC73" ca="1" si="83">Y72</f>
-        <v>00FA2C0E</v>
+        <v>3B5FC033</v>
       </c>
       <c r="AA73" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>5EB46321</v>
+        <v>2EF812BE</v>
       </c>
       <c r="AB73" t="str">
         <f t="shared" ca="1" si="83"/>
-        <v>ECE1BA26</v>
+        <v>5F4D2213</v>
       </c>
       <c r="AC73" s="19" t="str">
         <f t="shared" ca="1" si="83"/>
-        <v>9B7ABDF4</v>
+        <v>D192BA79</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.3">
@@ -11052,11 +11049,11 @@
       </c>
       <c r="R74" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>52BF86EE</v>
+        <v>5A220C5E</v>
       </c>
       <c r="S74" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>A57F0DDC</v>
+        <v>B44418BC</v>
       </c>
       <c r="U74" s="12">
         <v>60</v>
@@ -11066,31 +11063,31 @@
       </c>
       <c r="W74" s="13" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>4CF02A26</v>
+        <v>3F5D0233</v>
       </c>
       <c r="X74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8E27B667</v>
+        <v>FA6BCE43</v>
       </c>
       <c r="Y74" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8E27B667</v>
+        <v>FA6BCE43</v>
       </c>
       <c r="Z74" t="str">
         <f t="shared" ref="Z74:AC74" ca="1" si="84">Y73</f>
-        <v>AB89101C</v>
+        <v>FD30E1DF</v>
       </c>
       <c r="AA74" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>803E8B03</v>
+        <v>CED7F00C</v>
       </c>
       <c r="AB74" t="str">
         <f t="shared" ca="1" si="84"/>
-        <v>5EB46321</v>
+        <v>2EF812BE</v>
       </c>
       <c r="AC74" s="19" t="str">
         <f t="shared" ca="1" si="84"/>
-        <v>ECE1BA26</v>
+        <v>5F4D2213</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.3">
@@ -11144,11 +11141,11 @@
       </c>
       <c r="R75" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>41AD073A</v>
+        <v>40ADAC3A</v>
       </c>
       <c r="S75" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>835A0E74</v>
+        <v>815B5874</v>
       </c>
       <c r="U75">
         <v>61</v>
@@ -11158,31 +11155,31 @@
       </c>
       <c r="W75" s="7" t="str">
         <f t="shared" ref="W75:W94" ca="1" si="85">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z74),HEX2DEC(AA74)),HEX2DEC(AB74)),8)</f>
-        <v>7503F83E</v>
+        <v>1D1F036D</v>
       </c>
       <c r="X75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>74994F9F</v>
+        <v>15A40849</v>
       </c>
       <c r="Y75" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>74994F9F</v>
+        <v>15A40849</v>
       </c>
       <c r="Z75" t="str">
         <f t="shared" ref="Z75:AC75" ca="1" si="86">Y74</f>
-        <v>8E27B667</v>
+        <v>FA6BCE43</v>
       </c>
       <c r="AA75" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2AE24407</v>
+        <v>FF4C3877</v>
       </c>
       <c r="AB75" t="str">
         <f t="shared" ca="1" si="86"/>
-        <v>803E8B03</v>
+        <v>CED7F00C</v>
       </c>
       <c r="AC75" s="19" t="str">
         <f t="shared" ca="1" si="86"/>
-        <v>5EB46321</v>
+        <v>2EF812BE</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.3">
@@ -11236,11 +11233,11 @@
       </c>
       <c r="R76" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>7E7C5B85</v>
+        <v>7B33ACB5</v>
       </c>
       <c r="S76" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>FCF8B70A</v>
+        <v>F667596A</v>
       </c>
       <c r="U76">
         <v>62</v>
@@ -11250,31 +11247,31 @@
       </c>
       <c r="W76" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>24FB7963</v>
+        <v>CBF00638</v>
       </c>
       <c r="X76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DE354952</v>
+        <v>70333D58</v>
       </c>
       <c r="Y76" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>DE354952</v>
+        <v>70333D58</v>
       </c>
       <c r="Z76" t="str">
         <f t="shared" ref="Z76:AC76" ca="1" si="88">Y75</f>
-        <v>74994F9F</v>
+        <v>15A40849</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>E389ED99</v>
+        <v>FE9AF390</v>
       </c>
       <c r="AB76" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>2AE24407</v>
+        <v>FF4C3877</v>
       </c>
       <c r="AC76" s="19" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>803E8B03</v>
+        <v>CED7F00C</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.3">
@@ -11328,11 +11325,11 @@
       </c>
       <c r="R77" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>ED03818F</v>
+        <v>FC18818F</v>
       </c>
       <c r="S77" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>DA07031F</v>
+        <v>F831031F</v>
       </c>
       <c r="U77">
         <v>63</v>
@@ -11342,31 +11339,31 @@
       </c>
       <c r="W77" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>BDF2E601</v>
+        <v>1472C3AE</v>
       </c>
       <c r="X77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A9446054</v>
+        <v>AC4623BD</v>
       </c>
       <c r="Y77" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A9446054</v>
+        <v>AC4623BD</v>
       </c>
       <c r="Z77" t="str">
         <f t="shared" ref="Z77:AC77" ca="1" si="89">Y76</f>
-        <v>DE354952</v>
+        <v>70333D58</v>
       </c>
       <c r="AA77" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>DD2653E7</v>
+        <v>45690212</v>
       </c>
       <c r="AB77" t="str">
         <f t="shared" ca="1" si="89"/>
-        <v>E389ED99</v>
+        <v>FE9AF390</v>
       </c>
       <c r="AC77" s="19" t="str">
         <f t="shared" ca="1" si="89"/>
-        <v>2AE24407</v>
+        <v>FF4C3877</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.3">
@@ -11420,11 +11417,11 @@
       </c>
       <c r="R78" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>341116AA</v>
+        <v>3514EADA</v>
       </c>
       <c r="S78" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>68222D54</v>
+        <v>6A29D5B4</v>
       </c>
       <c r="U78">
         <v>64</v>
@@ -11434,31 +11431,31 @@
       </c>
       <c r="W78" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>E09AF72C</v>
+        <v>CBC0CCDA</v>
       </c>
       <c r="X78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>668E34F2</v>
+        <v>885E1490</v>
       </c>
       <c r="Y78" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>668E34F2</v>
+        <v>885E1490</v>
       </c>
       <c r="Z78" t="str">
         <f t="shared" ref="Z78:AC78" ca="1" si="90">Y77</f>
-        <v>A9446054</v>
+        <v>AC4623BD</v>
       </c>
       <c r="AA78" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B78D5254</v>
+        <v>1C0CCF56</v>
       </c>
       <c r="AB78" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>DD2653E7</v>
+        <v>45690212</v>
       </c>
       <c r="AC78" s="19" t="str">
         <f t="shared" ca="1" si="90"/>
-        <v>E389ED99</v>
+        <v>FE9AF390</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.3">
@@ -11512,11 +11509,11 @@
       </c>
       <c r="R79" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>BFED8321</v>
+        <v>BFFC9821</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>7FDB0643</v>
+        <v>7FF93043</v>
       </c>
       <c r="U79">
         <v>65</v>
@@ -11526,31 +11523,31 @@
       </c>
       <c r="W79" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>C3EF61E7</v>
+        <v>F523EEF9</v>
       </c>
       <c r="X79" t="str">
         <f t="shared" ref="X79:X94" ca="1" si="92">DEC2HEX(MOD(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(Y78),5),_xlfn.BITRSHIFT(HEX2DEC(Y78),27)),4294967295)+HEX2DEC(W79)+HEX2DEC(AC78)+HEX2DEC(V79)+HEX2DEC(S79),4294967296),8)</f>
-        <v>C37DB5E5</v>
+        <v>49DD66B3</v>
       </c>
       <c r="Y79" s="7" t="str">
         <f t="shared" ref="Y79:Y94" ca="1" si="93">X79</f>
-        <v>C37DB5E5</v>
+        <v>49DD66B3</v>
       </c>
       <c r="Z79" t="str">
         <f t="shared" ref="Z79:AC79" ca="1" si="94">Y78</f>
-        <v>668E34F2</v>
+        <v>885E1490</v>
       </c>
       <c r="AA79" t="str">
         <f t="shared" ref="AA79:AA94" ca="1" si="95">DEC2HEX(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(MOD(HEX2DEC(Z78),4),30),_xlfn.BITRSHIFT(HEX2DEC(Z78),2)),4294967295),8)</f>
-        <v>2A511815</v>
+        <v>6B1188EF</v>
       </c>
       <c r="AB79" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v>B78D5254</v>
+        <v>1C0CCF56</v>
       </c>
       <c r="AC79" s="19" t="str">
         <f t="shared" ca="1" si="94"/>
-        <v>DD2653E7</v>
+        <v>45690212</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.3">
@@ -11604,11 +11601,11 @@
       </c>
       <c r="R80" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>307C2155</v>
+        <v>134750A5</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>60F842AA</v>
+        <v>268EA14A</v>
       </c>
       <c r="U80">
         <v>66</v>
@@ -11618,31 +11615,31 @@
       </c>
       <c r="W80" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>FB527EB3</v>
+        <v>FF435329</v>
       </c>
       <c r="X80" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>738A93D2</v>
+        <v>714A8EC4</v>
       </c>
       <c r="Y80" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>738A93D2</v>
+        <v>714A8EC4</v>
       </c>
       <c r="Z80" t="str">
         <f t="shared" ref="Z80:AC80" ca="1" si="100">Y79</f>
-        <v>C37DB5E5</v>
+        <v>49DD66B3</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>99A38D3C</v>
+        <v>22178524</v>
       </c>
       <c r="AB80" t="str">
         <f t="shared" ca="1" si="100"/>
-        <v>2A511815</v>
+        <v>6B1188EF</v>
       </c>
       <c r="AC80" s="19" t="str">
         <f t="shared" ca="1" si="100"/>
-        <v>B78D5254</v>
+        <v>1C0CCF56</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.3">
@@ -11710,31 +11707,31 @@
       </c>
       <c r="W81" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>708F20CC</v>
+        <v>00DB6B78</v>
       </c>
       <c r="X81" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>6852382C</v>
+        <v>151D5E1A</v>
       </c>
       <c r="Y81" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>6852382C</v>
+        <v>151D5E1A</v>
       </c>
       <c r="Z81" t="str">
         <f t="shared" ref="Z81:AC81" ca="1" si="101">Y80</f>
-        <v>738A93D2</v>
+        <v>714A8EC4</v>
       </c>
       <c r="AA81" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>70DF6D79</v>
+        <v>D27759AC</v>
       </c>
       <c r="AB81" t="str">
         <f t="shared" ca="1" si="101"/>
-        <v>99A38D3C</v>
+        <v>22178524</v>
       </c>
       <c r="AC81" s="19" t="str">
         <f t="shared" ca="1" si="101"/>
-        <v>2A511815</v>
+        <v>6B1188EF</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.3">
@@ -11788,11 +11785,11 @@
       </c>
       <c r="R82" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>162A4190</v>
+        <v>03778190</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>2C548320</v>
+        <v>06EF0320</v>
       </c>
       <c r="U82">
         <v>68</v>
@@ -11802,31 +11799,31 @@
       </c>
       <c r="W82" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>9AF67397</v>
+        <v>812A524C</v>
       </c>
       <c r="X82" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>C645D62F</v>
+        <v>61396373</v>
       </c>
       <c r="Y82" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>C645D62F</v>
+        <v>61396373</v>
       </c>
       <c r="Z82" t="str">
         <f t="shared" ref="Z82:AC82" ca="1" si="102">Y81</f>
-        <v>6852382C</v>
+        <v>151D5E1A</v>
       </c>
       <c r="AA82" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>9CE2A4F4</v>
+        <v>1C52A3B1</v>
       </c>
       <c r="AB82" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>70DF6D79</v>
+        <v>D27759AC</v>
       </c>
       <c r="AC82" s="19" t="str">
         <f t="shared" ca="1" si="102"/>
-        <v>99A38D3C</v>
+        <v>22178524</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.3">
@@ -11880,11 +11877,11 @@
       </c>
       <c r="R83" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>0BE167FE</v>
+        <v>4F9C7CFE</v>
       </c>
       <c r="S83" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>17C2CFFC</v>
+        <v>9F38F9FC</v>
       </c>
       <c r="U83">
         <v>69</v>
@@ -11894,31 +11891,31 @@
       </c>
       <c r="W83" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>846FF1A1</v>
+        <v>DB38A407</v>
       </c>
       <c r="X83" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>C8F3D6A7</v>
+        <v>8E185369</v>
       </c>
       <c r="Y83" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>C8F3D6A7</v>
+        <v>8E185369</v>
       </c>
       <c r="Z83" t="str">
         <f t="shared" ref="Z83:AC83" ca="1" si="103">Y82</f>
-        <v>C645D62F</v>
+        <v>61396373</v>
       </c>
       <c r="AA83" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>1A148E0B</v>
+        <v>85475786</v>
       </c>
       <c r="AB83" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>9CE2A4F4</v>
+        <v>1C52A3B1</v>
       </c>
       <c r="AC83" s="19" t="str">
         <f t="shared" ca="1" si="103"/>
-        <v>70DF6D79</v>
+        <v>D27759AC</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.3">
@@ -11972,11 +11969,11 @@
       </c>
       <c r="R84" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>F62158FD</v>
+        <v>FA62C0FD</v>
       </c>
       <c r="S84" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>EC42B1FB</v>
+        <v>F4C581FB</v>
       </c>
       <c r="U84">
         <v>70</v>
@@ -11986,31 +11983,31 @@
       </c>
       <c r="W84" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>40B3FCD0</v>
+        <v>F82C9744</v>
       </c>
       <c r="X84" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>86B3B313</v>
+        <v>4CD6A1F2</v>
       </c>
       <c r="Y84" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>86B3B313</v>
+        <v>4CD6A1F2</v>
       </c>
       <c r="Z84" t="str">
         <f t="shared" ref="Z84:AC84" ca="1" si="104">Y83</f>
-        <v>C8F3D6A7</v>
+        <v>8E185369</v>
       </c>
       <c r="AA84" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>F191758B</v>
+        <v>D84E58DC</v>
       </c>
       <c r="AB84" t="str">
         <f t="shared" ca="1" si="104"/>
-        <v>1A148E0B</v>
+        <v>85475786</v>
       </c>
       <c r="AC84" s="19" t="str">
         <f t="shared" ca="1" si="104"/>
-        <v>9CE2A4F4</v>
+        <v>1C52A3B1</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.3">
@@ -12078,31 +12075,31 @@
       </c>
       <c r="W85" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>23762D27</v>
+        <v>D3115C33</v>
       </c>
       <c r="X85" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>62686261</v>
+        <v>55D16C03</v>
       </c>
       <c r="Y85" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>62686261</v>
+        <v>55D16C03</v>
       </c>
       <c r="Z85" t="str">
         <f t="shared" ref="Z85:AC85" ca="1" si="105">Y84</f>
-        <v>86B3B313</v>
+        <v>4CD6A1F2</v>
       </c>
       <c r="AA85" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>F23CF5A9</v>
+        <v>638614DA</v>
       </c>
       <c r="AB85" t="str">
         <f t="shared" ca="1" si="105"/>
-        <v>F191758B</v>
+        <v>D84E58DC</v>
       </c>
       <c r="AC85" s="19" t="str">
         <f t="shared" ca="1" si="105"/>
-        <v>1A148E0B</v>
+        <v>85475786</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.3">
@@ -12156,11 +12153,11 @@
       </c>
       <c r="R86" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>9407EBE4</v>
+        <v>1DCE5BE4</v>
       </c>
       <c r="S86" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>280FD7C9</v>
+        <v>3B9CB7C8</v>
       </c>
       <c r="U86">
         <v>72</v>
@@ -12170,31 +12167,31 @@
       </c>
       <c r="W86" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>851E3331</v>
+        <v>F71EEDF4</v>
       </c>
       <c r="X86" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>DEB1A707</v>
+        <v>3C933F82</v>
       </c>
       <c r="Y86" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>DEB1A707</v>
+        <v>3C933F82</v>
       </c>
       <c r="Z86" t="str">
         <f t="shared" ref="Z86:AC86" ca="1" si="106">Y85</f>
-        <v>62686261</v>
+        <v>55D16C03</v>
       </c>
       <c r="AA86" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>E1ACECC4</v>
+        <v>9335A87C</v>
       </c>
       <c r="AB86" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>F23CF5A9</v>
+        <v>638614DA</v>
       </c>
       <c r="AC86" s="19" t="str">
         <f t="shared" ca="1" si="106"/>
-        <v>F191758B</v>
+        <v>D84E58DC</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.3">
@@ -12248,11 +12245,11 @@
       </c>
       <c r="R87" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>1AD07BAC</v>
+        <v>0ADACBAC</v>
       </c>
       <c r="S87" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>35A0F758</v>
+        <v>15B59758</v>
       </c>
       <c r="U87">
         <v>73</v>
@@ -12262,31 +12259,31 @@
       </c>
       <c r="W87" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>71F87B0C</v>
+        <v>A562D0A5</v>
       </c>
       <c r="X87" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>39C28AC0</v>
+        <v>F03172F6</v>
       </c>
       <c r="Y87" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>39C28AC0</v>
+        <v>F03172F6</v>
       </c>
       <c r="Z87" t="str">
         <f t="shared" ref="Z87:AC87" ca="1" si="107">Y86</f>
-        <v>DEB1A707</v>
+        <v>3C933F82</v>
       </c>
       <c r="AA87" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>589A1898</v>
+        <v>D5745B00</v>
       </c>
       <c r="AB87" t="str">
         <f t="shared" ca="1" si="107"/>
-        <v>E1ACECC4</v>
+        <v>9335A87C</v>
       </c>
       <c r="AC87" s="19" t="str">
         <f t="shared" ca="1" si="107"/>
-        <v>F23CF5A9</v>
+        <v>638614DA</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.3">
@@ -12340,11 +12337,11 @@
       </c>
       <c r="R88" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>927E3B01</v>
+        <v>C4B11061</v>
       </c>
       <c r="S88" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>24FC7603</v>
+        <v>896220C3</v>
       </c>
       <c r="U88">
         <v>74</v>
@@ -12354,31 +12351,31 @@
       </c>
       <c r="W88" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>6787535B</v>
+        <v>7AD2CCFE</v>
       </c>
       <c r="X88" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>8174D8E4</v>
+        <v>384C234F</v>
       </c>
       <c r="Y88" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>8174D8E4</v>
+        <v>384C234F</v>
       </c>
       <c r="Z88" t="str">
         <f t="shared" ref="Z88:AC88" ca="1" si="108">Y87</f>
-        <v>39C28AC0</v>
+        <v>F03172F6</v>
       </c>
       <c r="AA88" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>F7AC69C1</v>
+        <v>8F24CFE0</v>
       </c>
       <c r="AB88" t="str">
         <f t="shared" ca="1" si="108"/>
-        <v>589A1898</v>
+        <v>D5745B00</v>
       </c>
       <c r="AC88" s="19" t="str">
         <f t="shared" ca="1" si="108"/>
-        <v>E1ACECC4</v>
+        <v>9335A87C</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.3">
@@ -12432,11 +12429,11 @@
       </c>
       <c r="R89" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>D01C31B6</v>
+        <v>C1AC31B7</v>
       </c>
       <c r="S89" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>A038636D</v>
+        <v>8358636F</v>
       </c>
       <c r="U89">
         <v>75</v>
@@ -12446,31 +12443,31 @@
       </c>
       <c r="W89" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>96F4FB99</v>
+        <v>AA61E616</v>
       </c>
       <c r="X89" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>11D82A30</v>
+        <v>94D71DBE</v>
       </c>
       <c r="Y89" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>11D82A30</v>
+        <v>94D71DBE</v>
       </c>
       <c r="Z89" t="str">
         <f t="shared" ref="Z89:AC89" ca="1" si="109">Y88</f>
-        <v>8174D8E4</v>
+        <v>384C234F</v>
       </c>
       <c r="AA89" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>0E70A2B0</v>
+        <v>BC0C5CBD</v>
       </c>
       <c r="AB89" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>F7AC69C1</v>
+        <v>8F24CFE0</v>
       </c>
       <c r="AC89" s="19" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>589A1898</v>
+        <v>D5745B00</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.3">
@@ -12524,11 +12521,11 @@
       </c>
       <c r="R90" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>4073CEAE</v>
+        <v>5179D5AE</v>
       </c>
       <c r="S90" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>80E79D5C</v>
+        <v>A2F3AB5C</v>
       </c>
       <c r="U90">
         <v>76</v>
@@ -12538,31 +12535,31 @@
       </c>
       <c r="W90" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>78A81395</v>
+        <v>0B64B012</v>
       </c>
       <c r="X90" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>5791D161</v>
+        <v>E9133016</v>
       </c>
       <c r="Y90" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>5791D161</v>
+        <v>E9133016</v>
       </c>
       <c r="Z90" t="str">
         <f t="shared" ref="Z90:AC90" ca="1" si="110">Y89</f>
-        <v>11D82A30</v>
+        <v>94D71DBE</v>
       </c>
       <c r="AA90" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>205D3639</v>
+        <v>CE1308D3</v>
       </c>
       <c r="AB90" t="str">
         <f t="shared" ca="1" si="110"/>
-        <v>0E70A2B0</v>
+        <v>BC0C5CBD</v>
       </c>
       <c r="AC90" s="19" t="str">
         <f t="shared" ca="1" si="110"/>
-        <v>F7AC69C1</v>
+        <v>8F24CFE0</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.3">
@@ -12616,11 +12613,11 @@
       </c>
       <c r="R91" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>6A63B494</v>
+        <v>6F308254</v>
       </c>
       <c r="S91" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>D4C76928</v>
+        <v>DE6104A8</v>
       </c>
       <c r="U91">
         <v>77</v>
@@ -12630,31 +12627,31 @@
       </c>
       <c r="W91" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>3FF5BEB9</v>
+        <v>E6C849D0</v>
       </c>
       <c r="X91" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>C9067FA2</v>
+        <v>4116E30B</v>
       </c>
       <c r="Y91" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>C9067FA2</v>
+        <v>4116E30B</v>
       </c>
       <c r="Z91" t="str">
         <f t="shared" ref="Z91:AC91" ca="1" si="111">Y90</f>
-        <v>5791D161</v>
+        <v>E9133016</v>
       </c>
       <c r="AA91" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>04760A8C</v>
+        <v>A535C76F</v>
       </c>
       <c r="AB91" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>205D3639</v>
+        <v>CE1308D3</v>
       </c>
       <c r="AC91" s="19" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>0E70A2B0</v>
+        <v>BC0C5CBD</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.3">
@@ -12708,11 +12705,11 @@
       </c>
       <c r="R92" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>D8A048C8</v>
+        <v>EBD36E4A</v>
       </c>
       <c r="S92" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>B1409191</v>
+        <v>D7A6DC95</v>
       </c>
       <c r="U92">
         <v>78</v>
@@ -12722,31 +12719,31 @@
       </c>
       <c r="W92" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>73BAEDD4</v>
+        <v>8235FFAA</v>
       </c>
       <c r="X92" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>1E9ED844</v>
+        <v>03285C3A</v>
       </c>
       <c r="Y92" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>1E9ED844</v>
+        <v>03285C3A</v>
       </c>
       <c r="Z92" t="str">
         <f t="shared" ref="Z92:AC92" ca="1" si="112">Y91</f>
-        <v>C9067FA2</v>
+        <v>4116E30B</v>
       </c>
       <c r="AA92" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>55E47458</v>
+        <v>BA44CC05</v>
       </c>
       <c r="AB92" t="str">
         <f t="shared" ca="1" si="112"/>
-        <v>04760A8C</v>
+        <v>A535C76F</v>
       </c>
       <c r="AC92" s="19" t="str">
         <f t="shared" ca="1" si="112"/>
-        <v>205D3639</v>
+        <v>CE1308D3</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.3">
@@ -12814,31 +12811,31 @@
       </c>
       <c r="W93" s="7" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>98940176</v>
+        <v>5E67E861</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>9F4AEA08</v>
+        <v>A405224A</v>
       </c>
       <c r="Y93" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>9F4AEA08</v>
+        <v>A405224A</v>
       </c>
       <c r="Z93" t="str">
         <f t="shared" ref="Z93:AC93" ca="1" si="113">Y92</f>
-        <v>1E9ED844</v>
+        <v>03285C3A</v>
       </c>
       <c r="AA93" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>B2419FE8</v>
+        <v>D045B8C2</v>
       </c>
       <c r="AB93" t="str">
         <f t="shared" ca="1" si="113"/>
-        <v>55E47458</v>
+        <v>BA44CC05</v>
       </c>
       <c r="AC93" s="19" t="str">
         <f t="shared" ca="1" si="113"/>
-        <v>04760A8C</v>
+        <v>A535C76F</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.3">
@@ -12892,11 +12889,11 @@
       </c>
       <c r="R94" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>F412D11F</v>
+        <v>A95AC79E</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>E825A23F</v>
+        <v>52B58F3D</v>
       </c>
       <c r="U94" s="12">
         <v>80</v>
@@ -12906,31 +12903,31 @@
       </c>
       <c r="W94" s="13" t="str">
         <f t="shared" ca="1" si="85"/>
-        <v>F93B33F4</v>
+        <v>692928FD</v>
       </c>
       <c r="X94" s="12" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>9996E3A8</v>
+        <v>AC1B8AD3</v>
       </c>
       <c r="Y94" s="7" t="str">
         <f t="shared" ca="1" si="93"/>
-        <v>9996E3A8</v>
+        <v>AC1B8AD3</v>
       </c>
       <c r="Z94" t="str">
         <f t="shared" ref="Z94:AC94" ca="1" si="114">Y93</f>
-        <v>9F4AEA08</v>
+        <v>A405224A</v>
       </c>
       <c r="AA94" t="str">
         <f t="shared" ca="1" si="95"/>
-        <v>07A7B611</v>
+        <v>80CA170E</v>
       </c>
       <c r="AB94" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v>B2419FE8</v>
+        <v>D045B8C2</v>
       </c>
       <c r="AC94" s="19" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v>55E47458</v>
+        <v>BA44CC05</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.3">
@@ -12962,23 +12959,23 @@
       </c>
       <c r="Y95" s="21" t="str">
         <f t="shared" ref="Y95:AC95" ca="1" si="116">DEC2HEX(_xlfn.BITAND(HEX2DEC(Y94)+HEX2DEC(Y14),4294967295),8)</f>
-        <v>021BE345</v>
+        <v>14A08A70</v>
       </c>
       <c r="Z95" s="22" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>A9EBB97E</v>
+        <v>AEA5F1C0</v>
       </c>
       <c r="AA95" s="22" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>6D1D59BD</v>
+        <v>E63FBABA</v>
       </c>
       <c r="AB95" s="22" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>4B10FD8B</v>
+        <v>69151665</v>
       </c>
       <c r="AC95" s="6" t="str">
         <f t="shared" ca="1" si="116"/>
-        <v>C02AD441</v>
+        <v>248B2BEE</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.3">
@@ -12988,17 +12985,17 @@
       </c>
       <c r="Y96" t="str">
         <f ca="1">Y95&amp;Z95&amp;AA95&amp;AB95&amp;AC95</f>
-        <v>021BE345A9EBB97E6D1D59BD4B10FD8BC02AD441</v>
+        <v>14A08A70AEA5F1C0E63FBABA69151665248B2BEE</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="39" t="str">
+      <c r="A101" s="38" t="str">
         <f ca="1">TOTP!F2</f>
-        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C021BE345A9EBB97E6D1D59BD4B10FD8BC02AD441</v>
+        <v>5C186E489B1E08EA6993D839660A8B9A29E22B835C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C5C14A08A70AEA5F1C0E63FBABA69151665248B2BEE</v>
       </c>
       <c r="B101" t="str" cm="1">
         <f t="array" aca="1" ref="B101" ca="1">_xlfn.TEXTJOIN("", TRUE, DEC2BIN(HEX2DEC(MID(UPPER(A101), ROW(INDIRECT("1:" &amp; LEN(A101))), 1)), 4))</f>
-        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000000001000011011111000110100010110101001111010111011100101111110011011010001110101011001101111010100101100010000111111011000101111000000001010101101010001000001</v>
+        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000001010010100000100010100111000010101110101001011111000111000000111001100011111110111010101110100110100100010101000101100110010100100100100010110010101111101110</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>32</v>
@@ -13035,7 +13032,7 @@
       </c>
       <c r="B102" t="str">
         <f ca="1">B101&amp;"1"&amp;REPT("0",J101)</f>
-        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000000001000011011111000110100010110101001111010111011100101111110011011010001110101011001101111010100101100010000111111011000101111000000001010101101010001000001100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+        <v>010111000001100001101110010010001001101100011110000010001110101001101001100100111101100000111001011001100000101010001011100110100010100111100010001010111000001101011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000001010010100000100010100111000010101110101001011111000111000000111001100011111110111010101110100110100100010101000101100110010100100100100010110010101111101110100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
       </c>
       <c r="E102" t="str">
         <f ca="1">"...("&amp;LEN(B102)&amp;")"</f>
@@ -13105,7 +13102,7 @@
       </c>
       <c r="B108" t="str">
         <f ca="1">B102&amp;B107</f>
-        <v>0101110000011000011011100100100010011011000111100000100011101010011010011001001111011000001110010110011000001010100010111001101000101001111000100010101110000011010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110000000010000110111110001101000101101010011110101110111001011111100110110100011101010110011011110101001011000100001111110110001011110000000010101011010100010000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
+        <v>0101110000011000011011100100100010011011000111100000100011101010011010011001001111011000001110010110011000001010100010111001101000101001111000100010101110000011010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110001011100010111000101110000010100101000001000101001110000101011101010010111110001110000001110011000111111101110101011101001101001000101010001011001100101001001001000101100101011111011101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
       </c>
       <c r="E108" t="str">
         <f ca="1">"...("&amp;LEN(B108)&amp;")"</f>
@@ -13120,7 +13117,7 @@
     <row r="112" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="str">
         <f ca="1">IF($F$101=1,J196,Y196)</f>
-        <v>D6B596198FE64103A1A13D9B1E87C04063699635</v>
+        <v>21D2DC14575B3E0262FD1AB425A532D3A0D8E3BF</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -13157,7 +13154,7 @@
       </c>
       <c r="Q113" s="5" t="str">
         <f ca="1">MID(B108,513,512)</f>
-        <v>00000010000110111110001101000101101010011110101110111001011111100110110100011101010110011011110101001011000100001111110110001011110000000010101011010100010000011000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
+        <v>00010100101000001000101001110000101011101010010111110001110000001110011000111111101110101011101001101001000101010001011001100101001001001000101100101011111011101000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001010100000</v>
       </c>
       <c r="R113" s="6"/>
       <c r="S113" t="str">
@@ -13318,15 +13315,15 @@
       </c>
       <c r="Q115" t="str">
         <f ca="1">MID($Q$113,32*(U115-1)+1,32)</f>
-        <v>00000010000110111110001101000101</v>
+        <v>00010100101000001000101001110000</v>
       </c>
       <c r="R115" t="str">
         <f ca="1">TEXT(BIN2HEX(MID(Q115,1,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q115,9,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q115,17,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q115,25,8),2),"00")</f>
-        <v>021BE345</v>
+        <v>14A08A70</v>
       </c>
       <c r="S115" t="str">
         <f t="shared" ref="S115:S130" ca="1" si="118">R115</f>
-        <v>021BE345</v>
+        <v>14A08A70</v>
       </c>
       <c r="U115">
         <v>1</v>
@@ -13340,11 +13337,11 @@
       </c>
       <c r="X115" t="str">
         <f t="shared" ref="X115:X178" ca="1" si="120">DEC2HEX(MOD(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(Y114),5),_xlfn.BITRSHIFT(HEX2DEC(Y114),27)),4294967295)+HEX2DEC(W115)+HEX2DEC(AC114)+HEX2DEC(V115)+HEX2DEC(S115),4294967296),8)</f>
-        <v>033CD157</v>
+        <v>15C17882</v>
       </c>
       <c r="Y115" s="7" t="str">
         <f t="shared" ref="Y115:Y178" ca="1" si="121">X115</f>
-        <v>033CD157</v>
+        <v>15C17882</v>
       </c>
       <c r="Z115" t="str">
         <f t="shared" ref="Z115:Z178" ca="1" si="122">Y114</f>
@@ -13412,15 +13409,15 @@
       </c>
       <c r="Q116" t="str">
         <f t="shared" ref="Q116:Q130" ca="1" si="135">MID($Q$113,32*(U116-1)+1,32)</f>
-        <v>10101001111010111011100101111110</v>
+        <v>10101110101001011111000111000000</v>
       </c>
       <c r="R116" t="str">
         <f t="shared" ref="R116:R130" ca="1" si="136">TEXT(BIN2HEX(MID(Q116,1,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q116,9,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q116,17,8),2),"00")&amp;TEXT(BIN2HEX(MID(Q116,25,8),2),"00")</f>
-        <v>A9EBB97E</v>
+        <v>AEA5F1C0</v>
       </c>
       <c r="S116" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>A9EBB97E</v>
+        <v>AEA5F1C0</v>
       </c>
       <c r="U116">
         <v>2</v>
@@ -13434,15 +13431,15 @@
       </c>
       <c r="X116" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>5E185CB7</v>
+        <v>B3677A5B</v>
       </c>
       <c r="Y116" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>5E185CB7</v>
+        <v>B3677A5B</v>
       </c>
       <c r="Z116" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>033CD157</v>
+        <v>15C17882</v>
       </c>
       <c r="AA116" t="str">
         <f t="shared" ca="1" si="123"/>
@@ -13506,15 +13503,15 @@
       </c>
       <c r="Q117" t="str">
         <f t="shared" ca="1" si="135"/>
-        <v>01101101000111010101100110111101</v>
+        <v>11100110001111111011101010111010</v>
       </c>
       <c r="R117" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>6D1D59BD</v>
+        <v>E63FBABA</v>
       </c>
       <c r="S117" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>6D1D59BD</v>
+        <v>E63FBABA</v>
       </c>
       <c r="U117">
         <v>3</v>
@@ -13524,23 +13521,23 @@
       </c>
       <c r="W117" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>2325B46E</v>
+        <v>21A9153F</v>
       </c>
       <c r="X117" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>B34248A2</v>
+        <v>D4CBBEFB</v>
       </c>
       <c r="Y117" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>B34248A2</v>
+        <v>D4CBBEFB</v>
       </c>
       <c r="Z117" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>5E185CB7</v>
+        <v>B3677A5B</v>
       </c>
       <c r="AA117" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>C0CF3455</v>
+        <v>85705E20</v>
       </c>
       <c r="AB117" t="str">
         <f t="shared" ca="1" si="124"/>
@@ -13600,15 +13597,15 @@
       </c>
       <c r="Q118" t="str">
         <f t="shared" ca="1" si="135"/>
-        <v>01001011000100001111110110001011</v>
+        <v>01101001000101010001011001100101</v>
       </c>
       <c r="R118" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>4B10FD8B</v>
+        <v>69151665</v>
       </c>
       <c r="S118" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>4B10FD8B</v>
+        <v>69151665</v>
       </c>
       <c r="U118">
         <v>4</v>
@@ -13618,27 +13615,27 @@
       </c>
       <c r="W118" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>C1AD965D</v>
+        <v>C1E0DA24</v>
       </c>
       <c r="X118" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F0B38714</v>
+        <v>4019AED9</v>
       </c>
       <c r="Y118" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F0B38714</v>
+        <v>4019AED9</v>
       </c>
       <c r="Z118" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>B34248A2</v>
+        <v>D4CBBEFB</v>
       </c>
       <c r="AA118" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>D786172D</v>
+        <v>ECD9DE96</v>
       </c>
       <c r="AB118" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>C0CF3455</v>
+        <v>85705E20</v>
       </c>
       <c r="AC118" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
@@ -13694,15 +13691,15 @@
       </c>
       <c r="Q119" t="str">
         <f t="shared" ca="1" si="135"/>
-        <v>11000000001010101101010001000001</v>
+        <v>00100100100010110010101111101110</v>
       </c>
       <c r="R119" t="str">
         <f t="shared" ca="1" si="136"/>
-        <v>C02AD441</v>
+        <v>248B2BEE</v>
       </c>
       <c r="S119" t="str">
         <f t="shared" ca="1" si="118"/>
-        <v>C02AD441</v>
+        <v>248B2BEE</v>
       </c>
       <c r="U119">
         <v>5</v>
@@ -13712,31 +13709,31 @@
       </c>
       <c r="W119" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>D38F3475</v>
+        <v>C5F9DE92</v>
       </c>
       <c r="X119" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>C852F75B</v>
+        <v>0BE2F1AF</v>
       </c>
       <c r="Y119" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>C852F75B</v>
+        <v>0BE2F1AF</v>
       </c>
       <c r="Z119" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F0B38714</v>
+        <v>4019AED9</v>
       </c>
       <c r="AA119" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>ACD09228</v>
+        <v>F532EFBE</v>
       </c>
       <c r="AB119" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>D786172D</v>
+        <v>ECD9DE96</v>
       </c>
       <c r="AC119" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>C0CF3455</v>
+        <v>85705E20</v>
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.3">
@@ -13806,31 +13803,31 @@
       </c>
       <c r="W120" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>A7949229</v>
+        <v>ECD0FE9E</v>
       </c>
       <c r="X120" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>4D452B90</v>
+        <v>C9220C38</v>
       </c>
       <c r="Y120" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>4D452B90</v>
+        <v>C9220C38</v>
       </c>
       <c r="Z120" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>C852F75B</v>
+        <v>0BE2F1AF</v>
       </c>
       <c r="AA120" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>3C2CE1C5</v>
+        <v>50066BB6</v>
       </c>
       <c r="AB120" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>ACD09228</v>
+        <v>F532EFBE</v>
       </c>
       <c r="AC120" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>D786172D</v>
+        <v>ECD9DE96</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.3">
@@ -13900,31 +13897,31 @@
       </c>
       <c r="W121" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>2C80E161</v>
+        <v>F4126FB6</v>
       </c>
       <c r="X121" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>072EE430</v>
+        <v>5FB04EFE</v>
       </c>
       <c r="Y121" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>072EE430</v>
+        <v>5FB04EFE</v>
       </c>
       <c r="Z121" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>4D452B90</v>
+        <v>C9220C38</v>
       </c>
       <c r="AA121" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F214BDD6</v>
+        <v>C2F8BC6B</v>
       </c>
       <c r="AB121" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>3C2CE1C5</v>
+        <v>50066BB6</v>
       </c>
       <c r="AC121" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>ACD09228</v>
+        <v>F532EFBE</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.3">
@@ -13994,31 +13991,31 @@
       </c>
       <c r="W122" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>702CE9D5</v>
+        <v>D0246FAE</v>
       </c>
       <c r="X122" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>5D5C7B96</v>
+        <v>15E3B8D0</v>
       </c>
       <c r="Y122" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>5D5C7B96</v>
+        <v>15E3B8D0</v>
       </c>
       <c r="Z122" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>072EE430</v>
+        <v>5FB04EFE</v>
       </c>
       <c r="AA122" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>13514AE4</v>
+        <v>3248830E</v>
       </c>
       <c r="AB122" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F214BDD6</v>
+        <v>C2F8BC6B</v>
       </c>
       <c r="AC122" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>3C2CE1C5</v>
+        <v>50066BB6</v>
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.3">
@@ -14088,31 +14085,31 @@
       </c>
       <c r="W123" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>F31059E6</v>
+        <v>9248B20F</v>
       </c>
       <c r="X123" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>354F280F</v>
+        <v>F948B160</v>
       </c>
       <c r="Y123" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>354F280F</v>
+        <v>F948B160</v>
       </c>
       <c r="Z123" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>5D5C7B96</v>
+        <v>15E3B8D0</v>
       </c>
       <c r="AA123" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>01CBB90C</v>
+        <v>97EC13BF</v>
       </c>
       <c r="AB123" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>13514AE4</v>
+        <v>3248830E</v>
       </c>
       <c r="AC123" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F214BDD6</v>
+        <v>C2F8BC6B</v>
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.3">
@@ -14182,31 +14179,31 @@
       </c>
       <c r="W124" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>03493964</v>
+        <v>37E8139E</v>
       </c>
       <c r="X124" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F9C572B9</v>
+        <v>7E7975C1</v>
       </c>
       <c r="Y124" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F9C572B9</v>
+        <v>7E7975C1</v>
       </c>
       <c r="Z124" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>354F280F</v>
+        <v>F948B160</v>
       </c>
       <c r="AA124" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>97571EE5</v>
+        <v>0578EE34</v>
       </c>
       <c r="AB124" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>01CBB90C</v>
+        <v>97EC13BF</v>
       </c>
       <c r="AC124" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>13514AE4</v>
+        <v>3248830E</v>
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.3">
@@ -14276,31 +14273,31 @@
       </c>
       <c r="W125" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>15C79905</v>
+        <v>07ECA2BF</v>
       </c>
       <c r="X125" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>BC49B4C1</v>
+        <v>63E65795</v>
       </c>
       <c r="Y125" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>BC49B4C1</v>
+        <v>63E65795</v>
       </c>
       <c r="Z125" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F9C572B9</v>
+        <v>7E7975C1</v>
       </c>
       <c r="AA125" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>CD53CA03</v>
+        <v>3E522C58</v>
       </c>
       <c r="AB125" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>97571EE5</v>
+        <v>0578EE34</v>
       </c>
       <c r="AC125" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>01CBB90C</v>
+        <v>97EC13BF</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.3">
@@ -14370,31 +14367,31 @@
       </c>
       <c r="W126" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>CF534E45</v>
+        <v>3F50AE74</v>
       </c>
       <c r="X126" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>B4D81921</v>
+        <v>AE8A2E78</v>
       </c>
       <c r="Y126" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>B4D81921</v>
+        <v>AE8A2E78</v>
       </c>
       <c r="Z126" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>BC49B4C1</v>
+        <v>63E65795</v>
       </c>
       <c r="AA126" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>7E715CAE</v>
+        <v>5F9E5D70</v>
       </c>
       <c r="AB126" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>CD53CA03</v>
+        <v>3E522C58</v>
       </c>
       <c r="AC126" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>97571EE5</v>
+        <v>0578EE34</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.3">
@@ -14464,31 +14461,31 @@
       </c>
       <c r="W127" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>7D535E82</v>
+        <v>5F967D58</v>
       </c>
       <c r="X127" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>0A301B36</v>
+        <v>90D7B43A</v>
       </c>
       <c r="Y127" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>0A301B36</v>
+        <v>90D7B43A</v>
       </c>
       <c r="Z127" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>B4D81921</v>
+        <v>AE8A2E78</v>
       </c>
       <c r="AA127" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>6F126D30</v>
+        <v>58F995E5</v>
       </c>
       <c r="AB127" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>7E715CAE</v>
+        <v>5F9E5D70</v>
       </c>
       <c r="AC127" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>CD53CA03</v>
+        <v>3E522C58</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.3">
@@ -14558,31 +14555,31 @@
       </c>
       <c r="W128" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>6E314DAE</v>
+        <v>599C5560</v>
       </c>
       <c r="X128" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>DC0AF80B</v>
+        <v>0D6782A3</v>
       </c>
       <c r="Y128" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>DC0AF80B</v>
+        <v>0D6782A3</v>
       </c>
       <c r="Z128" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>0A301B36</v>
+        <v>90D7B43A</v>
       </c>
       <c r="AA128" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>6D360648</v>
+        <v>2BA28B9E</v>
       </c>
       <c r="AB128" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>6F126D30</v>
+        <v>58F995E5</v>
       </c>
       <c r="AC128" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>7E715CAE</v>
+        <v>5F9E5D70</v>
       </c>
     </row>
     <row r="129" spans="2:29" x14ac:dyDescent="0.3">
@@ -14652,31 +14649,31 @@
       </c>
       <c r="W129" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>6D326600</v>
+        <v>48AA81DF</v>
       </c>
       <c r="X129" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>C7853DC2</v>
+        <v>AFBBAD49</v>
       </c>
       <c r="Y129" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>C7853DC2</v>
+        <v>AFBBAD49</v>
       </c>
       <c r="Z129" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>DC0AF80B</v>
+        <v>0D6782A3</v>
       </c>
       <c r="AA129" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>828C06CD</v>
+        <v>A435ED0E</v>
       </c>
       <c r="AB129" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>6D360648</v>
+        <v>2BA28B9E</v>
       </c>
       <c r="AC129" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>6F126D30</v>
+        <v>58F995E5</v>
       </c>
     </row>
     <row r="130" spans="2:29" x14ac:dyDescent="0.3">
@@ -14746,35 +14743,35 @@
       </c>
       <c r="W130" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>A13C0649</v>
+        <v>26A5891E</v>
       </c>
       <c r="X130" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>5B78A80A</v>
+        <v>D1974471</v>
       </c>
       <c r="Y130" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>5B78A80A</v>
+        <v>D1974471</v>
       </c>
       <c r="Z130" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>C7853DC2</v>
+        <v>AFBBAD49</v>
       </c>
       <c r="AA130" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F702BE02</v>
+        <v>C359E0A8</v>
       </c>
       <c r="AB130" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>828C06CD</v>
+        <v>A435ED0E</v>
       </c>
       <c r="AC130" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>6D360648</v>
+        <v>2BA28B9E</v>
       </c>
     </row>
     <row r="131" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B131" s="63" t="s">
+      <c r="B131" s="61" t="s">
         <v>63</v>
       </c>
       <c r="C131" s="11" t="str">
@@ -14819,16 +14816,16 @@
         <f t="shared" ca="1" si="134"/>
         <v>56DD2C8C</v>
       </c>
-      <c r="Q131" s="63" t="s">
+      <c r="Q131" s="61" t="s">
         <v>63</v>
       </c>
       <c r="R131" s="11" t="str">
         <f t="shared" ref="R131:R194" ca="1" si="137">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(S128),HEX2DEC(S123)),_xlfn.BITXOR(HEX2DEC(S117),HEX2DEC(S115))),8)</f>
-        <v>6F06BAF8</v>
+        <v>F29F30CA</v>
       </c>
       <c r="S131" s="11" t="str">
         <f t="shared" ref="S131:S194" ca="1" si="138">DEC2HEX(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(R131),1),_xlfn.BITRSHIFT(HEX2DEC(R131),31)),4294967295),8)</f>
-        <v>DE0D75F0</v>
+        <v>E53E6195</v>
       </c>
       <c r="U131">
         <v>17</v>
@@ -14838,35 +14835,35 @@
       </c>
       <c r="W131" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>C7083E0F</v>
+        <v>831DE00E</v>
       </c>
       <c r="X131" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>DBE3352B</v>
+        <v>2169D514</v>
       </c>
       <c r="Y131" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>DBE3352B</v>
+        <v>2169D514</v>
       </c>
       <c r="Z131" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>5B78A80A</v>
+        <v>D1974471</v>
       </c>
       <c r="AA131" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>B1E14F70</v>
+        <v>6BEEEB52</v>
       </c>
       <c r="AB131" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F702BE02</v>
+        <v>C359E0A8</v>
       </c>
       <c r="AC131" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>828C06CD</v>
+        <v>A435ED0E</v>
       </c>
     </row>
     <row r="132" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B132" s="64"/>
+      <c r="B132" s="62"/>
       <c r="C132" t="str">
         <f ca="1">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D129),HEX2DEC(D124)),_xlfn.BITXOR(HEX2DEC(D118),HEX2DEC(D116))),8)</f>
         <v>FD148370</v>
@@ -14909,14 +14906,14 @@
         <f t="shared" ca="1" si="134"/>
         <v>710839EC</v>
       </c>
-      <c r="Q132" s="64"/>
+      <c r="Q132" s="62"/>
       <c r="R132" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>E2FB44F5</v>
+        <v>C7B0E7A5</v>
       </c>
       <c r="S132" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>C5F689EB</v>
+        <v>8F61CF4B</v>
       </c>
       <c r="U132">
         <v>18</v>
@@ -14926,35 +14923,35 @@
       </c>
       <c r="W132" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>B5621E00</v>
+        <v>43CEE0D8</v>
       </c>
       <c r="X132" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>D4CDCDCC</v>
+        <v>FF23B94E</v>
       </c>
       <c r="Y132" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>D4CDCDCC</v>
+        <v>FF23B94E</v>
       </c>
       <c r="Z132" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>DBE3352B</v>
+        <v>2169D514</v>
       </c>
       <c r="AA132" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>96DE2A02</v>
+        <v>7465D11C</v>
       </c>
       <c r="AB132" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>B1E14F70</v>
+        <v>6BEEEB52</v>
       </c>
       <c r="AC132" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F702BE02</v>
+        <v>C359E0A8</v>
       </c>
     </row>
     <row r="133" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B133" s="64"/>
+      <c r="B133" s="62"/>
       <c r="C133" t="str">
         <f t="shared" ref="C133:C194" ca="1" si="139">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(D130),HEX2DEC(D125)),_xlfn.BITXOR(HEX2DEC(D119),HEX2DEC(D117))),8)</f>
         <v>4071F3BA</v>
@@ -14997,14 +14994,14 @@
         <f t="shared" ca="1" si="134"/>
         <v>A0ECE362</v>
       </c>
-      <c r="Q133" s="64"/>
+      <c r="Q133" s="62"/>
       <c r="R133" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>AD378F5C</v>
+        <v>C2B493F4</v>
       </c>
       <c r="S133" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>5A6F1EB9</v>
+        <v>856927E9</v>
       </c>
       <c r="U133">
         <v>19</v>
@@ -15014,35 +15011,35 @@
       </c>
       <c r="W133" s="7" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>B2C26A52</v>
+        <v>6AE7FB56</v>
       </c>
       <c r="X133" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F8707A40</v>
+        <v>F2A4A75F</v>
       </c>
       <c r="Y133" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F8707A40</v>
+        <v>F2A4A75F</v>
       </c>
       <c r="Z133" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>D4CDCDCC</v>
+        <v>FF23B94E</v>
       </c>
       <c r="AA133" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F6F8CD4A</v>
+        <v>085A7545</v>
       </c>
       <c r="AB133" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>96DE2A02</v>
+        <v>7465D11C</v>
       </c>
       <c r="AC133" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>B1E14F70</v>
+        <v>6BEEEB52</v>
       </c>
     </row>
     <row r="134" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="64"/>
+      <c r="B134" s="62"/>
       <c r="C134" t="str">
         <f t="shared" ca="1" si="139"/>
         <v>0D1DE778</v>
@@ -15085,14 +15082,14 @@
         <f t="shared" ca="1" si="134"/>
         <v>01337874</v>
       </c>
-      <c r="Q134" s="64"/>
+      <c r="Q134" s="62"/>
       <c r="R134" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>151D887B</v>
+        <v>0C2B77F0</v>
       </c>
       <c r="S134" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>2A3B10F6</v>
+        <v>1856EFE0</v>
       </c>
       <c r="U134" s="12">
         <v>20</v>
@@ -15102,31 +15099,31 @@
       </c>
       <c r="W134" s="13" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>D6DAEF4A</v>
+        <v>08467154</v>
       </c>
       <c r="X134" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>1B891168</v>
+        <v>3BA3B21D</v>
       </c>
       <c r="Y134" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>1B891168</v>
+        <v>3BA3B21D</v>
       </c>
       <c r="Z134" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F8707A40</v>
+        <v>F2A4A75F</v>
       </c>
       <c r="AA134" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>35337373</v>
+        <v>BFC8EE53</v>
       </c>
       <c r="AB134" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F6F8CD4A</v>
+        <v>085A7545</v>
       </c>
       <c r="AC134" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>96DE2A02</v>
+        <v>7465D11C</v>
       </c>
     </row>
     <row r="135" spans="2:29" x14ac:dyDescent="0.3">
@@ -15180,11 +15177,11 @@
       </c>
       <c r="R135" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>05DC5DAA</v>
+        <v>ABEAE4A5</v>
       </c>
       <c r="S135" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>0BB8BB54</v>
+        <v>57D5C94B</v>
       </c>
       <c r="U135">
         <v>21</v>
@@ -15194,31 +15191,31 @@
       </c>
       <c r="W135" s="7" t="str">
         <f t="shared" ref="W135:W154" ca="1" si="141">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z134),HEX2DEC(AA134)),HEX2DEC(AB134)),8)</f>
-        <v>3BBBC479</v>
+        <v>45363C49</v>
       </c>
       <c r="X135" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>BE4EC273</v>
+        <v>F4C205F8</v>
       </c>
       <c r="Y135" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>BE4EC273</v>
+        <v>F4C205F8</v>
       </c>
       <c r="Z135" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>1B891168</v>
+        <v>3BA3B21D</v>
       </c>
       <c r="AA135" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>3E1C1E90</v>
+        <v>FCA929D7</v>
       </c>
       <c r="AB135" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>35337373</v>
+        <v>BFC8EE53</v>
       </c>
       <c r="AC135" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F6F8CD4A</v>
+        <v>085A7545</v>
       </c>
     </row>
     <row r="136" spans="2:29" x14ac:dyDescent="0.3">
@@ -15272,11 +15269,11 @@
       </c>
       <c r="R136" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>DA6F1EB9</v>
+        <v>056927E9</v>
       </c>
       <c r="S136" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>B4DE3D73</v>
+        <v>0AD24FD2</v>
       </c>
       <c r="U136">
         <v>22</v>
@@ -15286,31 +15283,31 @@
       </c>
       <c r="W136" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>10A67C8B</v>
+        <v>78C27599</v>
       </c>
       <c r="X136" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F52FC160</v>
+        <v>9309E56F</v>
       </c>
       <c r="Y136" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F52FC160</v>
+        <v>9309E56F</v>
       </c>
       <c r="Z136" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>BE4EC273</v>
+        <v>F4C205F8</v>
       </c>
       <c r="AA136" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>06E2445A</v>
+        <v>4EE8EC87</v>
       </c>
       <c r="AB136" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>3E1C1E90</v>
+        <v>FCA929D7</v>
       </c>
       <c r="AC136" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>35337373</v>
+        <v>BFC8EE53</v>
       </c>
     </row>
     <row r="137" spans="2:29" x14ac:dyDescent="0.3">
@@ -15364,11 +15361,11 @@
       </c>
       <c r="R137" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>2A3B10F6</v>
+        <v>1856EFE0</v>
       </c>
       <c r="S137" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>547621EC</v>
+        <v>30ADDFC0</v>
       </c>
       <c r="U137">
         <v>23</v>
@@ -15378,31 +15375,31 @@
       </c>
       <c r="W137" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>86B098B9</v>
+        <v>4683C0A8</v>
       </c>
       <c r="X137" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>252C45D7</v>
+        <v>0711284E</v>
       </c>
       <c r="Y137" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>252C45D7</v>
+        <v>0711284E</v>
       </c>
       <c r="Z137" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F52FC160</v>
+        <v>9309E56F</v>
       </c>
       <c r="AA137" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>EF93B09C</v>
+        <v>3D30817E</v>
       </c>
       <c r="AB137" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>06E2445A</v>
+        <v>4EE8EC87</v>
       </c>
       <c r="AC137" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>3E1C1E90</v>
+        <v>FCA929D7</v>
       </c>
     </row>
     <row r="138" spans="2:29" x14ac:dyDescent="0.3">
@@ -15456,11 +15453,11 @@
       </c>
       <c r="R138" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>0BB8B9F4</v>
+        <v>57D5CBEB</v>
       </c>
       <c r="S138" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>177173E8</v>
+        <v>AFAB97D6</v>
       </c>
       <c r="U138">
         <v>24</v>
@@ -15470,31 +15467,31 @@
       </c>
       <c r="W138" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>1C5E35A6</v>
+        <v>E0D18896</v>
       </c>
       <c r="X138" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>864E6EA3</v>
+        <v>DE253FA4</v>
       </c>
       <c r="Y138" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>864E6EA3</v>
+        <v>DE253FA4</v>
       </c>
       <c r="Z138" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>252C45D7</v>
+        <v>0711284E</v>
       </c>
       <c r="AA138" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>3D4BF058</v>
+        <v>E4C2795B</v>
       </c>
       <c r="AB138" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>EF93B09C</v>
+        <v>3D30817E</v>
       </c>
       <c r="AC138" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>06E2445A</v>
+        <v>4EE8EC87</v>
       </c>
     </row>
     <row r="139" spans="2:29" x14ac:dyDescent="0.3">
@@ -15548,11 +15545,11 @@
       </c>
       <c r="R139" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>6AD34883</v>
+        <v>EFEC2E47</v>
       </c>
       <c r="S139" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>D5A69106</v>
+        <v>DFD85C8F</v>
       </c>
       <c r="U139">
         <v>25</v>
@@ -15562,31 +15559,31 @@
       </c>
       <c r="W139" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>F7F40513</v>
+        <v>DEE3D06B</v>
       </c>
       <c r="X139" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>0D249A84</v>
+        <v>4126F9BD</v>
       </c>
       <c r="Y139" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>0D249A84</v>
+        <v>4126F9BD</v>
       </c>
       <c r="Z139" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>864E6EA3</v>
+        <v>DE253FA4</v>
       </c>
       <c r="AA139" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>C94B1175</v>
+        <v>81C44A13</v>
       </c>
       <c r="AB139" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>3D4BF058</v>
+        <v>E4C2795B</v>
       </c>
       <c r="AC139" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>EF93B09C</v>
+        <v>3D30817E</v>
       </c>
     </row>
     <row r="140" spans="2:29" x14ac:dyDescent="0.3">
@@ -15640,11 +15637,11 @@
       </c>
       <c r="R140" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>9180A807</v>
+        <v>BFCC108B</v>
       </c>
       <c r="S140" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>2301500F</v>
+        <v>7F982117</v>
       </c>
       <c r="U140">
         <v>26</v>
@@ -15654,31 +15651,31 @@
       </c>
       <c r="W140" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>724E8F8E</v>
+        <v>BB230CEC</v>
       </c>
       <c r="X140" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>9850CC5B</v>
+        <v>0BA4D2CA</v>
       </c>
       <c r="Y140" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>9850CC5B</v>
+        <v>0BA4D2CA</v>
       </c>
       <c r="Z140" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>0D249A84</v>
+        <v>4126F9BD</v>
       </c>
       <c r="AA140" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E1939BA8</v>
+        <v>37894FE9</v>
       </c>
       <c r="AB140" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>C94B1175</v>
+        <v>81C44A13</v>
       </c>
       <c r="AC140" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>3D4BF058</v>
+        <v>E4C2795B</v>
       </c>
     </row>
     <row r="141" spans="2:29" x14ac:dyDescent="0.3">
@@ -15732,11 +15729,11 @@
       </c>
       <c r="R141" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>4D1E6D51</v>
+        <v>2AC2B03F</v>
       </c>
       <c r="S141" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>9A3CDAA2</v>
+        <v>5585607E</v>
       </c>
       <c r="U141">
         <v>27</v>
@@ -15746,31 +15743,31 @@
       </c>
       <c r="W141" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>25FC1059</v>
+        <v>F76BFC47</v>
       </c>
       <c r="X141" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>76785267</v>
+        <v>15281B02</v>
       </c>
       <c r="Y141" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>76785267</v>
+        <v>15281B02</v>
       </c>
       <c r="Z141" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>9850CC5B</v>
+        <v>0BA4D2CA</v>
       </c>
       <c r="AA141" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>034926A1</v>
+        <v>5049BE6F</v>
       </c>
       <c r="AB141" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E1939BA8</v>
+        <v>37894FE9</v>
       </c>
       <c r="AC141" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>C94B1175</v>
+        <v>81C44A13</v>
       </c>
     </row>
     <row r="142" spans="2:29" x14ac:dyDescent="0.3">
@@ -15824,11 +15821,11 @@
       </c>
       <c r="R142" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>FF9D81F0</v>
+        <v>C78EB36F</v>
       </c>
       <c r="S142" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>FF3B03E1</v>
+        <v>8F1D66DF</v>
       </c>
       <c r="U142">
         <v>28</v>
@@ -15838,31 +15835,31 @@
       </c>
       <c r="W142" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>7A8A7152</v>
+        <v>6C64234C</v>
       </c>
       <c r="X142" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>80F4BF37</v>
+        <v>91232021</v>
       </c>
       <c r="Y142" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>80F4BF37</v>
+        <v>91232021</v>
       </c>
       <c r="Z142" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>76785267</v>
+        <v>15281B02</v>
       </c>
       <c r="AA142" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E6143316</v>
+        <v>82E934B2</v>
       </c>
       <c r="AB142" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>034926A1</v>
+        <v>5049BE6F</v>
       </c>
       <c r="AC142" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E1939BA8</v>
+        <v>37894FE9</v>
       </c>
     </row>
     <row r="143" spans="2:29" x14ac:dyDescent="0.3">
@@ -15916,11 +15913,11 @@
       </c>
       <c r="R143" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>28B9EB5B</v>
+        <v>284DE85C</v>
       </c>
       <c r="S143" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>5173D6B6</v>
+        <v>509BD0B8</v>
       </c>
       <c r="U143">
         <v>29</v>
@@ -15930,31 +15927,31 @@
       </c>
       <c r="W143" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>932547D0</v>
+        <v>C78891DF</v>
       </c>
       <c r="X143" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>539E8CBF</v>
+        <v>E2EBA253</v>
       </c>
       <c r="Y143" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>539E8CBF</v>
+        <v>E2EBA253</v>
       </c>
       <c r="Z143" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>80F4BF37</v>
+        <v>91232021</v>
       </c>
       <c r="AA143" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>DD9E1499</v>
+        <v>854A06C0</v>
       </c>
       <c r="AB143" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E6143316</v>
+        <v>82E934B2</v>
       </c>
       <c r="AC143" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>034926A1</v>
+        <v>5049BE6F</v>
       </c>
     </row>
     <row r="144" spans="2:29" x14ac:dyDescent="0.3">
@@ -16008,11 +16005,11 @@
       </c>
       <c r="R144" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>2EE2E571</v>
+        <v>5F572D0C</v>
       </c>
       <c r="S144" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>5DC5CAE2</v>
+        <v>BEAE5A18</v>
       </c>
       <c r="U144">
         <v>30</v>
@@ -16022,31 +16019,31 @@
       </c>
       <c r="W144" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>BB7E98B8</v>
+        <v>96801253</v>
       </c>
       <c r="X144" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>FF390DC6</v>
+        <v>71C660F7</v>
       </c>
       <c r="Y144" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>FF390DC6</v>
+        <v>71C660F7</v>
       </c>
       <c r="Z144" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>539E8CBF</v>
+        <v>E2EBA253</v>
       </c>
       <c r="AA144" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E03D2FCD</v>
+        <v>6448C808</v>
       </c>
       <c r="AB144" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>DD9E1499</v>
+        <v>854A06C0</v>
       </c>
       <c r="AC144" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E6143316</v>
+        <v>82E934B2</v>
       </c>
     </row>
     <row r="145" spans="2:29" x14ac:dyDescent="0.3">
@@ -16100,11 +16097,11 @@
       </c>
       <c r="R145" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>754057FD</v>
+        <v>5A8ED88A</v>
       </c>
       <c r="S145" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>EA80AFFA</v>
+        <v>B51DB114</v>
       </c>
       <c r="U145">
         <v>31</v>
@@ -16114,31 +16111,31 @@
       </c>
       <c r="W145" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>6E3DB7EB</v>
+        <v>03E96C9B</v>
       </c>
       <c r="X145" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>94CE3F7B</v>
+        <v>E3965CF0</v>
       </c>
       <c r="Y145" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>94CE3F7B</v>
+        <v>E3965CF0</v>
       </c>
       <c r="Z145" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>FF390DC6</v>
+        <v>71C660F7</v>
       </c>
       <c r="AA145" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>D4E7A32F</v>
+        <v>F8BAE894</v>
       </c>
       <c r="AB145" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E03D2FCD</v>
+        <v>6448C808</v>
       </c>
       <c r="AC145" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>DD9E1499</v>
+        <v>854A06C0</v>
       </c>
     </row>
     <row r="146" spans="2:29" x14ac:dyDescent="0.3">
@@ -16192,11 +16189,11 @@
       </c>
       <c r="R146" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>83F42E15</v>
+        <v>70518A85</v>
       </c>
       <c r="S146" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>07E85C2B</v>
+        <v>E0A3150A</v>
       </c>
       <c r="U146">
         <v>32</v>
@@ -16206,31 +16203,31 @@
       </c>
       <c r="W146" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>CBE38124</v>
+        <v>ED34406B</v>
       </c>
       <c r="X146" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>BA0BCCFB</v>
+        <v>34C6E5F2</v>
       </c>
       <c r="Y146" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>BA0BCCFB</v>
+        <v>34C6E5F2</v>
       </c>
       <c r="Z146" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>94CE3F7B</v>
+        <v>E3965CF0</v>
       </c>
       <c r="AA146" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>BFCE4371</v>
+        <v>DC71983D</v>
       </c>
       <c r="AB146" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>D4E7A32F</v>
+        <v>F8BAE894</v>
       </c>
       <c r="AC146" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E03D2FCD</v>
+        <v>6448C808</v>
       </c>
     </row>
     <row r="147" spans="2:29" x14ac:dyDescent="0.3">
@@ -16284,11 +16281,11 @@
       </c>
       <c r="R147" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>0C0130AD</v>
+        <v>012140EB</v>
       </c>
       <c r="S147" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>1802615A</v>
+        <v>024281D6</v>
       </c>
       <c r="U147">
         <v>33</v>
@@ -16298,31 +16295,31 @@
       </c>
       <c r="W147" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>FFE7DF25</v>
+        <v>C75D2C59</v>
       </c>
       <c r="X147" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>A87AFB64</v>
+        <v>359F201E</v>
       </c>
       <c r="Y147" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>A87AFB64</v>
+        <v>359F201E</v>
       </c>
       <c r="Z147" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>BA0BCCFB</v>
+        <v>34C6E5F2</v>
       </c>
       <c r="AA147" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E5338FDE</v>
+        <v>38E5973C</v>
       </c>
       <c r="AB147" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>BFCE4371</v>
+        <v>DC71983D</v>
       </c>
       <c r="AC147" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>D4E7A32F</v>
+        <v>F8BAE894</v>
       </c>
     </row>
     <row r="148" spans="2:29" x14ac:dyDescent="0.3">
@@ -16376,11 +16373,11 @@
       </c>
       <c r="R148" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>264C66E8</v>
+        <v>5DB2B0A8</v>
       </c>
       <c r="S148" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>4C98CDD0</v>
+        <v>BB656150</v>
       </c>
       <c r="U148">
         <v>34</v>
@@ -16390,31 +16387,31 @@
       </c>
       <c r="W148" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>E0F60054</v>
+        <v>D052EAF3</v>
       </c>
       <c r="X148" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>80AFC989</v>
+        <v>A731243E</v>
       </c>
       <c r="Y148" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>80AFC989</v>
+        <v>A731243E</v>
       </c>
       <c r="Z148" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>A87AFB64</v>
+        <v>359F201E</v>
       </c>
       <c r="AA148" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>EE82F33E</v>
+        <v>8D31B97C</v>
       </c>
       <c r="AB148" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E5338FDE</v>
+        <v>38E5973C</v>
       </c>
       <c r="AC148" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>BFCE4371</v>
+        <v>DC71983D</v>
       </c>
     </row>
     <row r="149" spans="2:29" x14ac:dyDescent="0.3">
@@ -16468,11 +16465,11 @@
       </c>
       <c r="R149" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>CC032364</v>
+        <v>679A9BD6</v>
       </c>
       <c r="S149" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>980646C9</v>
+        <v>CF3537AC</v>
       </c>
       <c r="U149">
         <v>35</v>
@@ -16482,31 +16479,31 @@
       </c>
       <c r="W149" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>A3CB8784</v>
+        <v>804B0E5E</v>
       </c>
       <c r="X149" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>80732E8F</v>
+        <v>80F051BC</v>
       </c>
       <c r="Y149" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>80732E8F</v>
+        <v>80F051BC</v>
       </c>
       <c r="Z149" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>80AFC989</v>
+        <v>A731243E</v>
       </c>
       <c r="AA149" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>2A1EBED9</v>
+        <v>8D67C807</v>
       </c>
       <c r="AB149" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>EE82F33E</v>
+        <v>8D31B97C</v>
       </c>
       <c r="AC149" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E5338FDE</v>
+        <v>38E5973C</v>
       </c>
     </row>
     <row r="150" spans="2:29" x14ac:dyDescent="0.3">
@@ -16560,11 +16557,11 @@
       </c>
       <c r="R150" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>79DC4F3E</v>
+        <v>9FDB473B</v>
       </c>
       <c r="S150" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>F3B89E7C</v>
+        <v>3FB68E77</v>
       </c>
       <c r="U150">
         <v>36</v>
@@ -16574,31 +16571,31 @@
       </c>
       <c r="W150" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>4433846E</v>
+        <v>A7675545</v>
       </c>
       <c r="X150" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>9A5F7059</v>
+        <v>ACE79E29</v>
       </c>
       <c r="Y150" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>9A5F7059</v>
+        <v>ACE79E29</v>
       </c>
       <c r="Z150" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>80732E8F</v>
+        <v>80F051BC</v>
       </c>
       <c r="AA150" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>602BF262</v>
+        <v>A9CC490F</v>
       </c>
       <c r="AB150" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>2A1EBED9</v>
+        <v>8D67C807</v>
       </c>
       <c r="AC150" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>EE82F33E</v>
+        <v>8D31B97C</v>
       </c>
     </row>
     <row r="151" spans="2:29" x14ac:dyDescent="0.3">
@@ -16652,11 +16649,11 @@
       </c>
       <c r="R151" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>422581DE</v>
+        <v>8C86A763</v>
       </c>
       <c r="S151" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>844B03BC</v>
+        <v>190D4EC7</v>
       </c>
       <c r="U151">
         <v>37</v>
@@ -16666,31 +16663,31 @@
       </c>
       <c r="W151" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>CA466234</v>
+        <v>A45BD0B4</v>
       </c>
       <c r="X151" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>F7DC5002</v>
+        <v>566889CD</v>
       </c>
       <c r="Y151" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>F7DC5002</v>
+        <v>566889CD</v>
       </c>
       <c r="Z151" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>9A5F7059</v>
+        <v>ACE79E29</v>
       </c>
       <c r="AA151" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E01CCBA3</v>
+        <v>203C146F</v>
       </c>
       <c r="AB151" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>602BF262</v>
+        <v>A9CC490F</v>
       </c>
       <c r="AC151" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>2A1EBED9</v>
+        <v>8D67C807</v>
       </c>
     </row>
     <row r="152" spans="2:29" x14ac:dyDescent="0.3">
@@ -16744,11 +16741,11 @@
       </c>
       <c r="R152" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>666CC2B0</v>
+        <v>D4E2B5B0</v>
       </c>
       <c r="S152" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>CCD98560</v>
+        <v>A9C56B61</v>
       </c>
       <c r="U152">
         <v>38</v>
@@ -16758,31 +16755,31 @@
       </c>
       <c r="W152" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>1A684998</v>
+        <v>2517C349</v>
       </c>
       <c r="X152" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>7BC479D0</v>
+        <v>98301BFC</v>
       </c>
       <c r="Y152" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>7BC479D0</v>
+        <v>98301BFC</v>
       </c>
       <c r="Z152" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>F7DC5002</v>
+        <v>566889CD</v>
       </c>
       <c r="AA152" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>6697DC16</v>
+        <v>6B39E78A</v>
       </c>
       <c r="AB152" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E01CCBA3</v>
+        <v>203C146F</v>
       </c>
       <c r="AC152" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>602BF262</v>
+        <v>A9CC490F</v>
       </c>
     </row>
     <row r="153" spans="2:29" x14ac:dyDescent="0.3">
@@ -16836,11 +16833,11 @@
       </c>
       <c r="R153" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>98E8816C</v>
+        <v>65DEBC2C</v>
       </c>
       <c r="S153" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>31D102D9</v>
+        <v>CBBD7858</v>
       </c>
       <c r="U153">
         <v>39</v>
@@ -16850,31 +16847,31 @@
       </c>
       <c r="W153" s="7" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>715747B7</v>
+        <v>1D6D7A28</v>
       </c>
       <c r="X153" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>EABD62A2</v>
+        <v>07D4A6C3</v>
       </c>
       <c r="Y153" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>EABD62A2</v>
+        <v>07D4A6C3</v>
       </c>
       <c r="Z153" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>7BC479D0</v>
+        <v>98301BFC</v>
       </c>
       <c r="AA153" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>BDF71400</v>
+        <v>559A2273</v>
       </c>
       <c r="AB153" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>6697DC16</v>
+        <v>6B39E78A</v>
       </c>
       <c r="AC153" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E01CCBA3</v>
+        <v>203C146F</v>
       </c>
     </row>
     <row r="154" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -16928,11 +16925,11 @@
       </c>
       <c r="R154" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>B7D37C70</v>
+        <v>299DED0C</v>
       </c>
       <c r="S154" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>6FA6F8E1</v>
+        <v>533BDA18</v>
       </c>
       <c r="U154" s="12">
         <v>40</v>
@@ -16942,31 +16939,31 @@
       </c>
       <c r="W154" s="13" t="str">
         <f t="shared" ca="1" si="141"/>
-        <v>A0A4B1C6</v>
+        <v>A693DE05</v>
       </c>
       <c r="X154" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>B6EEB648</v>
+        <v>837A908D</v>
       </c>
       <c r="Y154" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>B6EEB648</v>
+        <v>837A908D</v>
       </c>
       <c r="Z154" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>EABD62A2</v>
+        <v>07D4A6C3</v>
       </c>
       <c r="AA154" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1EF11E74</v>
+        <v>260C06FF</v>
       </c>
       <c r="AB154" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>BDF71400</v>
+        <v>559A2273</v>
       </c>
       <c r="AC154" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>6697DC16</v>
+        <v>6B39E78A</v>
       </c>
     </row>
     <row r="155" spans="2:29" x14ac:dyDescent="0.3">
@@ -17020,11 +17017,11 @@
       </c>
       <c r="R155" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>9B41AF9E</v>
+        <v>21DAD646</v>
       </c>
       <c r="S155" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>36835F3D</v>
+        <v>43B5AC8C</v>
       </c>
       <c r="U155">
         <v>41</v>
@@ -17034,31 +17031,31 @@
       </c>
       <c r="W155" s="7" t="str">
         <f t="shared" ref="W155:W174" ca="1" si="143">DEC2HEX(_xlfn.BITOR(_xlfn.BITOR(_xlfn.BITAND(HEX2DEC(Z154),HEX2DEC(AA154)),_xlfn.BITAND(HEX2DEC(Z154),HEX2DEC(AB154))),_xlfn.BITAND(HEX2DEC(AA154),HEX2DEC(AB154))),8)</f>
-        <v>BEF51620</v>
+        <v>079C26F3</v>
       </c>
       <c r="X155" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>C902D765</v>
+        <v>B4F98995</v>
       </c>
       <c r="Y155" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>C902D765</v>
+        <v>B4F98995</v>
       </c>
       <c r="Z155" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>B6EEB648</v>
+        <v>837A908D</v>
       </c>
       <c r="AA155" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>BAAF58A8</v>
+        <v>C1F529B0</v>
       </c>
       <c r="AB155" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1EF11E74</v>
+        <v>260C06FF</v>
       </c>
       <c r="AC155" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>BDF71400</v>
+        <v>559A2273</v>
       </c>
     </row>
     <row r="156" spans="2:29" x14ac:dyDescent="0.3">
@@ -17112,11 +17109,11 @@
       </c>
       <c r="R156" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>A1739CE7</v>
+        <v>805D5EC0</v>
       </c>
       <c r="S156" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>42E739CF</v>
+        <v>00BABD81</v>
       </c>
       <c r="U156">
         <v>42</v>
@@ -17126,31 +17123,31 @@
       </c>
       <c r="W156" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>BEEF1E68</v>
+        <v>837C00BD</v>
       </c>
       <c r="X156" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>6F4415CC</v>
+        <v>081DD043</v>
       </c>
       <c r="Y156" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>6F4415CC</v>
+        <v>081DD043</v>
       </c>
       <c r="Z156" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>C902D765</v>
+        <v>B4F98995</v>
       </c>
       <c r="AA156" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>2DBBAD92</v>
+        <v>60DEA423</v>
       </c>
       <c r="AB156" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>BAAF58A8</v>
+        <v>C1F529B0</v>
       </c>
       <c r="AC156" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1EF11E74</v>
+        <v>260C06FF</v>
       </c>
     </row>
     <row r="157" spans="2:29" x14ac:dyDescent="0.3">
@@ -17204,11 +17201,11 @@
       </c>
       <c r="R157" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>3CEFB23C</v>
+        <v>99105D72</v>
       </c>
       <c r="S157" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>79DF6478</v>
+        <v>3220BAE5</v>
       </c>
       <c r="U157">
         <v>43</v>
@@ -17218,31 +17215,31 @@
       </c>
       <c r="W157" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>A9ABDDA0</v>
+        <v>E0FDA9B1</v>
       </c>
       <c r="X157" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>BA1AD6F5</v>
+        <v>CC0030D2</v>
       </c>
       <c r="Y157" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>BA1AD6F5</v>
+        <v>CC0030D2</v>
       </c>
       <c r="Z157" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>6F4415CC</v>
+        <v>081DD043</v>
       </c>
       <c r="AA157" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>7240B5D9</v>
+        <v>6D3E6265</v>
       </c>
       <c r="AB157" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>2DBBAD92</v>
+        <v>60DEA423</v>
       </c>
       <c r="AC157" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>BAAF58A8</v>
+        <v>C1F529B0</v>
       </c>
     </row>
     <row r="158" spans="2:29" x14ac:dyDescent="0.3">
@@ -17296,11 +17293,11 @@
       </c>
       <c r="R158" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>67C50842</v>
+        <v>4DB01E3C</v>
       </c>
       <c r="S158" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>CF8A1084</v>
+        <v>9B603C78</v>
       </c>
       <c r="U158">
         <v>44</v>
@@ -17310,31 +17307,31 @@
       </c>
       <c r="W158" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>6F40B5D8</v>
+        <v>681EE063</v>
       </c>
       <c r="X158" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>CBF0BA97</v>
+        <v>D4961DC0</v>
       </c>
       <c r="Y158" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>CBF0BA97</v>
+        <v>D4961DC0</v>
       </c>
       <c r="Z158" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>BA1AD6F5</v>
+        <v>CC0030D2</v>
       </c>
       <c r="AA158" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1BD10573</v>
+        <v>C2077410</v>
       </c>
       <c r="AB158" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>7240B5D9</v>
+        <v>6D3E6265</v>
       </c>
       <c r="AC158" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>2DBBAD92</v>
+        <v>60DEA423</v>
       </c>
     </row>
     <row r="159" spans="2:29" x14ac:dyDescent="0.3">
@@ -17388,11 +17385,11 @@
       </c>
       <c r="R159" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>7D5F433F</v>
+        <v>FC3192EA</v>
       </c>
       <c r="S159" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>FABE867E</v>
+        <v>F86325D5</v>
       </c>
       <c r="U159">
         <v>45</v>
@@ -17402,31 +17399,31 @@
       </c>
       <c r="W159" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>3A5095F1</v>
+        <v>CC067050</v>
       </c>
       <c r="X159" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>6FFDD9D6</v>
+        <v>4727AF3E</v>
       </c>
       <c r="Y159" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>6FFDD9D6</v>
+        <v>4727AF3E</v>
       </c>
       <c r="Z159" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>CBF0BA97</v>
+        <v>D4961DC0</v>
       </c>
       <c r="AA159" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>6E86B5BD</v>
+        <v>B3000C34</v>
       </c>
       <c r="AB159" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1BD10573</v>
+        <v>C2077410</v>
       </c>
       <c r="AC159" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>7240B5D9</v>
+        <v>6D3E6265</v>
       </c>
     </row>
     <row r="160" spans="2:29" x14ac:dyDescent="0.3">
@@ -17480,11 +17477,11 @@
       </c>
       <c r="R160" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>EF2B77D1</v>
+        <v>C5E89E96</v>
       </c>
       <c r="S160" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>DE56EFA3</v>
+        <v>8BD13D2D</v>
       </c>
       <c r="U160">
         <v>46</v>
@@ -17494,31 +17491,31 @@
       </c>
       <c r="W160" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>4BD0B5B7</v>
+        <v>D2061C10</v>
       </c>
       <c r="X160" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>2B3F52DC</v>
+        <v>3F276046</v>
       </c>
       <c r="Y160" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>2B3F52DC</v>
+        <v>3F276046</v>
       </c>
       <c r="Z160" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>6FFDD9D6</v>
+        <v>4727AF3E</v>
       </c>
       <c r="AA160" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>F2FC2EA5</v>
+        <v>35258770</v>
       </c>
       <c r="AB160" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>6E86B5BD</v>
+        <v>B3000C34</v>
       </c>
       <c r="AC160" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1BD10573</v>
+        <v>C2077410</v>
       </c>
     </row>
     <row r="161" spans="2:29" x14ac:dyDescent="0.3">
@@ -17572,11 +17569,11 @@
       </c>
       <c r="R161" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>0CD9DCFD</v>
+        <v>E78274E2</v>
       </c>
       <c r="S161" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>19B3B9FA</v>
+        <v>CF04E9C5</v>
       </c>
       <c r="U161">
         <v>47</v>
@@ -17586,31 +17583,31 @@
       </c>
       <c r="W161" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>6EFCBDB5</v>
+        <v>37258F34</v>
       </c>
       <c r="X161" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>9B879583</v>
+        <v>3C39B2AC</v>
       </c>
       <c r="Y161" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>9B879583</v>
+        <v>3C39B2AC</v>
       </c>
       <c r="Z161" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>2B3F52DC</v>
+        <v>3F276046</v>
       </c>
       <c r="AA161" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>9BFF7675</v>
+        <v>91C9EBCF</v>
       </c>
       <c r="AB161" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>F2FC2EA5</v>
+        <v>35258770</v>
       </c>
       <c r="AC161" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>6E86B5BD</v>
+        <v>B3000C34</v>
       </c>
     </row>
     <row r="162" spans="2:29" x14ac:dyDescent="0.3">
@@ -17664,11 +17661,11 @@
       </c>
       <c r="R162" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>DE68EF64</v>
+        <v>F09E8B97</v>
       </c>
       <c r="S162" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>BCD1DEC9</v>
+        <v>E13D172F</v>
       </c>
       <c r="U162">
         <v>48</v>
@@ -17678,31 +17675,31 @@
       </c>
       <c r="W162" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>BBFF76F5</v>
+        <v>3525E346</v>
       </c>
       <c r="X162" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>E76678CA</v>
+        <v>DFB5190C</v>
       </c>
       <c r="Y162" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>E76678CA</v>
+        <v>DFB5190C</v>
       </c>
       <c r="Z162" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>9B879583</v>
+        <v>3C39B2AC</v>
       </c>
       <c r="AA162" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>0ACFD4B7</v>
+        <v>8FC9D811</v>
       </c>
       <c r="AB162" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>9BFF7675</v>
+        <v>91C9EBCF</v>
       </c>
       <c r="AC162" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>F2FC2EA5</v>
+        <v>35258770</v>
       </c>
     </row>
     <row r="163" spans="2:29" x14ac:dyDescent="0.3">
@@ -17756,11 +17753,11 @@
       </c>
       <c r="R163" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>68D1970D</v>
+        <v>051327DB</v>
       </c>
       <c r="S163" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>D1A32E1A</v>
+        <v>0A264FB6</v>
       </c>
       <c r="U163">
         <v>49</v>
@@ -17770,31 +17767,31 @@
       </c>
       <c r="W163" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>9BCFD4B7</v>
+        <v>9DC9FA8D</v>
       </c>
       <c r="X163" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>DC5A07AE</v>
+        <v>62D4B02A</v>
       </c>
       <c r="Y163" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>DC5A07AE</v>
+        <v>62D4B02A</v>
       </c>
       <c r="Z163" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>E76678CA</v>
+        <v>DFB5190C</v>
       </c>
       <c r="AA163" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E6E1E560</v>
+        <v>0F0E6CAB</v>
       </c>
       <c r="AB163" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>0ACFD4B7</v>
+        <v>8FC9D811</v>
       </c>
       <c r="AC163" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>9BFF7675</v>
+        <v>91C9EBCF</v>
       </c>
     </row>
     <row r="164" spans="2:29" x14ac:dyDescent="0.3">
@@ -17848,11 +17845,11 @@
       </c>
       <c r="R164" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>E474D399</v>
+        <v>4B6DBB63</v>
       </c>
       <c r="S164" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>C8E9A733</v>
+        <v>96DB76C6</v>
       </c>
       <c r="U164">
         <v>50</v>
@@ -17862,31 +17859,31 @@
       </c>
       <c r="W164" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>E6E7F4E2</v>
+        <v>8F8D5809</v>
       </c>
       <c r="X164" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>662DC541</v>
+        <v>A1E47CC6</v>
       </c>
       <c r="Y164" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>662DC541</v>
+        <v>A1E47CC6</v>
       </c>
       <c r="Z164" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>DC5A07AE</v>
+        <v>62D4B02A</v>
       </c>
       <c r="AA164" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>B9D99E32</v>
+        <v>37ED4643</v>
       </c>
       <c r="AB164" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E6E1E560</v>
+        <v>0F0E6CAB</v>
       </c>
       <c r="AC164" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>0ACFD4B7</v>
+        <v>8FC9D811</v>
       </c>
     </row>
     <row r="165" spans="2:29" x14ac:dyDescent="0.3">
@@ -17940,11 +17937,11 @@
       </c>
       <c r="R165" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>D943FFC4</v>
+        <v>0525D4A1</v>
       </c>
       <c r="S165" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>B287FF89</v>
+        <v>0A4BA942</v>
       </c>
       <c r="U165">
         <v>51</v>
@@ -17954,31 +17951,31 @@
       </c>
       <c r="W165" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>FCD98722</v>
+        <v>27CC642B</v>
       </c>
       <c r="X165" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>0F05C06A</v>
+        <v>8D8D3B2E</v>
       </c>
       <c r="Y165" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>0F05C06A</v>
+        <v>8D8D3B2E</v>
       </c>
       <c r="Z165" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>662DC541</v>
+        <v>A1E47CC6</v>
       </c>
       <c r="AA165" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>B71681EB</v>
+        <v>98B52C0A</v>
       </c>
       <c r="AB165" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>B9D99E32</v>
+        <v>37ED4643</v>
       </c>
       <c r="AC165" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E6E1E560</v>
+        <v>0F0E6CAB</v>
       </c>
     </row>
     <row r="166" spans="2:29" x14ac:dyDescent="0.3">
@@ -18032,11 +18029,11 @@
       </c>
       <c r="R166" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>21482582</v>
+        <v>073596D8</v>
       </c>
       <c r="S166" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>42904B04</v>
+        <v>0E6B2DB0</v>
       </c>
       <c r="U166">
         <v>52</v>
@@ -18046,31 +18043,31 @@
       </c>
       <c r="W166" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>B71D8563</v>
+        <v>B1E56C42</v>
       </c>
       <c r="X166" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>50637FE4</v>
+        <v>1022294A</v>
       </c>
       <c r="Y166" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>50637FE4</v>
+        <v>1022294A</v>
       </c>
       <c r="Z166" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>0F05C06A</v>
+        <v>8D8D3B2E</v>
       </c>
       <c r="AA166" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>598B7150</v>
+        <v>A8791F31</v>
       </c>
       <c r="AB166" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>B71681EB</v>
+        <v>98B52C0A</v>
       </c>
       <c r="AC166" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>B9D99E32</v>
+        <v>37ED4643</v>
       </c>
     </row>
     <row r="167" spans="2:29" x14ac:dyDescent="0.3">
@@ -18124,11 +18121,11 @@
       </c>
       <c r="R167" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>87CD2028</v>
+        <v>BC08658C</v>
       </c>
       <c r="S167" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>0F9A4051</v>
+        <v>7810CB19</v>
       </c>
       <c r="U167">
         <v>53</v>
@@ -18138,31 +18135,31 @@
       </c>
       <c r="W167" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>1F07C16A</v>
+        <v>88BD3F2A</v>
       </c>
       <c r="X167" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>84075953</v>
+        <v>CC1C36A4</v>
       </c>
       <c r="Y167" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>84075953</v>
+        <v>CC1C36A4</v>
       </c>
       <c r="Z167" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>50637FE4</v>
+        <v>1022294A</v>
       </c>
       <c r="AA167" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>83C1701A</v>
+        <v>A3634ECB</v>
       </c>
       <c r="AB167" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>598B7150</v>
+        <v>A8791F31</v>
       </c>
       <c r="AC167" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>B71681EB</v>
+        <v>98B52C0A</v>
       </c>
     </row>
     <row r="168" spans="2:29" x14ac:dyDescent="0.3">
@@ -18216,11 +18213,11 @@
       </c>
       <c r="R168" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>CFAE6DAB</v>
+        <v>7B642516</v>
       </c>
       <c r="S168" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>9F5CDB57</v>
+        <v>F6C84A2C</v>
       </c>
       <c r="U168">
         <v>54</v>
@@ -18230,31 +18227,31 @@
       </c>
       <c r="W168" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>51C37150</v>
+        <v>A0630F4B</v>
       </c>
       <c r="X168" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>B83DB5DE</v>
+        <v>428316F6</v>
       </c>
       <c r="Y168" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>B83DB5DE</v>
+        <v>428316F6</v>
       </c>
       <c r="Z168" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>84075953</v>
+        <v>CC1C36A4</v>
       </c>
       <c r="AA168" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>1418DFF9</v>
+        <v>84088A52</v>
       </c>
       <c r="AB168" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>83C1701A</v>
+        <v>A3634ECB</v>
       </c>
       <c r="AC168" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>598B7150</v>
+        <v>A8791F31</v>
       </c>
     </row>
     <row r="169" spans="2:29" x14ac:dyDescent="0.3">
@@ -18308,11 +18305,11 @@
       </c>
       <c r="R169" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>5C71AF1A</v>
+        <v>496710A1</v>
       </c>
       <c r="S169" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>B8E35E34</v>
+        <v>92CE2142</v>
       </c>
       <c r="U169">
         <v>55</v>
@@ -18322,31 +18319,31 @@
       </c>
       <c r="W169" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>8401595B</v>
+        <v>84080EC2</v>
       </c>
       <c r="X169" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>2D42A192</v>
+        <v>9ECDEAD9</v>
       </c>
       <c r="Y169" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>2D42A192</v>
+        <v>9ECDEAD9</v>
       </c>
       <c r="Z169" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>B83DB5DE</v>
+        <v>428316F6</v>
       </c>
       <c r="AA169" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E101D654</v>
+        <v>33070DA9</v>
       </c>
       <c r="AB169" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>1418DFF9</v>
+        <v>84088A52</v>
       </c>
       <c r="AC169" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>83C1701A</v>
+        <v>A3634ECB</v>
       </c>
     </row>
     <row r="170" spans="2:29" x14ac:dyDescent="0.3">
@@ -18400,11 +18397,11 @@
       </c>
       <c r="R170" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>9E0A5FB6</v>
+        <v>CAACBBAF</v>
       </c>
       <c r="S170" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>3C14BF6D</v>
+        <v>9559775F</v>
       </c>
       <c r="U170">
         <v>56</v>
@@ -18414,31 +18411,31 @@
       </c>
       <c r="W170" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>B019D7DC</v>
+        <v>02030EF2</v>
       </c>
       <c r="X170" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>A75FF684</v>
+        <v>A398ED2B</v>
       </c>
       <c r="Y170" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>A75FF684</v>
+        <v>A398ED2B</v>
       </c>
       <c r="Z170" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>2D42A192</v>
+        <v>9ECDEAD9</v>
       </c>
       <c r="AA170" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>AE0F6D77</v>
+        <v>90A0C5BD</v>
       </c>
       <c r="AB170" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>E101D654</v>
+        <v>33070DA9</v>
       </c>
       <c r="AC170" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>1418DFF9</v>
+        <v>84088A52</v>
       </c>
     </row>
     <row r="171" spans="2:29" x14ac:dyDescent="0.3">
@@ -18492,11 +18489,11 @@
       </c>
       <c r="R171" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>01A3CE08</v>
+        <v>8D7B13F3</v>
       </c>
       <c r="S171" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>03479C10</v>
+        <v>1AF627E7</v>
       </c>
       <c r="U171">
         <v>57</v>
@@ -18506,31 +18503,31 @@
       </c>
       <c r="W171" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>AD03E556</v>
+        <v>9285CDB9</v>
       </c>
       <c r="X171" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>3F7EEECF</v>
+        <v>33BDE242</v>
       </c>
       <c r="Y171" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>3F7EEECF</v>
+        <v>33BDE242</v>
       </c>
       <c r="Z171" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>A75FF684</v>
+        <v>A398ED2B</v>
       </c>
       <c r="AA171" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>8B50A864</v>
+        <v>67B37AB6</v>
       </c>
       <c r="AB171" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>AE0F6D77</v>
+        <v>90A0C5BD</v>
       </c>
       <c r="AC171" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>E101D654</v>
+        <v>33070DA9</v>
       </c>
     </row>
     <row r="172" spans="2:29" x14ac:dyDescent="0.3">
@@ -18584,11 +18581,11 @@
       </c>
       <c r="R172" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>FD67D04C</v>
+        <v>9FCFD67D</v>
       </c>
       <c r="S172" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>FACFA099</v>
+        <v>3F9FACFB</v>
       </c>
       <c r="U172">
         <v>58</v>
@@ -18598,31 +18595,31 @@
       </c>
       <c r="W172" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>AF5FEC64</v>
+        <v>A3B0EDBF</v>
       </c>
       <c r="X172" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>0A2AFA14</v>
+        <v>1D2FAD85</v>
       </c>
       <c r="Y172" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>0A2AFA14</v>
+        <v>1D2FAD85</v>
       </c>
       <c r="Z172" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>3F7EEECF</v>
+        <v>33BDE242</v>
       </c>
       <c r="AA172" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>29D7FDA1</v>
+        <v>E8E63B4A</v>
       </c>
       <c r="AB172" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>8B50A864</v>
+        <v>67B37AB6</v>
       </c>
       <c r="AC172" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>AE0F6D77</v>
+        <v>90A0C5BD</v>
       </c>
     </row>
     <row r="173" spans="2:29" x14ac:dyDescent="0.3">
@@ -18676,11 +18673,11 @@
       </c>
       <c r="R173" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>0DF2A2E2</v>
+        <v>5551412D</v>
       </c>
       <c r="S173" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>1BE545C4</v>
+        <v>AAA2825A</v>
       </c>
       <c r="U173">
         <v>59</v>
@@ -18690,31 +18687,31 @@
       </c>
       <c r="W173" s="7" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>2B56ECE5</v>
+        <v>63B77A42</v>
       </c>
       <c r="X173" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>C9C69F7D</v>
+        <v>D40C2FD8</v>
       </c>
       <c r="Y173" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>C9C69F7D</v>
+        <v>D40C2FD8</v>
       </c>
       <c r="Z173" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>0A2AFA14</v>
+        <v>1D2FAD85</v>
       </c>
       <c r="AA173" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>CFDFBBB3</v>
+        <v>8CEF7890</v>
       </c>
       <c r="AB173" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>29D7FDA1</v>
+        <v>E8E63B4A</v>
       </c>
       <c r="AC173" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>8B50A864</v>
+        <v>67B37AB6</v>
       </c>
     </row>
     <row r="174" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -18768,11 +18765,11 @@
       </c>
       <c r="R174" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>500B2833</v>
+        <v>042C0B02</v>
       </c>
       <c r="S174" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>A0165066</v>
+        <v>08581604</v>
       </c>
       <c r="U174" s="12">
         <v>60</v>
@@ -18782,31 +18779,31 @@
       </c>
       <c r="W174" s="13" t="str">
         <f t="shared" ca="1" si="143"/>
-        <v>0BDFFBB1</v>
+        <v>8CEF3980</v>
       </c>
       <c r="X174" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>FF36A110</v>
+        <v>0D9C8230</v>
       </c>
       <c r="Y174" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>FF36A110</v>
+        <v>0D9C8230</v>
       </c>
       <c r="Z174" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>C9C69F7D</v>
+        <v>D40C2FD8</v>
       </c>
       <c r="AA174" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>028ABE85</v>
+        <v>474BEB61</v>
       </c>
       <c r="AB174" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>CFDFBBB3</v>
+        <v>8CEF7890</v>
       </c>
       <c r="AC174" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>29D7FDA1</v>
+        <v>E8E63B4A</v>
       </c>
     </row>
     <row r="175" spans="2:29" x14ac:dyDescent="0.3">
@@ -18860,11 +18857,11 @@
       </c>
       <c r="R175" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>1658DF4C</v>
+        <v>70E8ABF2</v>
       </c>
       <c r="S175" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>2CB1BE98</v>
+        <v>E1D157E4</v>
       </c>
       <c r="U175">
         <v>61</v>
@@ -18874,31 +18871,31 @@
       </c>
       <c r="W175" s="7" t="str">
         <f t="shared" ref="W175:W194" ca="1" si="145">DEC2HEX(_xlfn.BITXOR(_xlfn.BITXOR(HEX2DEC(Z174),HEX2DEC(AA174)),HEX2DEC(AB174)),8)</f>
-        <v>04939A4B</v>
+        <v>1FA8BC29</v>
       </c>
       <c r="X175" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>0C543A79</v>
+        <v>6853572E</v>
       </c>
       <c r="Y175" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>0C543A79</v>
+        <v>6853572E</v>
       </c>
       <c r="Z175" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>FF36A110</v>
+        <v>0D9C8230</v>
       </c>
       <c r="AA175" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>7271A7DF</v>
+        <v>35030BF6</v>
       </c>
       <c r="AB175" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>028ABE85</v>
+        <v>474BEB61</v>
       </c>
       <c r="AC175" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>CFDFBBB3</v>
+        <v>8CEF7890</v>
       </c>
     </row>
     <row r="176" spans="2:29" x14ac:dyDescent="0.3">
@@ -18952,11 +18949,11 @@
       </c>
       <c r="R176" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>E63EAFF9</v>
+        <v>3686E274</v>
       </c>
       <c r="S176" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>CC7D5FF3</v>
+        <v>6D0DC4E8</v>
       </c>
       <c r="U176">
         <v>62</v>
@@ -18966,31 +18963,31 @@
       </c>
       <c r="W176" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>8FCDB84A</v>
+        <v>7FD462A7</v>
       </c>
       <c r="X176" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>8114E4E7</v>
+        <v>4E9F47C2</v>
       </c>
       <c r="Y176" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>8114E4E7</v>
+        <v>4E9F47C2</v>
       </c>
       <c r="Z176" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>0C543A79</v>
+        <v>6853572E</v>
       </c>
       <c r="AA176" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>3FCDA844</v>
+        <v>0367208C</v>
       </c>
       <c r="AB176" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>7271A7DF</v>
+        <v>35030BF6</v>
       </c>
       <c r="AC176" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>028ABE85</v>
+        <v>474BEB61</v>
       </c>
     </row>
     <row r="177" spans="2:29" x14ac:dyDescent="0.3">
@@ -19044,11 +19041,11 @@
       </c>
       <c r="R177" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>D0E599B2</v>
+        <v>5FB49135</v>
       </c>
       <c r="S177" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>A1CB3365</v>
+        <v>BF69226A</v>
       </c>
       <c r="U177">
         <v>63</v>
@@ -19058,31 +19055,31 @@
       </c>
       <c r="W177" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>41E835E2</v>
+        <v>5E377C54</v>
       </c>
       <c r="X177" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>D33D8692</v>
+        <v>0338443E</v>
       </c>
       <c r="Y177" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>D33D8692</v>
+        <v>0338443E</v>
       </c>
       <c r="Z177" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>8114E4E7</v>
+        <v>4E9F47C2</v>
       </c>
       <c r="AA177" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>43150E9E</v>
+        <v>9A14D5CB</v>
       </c>
       <c r="AB177" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>3FCDA844</v>
+        <v>0367208C</v>
       </c>
       <c r="AC177" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>7271A7DF</v>
+        <v>35030BF6</v>
       </c>
     </row>
     <row r="178" spans="2:29" x14ac:dyDescent="0.3">
@@ -19136,11 +19133,11 @@
       </c>
       <c r="R178" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>649D780F</v>
+        <v>036E4152</v>
       </c>
       <c r="S178" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>C93AF01E</v>
+        <v>06DC82A4</v>
       </c>
       <c r="U178">
         <v>64</v>
@@ -19150,31 +19147,31 @@
       </c>
       <c r="W178" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>FDCC423D</v>
+        <v>D7ECB285</v>
       </c>
       <c r="X178" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>6B8C6E6A</v>
+        <v>45378AB5</v>
       </c>
       <c r="Y178" s="7" t="str">
         <f t="shared" ca="1" si="121"/>
-        <v>6B8C6E6A</v>
+        <v>45378AB5</v>
       </c>
       <c r="Z178" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>D33D8692</v>
+        <v>0338443E</v>
       </c>
       <c r="AA178" t="str">
         <f t="shared" ca="1" si="123"/>
-        <v>E0453939</v>
+        <v>93A7D1F0</v>
       </c>
       <c r="AB178" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>43150E9E</v>
+        <v>9A14D5CB</v>
       </c>
       <c r="AC178" s="19" t="str">
         <f t="shared" ca="1" si="125"/>
-        <v>3FCDA844</v>
+        <v>0367208C</v>
       </c>
     </row>
     <row r="179" spans="2:29" x14ac:dyDescent="0.3">
@@ -19228,11 +19225,11 @@
       </c>
       <c r="R179" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>AC1E1270</v>
+        <v>779605FB</v>
       </c>
       <c r="S179" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>583C24E1</v>
+        <v>EF2C0BF6</v>
       </c>
       <c r="U179">
         <v>65</v>
@@ -19242,31 +19239,31 @@
       </c>
       <c r="W179" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>706DB135</v>
+        <v>0A8B4005</v>
       </c>
       <c r="X179" t="str">
         <f t="shared" ref="X179:X194" ca="1" si="148">DEC2HEX(MOD(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(HEX2DEC(Y178),5),_xlfn.BITRSHIFT(HEX2DEC(Y178),27)),4294967295)+HEX2DEC(W179)+HEX2DEC(AC178)+HEX2DEC(V179)+HEX2DEC(S179),4294967296),8)</f>
-        <v>44680D7D</v>
+        <v>6E728505</v>
       </c>
       <c r="Y179" s="7" t="str">
         <f t="shared" ref="Y179:Y194" ca="1" si="149">X179</f>
-        <v>44680D7D</v>
+        <v>6E728505</v>
       </c>
       <c r="Z179" t="str">
         <f t="shared" ref="Z179:Z194" ca="1" si="150">Y178</f>
-        <v>6B8C6E6A</v>
+        <v>45378AB5</v>
       </c>
       <c r="AA179" t="str">
         <f t="shared" ref="AA179:AA194" ca="1" si="151">DEC2HEX(_xlfn.BITAND(_xlfn.BITOR(_xlfn.BITLSHIFT(MOD(HEX2DEC(Z178),4),30),_xlfn.BITRSHIFT(HEX2DEC(Z178),2)),4294967295),8)</f>
-        <v>B4CF61A4</v>
+        <v>80CE110F</v>
       </c>
       <c r="AB179" t="str">
         <f t="shared" ref="AB179:AB194" ca="1" si="152">AA178</f>
-        <v>E0453939</v>
+        <v>93A7D1F0</v>
       </c>
       <c r="AC179" s="19" t="str">
         <f t="shared" ref="AC179:AC194" ca="1" si="153">AB178</f>
-        <v>43150E9E</v>
+        <v>9A14D5CB</v>
       </c>
     </row>
     <row r="180" spans="2:29" x14ac:dyDescent="0.3">
@@ -19320,11 +19317,11 @@
       </c>
       <c r="R180" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>D17D7FCB</v>
+        <v>1846D5E7</v>
       </c>
       <c r="S180" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>A2FAFF97</v>
+        <v>308DABCE</v>
       </c>
       <c r="U180">
         <v>66</v>
@@ -19334,31 +19331,31 @@
       </c>
       <c r="W180" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>3F0636F7</v>
+        <v>565E4A4A</v>
       </c>
       <c r="X180" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>7C7AB6AA</v>
+        <v>B9B42E66</v>
       </c>
       <c r="Y180" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>7C7AB6AA</v>
+        <v>B9B42E66</v>
       </c>
       <c r="Z180" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>44680D7D</v>
+        <v>6E728505</v>
       </c>
       <c r="AA180" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>9AE31B9A</v>
+        <v>514DE2AD</v>
       </c>
       <c r="AB180" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>B4CF61A4</v>
+        <v>80CE110F</v>
       </c>
       <c r="AC180" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>E0453939</v>
+        <v>93A7D1F0</v>
       </c>
     </row>
     <row r="181" spans="2:29" x14ac:dyDescent="0.3">
@@ -19412,11 +19409,11 @@
       </c>
       <c r="R181" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>6FC20A02</v>
+        <v>DE2562A5</v>
       </c>
       <c r="S181" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>DF841404</v>
+        <v>BC4AC54B</v>
       </c>
       <c r="U181">
         <v>67</v>
@@ -19426,31 +19423,31 @@
       </c>
       <c r="W181" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>6A447743</v>
+        <v>BFF176A7</v>
       </c>
       <c r="X181" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>83C75BA5</v>
+        <v>10CC9C8F</v>
       </c>
       <c r="Y181" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>83C75BA5</v>
+        <v>10CC9C8F</v>
       </c>
       <c r="Z181" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>7C7AB6AA</v>
+        <v>B9B42E66</v>
       </c>
       <c r="AA181" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>511A035F</v>
+        <v>5B9CA141</v>
       </c>
       <c r="AB181" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>9AE31B9A</v>
+        <v>514DE2AD</v>
       </c>
       <c r="AC181" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>B4CF61A4</v>
+        <v>80CE110F</v>
       </c>
     </row>
     <row r="182" spans="2:29" x14ac:dyDescent="0.3">
@@ -19504,11 +19501,11 @@
       </c>
       <c r="R182" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>25E6E4D4</v>
+        <v>1FD77A6E</v>
       </c>
       <c r="S182" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>4BCDC9A8</v>
+        <v>3FAEF4DC</v>
       </c>
       <c r="U182">
         <v>68</v>
@@ -19518,31 +19515,31 @@
       </c>
       <c r="W182" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>B783AE6F</v>
+        <v>B3656D8A</v>
       </c>
       <c r="X182" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>FB6F1041</v>
+        <v>57D8C72D</v>
       </c>
       <c r="Y182" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>FB6F1041</v>
+        <v>57D8C72D</v>
       </c>
       <c r="Z182" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>83C75BA5</v>
+        <v>10CC9C8F</v>
       </c>
       <c r="AA182" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>9F1EADAA</v>
+        <v>AE6D0B99</v>
       </c>
       <c r="AB182" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>511A035F</v>
+        <v>5B9CA141</v>
       </c>
       <c r="AC182" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>9AE31B9A</v>
+        <v>514DE2AD</v>
       </c>
     </row>
     <row r="183" spans="2:29" x14ac:dyDescent="0.3">
@@ -19596,11 +19593,11 @@
       </c>
       <c r="R183" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>39325F6A</v>
+        <v>3B821671</v>
       </c>
       <c r="S183" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>7264BED4</v>
+        <v>77042CE2</v>
       </c>
       <c r="U183">
         <v>69</v>
@@ -19610,31 +19607,31 @@
       </c>
       <c r="W183" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>4DC3F550</v>
+        <v>E53D3657</v>
       </c>
       <c r="X183" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>935099D3</v>
+        <v>730AED66</v>
       </c>
       <c r="Y183" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>935099D3</v>
+        <v>730AED66</v>
       </c>
       <c r="Z183" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>FB6F1041</v>
+        <v>57D8C72D</v>
       </c>
       <c r="AA183" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>60F1D6E9</v>
+        <v>C4332723</v>
       </c>
       <c r="AB183" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>9F1EADAA</v>
+        <v>AE6D0B99</v>
       </c>
       <c r="AC183" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>511A035F</v>
+        <v>5B9CA141</v>
       </c>
     </row>
     <row r="184" spans="2:29" x14ac:dyDescent="0.3">
@@ -19688,11 +19685,11 @@
       </c>
       <c r="R184" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>B0B12FCD</v>
+        <v>B2D63CD0</v>
       </c>
       <c r="S184" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>61625F9B</v>
+        <v>65AC79A1</v>
       </c>
       <c r="U184">
         <v>70</v>
@@ -19702,31 +19699,31 @@
       </c>
       <c r="W184" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>04806B02</v>
+        <v>3D86EB97</v>
       </c>
       <c r="X184" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>EB72CA44</v>
+        <v>2A90751D</v>
       </c>
       <c r="Y184" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>EB72CA44</v>
+        <v>2A90751D</v>
       </c>
       <c r="Z184" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>935099D3</v>
+        <v>730AED66</v>
       </c>
       <c r="AA184" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>7EDBC410</v>
+        <v>55F631CB</v>
       </c>
       <c r="AB184" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>60F1D6E9</v>
+        <v>C4332723</v>
       </c>
       <c r="AC184" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>9F1EADAA</v>
+        <v>AE6D0B99</v>
       </c>
     </row>
     <row r="185" spans="2:29" x14ac:dyDescent="0.3">
@@ -19780,11 +19777,11 @@
       </c>
       <c r="R185" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>51A238E9</v>
+        <v>08FFD013</v>
       </c>
       <c r="S185" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>A34471D2</v>
+        <v>11FFA026</v>
       </c>
       <c r="U185">
         <v>71</v>
@@ -19794,31 +19791,31 @@
       </c>
       <c r="W185" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>8D7A8B2A</v>
+        <v>E2CFFB8E</v>
       </c>
       <c r="X185" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>0899B519</v>
+        <v>BFAE0CC8</v>
       </c>
       <c r="Y185" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>0899B519</v>
+        <v>BFAE0CC8</v>
       </c>
       <c r="Z185" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>EB72CA44</v>
+        <v>2A90751D</v>
       </c>
       <c r="AA185" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>E4D42674</v>
+        <v>9CC2BB59</v>
       </c>
       <c r="AB185" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>7EDBC410</v>
+        <v>55F631CB</v>
       </c>
       <c r="AC185" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>60F1D6E9</v>
+        <v>C4332723</v>
       </c>
     </row>
     <row r="186" spans="2:29" x14ac:dyDescent="0.3">
@@ -19872,11 +19869,11 @@
       </c>
       <c r="R186" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>7D85513E</v>
+        <v>DB1E75E2</v>
       </c>
       <c r="S186" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>FB0AA27C</v>
+        <v>B63CEBC5</v>
       </c>
       <c r="U186">
         <v>72</v>
@@ -19886,31 +19883,31 @@
       </c>
       <c r="W186" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>717D2820</v>
+        <v>E3A4FF8F</v>
       </c>
       <c r="X186" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>AB13067C</v>
+        <v>1E396D64</v>
       </c>
       <c r="Y186" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>AB13067C</v>
+        <v>1E396D64</v>
       </c>
       <c r="Z186" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>0899B519</v>
+        <v>BFAE0CC8</v>
       </c>
       <c r="AA186" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>3ADCB291</v>
+        <v>4AA41D47</v>
       </c>
       <c r="AB186" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>E4D42674</v>
+        <v>9CC2BB59</v>
       </c>
       <c r="AC186" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>7EDBC410</v>
+        <v>55F631CB</v>
       </c>
     </row>
     <row r="187" spans="2:29" x14ac:dyDescent="0.3">
@@ -19964,11 +19961,11 @@
       </c>
       <c r="R187" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>21FCA2AE</v>
+        <v>3AD4D7EA</v>
       </c>
       <c r="S187" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>43F9455C</v>
+        <v>75A9AFD4</v>
       </c>
       <c r="U187">
         <v>73</v>
@@ -19978,31 +19975,31 @@
       </c>
       <c r="W187" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>D69121FC</v>
+        <v>69C8AAD6</v>
       </c>
       <c r="X187" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>C629BCD3</v>
+        <v>C6F8FACE</v>
       </c>
       <c r="Y187" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>C629BCD3</v>
+        <v>C6F8FACE</v>
       </c>
       <c r="Z187" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>AB13067C</v>
+        <v>1E396D64</v>
       </c>
       <c r="AA187" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>42266D46</v>
+        <v>2FEB8332</v>
       </c>
       <c r="AB187" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>3ADCB291</v>
+        <v>4AA41D47</v>
       </c>
       <c r="AC187" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>E4D42674</v>
+        <v>9CC2BB59</v>
       </c>
     </row>
     <row r="188" spans="2:29" x14ac:dyDescent="0.3">
@@ -20056,11 +20053,11 @@
       </c>
       <c r="R188" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>5B677EBA</v>
+        <v>16B5B117</v>
       </c>
       <c r="S188" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>B6CEFD74</v>
+        <v>2D6B622E</v>
       </c>
       <c r="U188">
         <v>74</v>
@@ -20070,31 +20067,31 @@
       </c>
       <c r="W188" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>D3E9D9AB</v>
+        <v>7B76F311</v>
       </c>
       <c r="X188" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>FF2759E1</v>
+        <v>EF272C46</v>
       </c>
       <c r="Y188" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>FF2759E1</v>
+        <v>EF272C46</v>
       </c>
       <c r="Z188" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>C629BCD3</v>
+        <v>C6F8FACE</v>
       </c>
       <c r="AA188" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>2AC4C19F</v>
+        <v>078E5B59</v>
       </c>
       <c r="AB188" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>42266D46</v>
+        <v>2FEB8332</v>
       </c>
       <c r="AC188" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>3ADCB291</v>
+        <v>4AA41D47</v>
       </c>
     </row>
     <row r="189" spans="2:29" x14ac:dyDescent="0.3">
@@ -20148,11 +20145,11 @@
       </c>
       <c r="R189" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>13DA4D24</v>
+        <v>4105FB30</v>
       </c>
       <c r="S189" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>27B49A48</v>
+        <v>820BF660</v>
       </c>
       <c r="U189">
         <v>75</v>
@@ -20162,31 +20159,31 @@
       </c>
       <c r="W189" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>AECB100A</v>
+        <v>EE9D22A5</v>
       </c>
       <c r="X189" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>C0AA5AF8</v>
+        <v>6A9580FF</v>
       </c>
       <c r="Y189" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>C0AA5AF8</v>
+        <v>6A9580FF</v>
       </c>
       <c r="Z189" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>FF2759E1</v>
+        <v>EF272C46</v>
       </c>
       <c r="AA189" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>F18A6F34</v>
+        <v>B1BE3EB3</v>
       </c>
       <c r="AB189" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>2AC4C19F</v>
+        <v>078E5B59</v>
       </c>
       <c r="AC189" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>42266D46</v>
+        <v>2FEB8332</v>
       </c>
     </row>
     <row r="190" spans="2:29" x14ac:dyDescent="0.3">
@@ -20240,11 +20237,11 @@
       </c>
       <c r="R190" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>645F8361</v>
+        <v>2F5289E4</v>
       </c>
       <c r="S190" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>C8BF06C2</v>
+        <v>5EA513C8</v>
       </c>
       <c r="U190">
         <v>76</v>
@@ -20254,31 +20251,31 @@
       </c>
       <c r="W190" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>2469F74A</v>
+        <v>591749AC</v>
       </c>
       <c r="X190" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>0EFD8C40</v>
+        <v>04BAC269</v>
       </c>
       <c r="Y190" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>0EFD8C40</v>
+        <v>04BAC269</v>
       </c>
       <c r="Z190" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>C0AA5AF8</v>
+        <v>6A9580FF</v>
       </c>
       <c r="AA190" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>7FC9D678</v>
+        <v>BBC9CB11</v>
       </c>
       <c r="AB190" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>F18A6F34</v>
+        <v>B1BE3EB3</v>
       </c>
       <c r="AC190" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>2AC4C19F</v>
+        <v>078E5B59</v>
       </c>
     </row>
     <row r="191" spans="2:29" x14ac:dyDescent="0.3">
@@ -20332,11 +20329,11 @@
       </c>
       <c r="R191" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>49D0CE5D</v>
+        <v>04D73B42</v>
       </c>
       <c r="S191" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>93A19CBA</v>
+        <v>09AE7684</v>
       </c>
       <c r="U191">
         <v>77</v>
@@ -20346,31 +20343,31 @@
       </c>
       <c r="W191" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>4EE9E3B4</v>
+        <v>60E2755D</v>
       </c>
       <c r="X191" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>B7648BE4</v>
+        <v>D3DA5630</v>
       </c>
       <c r="Y191" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>B7648BE4</v>
+        <v>D3DA5630</v>
       </c>
       <c r="Z191" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>0EFD8C40</v>
+        <v>04BAC269</v>
       </c>
       <c r="AA191" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>302A96BE</v>
+        <v>DAA5603F</v>
       </c>
       <c r="AB191" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>7FC9D678</v>
+        <v>BBC9CB11</v>
       </c>
       <c r="AC191" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>F18A6F34</v>
+        <v>B1BE3EB3</v>
       </c>
     </row>
     <row r="192" spans="2:29" x14ac:dyDescent="0.3">
@@ -20424,11 +20421,11 @@
       </c>
       <c r="R192" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>43916A3E</v>
+        <v>8C76C98D</v>
       </c>
       <c r="S192" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>8722D47C</v>
+        <v>18ED931B</v>
       </c>
       <c r="U192">
         <v>78</v>
@@ -20438,31 +20435,31 @@
       </c>
       <c r="W192" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>411ECC86</v>
+        <v>65D66947</v>
       </c>
       <c r="X192" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>70C04EA2</v>
+        <v>762FC305</v>
       </c>
       <c r="Y192" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>70C04EA2</v>
+        <v>762FC305</v>
       </c>
       <c r="Z192" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>B7648BE4</v>
+        <v>D3DA5630</v>
       </c>
       <c r="AA192" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>03BF6310</v>
+        <v>412EB09A</v>
       </c>
       <c r="AB192" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>302A96BE</v>
+        <v>DAA5603F</v>
       </c>
       <c r="AC192" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>7FC9D678</v>
+        <v>BBC9CB11</v>
       </c>
     </row>
     <row r="193" spans="2:29" x14ac:dyDescent="0.3">
@@ -20516,11 +20513,11 @@
       </c>
       <c r="R193" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>920C6094</v>
+        <v>1F1F9A72</v>
       </c>
       <c r="S193" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>2418C129</v>
+        <v>3E3F34E4</v>
       </c>
       <c r="U193">
         <v>79</v>
@@ -20530,31 +20527,31 @@
       </c>
       <c r="W193" s="7" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>84F17E4A</v>
+        <v>48518695</v>
       </c>
       <c r="X193" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>0B40AC0F</v>
+        <v>D2B5A90E</v>
       </c>
       <c r="Y193" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>0B40AC0F</v>
+        <v>D2B5A90E</v>
       </c>
       <c r="Z193" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>70C04EA2</v>
+        <v>762FC305</v>
       </c>
       <c r="AA193" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>2DD922F9</v>
+        <v>34F6958C</v>
       </c>
       <c r="AB193" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>03BF6310</v>
+        <v>412EB09A</v>
       </c>
       <c r="AC193" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>302A96BE</v>
+        <v>DAA5603F</v>
       </c>
     </row>
     <row r="194" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -20608,11 +20605,11 @@
       </c>
       <c r="R194" t="str">
         <f t="shared" ca="1" si="137"/>
-        <v>036B314F</v>
+        <v>89C3B42B</v>
       </c>
       <c r="S194" t="str">
         <f t="shared" ca="1" si="138"/>
-        <v>06D6629E</v>
+        <v>13876857</v>
       </c>
       <c r="U194" s="12">
         <v>80</v>
@@ -20622,31 +20619,31 @@
       </c>
       <c r="W194" s="13" t="str">
         <f t="shared" ca="1" si="145"/>
-        <v>5EA60F4B</v>
+        <v>03F7E613</v>
       </c>
       <c r="X194" s="12" t="str">
         <f t="shared" ca="1" si="148"/>
-        <v>C81F4C5E</v>
+        <v>133C9259</v>
       </c>
       <c r="Y194" s="7" t="str">
         <f t="shared" ca="1" si="149"/>
-        <v>C81F4C5E</v>
+        <v>133C9259</v>
       </c>
       <c r="Z194" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>0B40AC0F</v>
+        <v>D2B5A90E</v>
       </c>
       <c r="AA194" t="str">
         <f t="shared" ca="1" si="151"/>
-        <v>9C3013A8</v>
+        <v>5D8BF0C1</v>
       </c>
       <c r="AB194" t="str">
         <f t="shared" ca="1" si="152"/>
-        <v>2DD922F9</v>
+        <v>34F6958C</v>
       </c>
       <c r="AC194" s="19" t="str">
         <f t="shared" ca="1" si="153"/>
-        <v>03BF6310</v>
+        <v>412EB09A</v>
       </c>
     </row>
     <row r="195" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -20678,23 +20675,23 @@
       </c>
       <c r="Y195" s="21" t="str">
         <f t="shared" ref="Y195:AC195" ca="1" si="160">DEC2HEX(_xlfn.BITAND(HEX2DEC(Y194)+HEX2DEC(Y114),4294967295),8)</f>
-        <v>D6B59619</v>
+        <v>21D2DC14</v>
       </c>
       <c r="Z195" s="22" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>8FE64103</v>
+        <v>575B3E02</v>
       </c>
       <c r="AA195" s="22" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>A1A13D9B</v>
+        <v>62FD1AB4</v>
       </c>
       <c r="AB195" s="22" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>1E87C040</v>
+        <v>25A532D3</v>
       </c>
       <c r="AC195" s="6" t="str">
         <f t="shared" ca="1" si="160"/>
-        <v>63699635</v>
+        <v>A0D8E3BF</v>
       </c>
     </row>
     <row r="196" spans="2:29" x14ac:dyDescent="0.3">
@@ -20704,7 +20701,7 @@
       </c>
       <c r="Y196" t="str">
         <f ca="1">Y195&amp;Z195&amp;AA195&amp;AB195&amp;AC195</f>
-        <v>D6B596198FE64103A1A13D9B1E87C04063699635</v>
+        <v>21D2DC14575B3E0262FD1AB425A532D3A0D8E3BF</v>
       </c>
     </row>
   </sheetData>
